--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -64,9 +64,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>Module Table</t>
-  </si>
-  <si>
     <t>emailID</t>
   </si>
   <si>
@@ -301,15 +298,9 @@
     <t>ID(PK)</t>
   </si>
   <si>
-    <t>StudentPhone Table</t>
-  </si>
-  <si>
     <t>studentID (FK)</t>
   </si>
   <si>
-    <t>FacultyPhone Table</t>
-  </si>
-  <si>
     <t>Oracle</t>
   </si>
   <si>
@@ -556,13 +547,31 @@
     <t>West Virginia</t>
   </si>
   <si>
-    <t>31-09-2016</t>
-  </si>
-  <si>
-    <t>31-09-2018</t>
-  </si>
-  <si>
-    <t>31-11-2018</t>
+    <t>facultyID (FK)</t>
+  </si>
+  <si>
+    <t>Student_Phone Table</t>
+  </si>
+  <si>
+    <t>Student_Address Table</t>
+  </si>
+  <si>
+    <t>Faculty_Phone Table</t>
+  </si>
+  <si>
+    <t>Faculty_Address Table</t>
+  </si>
+  <si>
+    <t>Faculty_Qualification Table</t>
+  </si>
+  <si>
+    <t>facultyID(FK)</t>
+  </si>
+  <si>
+    <t>Modules Table</t>
+  </si>
+  <si>
+    <t>Po Box 77, Linking Road, UK</t>
   </si>
 </sst>
 </file>
@@ -572,7 +581,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -664,7 +673,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,13 +749,28 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U29"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -1043,12 +1067,12 @@
     <col min="2" max="2" width="3.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.42578125" style="6" customWidth="1"/>
@@ -1056,7 +1080,7 @@
     <col min="15" max="15" width="4.5703125" style="6" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="43.28515625" style="6" customWidth="1"/>
@@ -1065,11 +1089,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="5"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
@@ -1116,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>11</v>
@@ -1137,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>11</v>
@@ -1151,22 +1175,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11">
         <v>6</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="J6" s="16">
         <v>30845</v>
@@ -1179,16 +1203,16 @@
         <v>7032300034</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="11">
         <v>1</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R6" s="16">
         <v>27192</v>
@@ -1201,7 +1225,7 @@
         <v>7832304023</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -1209,22 +1233,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11">
         <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="11">
         <v>2</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="J7" s="16">
         <v>25501</v>
@@ -1237,16 +1261,16 @@
         <v>7032300039</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="11">
         <v>2</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R7" s="16">
         <v>26597</v>
@@ -1259,7 +1283,7 @@
         <v>4532306484</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -1267,22 +1291,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="11">
         <v>3</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="J8" s="16">
         <v>25866</v>
@@ -1295,16 +1319,16 @@
         <v>7032300050</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" s="11">
         <v>3</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R8" s="16">
         <v>26231</v>
@@ -1317,7 +1341,7 @@
         <v>8932309811</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -1325,22 +1349,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11">
         <v>3</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="11">
         <v>4</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="J9" s="16">
         <v>30255</v>
@@ -1353,16 +1377,16 @@
         <v>7032300027</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="11">
         <v>4</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R9" s="16">
         <v>26603</v>
@@ -1375,7 +1399,7 @@
         <v>6532307366</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -1383,22 +1407,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11">
         <v>3</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="11">
         <v>5</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="16">
         <v>30693</v>
@@ -1411,7 +1435,7 @@
         <v>7032300001</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T10" s="1"/>
     </row>
@@ -1424,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="16">
         <v>29556</v>
@@ -1440,7 +1464,7 @@
         <v>7032300079</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -1452,10 +1476,10 @@
         <v>7</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="16">
         <v>31760</v>
@@ -1468,7 +1492,7 @@
         <v>7032300081</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -1480,10 +1504,10 @@
         <v>8</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="16">
         <v>31045</v>
@@ -1496,7 +1520,7 @@
         <v>7032300054</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -1508,10 +1532,10 @@
         <v>9</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="J14" s="16">
         <v>33903</v>
@@ -1524,7 +1548,7 @@
         <v>7032300059</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -1536,10 +1560,10 @@
         <v>10</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="16">
         <v>33172</v>
@@ -1552,7 +1576,7 @@
         <v>7032300086</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -1564,10 +1588,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="J16" s="16">
         <v>27697</v>
@@ -1580,7 +1604,7 @@
         <v>7032300082</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -1592,10 +1616,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="16">
         <v>31746</v>
@@ -1608,7 +1632,7 @@
         <v>7032300042</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -1620,10 +1644,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J18" s="16">
         <v>29921</v>
@@ -1636,7 +1660,7 @@
         <v>7032300055</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -1648,10 +1672,10 @@
         <v>14</v>
       </c>
       <c r="H19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="J19" s="16">
         <v>30665</v>
@@ -1664,7 +1688,7 @@
         <v>7032300013</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -1676,10 +1700,10 @@
         <v>15</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="16">
         <v>32141</v>
@@ -1692,7 +1716,7 @@
         <v>7032300099</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -1704,10 +1728,10 @@
         <v>16</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="16">
         <v>33208</v>
@@ -1720,7 +1744,7 @@
         <v>7032300023</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -1732,10 +1756,10 @@
         <v>17</v>
       </c>
       <c r="H22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="J22" s="16">
         <v>32807</v>
@@ -1748,7 +1772,7 @@
         <v>7032300084</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -1760,10 +1784,10 @@
         <v>18</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J23" s="16">
         <v>30114</v>
@@ -1776,7 +1800,7 @@
         <v>7032300011</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -1788,10 +1812,10 @@
         <v>19</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="16">
         <v>30633</v>
@@ -1804,7 +1828,7 @@
         <v>7032300066</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -1816,10 +1840,10 @@
         <v>20</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" s="16">
         <v>30162</v>
@@ -1832,7 +1856,7 @@
         <v>7032300096</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -1858,76 +1882,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:BM98"/>
+  <dimension ref="B4:BP98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AR30" sqref="AR30"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="3.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="23.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="43.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="6.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="6" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="3.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.85546875" style="6" customWidth="1"/>
-    <col min="36" max="36" width="7.42578125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="6"/>
-    <col min="38" max="38" width="14" style="6" customWidth="1"/>
-    <col min="39" max="39" width="3.85546875" style="6" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" style="6" customWidth="1"/>
-    <col min="41" max="41" width="8.7109375" style="6" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.85546875" style="6" customWidth="1"/>
-    <col min="47" max="49" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.85546875" style="6" customWidth="1"/>
-    <col min="51" max="51" width="6.7109375" style="6" customWidth="1"/>
-    <col min="52" max="52" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.140625" style="6" customWidth="1"/>
-    <col min="55" max="55" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.140625" style="6" customWidth="1"/>
-    <col min="57" max="57" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="3.85546875" style="6" customWidth="1"/>
-    <col min="62" max="62" width="3.85546875" style="6" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="6.7109375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13" style="6" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="35.42578125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" style="6" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="13" style="6" customWidth="1"/>
+    <col min="30" max="30" width="3.85546875" style="6" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="43.28515625" style="6" customWidth="1"/>
+    <col min="34" max="34" width="3.85546875" style="6" customWidth="1"/>
+    <col min="35" max="35" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.85546875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="7.42578125" style="6" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="6"/>
+    <col min="41" max="41" width="14" style="6" customWidth="1"/>
+    <col min="42" max="42" width="3.85546875" style="6" customWidth="1"/>
+    <col min="43" max="43" width="6.140625" style="6" customWidth="1"/>
+    <col min="44" max="44" width="8.7109375" style="6" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3.85546875" style="6" customWidth="1"/>
+    <col min="50" max="52" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="3.85546875" style="6" customWidth="1"/>
+    <col min="54" max="54" width="6.7109375" style="6" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.140625" style="6" customWidth="1"/>
+    <col min="58" max="58" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.140625" style="6" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.85546875" style="6" customWidth="1"/>
+    <col min="62" max="62" width="6.7109375" style="6" customWidth="1"/>
+    <col min="63" max="63" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.140625" style="6" customWidth="1"/>
+    <col min="68" max="68" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:59" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="2:68" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="5"/>
       <c r="G4" s="20" t="s">
         <v>6</v>
@@ -1936,63 +1971,78 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="T4" s="20" t="s">
+      <c r="M4" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="Q4" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="U4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AB4" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="AA4" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AF4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AJ4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AN4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
+      <c r="AE4" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AI4" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AM4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AQ4" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="AR4" s="9"/>
       <c r="AS4" s="9"/>
-      <c r="AU4" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
       <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AY4" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="AX4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY4" s="9"/>
       <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
+      <c r="BB4" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="BC4" s="9"/>
       <c r="BD4" s="9"/>
       <c r="BE4" s="9"/>
-    </row>
-    <row r="5" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BJ4" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+    </row>
+    <row r="5" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>8</v>
@@ -2004,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>1</v>
@@ -2016,141 +2066,168 @@
         <v>3</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="10" t="s">
+      <c r="U5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AE5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AI5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AK5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AJ5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="10" t="s">
+      <c r="AM5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AQ5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ5" s="10" t="s">
+      <c r="AS5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AR5" s="10" t="s">
+      <c r="AV5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AS5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ5" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA5" s="8" t="s">
+      <c r="AX5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="8" t="s">
+      <c r="BE5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BC5" s="8" t="s">
+      <c r="BG5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="8" t="s">
+      <c r="BH5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="BO5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11">
         <v>6</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="J6" s="16">
         <v>30845</v>
@@ -2159,95 +2236,95 @@
         <f>CONCATENATE(H6,".",I6,"@gmail.com")</f>
         <v>saleel.bagde@gmail.com</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11">
         <v>7032300034</v>
       </c>
-      <c r="M6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="Q6" s="11">
         <v>1</v>
       </c>
-      <c r="P6" s="11">
+      <c r="R6" s="11">
         <v>1</v>
       </c>
-      <c r="Q6" s="11">
-        <v>7032300034</v>
-      </c>
-      <c r="T6" s="11">
+      <c r="S6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="11">
         <v>1</v>
       </c>
-      <c r="U6" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="V6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="16">
+        <v>60</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="16">
         <v>27192</v>
       </c>
-      <c r="X6" s="12" t="str">
-        <f>CONCATENATE(U6,".",V6,"@gmail.com")</f>
+      <c r="Y6" s="12" t="str">
+        <f>CONCATENATE(V6,".",W6,"@gmail.com")</f>
         <v>prachi.gupta@gmail.com</v>
       </c>
-      <c r="Y6" s="11">
-        <v>7832304023</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>75</v>
+      <c r="AA6" s="11">
+        <v>1</v>
       </c>
       <c r="AB6" s="11">
         <v>1</v>
       </c>
       <c r="AC6" s="11">
+        <v>7032300034</v>
+      </c>
+      <c r="AE6" s="11">
         <v>1</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>7032300034</v>
       </c>
       <c r="AF6" s="11">
         <v>1</v>
       </c>
-      <c r="AG6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH6" s="11">
+      <c r="AG6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI6" s="11">
         <v>1</v>
       </c>
-      <c r="AJ6" s="11">
-        <v>1</v>
+      <c r="AJ6" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="AK6" s="11">
         <v>1</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AM6" s="11">
         <v>1</v>
       </c>
-      <c r="AN6" s="22">
+      <c r="AN6" s="11">
         <v>1</v>
       </c>
-      <c r="AO6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP6" s="11">
+      <c r="AO6" s="11">
         <v>1</v>
       </c>
-      <c r="AQ6" s="31">
+      <c r="AQ6" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="30">
         <v>42401</v>
       </c>
-      <c r="AR6" s="31">
+      <c r="AU6" s="30">
         <v>42613</v>
       </c>
-      <c r="AS6" s="11">
+      <c r="AV6" s="11">
         <v>80</v>
       </c>
-      <c r="AU6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="11">
+      <c r="AX6" s="11">
         <v>1</v>
       </c>
       <c r="AY6" s="11">
@@ -2256,44 +2333,70 @@
       <c r="AZ6" s="11">
         <v>1</v>
       </c>
-      <c r="BA6" s="12">
+      <c r="BB6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="12">
         <v>10</v>
       </c>
-      <c r="BB6" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC6" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="11">
+      <c r="BE6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF6" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG6" s="11">
+        <v>67</v>
+      </c>
+      <c r="BH6" s="11">
         <v>2012</v>
       </c>
-      <c r="BG6">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="7" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="12">
+        <v>10</v>
+      </c>
+      <c r="BM6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN6" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO6" s="11">
+        <v>67</v>
+      </c>
+      <c r="BP6" s="11">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11">
         <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="11">
         <v>2</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="J7" s="16">
         <v>25501</v>
@@ -2302,141 +2405,167 @@
         <f t="shared" ref="K7:K25" si="0">CONCATENATE(H7,".",I7,"@gmail.com")</f>
         <v>omkar.rakde@gmail.com</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
+        <v>2</v>
+      </c>
+      <c r="N7" s="11">
+        <v>2</v>
+      </c>
+      <c r="O7" s="11">
         <v>7032300039</v>
       </c>
-      <c r="M7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="Q7" s="11">
         <v>2</v>
       </c>
-      <c r="P7" s="11">
+      <c r="R7" s="11">
         <v>2</v>
       </c>
-      <c r="Q7" s="11">
-        <v>7032300039</v>
-      </c>
-      <c r="T7" s="11">
+      <c r="S7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" s="11">
         <v>2</v>
       </c>
-      <c r="U7" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="V7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="16">
+        <v>61</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="16">
         <v>26597</v>
       </c>
-      <c r="X7" s="12" t="str">
-        <f t="shared" ref="X7:X9" si="1">CONCATENATE(U7,".",V7,"@gmail.com")</f>
+      <c r="Y7" s="12" t="str">
+        <f t="shared" ref="Y7:Y9" si="1">CONCATENATE(V7,".",W7,"@gmail.com")</f>
         <v>ketan.shukla@gmail.com</v>
       </c>
-      <c r="Y7" s="11">
-        <v>4532306484</v>
-      </c>
-      <c r="Z7" s="19" t="s">
-        <v>76</v>
+      <c r="AA7" s="11">
+        <v>2</v>
       </c>
       <c r="AB7" s="11">
         <v>2</v>
       </c>
       <c r="AC7" s="11">
+        <v>7032300039</v>
+      </c>
+      <c r="AE7" s="11">
         <v>2</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>7032300039</v>
       </c>
       <c r="AF7" s="11">
         <v>2</v>
       </c>
-      <c r="AG7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="11">
+      <c r="AG7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" s="11">
         <v>2</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="AK7" s="11">
         <v>1</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AM7" s="11">
         <v>2</v>
       </c>
-      <c r="AN7" s="22">
+      <c r="AN7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="11">
         <v>2</v>
       </c>
-      <c r="AO7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP7" s="11">
+      <c r="AQ7" s="22">
         <v>2</v>
       </c>
-      <c r="AQ7" s="31">
+      <c r="AR7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS7" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="30">
         <v>42401</v>
       </c>
-      <c r="AR7" s="31">
+      <c r="AU7" s="30">
         <v>42613</v>
       </c>
-      <c r="AS7" s="11">
+      <c r="AV7" s="11">
         <v>30</v>
       </c>
-      <c r="AU7" s="11">
+      <c r="AX7" s="11">
         <v>2</v>
       </c>
-      <c r="AV7" s="11">
+      <c r="AY7" s="11">
         <v>7</v>
       </c>
-      <c r="AW7" s="11">
+      <c r="AZ7" s="11">
         <v>5</v>
       </c>
-      <c r="AY7" s="11">
+      <c r="BB7" s="11">
         <v>2</v>
       </c>
-      <c r="AZ7" s="11">
+      <c r="BC7" s="11">
         <v>1</v>
       </c>
-      <c r="BA7" s="12">
+      <c r="BD7" s="12">
         <v>12</v>
       </c>
-      <c r="BB7" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC7" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="11">
+      <c r="BE7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG7" s="11">
+        <v>74</v>
+      </c>
+      <c r="BH7" s="11">
         <v>2014</v>
       </c>
-      <c r="BG7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ7" s="11">
+        <v>2</v>
+      </c>
+      <c r="BK7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="12">
+        <v>12</v>
+      </c>
+      <c r="BM7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO7" s="11">
+        <v>74</v>
+      </c>
+      <c r="BP7" s="11">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="11">
         <v>3</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="J8" s="16">
         <v>25866</v>
@@ -2445,142 +2574,167 @@
         <f t="shared" si="0"/>
         <v>ulka.joshi@gmail.com</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="11">
+        <v>3</v>
+      </c>
+      <c r="N8" s="11">
+        <v>3</v>
+      </c>
+      <c r="O8" s="11">
         <v>7032300050</v>
       </c>
-      <c r="M8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="Q8" s="11">
         <v>3</v>
       </c>
-      <c r="P8" s="11">
+      <c r="R8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="11">
-        <v>7032300050</v>
-      </c>
-      <c r="T8" s="11">
+      <c r="S8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" s="11">
         <v>3</v>
       </c>
-      <c r="U8" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="V8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="W8" s="16">
+        <v>62</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" s="16">
         <v>26231</v>
       </c>
-      <c r="X8" s="12" t="str">
+      <c r="Y8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>kiran.dev@gmail.com</v>
       </c>
-      <c r="Y8" s="11">
-        <v>8932309811</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>77</v>
+      <c r="AA8" s="11">
+        <v>3</v>
       </c>
       <c r="AB8" s="11">
         <v>3</v>
       </c>
       <c r="AC8" s="11">
+        <v>7032300050</v>
+      </c>
+      <c r="AE8" s="11">
         <v>3</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>7032300050</v>
       </c>
       <c r="AF8" s="11">
         <v>3</v>
       </c>
-      <c r="AG8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="11">
+      <c r="AG8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" s="11">
         <v>3</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="AK8" s="11">
         <v>1</v>
       </c>
-      <c r="AL8" s="11">
+      <c r="AM8" s="11">
         <v>3</v>
       </c>
-      <c r="AN8" s="22">
+      <c r="AN8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="11">
         <v>3</v>
       </c>
-      <c r="AO8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP8" s="11">
+      <c r="AQ8" s="22">
         <v>3</v>
       </c>
-      <c r="AQ8" s="31">
+      <c r="AR8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS8" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT8" s="30">
         <v>42401</v>
       </c>
-      <c r="AR8" s="31">
+      <c r="AU8" s="30">
         <v>42460</v>
       </c>
-      <c r="AS8" s="11">
+      <c r="AV8" s="11">
         <v>35</v>
       </c>
-      <c r="AU8" s="11">
+      <c r="AX8" s="11">
         <v>3</v>
-      </c>
-      <c r="AV8" s="11">
-        <v>3</v>
-      </c>
-      <c r="AW8" s="11">
-        <v>4</v>
       </c>
       <c r="AY8" s="11">
         <v>3</v>
       </c>
       <c r="AZ8" s="11">
+        <v>4</v>
+      </c>
+      <c r="BB8" s="11">
+        <v>3</v>
+      </c>
+      <c r="BC8" s="11">
         <v>1</v>
       </c>
-      <c r="BA8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB8" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="BC8" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="11">
+      <c r="BD8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF8" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG8" s="11">
+        <v>68</v>
+      </c>
+      <c r="BH8" s="11">
         <v>2018</v>
       </c>
-      <c r="BG8">
-        <f>BG6-BG7</f>
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ8" s="11">
+        <v>3</v>
+      </c>
+      <c r="BK8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN8" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO8" s="11">
+        <v>68</v>
+      </c>
+      <c r="BP8" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11">
         <v>3</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="11">
         <v>4</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="J9" s="16">
         <v>30255</v>
@@ -2589,138 +2743,167 @@
         <f t="shared" si="0"/>
         <v>rahul.patil@gmail.com</v>
       </c>
-      <c r="L9" s="11">
+      <c r="M9" s="11">
+        <v>4</v>
+      </c>
+      <c r="N9" s="11">
+        <v>4</v>
+      </c>
+      <c r="O9" s="11">
         <v>7032300027</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="Q9" s="11">
         <v>4</v>
       </c>
-      <c r="P9" s="11">
+      <c r="R9" s="11">
         <v>4</v>
       </c>
-      <c r="Q9" s="11">
-        <v>7032300027</v>
-      </c>
-      <c r="T9" s="11">
+      <c r="S9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="11">
         <v>4</v>
       </c>
-      <c r="U9" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="V9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="16">
+        <v>63</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="16">
         <v>26603</v>
       </c>
-      <c r="X9" s="12" t="str">
+      <c r="Y9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>parag.patil@gmail.com</v>
       </c>
-      <c r="Y9" s="11">
-        <v>6532307366</v>
-      </c>
-      <c r="Z9" s="19" t="s">
-        <v>78</v>
+      <c r="AA9" s="11">
+        <v>4</v>
       </c>
       <c r="AB9" s="11">
         <v>4</v>
       </c>
       <c r="AC9" s="11">
+        <v>7032300027</v>
+      </c>
+      <c r="AE9" s="11">
         <v>4</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>7032300027</v>
       </c>
       <c r="AF9" s="11">
         <v>4</v>
       </c>
-      <c r="AG9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH9" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="11">
+      <c r="AG9" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI9" s="11">
         <v>4</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="AK9" s="11">
         <v>1</v>
       </c>
-      <c r="AL9" s="11">
+      <c r="AM9" s="11">
         <v>4</v>
       </c>
-      <c r="AN9" s="22">
+      <c r="AN9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="11">
         <v>4</v>
       </c>
-      <c r="AO9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP9" s="11">
+      <c r="AQ9" s="22">
         <v>4</v>
       </c>
-      <c r="AQ9" s="31">
+      <c r="AR9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS9" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT9" s="30">
         <v>42552</v>
       </c>
-      <c r="AR9" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS9" s="11">
+      <c r="AU9" s="32">
+        <v>42643</v>
+      </c>
+      <c r="AV9" s="11">
         <v>25</v>
       </c>
-      <c r="AU9" s="11">
+      <c r="AX9" s="11">
         <v>4</v>
       </c>
-      <c r="AV9" s="11">
+      <c r="AY9" s="11">
         <v>6</v>
       </c>
-      <c r="AW9" s="11">
+      <c r="AZ9" s="11">
         <v>3</v>
       </c>
-      <c r="AY9" s="11">
+      <c r="BB9" s="11">
         <v>4</v>
       </c>
-      <c r="AZ9" s="11">
+      <c r="BC9" s="11">
         <v>2</v>
       </c>
-      <c r="BA9" s="12">
+      <c r="BD9" s="12">
         <v>10</v>
       </c>
-      <c r="BB9" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD9" s="12"/>
-      <c r="BE9" s="11">
+      <c r="BE9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG9" s="11">
+        <v>68</v>
+      </c>
+      <c r="BH9" s="11">
         <v>2013</v>
       </c>
-    </row>
-    <row r="10" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ9" s="11">
+        <v>4</v>
+      </c>
+      <c r="BK9" s="11">
+        <v>2</v>
+      </c>
+      <c r="BL9" s="12">
+        <v>10</v>
+      </c>
+      <c r="BM9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO9" s="11">
+        <v>68</v>
+      </c>
+      <c r="BP9" s="11">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11">
         <v>3</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="11">
         <v>5</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="16">
         <v>30693</v>
@@ -2729,97 +2912,122 @@
         <f t="shared" si="0"/>
         <v>ruhan.bagde@gmail.com</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="11">
+        <v>5</v>
+      </c>
+      <c r="N10" s="11">
+        <v>5</v>
+      </c>
+      <c r="O10" s="11">
         <v>7032300001</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="Q10" s="11">
         <v>5</v>
       </c>
-      <c r="P10" s="11">
+      <c r="R10" s="11">
         <v>5</v>
       </c>
-      <c r="Q10" s="11">
-        <v>7032300001</v>
-      </c>
-      <c r="Y10" s="1"/>
+      <c r="S10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>5</v>
+      </c>
       <c r="AB10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>7032301201</v>
+      </c>
+      <c r="AI10" s="11">
         <v>5</v>
       </c>
-      <c r="AC10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="11">
-        <v>7032301201</v>
-      </c>
-      <c r="AF10" s="11">
-        <v>5</v>
-      </c>
-      <c r="AG10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="11">
-        <v>5</v>
+      <c r="AJ10" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="AK10" s="11">
         <v>1</v>
       </c>
-      <c r="AL10" s="11">
+      <c r="AM10" s="11">
         <v>5</v>
       </c>
-      <c r="AN10" s="22">
+      <c r="AN10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="11">
         <v>5</v>
       </c>
-      <c r="AO10" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP10" s="11">
+      <c r="AQ10" s="22">
         <v>5</v>
       </c>
-      <c r="AQ10" s="31">
+      <c r="AR10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS10" s="11">
+        <v>5</v>
+      </c>
+      <c r="AT10" s="30">
         <v>42552</v>
       </c>
-      <c r="AR10" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS10" s="11">
+      <c r="AU10" s="32">
+        <v>42643</v>
+      </c>
+      <c r="AV10" s="11">
         <v>25</v>
       </c>
-      <c r="AU10" s="11">
+      <c r="AX10" s="11">
         <v>5</v>
       </c>
-      <c r="AV10" s="11">
+      <c r="AY10" s="11">
         <v>10</v>
       </c>
-      <c r="AW10" s="22">
+      <c r="AZ10" s="22">
         <v>6</v>
       </c>
-      <c r="AY10" s="11">
+      <c r="BB10" s="11">
         <v>5</v>
       </c>
-      <c r="AZ10" s="11">
+      <c r="BC10" s="11">
         <v>2</v>
       </c>
-      <c r="BA10" s="12">
+      <c r="BD10" s="12">
         <v>12</v>
       </c>
-      <c r="BB10" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC10" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD10" s="14"/>
-      <c r="BE10" s="11">
+      <c r="BE10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF10" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG10" s="11">
+        <v>56</v>
+      </c>
+      <c r="BH10" s="11">
         <v>2015</v>
       </c>
-    </row>
-    <row r="11" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ10" s="11">
+        <v>5</v>
+      </c>
+      <c r="BK10" s="11">
+        <v>2</v>
+      </c>
+      <c r="BL10" s="12">
+        <v>12</v>
+      </c>
+      <c r="BM10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN10" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO10" s="11">
+        <v>56</v>
+      </c>
+      <c r="BP10" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2828,10 +3036,10 @@
         <v>6</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="16">
         <v>29556</v>
@@ -2840,108 +3048,134 @@
         <f t="shared" si="0"/>
         <v>lala.prasad@gmail.com</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
+        <v>6</v>
+      </c>
+      <c r="N11" s="11">
+        <v>6</v>
+      </c>
+      <c r="O11" s="11">
         <v>7032300079</v>
       </c>
-      <c r="M11" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="11">
+      <c r="Q11" s="11">
         <v>6</v>
       </c>
-      <c r="P11" s="11">
+      <c r="R11" s="11">
         <v>6</v>
       </c>
-      <c r="Q11" s="11">
-        <v>7032300079</v>
+      <c r="S11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>6</v>
       </c>
       <c r="AB11" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>7032303479</v>
+      </c>
+      <c r="AI11" s="11">
         <v>6</v>
       </c>
-      <c r="AC11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>7032303479</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AG11" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>6</v>
+      <c r="AJ11" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="AK11" s="11">
         <v>1</v>
       </c>
-      <c r="AL11" s="11">
+      <c r="AM11" s="11">
         <v>6</v>
       </c>
-      <c r="AN11" s="22">
+      <c r="AN11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="11">
         <v>6</v>
       </c>
-      <c r="AO11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP11" s="11">
+      <c r="AQ11" s="22">
+        <v>6</v>
+      </c>
+      <c r="AR11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS11" s="11">
         <v>1</v>
       </c>
-      <c r="AQ11" s="31">
+      <c r="AT11" s="30">
         <v>42036</v>
       </c>
-      <c r="AR11" s="31">
+      <c r="AU11" s="30">
         <v>42247</v>
       </c>
-      <c r="AS11" s="11">
+      <c r="AV11" s="11">
         <v>80</v>
       </c>
-      <c r="AU11" s="11">
+      <c r="AX11" s="11">
         <v>6</v>
       </c>
-      <c r="AV11" s="11">
+      <c r="AY11" s="11">
         <v>17</v>
       </c>
-      <c r="AW11" s="22">
+      <c r="AZ11" s="22">
         <v>8</v>
       </c>
-      <c r="AY11" s="11">
+      <c r="BB11" s="11">
         <v>6</v>
       </c>
-      <c r="AZ11" s="11">
+      <c r="BC11" s="11">
         <v>2</v>
       </c>
-      <c r="BA11" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB11" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC11" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD11" s="14"/>
-      <c r="BE11" s="11">
+      <c r="BD11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF11" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG11" s="11">
+        <v>64</v>
+      </c>
+      <c r="BH11" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="12" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ11" s="11">
+        <v>6</v>
+      </c>
+      <c r="BK11" s="11">
+        <v>2</v>
+      </c>
+      <c r="BL11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="BN11" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO11" s="11">
+        <v>64</v>
+      </c>
+      <c r="BP11" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="3"/>
       <c r="G12" s="11">
         <v>7</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="16">
         <v>31760</v>
@@ -2950,96 +3184,122 @@
         <f t="shared" si="0"/>
         <v>sharmin.bagde@gmail.com</v>
       </c>
-      <c r="L12" s="11">
+      <c r="M12" s="11">
+        <v>7</v>
+      </c>
+      <c r="N12" s="11">
+        <v>7</v>
+      </c>
+      <c r="O12" s="11">
         <v>7032300081</v>
       </c>
-      <c r="M12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="Q12" s="11">
         <v>7</v>
       </c>
-      <c r="P12" s="11">
+      <c r="R12" s="11">
         <v>7</v>
       </c>
-      <c r="Q12" s="11">
-        <v>7032300081</v>
+      <c r="S12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>7</v>
       </c>
       <c r="AB12" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>7032306781</v>
+      </c>
+      <c r="AI12" s="11">
         <v>7</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AJ12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="11">
+        <v>7</v>
+      </c>
+      <c r="AN12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="11">
+        <v>7</v>
+      </c>
+      <c r="AQ12" s="22">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="30">
+        <v>42036</v>
+      </c>
+      <c r="AU12" s="30">
+        <v>42247</v>
+      </c>
+      <c r="AV12" s="11">
+        <v>30</v>
+      </c>
+      <c r="AX12" s="11">
+        <v>7</v>
+      </c>
+      <c r="AY12" s="11">
+        <v>20</v>
+      </c>
+      <c r="AZ12" s="22">
+        <v>12</v>
+      </c>
+      <c r="BB12" s="11">
+        <v>7</v>
+      </c>
+      <c r="BC12" s="11">
         <v>3</v>
       </c>
-      <c r="AD12" s="11">
-        <v>7032306781</v>
-      </c>
-      <c r="AF12" s="11">
+      <c r="BD12" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF12" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG12" s="11">
+        <v>75</v>
+      </c>
+      <c r="BH12" s="11">
+        <v>2011</v>
+      </c>
+      <c r="BJ12" s="11">
         <v>7</v>
       </c>
-      <c r="AG12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="11">
-        <v>7</v>
-      </c>
-      <c r="AK12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="11">
-        <v>7</v>
-      </c>
-      <c r="AN12" s="22">
-        <v>7</v>
-      </c>
-      <c r="AO12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AQ12" s="31">
-        <v>42036</v>
-      </c>
-      <c r="AR12" s="31">
-        <v>42247</v>
-      </c>
-      <c r="AS12" s="11">
-        <v>30</v>
-      </c>
-      <c r="AU12" s="11">
-        <v>7</v>
-      </c>
-      <c r="AV12" s="11">
-        <v>20</v>
-      </c>
-      <c r="AW12" s="22">
-        <v>12</v>
-      </c>
-      <c r="AY12" s="11">
-        <v>7</v>
-      </c>
-      <c r="AZ12" s="11">
+      <c r="BK12" s="11">
         <v>3</v>
       </c>
-      <c r="BA12" s="12">
+      <c r="BL12" s="12">
         <v>10</v>
       </c>
-      <c r="BB12" s="12" t="s">
+      <c r="BM12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN12" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BC12" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="11">
+      <c r="BO12" s="11">
+        <v>75</v>
+      </c>
+      <c r="BP12" s="11">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3048,10 +3308,10 @@
         <v>8</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="16">
         <v>31045</v>
@@ -3060,96 +3320,122 @@
         <f t="shared" si="0"/>
         <v>vrushali.bagde@gmail.com</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
+        <v>8</v>
+      </c>
+      <c r="N13" s="11">
+        <v>8</v>
+      </c>
+      <c r="O13" s="11">
         <v>7032300054</v>
       </c>
-      <c r="M13" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="Q13" s="11">
         <v>8</v>
       </c>
-      <c r="P13" s="11">
+      <c r="R13" s="11">
         <v>8</v>
       </c>
-      <c r="Q13" s="11">
-        <v>7032300054</v>
+      <c r="S13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>8</v>
       </c>
       <c r="AB13" s="11">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>7032390234</v>
+      </c>
+      <c r="AI13" s="11">
         <v>8</v>
       </c>
-      <c r="AC13" s="11">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>7032390234</v>
-      </c>
-      <c r="AF13" s="11">
+      <c r="AJ13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="11">
         <v>8</v>
       </c>
-      <c r="AG13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="11">
+      <c r="AN13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="11">
         <v>8</v>
       </c>
-      <c r="AK13" s="11">
+      <c r="AQ13" s="22">
+        <v>8</v>
+      </c>
+      <c r="AR13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT13" s="30">
+        <v>42826</v>
+      </c>
+      <c r="AU13" s="33">
+        <v>42886</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>30</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>8</v>
+      </c>
+      <c r="AY13" s="11">
         <v>1</v>
       </c>
-      <c r="AL13" s="11">
+      <c r="AZ13" s="22">
+        <v>7</v>
+      </c>
+      <c r="BB13" s="11">
         <v>8</v>
       </c>
-      <c r="AN13" s="22">
+      <c r="BC13" s="11">
+        <v>3</v>
+      </c>
+      <c r="BD13" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE13" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF13" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG13" s="11">
+        <v>86</v>
+      </c>
+      <c r="BH13" s="11">
+        <v>2013</v>
+      </c>
+      <c r="BJ13" s="11">
         <v>8</v>
       </c>
-      <c r="AO13" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP13" s="11">
+      <c r="BK13" s="11">
         <v>3</v>
       </c>
-      <c r="AQ13" s="31">
-        <v>42826</v>
-      </c>
-      <c r="AR13" s="31">
-        <v>42886</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>30</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>8</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="22">
-        <v>7</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>8</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>3</v>
-      </c>
-      <c r="BA13" s="12">
+      <c r="BL13" s="12">
         <v>12</v>
       </c>
-      <c r="BB13" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC13" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD13" s="14"/>
-      <c r="BE13" s="11">
+      <c r="BM13" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN13" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO13" s="11">
+        <v>86</v>
+      </c>
+      <c r="BP13" s="11">
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3158,10 +3444,10 @@
         <v>9</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="J14" s="16">
         <v>33903</v>
@@ -3170,90 +3456,116 @@
         <f t="shared" si="0"/>
         <v>vasant.khande@gmail.com</v>
       </c>
-      <c r="L14" s="11">
+      <c r="M14" s="11">
+        <v>9</v>
+      </c>
+      <c r="N14" s="11">
+        <v>9</v>
+      </c>
+      <c r="O14" s="11">
         <v>7032300059</v>
       </c>
-      <c r="M14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="Q14" s="11">
         <v>9</v>
       </c>
-      <c r="P14" s="11">
+      <c r="R14" s="11">
         <v>9</v>
       </c>
-      <c r="Q14" s="11">
-        <v>7032300059</v>
-      </c>
+      <c r="S14" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AF14" s="11">
+      <c r="AI14" s="11">
         <v>9</v>
       </c>
-      <c r="AG14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH14" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="11">
-        <v>9</v>
+      <c r="AJ14" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="AK14" s="11">
         <v>1</v>
       </c>
-      <c r="AL14" s="11">
+      <c r="AM14" s="11">
         <v>9</v>
       </c>
-      <c r="AN14" s="22">
+      <c r="AN14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="11">
         <v>9</v>
       </c>
-      <c r="AO14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP14" s="11">
+      <c r="AQ14" s="22">
+        <v>9</v>
+      </c>
+      <c r="AR14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS14" s="11">
         <v>4</v>
       </c>
-      <c r="AQ14" s="31">
+      <c r="AT14" s="30">
         <v>43282</v>
       </c>
-      <c r="AR14" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS14" s="11">
+      <c r="AU14" s="32">
+        <v>43373</v>
+      </c>
+      <c r="AV14" s="11">
         <v>25</v>
       </c>
-      <c r="AU14" s="11">
+      <c r="AX14" s="11">
         <v>9</v>
       </c>
-      <c r="AV14" s="11">
+      <c r="AY14" s="11">
         <v>2</v>
       </c>
-      <c r="AW14" s="22">
+      <c r="AZ14" s="22">
         <v>12</v>
       </c>
-      <c r="AY14" s="11">
+      <c r="BB14" s="11">
         <v>9</v>
       </c>
-      <c r="AZ14" s="11">
+      <c r="BC14" s="11">
         <v>3</v>
       </c>
-      <c r="BA14" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB14" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC14" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD14" s="14"/>
-      <c r="BE14" s="11">
+      <c r="BD14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF14" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG14" s="11">
+        <v>67</v>
+      </c>
+      <c r="BH14" s="11">
         <v>2017</v>
       </c>
-    </row>
-    <row r="15" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ14" s="11">
+        <v>9</v>
+      </c>
+      <c r="BK14" s="11">
+        <v>3</v>
+      </c>
+      <c r="BL14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN14" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO14" s="11">
+        <v>67</v>
+      </c>
+      <c r="BP14" s="11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3262,10 +3574,10 @@
         <v>10</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="16">
         <v>33172</v>
@@ -3274,90 +3586,116 @@
         <f t="shared" si="0"/>
         <v>nitish.patil@gmail.com</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
+        <v>10</v>
+      </c>
+      <c r="N15" s="11">
+        <v>10</v>
+      </c>
+      <c r="O15" s="11">
         <v>7032300086</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="Q15" s="11">
         <v>10</v>
       </c>
-      <c r="P15" s="11">
+      <c r="R15" s="11">
         <v>10</v>
       </c>
-      <c r="Q15" s="11">
-        <v>7032300086</v>
-      </c>
+      <c r="S15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AF15" s="11">
+      <c r="AI15" s="11">
         <v>10</v>
       </c>
-      <c r="AG15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>10</v>
+      <c r="AJ15" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="AK15" s="11">
         <v>2</v>
       </c>
-      <c r="AL15" s="11">
+      <c r="AM15" s="11">
+        <v>10</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="11">
         <v>1</v>
       </c>
-      <c r="AN15" s="22">
+      <c r="AQ15" s="22">
         <v>10</v>
       </c>
-      <c r="AO15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP15" s="11">
+      <c r="AR15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS15" s="11">
         <v>5</v>
       </c>
-      <c r="AQ15" s="31">
+      <c r="AT15" s="30">
         <v>43344</v>
       </c>
-      <c r="AR15" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS15" s="11">
+      <c r="AU15" s="34">
+        <v>43434</v>
+      </c>
+      <c r="AV15" s="11">
         <v>25</v>
       </c>
-      <c r="AU15" s="11">
+      <c r="AX15" s="11">
         <v>10</v>
       </c>
-      <c r="AV15" s="11">
+      <c r="AY15" s="11">
         <v>4</v>
       </c>
-      <c r="AW15" s="22">
+      <c r="AZ15" s="22">
         <v>15</v>
       </c>
-      <c r="AY15" s="11">
+      <c r="BB15" s="11">
         <v>10</v>
       </c>
-      <c r="AZ15" s="11">
+      <c r="BC15" s="11">
         <v>4</v>
       </c>
-      <c r="BA15" s="12">
+      <c r="BD15" s="12">
         <v>10</v>
       </c>
-      <c r="BB15" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC15" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="11">
+      <c r="BE15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG15" s="11">
+        <v>58</v>
+      </c>
+      <c r="BH15" s="11">
         <v>2010</v>
       </c>
-    </row>
-    <row r="16" spans="2:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ15" s="11">
+        <v>10</v>
+      </c>
+      <c r="BK15" s="11">
+        <v>4</v>
+      </c>
+      <c r="BL15" s="12">
+        <v>10</v>
+      </c>
+      <c r="BM15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO15" s="11">
+        <v>58</v>
+      </c>
+      <c r="BP15" s="11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3366,10 +3704,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="J16" s="16">
         <v>27697</v>
@@ -3378,90 +3716,116 @@
         <f t="shared" si="0"/>
         <v>neel.save@gmail.com</v>
       </c>
-      <c r="L16" s="11">
+      <c r="M16" s="11">
+        <v>11</v>
+      </c>
+      <c r="N16" s="11">
+        <v>11</v>
+      </c>
+      <c r="O16" s="11">
         <v>7032300082</v>
       </c>
-      <c r="M16" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="Q16" s="11">
         <v>11</v>
       </c>
-      <c r="P16" s="11">
+      <c r="R16" s="11">
         <v>11</v>
       </c>
-      <c r="Q16" s="11">
-        <v>7032300082</v>
-      </c>
+      <c r="S16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AF16" s="11">
+      <c r="AI16" s="11">
         <v>11</v>
       </c>
-      <c r="AG16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH16" s="11">
+      <c r="AJ16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK16" s="11">
         <v>1</v>
       </c>
-      <c r="AJ16" s="11">
+      <c r="AM16" s="11">
         <v>11</v>
       </c>
-      <c r="AK16" s="11">
+      <c r="AN16" s="11">
         <v>2</v>
       </c>
-      <c r="AL16" s="11">
+      <c r="AO16" s="11">
         <v>2</v>
       </c>
-      <c r="AN16" s="22">
+      <c r="AQ16" s="22">
         <v>11</v>
       </c>
-      <c r="AO16" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP16" s="11">
+      <c r="AR16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS16" s="11">
         <v>1</v>
       </c>
-      <c r="AQ16" s="31">
+      <c r="AT16" s="30">
         <v>42948</v>
       </c>
-      <c r="AR16" s="31">
+      <c r="AU16" s="30">
         <v>43159</v>
       </c>
-      <c r="AS16" s="11">
+      <c r="AV16" s="11">
         <v>80</v>
       </c>
-      <c r="AU16" s="11">
+      <c r="AX16" s="11">
         <v>11</v>
       </c>
-      <c r="AV16" s="11">
+      <c r="AY16" s="11">
         <v>5</v>
       </c>
-      <c r="AW16" s="22">
+      <c r="AZ16" s="22">
         <v>20</v>
       </c>
-      <c r="AY16" s="11">
+      <c r="BB16" s="11">
         <v>11</v>
       </c>
-      <c r="AZ16" s="11">
+      <c r="BC16" s="11">
         <v>4</v>
       </c>
-      <c r="BA16" s="12">
+      <c r="BD16" s="12">
         <v>12</v>
       </c>
-      <c r="BB16" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC16" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="11">
+      <c r="BE16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF16" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG16" s="11">
+        <v>97</v>
+      </c>
+      <c r="BH16" s="11">
         <v>2012</v>
       </c>
-    </row>
-    <row r="17" spans="2:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ16" s="11">
+        <v>11</v>
+      </c>
+      <c r="BK16" s="11">
+        <v>4</v>
+      </c>
+      <c r="BL16" s="12">
+        <v>12</v>
+      </c>
+      <c r="BM16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN16" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO16" s="11">
+        <v>97</v>
+      </c>
+      <c r="BP16" s="11">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3470,10 +3834,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="16">
         <v>31746</v>
@@ -3482,90 +3846,116 @@
         <f t="shared" si="0"/>
         <v>deep.save@gmail.com</v>
       </c>
-      <c r="L17" s="11">
+      <c r="M17" s="11">
+        <v>12</v>
+      </c>
+      <c r="N17" s="11">
+        <v>12</v>
+      </c>
+      <c r="O17" s="11">
         <v>7032300042</v>
       </c>
-      <c r="M17" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="11">
+      <c r="Q17" s="11">
         <v>12</v>
       </c>
-      <c r="P17" s="11">
+      <c r="R17" s="11">
         <v>12</v>
       </c>
-      <c r="Q17" s="11">
-        <v>7032300042</v>
-      </c>
+      <c r="S17" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AF17" s="11">
+      <c r="AI17" s="11">
         <v>12</v>
       </c>
-      <c r="AG17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH17" s="11">
+      <c r="AJ17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK17" s="11">
         <v>1</v>
       </c>
-      <c r="AJ17" s="11">
+      <c r="AM17" s="11">
         <v>12</v>
       </c>
-      <c r="AK17" s="11">
+      <c r="AN17" s="11">
         <v>2</v>
       </c>
-      <c r="AL17" s="11">
+      <c r="AO17" s="11">
         <v>3</v>
       </c>
-      <c r="AN17" s="22">
+      <c r="AQ17" s="22">
         <v>12</v>
       </c>
-      <c r="AO17" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP17" s="11">
+      <c r="AR17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS17" s="11">
         <v>2</v>
       </c>
-      <c r="AQ17" s="31">
+      <c r="AT17" s="30">
         <v>42948</v>
       </c>
-      <c r="AR17" s="31">
+      <c r="AU17" s="30">
         <v>43159</v>
       </c>
-      <c r="AS17" s="11">
+      <c r="AV17" s="11">
         <v>30</v>
       </c>
-      <c r="AU17" s="11">
+      <c r="AX17" s="11">
         <v>12</v>
       </c>
-      <c r="AV17" s="11">
+      <c r="AY17" s="11">
         <v>6</v>
       </c>
-      <c r="AW17" s="22">
+      <c r="AZ17" s="22">
         <v>5</v>
       </c>
-      <c r="AY17" s="11">
+      <c r="BB17" s="11">
         <v>12</v>
       </c>
-      <c r="AZ17" s="11">
+      <c r="BC17" s="11">
         <v>4</v>
       </c>
-      <c r="BA17" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB17" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC17" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="11">
+      <c r="BD17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE17" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF17" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG17" s="11">
+        <v>77</v>
+      </c>
+      <c r="BH17" s="11">
         <v>2016</v>
       </c>
-    </row>
-    <row r="18" spans="2:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ17" s="11">
+        <v>12</v>
+      </c>
+      <c r="BK17" s="11">
+        <v>4</v>
+      </c>
+      <c r="BL17" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM17" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN17" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="BO17" s="11">
+        <v>77</v>
+      </c>
+      <c r="BP17" s="11">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3574,10 +3964,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J18" s="16">
         <v>29921</v>
@@ -3586,90 +3976,102 @@
         <f t="shared" si="0"/>
         <v>nrupali.save@gmail.com</v>
       </c>
-      <c r="L18" s="11">
+      <c r="M18" s="11">
+        <v>13</v>
+      </c>
+      <c r="N18" s="11">
+        <v>13</v>
+      </c>
+      <c r="O18" s="11">
         <v>7032300055</v>
       </c>
-      <c r="M18" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="Q18" s="11">
         <v>13</v>
       </c>
-      <c r="P18" s="11">
+      <c r="R18" s="11">
         <v>13</v>
       </c>
-      <c r="Q18" s="11">
-        <v>7032300055</v>
-      </c>
+      <c r="S18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AF18" s="11">
+      <c r="AI18" s="11">
         <v>13</v>
       </c>
-      <c r="AG18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH18" s="11">
+      <c r="AJ18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK18" s="11">
         <v>1</v>
       </c>
-      <c r="AJ18" s="11">
+      <c r="AM18" s="11">
         <v>13</v>
       </c>
-      <c r="AK18" s="11">
+      <c r="AN18" s="11">
         <v>2</v>
       </c>
-      <c r="AL18" s="11">
+      <c r="AO18" s="11">
         <v>11</v>
       </c>
-      <c r="AN18" s="22">
+      <c r="AQ18" s="22">
         <v>13</v>
       </c>
-      <c r="AO18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP18" s="11">
+      <c r="AR18" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS18" s="11">
         <v>3</v>
       </c>
-      <c r="AQ18" s="31">
+      <c r="AT18" s="30">
         <v>42917</v>
       </c>
-      <c r="AR18" s="31">
+      <c r="AU18" s="30">
         <v>42978</v>
       </c>
-      <c r="AS18" s="11">
+      <c r="AV18" s="11">
         <v>30</v>
       </c>
-      <c r="AU18" s="11">
+      <c r="AX18" s="11">
         <v>13</v>
       </c>
-      <c r="AV18" s="11">
+      <c r="AY18" s="11">
         <v>7</v>
       </c>
-      <c r="AW18" s="22">
+      <c r="AZ18" s="22">
         <v>3</v>
       </c>
-      <c r="AY18" s="11">
+      <c r="BB18" s="11">
         <v>13</v>
       </c>
-      <c r="AZ18" s="11">
+      <c r="BC18" s="11">
         <v>5</v>
       </c>
-      <c r="BA18" s="12">
+      <c r="BD18" s="12">
         <v>10</v>
       </c>
-      <c r="BB18" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC18" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD18" s="14"/>
-      <c r="BE18" s="11">
+      <c r="BE18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF18" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG18" s="11">
+        <v>56</v>
+      </c>
+      <c r="BH18" s="11">
         <v>2008</v>
       </c>
-    </row>
-    <row r="19" spans="2:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+    </row>
+    <row r="19" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3678,10 +4080,10 @@
         <v>14</v>
       </c>
       <c r="H19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="J19" s="16">
         <v>30665</v>
@@ -3690,84 +4092,96 @@
         <f t="shared" si="0"/>
         <v>supriya.karnik@gmail.com</v>
       </c>
-      <c r="L19" s="11">
+      <c r="M19" s="11">
+        <v>14</v>
+      </c>
+      <c r="N19" s="11">
+        <v>14</v>
+      </c>
+      <c r="O19" s="11">
         <v>7032300013</v>
       </c>
-      <c r="M19" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="Q19" s="11">
         <v>14</v>
       </c>
-      <c r="P19" s="11">
+      <c r="R19" s="11">
         <v>14</v>
       </c>
-      <c r="Q19" s="11">
-        <v>7032300013</v>
-      </c>
+      <c r="S19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AJ19" s="11">
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AM19" s="11">
         <v>14</v>
       </c>
-      <c r="AK19" s="11">
+      <c r="AN19" s="11">
         <v>2</v>
       </c>
-      <c r="AL19" s="11">
+      <c r="AO19" s="11">
         <v>12</v>
       </c>
-      <c r="AN19" s="22">
+      <c r="AQ19" s="22">
         <v>14</v>
       </c>
-      <c r="AO19" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP19" s="11">
+      <c r="AR19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS19" s="11">
         <v>4</v>
       </c>
-      <c r="AQ19" s="31">
+      <c r="AT19" s="30">
         <v>43221</v>
       </c>
-      <c r="AR19" s="31">
+      <c r="AU19" s="30">
         <v>43312</v>
       </c>
-      <c r="AS19" s="11">
+      <c r="AV19" s="11">
         <v>25</v>
       </c>
-      <c r="AU19" s="11">
+      <c r="AX19" s="11">
         <v>14</v>
       </c>
-      <c r="AV19" s="11">
+      <c r="AY19" s="11">
         <v>1</v>
       </c>
-      <c r="AW19" s="22">
+      <c r="AZ19" s="22">
         <v>7</v>
       </c>
-      <c r="AY19" s="11">
+      <c r="BB19" s="11">
         <v>14</v>
       </c>
-      <c r="AZ19" s="11">
+      <c r="BC19" s="11">
         <v>5</v>
       </c>
-      <c r="BA19" s="12">
+      <c r="BD19" s="12">
         <v>12</v>
       </c>
-      <c r="BB19" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="BC19" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD19" s="14"/>
-      <c r="BE19" s="11">
+      <c r="BE19" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF19" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG19" s="11">
+        <v>57</v>
+      </c>
+      <c r="BH19" s="11">
         <v>2010</v>
       </c>
-    </row>
-    <row r="20" spans="2:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+    </row>
+    <row r="20" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3776,10 +4190,10 @@
         <v>15</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="16">
         <v>32141</v>
@@ -3788,84 +4202,96 @@
         <f t="shared" si="0"/>
         <v>bandish.karnik@gmail.com</v>
       </c>
-      <c r="L20" s="11">
+      <c r="M20" s="11">
+        <v>15</v>
+      </c>
+      <c r="N20" s="11">
+        <v>15</v>
+      </c>
+      <c r="O20" s="11">
         <v>7032300099</v>
       </c>
-      <c r="M20" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="Q20" s="11">
         <v>15</v>
       </c>
-      <c r="P20" s="11">
+      <c r="R20" s="11">
         <v>15</v>
       </c>
-      <c r="Q20" s="11">
-        <v>7032300099</v>
-      </c>
+      <c r="S20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AJ20" s="11">
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AM20" s="11">
         <v>15</v>
       </c>
-      <c r="AK20" s="11">
+      <c r="AN20" s="11">
         <v>2</v>
       </c>
-      <c r="AL20" s="11">
+      <c r="AO20" s="11">
         <v>9</v>
       </c>
-      <c r="AN20" s="22">
+      <c r="AQ20" s="22">
         <v>15</v>
       </c>
-      <c r="AO20" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP20" s="11">
+      <c r="AR20" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS20" s="11">
         <v>5</v>
       </c>
-      <c r="AQ20" s="31">
+      <c r="AT20" s="30">
         <v>43252</v>
       </c>
-      <c r="AR20" s="31">
+      <c r="AU20" s="30">
         <v>43342</v>
       </c>
-      <c r="AS20" s="11">
+      <c r="AV20" s="11">
         <v>25</v>
       </c>
-      <c r="AU20" s="11">
+      <c r="AX20" s="11">
         <v>15</v>
       </c>
-      <c r="AV20" s="11">
+      <c r="AY20" s="11">
         <v>2</v>
       </c>
-      <c r="AW20" s="22">
+      <c r="AZ20" s="22">
         <v>10</v>
       </c>
-      <c r="AY20" s="11">
+      <c r="BB20" s="11">
         <v>15</v>
       </c>
-      <c r="AZ20" s="11">
+      <c r="BC20" s="11">
         <v>5</v>
       </c>
-      <c r="BA20" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB20" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC20" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="11">
+      <c r="BD20" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF20" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG20" s="11">
+        <v>86</v>
+      </c>
+      <c r="BH20" s="11">
         <v>2014</v>
       </c>
-    </row>
-    <row r="21" spans="2:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+    </row>
+    <row r="21" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3874,10 +4300,10 @@
         <v>16</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="16">
         <v>33208</v>
@@ -3886,84 +4312,96 @@
         <f t="shared" si="0"/>
         <v>sangita.karnik@gmail.com</v>
       </c>
-      <c r="L21" s="11">
+      <c r="M21" s="11">
+        <v>16</v>
+      </c>
+      <c r="N21" s="11">
+        <v>16</v>
+      </c>
+      <c r="O21" s="11">
         <v>7032300023</v>
       </c>
-      <c r="M21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="Q21" s="11">
         <v>16</v>
       </c>
-      <c r="P21" s="11">
+      <c r="R21" s="11">
         <v>16</v>
       </c>
-      <c r="Q21" s="11">
-        <v>7032300023</v>
-      </c>
+      <c r="S21" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AJ21" s="11">
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AM21" s="11">
         <v>16</v>
       </c>
-      <c r="AK21" s="11">
+      <c r="AN21" s="11">
         <v>3</v>
       </c>
-      <c r="AL21" s="11">
+      <c r="AO21" s="11">
         <v>13</v>
       </c>
-      <c r="AN21" s="22">
+      <c r="AQ21" s="22">
         <v>16</v>
       </c>
-      <c r="AO21" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP21" s="11">
+      <c r="AR21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS21" s="11">
         <v>1</v>
       </c>
-      <c r="AQ21" s="31">
+      <c r="AT21" s="30">
         <v>41852</v>
       </c>
-      <c r="AR21" s="31">
+      <c r="AU21" s="30">
         <v>42063</v>
       </c>
-      <c r="AS21" s="11">
+      <c r="AV21" s="11">
         <v>80</v>
       </c>
-      <c r="AU21" s="11">
+      <c r="AX21" s="11">
         <v>16</v>
       </c>
-      <c r="AV21" s="11">
+      <c r="AY21" s="11">
         <v>3</v>
       </c>
-      <c r="AW21" s="22">
+      <c r="AZ21" s="22">
         <v>5</v>
       </c>
-      <c r="AY21" s="11">
+      <c r="BB21" s="11">
         <v>16</v>
       </c>
-      <c r="AZ21" s="11">
+      <c r="BC21" s="11">
         <v>6</v>
       </c>
-      <c r="BA21" s="12">
+      <c r="BD21" s="12">
         <v>10</v>
       </c>
-      <c r="BB21" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC21" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="11">
+      <c r="BE21" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF21" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG21" s="11">
+        <v>56</v>
+      </c>
+      <c r="BH21" s="11">
         <v>2009</v>
       </c>
-    </row>
-    <row r="22" spans="2:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="35"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+    </row>
+    <row r="22" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3972,10 +4410,10 @@
         <v>17</v>
       </c>
       <c r="H22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="J22" s="16">
         <v>32807</v>
@@ -3984,84 +4422,96 @@
         <f t="shared" si="0"/>
         <v>sangita.menon@gmail.com</v>
       </c>
-      <c r="L22" s="11">
+      <c r="M22" s="11">
+        <v>17</v>
+      </c>
+      <c r="N22" s="11">
+        <v>17</v>
+      </c>
+      <c r="O22" s="11">
         <v>7032300084</v>
       </c>
-      <c r="M22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="Q22" s="11">
         <v>17</v>
       </c>
-      <c r="P22" s="11">
+      <c r="R22" s="11">
         <v>17</v>
       </c>
-      <c r="Q22" s="11">
-        <v>7032300084</v>
-      </c>
+      <c r="S22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AJ22" s="11">
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AM22" s="11">
         <v>17</v>
       </c>
-      <c r="AK22" s="11">
+      <c r="AN22" s="11">
         <v>3</v>
       </c>
-      <c r="AL22" s="11">
+      <c r="AO22" s="11">
         <v>5</v>
       </c>
-      <c r="AN22" s="22">
+      <c r="AQ22" s="22">
         <v>17</v>
       </c>
-      <c r="AO22" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP22" s="11">
+      <c r="AR22" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS22" s="11">
         <v>2</v>
       </c>
-      <c r="AQ22" s="31">
+      <c r="AT22" s="30">
         <v>41852</v>
       </c>
-      <c r="AR22" s="31">
+      <c r="AU22" s="30">
         <v>42063</v>
       </c>
-      <c r="AS22" s="11">
+      <c r="AV22" s="11">
         <v>30</v>
       </c>
-      <c r="AU22" s="11">
+      <c r="AX22" s="11">
         <v>17</v>
       </c>
-      <c r="AV22" s="11">
+      <c r="AY22" s="11">
         <v>4</v>
       </c>
-      <c r="AW22" s="22">
+      <c r="AZ22" s="22">
         <v>6</v>
       </c>
-      <c r="AY22" s="11">
+      <c r="BB22" s="11">
         <v>17</v>
       </c>
-      <c r="AZ22" s="11">
+      <c r="BC22" s="11">
         <v>6</v>
       </c>
-      <c r="BA22" s="12">
+      <c r="BD22" s="12">
         <v>12</v>
       </c>
-      <c r="BB22" s="12" t="s">
+      <c r="BE22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF22" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BC22" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD22" s="14"/>
-      <c r="BE22" s="11">
+      <c r="BG22" s="11">
+        <v>76</v>
+      </c>
+      <c r="BH22" s="11">
         <v>2011</v>
       </c>
-    </row>
-    <row r="23" spans="2:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="35"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+    </row>
+    <row r="23" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4070,10 +4520,10 @@
         <v>18</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J23" s="16">
         <v>30114</v>
@@ -4082,84 +4532,96 @@
         <f t="shared" si="0"/>
         <v>rahul.shah@gmail.com</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
+        <v>18</v>
+      </c>
+      <c r="N23" s="11">
+        <v>18</v>
+      </c>
+      <c r="O23" s="11">
         <v>7032300011</v>
       </c>
-      <c r="M23" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="Q23" s="11">
         <v>18</v>
       </c>
-      <c r="P23" s="11">
+      <c r="R23" s="11">
         <v>18</v>
       </c>
-      <c r="Q23" s="11">
-        <v>7032300011</v>
-      </c>
+      <c r="S23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AJ23" s="11">
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AM23" s="11">
         <v>18</v>
       </c>
-      <c r="AK23" s="11">
+      <c r="AN23" s="11">
         <v>3</v>
       </c>
-      <c r="AL23" s="11">
+      <c r="AO23" s="11">
         <v>6</v>
       </c>
-      <c r="AN23" s="22">
+      <c r="AQ23" s="22">
         <v>18</v>
       </c>
-      <c r="AO23" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP23" s="11">
+      <c r="AR23" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS23" s="11">
         <v>3</v>
       </c>
-      <c r="AQ23" s="31">
+      <c r="AT23" s="30">
         <v>43160</v>
       </c>
-      <c r="AR23" s="31">
+      <c r="AU23" s="30">
         <v>43220</v>
       </c>
-      <c r="AS23" s="11">
+      <c r="AV23" s="11">
         <v>35</v>
       </c>
-      <c r="AU23" s="11">
+      <c r="AX23" s="11">
         <v>18</v>
       </c>
-      <c r="AV23" s="11">
+      <c r="AY23" s="11">
         <v>5</v>
       </c>
-      <c r="AW23" s="22">
+      <c r="AZ23" s="22">
         <v>3</v>
       </c>
-      <c r="AY23" s="11">
+      <c r="BB23" s="11">
         <v>18</v>
       </c>
-      <c r="AZ23" s="11">
+      <c r="BC23" s="11">
         <v>6</v>
       </c>
-      <c r="BA23" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB23" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC23" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD23" s="14"/>
-      <c r="BE23" s="11">
+      <c r="BD23" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG23" s="11">
+        <v>87</v>
+      </c>
+      <c r="BH23" s="11">
         <v>2015</v>
       </c>
-    </row>
-    <row r="24" spans="2:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="35"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+    </row>
+    <row r="24" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4168,10 +4630,10 @@
         <v>19</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="16">
         <v>30633</v>
@@ -4180,84 +4642,96 @@
         <f t="shared" si="0"/>
         <v>bhavin.patel@gmail.com</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
+        <v>19</v>
+      </c>
+      <c r="N24" s="11">
+        <v>19</v>
+      </c>
+      <c r="O24" s="11">
         <v>7032300066</v>
       </c>
-      <c r="M24" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="Q24" s="11">
         <v>19</v>
       </c>
-      <c r="P24" s="11">
+      <c r="R24" s="11">
         <v>19</v>
       </c>
-      <c r="Q24" s="11">
-        <v>7032300066</v>
-      </c>
+      <c r="S24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AJ24" s="11">
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AM24" s="11">
         <v>19</v>
       </c>
-      <c r="AK24" s="11">
+      <c r="AN24" s="11">
         <v>4</v>
       </c>
-      <c r="AL24" s="11">
+      <c r="AO24" s="11">
         <v>1</v>
       </c>
-      <c r="AN24" s="22">
+      <c r="AQ24" s="22">
         <v>19</v>
       </c>
-      <c r="AO24" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP24" s="11">
+      <c r="AR24" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS24" s="11">
         <v>4</v>
       </c>
-      <c r="AQ24" s="31">
+      <c r="AT24" s="30">
         <v>43466</v>
       </c>
-      <c r="AR24" s="31">
+      <c r="AU24" s="30">
         <v>43554</v>
       </c>
-      <c r="AS24" s="11">
+      <c r="AV24" s="11">
         <v>25</v>
       </c>
-      <c r="AU24" s="11">
+      <c r="AX24" s="11">
         <v>19</v>
       </c>
-      <c r="AV24" s="11">
+      <c r="AY24" s="11">
         <v>6</v>
       </c>
-      <c r="AW24" s="22">
+      <c r="AZ24" s="22">
         <v>1</v>
       </c>
-      <c r="AY24" s="11">
+      <c r="BB24" s="11">
         <v>19</v>
       </c>
-      <c r="AZ24" s="11">
+      <c r="BC24" s="11">
         <v>7</v>
       </c>
-      <c r="BA24" s="12">
+      <c r="BD24" s="12">
         <v>10</v>
       </c>
-      <c r="BB24" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC24" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="11">
+      <c r="BE24" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG24" s="11">
+        <v>87</v>
+      </c>
+      <c r="BH24" s="11">
         <v>2011</v>
       </c>
-    </row>
-    <row r="25" spans="2:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="35"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+    </row>
+    <row r="25" spans="2:68" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4266,10 +4740,10 @@
         <v>20</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" s="16">
         <v>30162</v>
@@ -4278,1362 +4752,1931 @@
         <f t="shared" si="0"/>
         <v>kaushal.patil@gmail.com</v>
       </c>
-      <c r="L25" s="11">
+      <c r="M25" s="11">
+        <v>20</v>
+      </c>
+      <c r="N25" s="11">
+        <v>20</v>
+      </c>
+      <c r="O25" s="11">
         <v>7032300096</v>
       </c>
-      <c r="M25" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="O25" s="11">
+      <c r="Q25" s="11">
         <v>20</v>
       </c>
-      <c r="P25" s="11">
+      <c r="R25" s="11">
         <v>20</v>
       </c>
-      <c r="Q25" s="11">
-        <v>7032300096</v>
-      </c>
+      <c r="S25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AJ25" s="11">
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AM25" s="11">
         <v>20</v>
       </c>
-      <c r="AK25" s="11">
+      <c r="AN25" s="11">
         <v>4</v>
       </c>
-      <c r="AL25" s="11">
+      <c r="AO25" s="11">
         <v>7</v>
       </c>
-      <c r="AN25" s="22">
+      <c r="AQ25" s="22">
         <v>20</v>
       </c>
-      <c r="AO25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP25" s="11">
+      <c r="AR25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS25" s="11">
         <v>5</v>
       </c>
-      <c r="AQ25" s="31">
+      <c r="AT25" s="30">
         <v>43435</v>
       </c>
-      <c r="AR25" s="31">
+      <c r="AU25" s="30">
         <v>43524</v>
       </c>
-      <c r="AS25" s="11">
+      <c r="AV25" s="11">
         <v>25</v>
       </c>
-      <c r="AU25" s="11">
+      <c r="AX25" s="11">
         <v>20</v>
       </c>
-      <c r="AV25" s="11">
+      <c r="AY25" s="11">
         <v>12</v>
       </c>
-      <c r="AW25" s="22">
+      <c r="AZ25" s="22">
         <v>10</v>
       </c>
-      <c r="AY25" s="11">
+      <c r="BB25" s="11">
         <v>20</v>
       </c>
-      <c r="AZ25" s="11">
+      <c r="BC25" s="11">
         <v>7</v>
       </c>
-      <c r="BA25" s="12">
+      <c r="BD25" s="12">
         <v>12</v>
       </c>
-      <c r="BB25" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BC25" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="11">
+      <c r="BE25" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF25" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG25" s="11">
+        <v>78</v>
+      </c>
+      <c r="BH25" s="11">
         <v>2013</v>
       </c>
-    </row>
-    <row r="26" spans="2:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="35"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+    </row>
+    <row r="26" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="J26" s="17"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AJ26" s="11">
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AM26" s="11">
         <v>21</v>
       </c>
-      <c r="AK26" s="11">
+      <c r="AN26" s="11">
         <v>4</v>
       </c>
-      <c r="AL26" s="11">
+      <c r="AO26" s="11">
         <v>8</v>
       </c>
-      <c r="AN26" s="22">
+      <c r="AQ26" s="22">
         <v>21</v>
       </c>
-      <c r="AO26" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP26" s="11">
+      <c r="AR26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS26" s="11">
         <v>1</v>
       </c>
-      <c r="AQ26" s="31">
+      <c r="AT26" s="30">
         <v>42217</v>
       </c>
-      <c r="AR26" s="31">
+      <c r="AU26" s="30">
         <v>42428</v>
       </c>
-      <c r="AS26" s="11">
+      <c r="AV26" s="11">
         <v>80</v>
       </c>
-      <c r="AU26" s="11">
+      <c r="AX26" s="11">
         <v>21</v>
       </c>
-      <c r="AV26" s="11">
+      <c r="AY26" s="11">
         <v>15</v>
       </c>
-      <c r="AW26" s="22">
+      <c r="AZ26" s="22">
         <v>17</v>
       </c>
-      <c r="AY26" s="11">
+      <c r="BB26" s="11">
         <v>21</v>
       </c>
-      <c r="AZ26" s="11">
+      <c r="BC26" s="11">
         <v>7</v>
       </c>
-      <c r="BA26" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB26" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC26" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="11">
+      <c r="BD26" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE26" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF26" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG26" s="11">
+        <v>97</v>
+      </c>
+      <c r="BH26" s="11">
         <v>2017</v>
       </c>
-    </row>
-    <row r="27" spans="2:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="4"/>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="35"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+    </row>
+    <row r="27" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="J27" s="17"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AJ27" s="11">
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AM27" s="11">
         <v>22</v>
       </c>
-      <c r="AK27" s="11">
+      <c r="AN27" s="11">
         <v>5</v>
       </c>
-      <c r="AL27" s="11">
+      <c r="AO27" s="11">
         <v>1</v>
       </c>
-      <c r="AN27" s="22">
+      <c r="AQ27" s="22">
         <v>22</v>
       </c>
-      <c r="AO27" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP27" s="11">
+      <c r="AR27" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS27" s="11">
         <v>2</v>
       </c>
-      <c r="AQ27" s="31">
+      <c r="AT27" s="30">
         <v>42217</v>
       </c>
-      <c r="AR27" s="31">
+      <c r="AU27" s="30">
         <v>42428</v>
       </c>
-      <c r="AS27" s="11">
+      <c r="AV27" s="11">
         <v>30</v>
       </c>
-      <c r="AU27" s="11">
+      <c r="AX27" s="11">
         <v>22</v>
       </c>
-      <c r="AV27" s="11">
+      <c r="AY27" s="11">
         <v>15</v>
       </c>
-      <c r="AW27" s="22">
+      <c r="AZ27" s="22">
         <v>18</v>
       </c>
-      <c r="AY27" s="11">
+      <c r="BB27" s="11">
         <v>22</v>
       </c>
-      <c r="AZ27" s="11">
+      <c r="BC27" s="11">
         <v>8</v>
       </c>
-      <c r="BA27" s="12">
+      <c r="BD27" s="12">
         <v>10</v>
       </c>
-      <c r="BB27" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="BC27" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD27" s="14"/>
-      <c r="BE27" s="11">
+      <c r="BE27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF27" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="BG27" s="11">
+        <v>56</v>
+      </c>
+      <c r="BH27" s="11">
         <v>2010</v>
       </c>
-    </row>
-    <row r="28" spans="2:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="4"/>
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="35"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+    </row>
+    <row r="28" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="J28" s="17"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AJ28" s="11">
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AM28" s="11">
         <v>23</v>
       </c>
-      <c r="AK28" s="11">
+      <c r="AN28" s="11">
         <v>5</v>
       </c>
-      <c r="AL28" s="11">
+      <c r="AO28" s="11">
         <v>7</v>
       </c>
-      <c r="AN28" s="22">
+      <c r="AQ28" s="22">
         <v>23</v>
       </c>
-      <c r="AO28" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP28" s="11">
+      <c r="AR28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS28" s="11">
         <v>3</v>
       </c>
-      <c r="AQ28" s="31">
+      <c r="AT28" s="30">
         <v>43525</v>
       </c>
-      <c r="AR28" s="31">
+      <c r="AU28" s="30">
         <v>43585</v>
       </c>
-      <c r="AS28" s="11">
+      <c r="AV28" s="11">
         <v>40</v>
       </c>
-      <c r="AU28" s="11">
+      <c r="AX28" s="11">
         <v>23</v>
       </c>
-      <c r="AV28" s="11">
+      <c r="AY28" s="11">
         <v>16</v>
       </c>
-      <c r="AW28" s="22">
+      <c r="AZ28" s="22">
         <v>18</v>
       </c>
-      <c r="AY28" s="11">
+      <c r="BB28" s="11">
         <v>23</v>
       </c>
-      <c r="AZ28" s="11">
+      <c r="BC28" s="11">
         <v>8</v>
       </c>
-      <c r="BA28" s="12">
+      <c r="BD28" s="12">
         <v>12</v>
       </c>
-      <c r="BB28" s="12" t="s">
+      <c r="BE28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF28" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG28" s="11">
+        <v>467</v>
+      </c>
+      <c r="BH28" s="11">
+        <v>2012</v>
+      </c>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="4"/>
+      <c r="BM28" s="4"/>
+      <c r="BN28" s="35"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+    </row>
+    <row r="29" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="J29" s="17"/>
+      <c r="AI29" s="1"/>
+      <c r="AM29" s="11">
+        <v>24</v>
+      </c>
+      <c r="AN29" s="11">
+        <v>5</v>
+      </c>
+      <c r="AO29" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ29" s="22">
+        <v>24</v>
+      </c>
+      <c r="AR29" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS29" s="11">
+        <v>4</v>
+      </c>
+      <c r="AT29" s="30">
+        <v>43466</v>
+      </c>
+      <c r="AU29" s="30">
+        <v>43554</v>
+      </c>
+      <c r="AV29" s="11">
+        <v>30</v>
+      </c>
+      <c r="AX29" s="11">
+        <v>24</v>
+      </c>
+      <c r="AY29" s="11">
+        <v>17</v>
+      </c>
+      <c r="AZ29" s="22">
+        <v>12</v>
+      </c>
+      <c r="BB29" s="11">
+        <v>24</v>
+      </c>
+      <c r="BC29" s="11">
+        <v>8</v>
+      </c>
+      <c r="BD29" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE29" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF29" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG29" s="11">
+        <v>87</v>
+      </c>
+      <c r="BH29" s="11">
+        <v>2016</v>
+      </c>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="4"/>
+      <c r="BM29" s="4"/>
+      <c r="BN29" s="35"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+    </row>
+    <row r="30" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="AS30" s="1"/>
+      <c r="BB30" s="11">
+        <v>25</v>
+      </c>
+      <c r="BC30" s="11">
+        <v>9</v>
+      </c>
+      <c r="BD30" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE30" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF30" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG30" s="11">
+        <v>98</v>
+      </c>
+      <c r="BH30" s="11">
+        <v>2012</v>
+      </c>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="4"/>
+      <c r="BM30" s="4"/>
+      <c r="BN30" s="35"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+    </row>
+    <row r="31" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BB31" s="11">
+        <v>26</v>
+      </c>
+      <c r="BC31" s="11">
+        <v>9</v>
+      </c>
+      <c r="BD31" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE31" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF31" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG31" s="11">
+        <v>67</v>
+      </c>
+      <c r="BH31" s="11">
+        <v>2014</v>
+      </c>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="4"/>
+      <c r="BM31" s="4"/>
+      <c r="BN31" s="35"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+    </row>
+    <row r="32" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BB32" s="11">
+        <v>27</v>
+      </c>
+      <c r="BC32" s="11">
+        <v>9</v>
+      </c>
+      <c r="BD32" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE32" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF32" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG32" s="11">
+        <v>87</v>
+      </c>
+      <c r="BH32" s="11">
+        <v>2018</v>
+      </c>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="4"/>
+      <c r="BM32" s="4"/>
+      <c r="BN32" s="35"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+    </row>
+    <row r="33" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB33" s="11">
+        <v>28</v>
+      </c>
+      <c r="BC33" s="11">
+        <v>10</v>
+      </c>
+      <c r="BD33" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF33" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG33" s="11">
+        <v>65</v>
+      </c>
+      <c r="BH33" s="11">
+        <v>2012</v>
+      </c>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="4"/>
+      <c r="BM33" s="4"/>
+      <c r="BN33" s="35"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+    </row>
+    <row r="34" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB34" s="11">
+        <v>29</v>
+      </c>
+      <c r="BC34" s="11">
+        <v>10</v>
+      </c>
+      <c r="BD34" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE34" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF34" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG34" s="11">
+        <v>76</v>
+      </c>
+      <c r="BH34" s="11">
+        <v>2014</v>
+      </c>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="4"/>
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="35"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+    </row>
+    <row r="35" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB35" s="11">
+        <v>30</v>
+      </c>
+      <c r="BC35" s="11">
+        <v>10</v>
+      </c>
+      <c r="BD35" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE35" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF35" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG35" s="11">
+        <v>61</v>
+      </c>
+      <c r="BH35" s="11">
+        <v>2018</v>
+      </c>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="35"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+    </row>
+    <row r="36" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB36" s="11">
+        <v>31</v>
+      </c>
+      <c r="BC36" s="11">
+        <v>11</v>
+      </c>
+      <c r="BD36" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE36" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF36" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG36" s="11">
+        <v>62</v>
+      </c>
+      <c r="BH36" s="11">
+        <v>2011</v>
+      </c>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="35"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+    </row>
+    <row r="37" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB37" s="11">
+        <v>32</v>
+      </c>
+      <c r="BC37" s="11">
+        <v>11</v>
+      </c>
+      <c r="BD37" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE37" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF37" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG37" s="11">
+        <v>63</v>
+      </c>
+      <c r="BH37" s="11">
+        <v>2013</v>
+      </c>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="4"/>
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="35"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+    </row>
+    <row r="38" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB38" s="11">
+        <v>33</v>
+      </c>
+      <c r="BC38" s="11">
+        <v>11</v>
+      </c>
+      <c r="BD38" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE38" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF38" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG38" s="11">
+        <v>56</v>
+      </c>
+      <c r="BH38" s="11">
+        <v>2017</v>
+      </c>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="4"/>
+      <c r="BM38" s="4"/>
+      <c r="BN38" s="35"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+    </row>
+    <row r="39" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB39" s="11">
+        <v>34</v>
+      </c>
+      <c r="BC39" s="11">
+        <v>12</v>
+      </c>
+      <c r="BD39" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE39" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF39" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG39" s="11">
+        <v>75</v>
+      </c>
+      <c r="BH39" s="11">
+        <v>2010</v>
+      </c>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="4"/>
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="35"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+    </row>
+    <row r="40" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB40" s="11">
+        <v>35</v>
+      </c>
+      <c r="BC40" s="11">
+        <v>12</v>
+      </c>
+      <c r="BD40" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE40" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF40" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG40" s="11">
+        <v>45</v>
+      </c>
+      <c r="BH40" s="11">
+        <v>2012</v>
+      </c>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="4"/>
+      <c r="BM40" s="4"/>
+      <c r="BN40" s="35"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+    </row>
+    <row r="41" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB41" s="11">
+        <v>36</v>
+      </c>
+      <c r="BC41" s="11">
+        <v>12</v>
+      </c>
+      <c r="BD41" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE41" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF41" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BC28" s="28" t="s">
+      <c r="BG41" s="11">
+        <v>50</v>
+      </c>
+      <c r="BH41" s="11">
+        <v>2016</v>
+      </c>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="4"/>
+      <c r="BM41" s="4"/>
+      <c r="BN41" s="35"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+    </row>
+    <row r="42" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB42" s="11">
+        <v>37</v>
+      </c>
+      <c r="BC42" s="11">
+        <v>13</v>
+      </c>
+      <c r="BD42" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE42" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF42" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG42" s="11">
+        <v>67</v>
+      </c>
+      <c r="BH42" s="11">
+        <v>2012</v>
+      </c>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="4"/>
+      <c r="BM42" s="4"/>
+      <c r="BN42" s="35"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+    </row>
+    <row r="43" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB43" s="11">
+        <v>38</v>
+      </c>
+      <c r="BC43" s="11">
+        <v>13</v>
+      </c>
+      <c r="BD43" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE43" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF43" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG43" s="11">
+        <v>78</v>
+      </c>
+      <c r="BH43" s="11">
+        <v>2014</v>
+      </c>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="4"/>
+      <c r="BM43" s="4"/>
+      <c r="BN43" s="35"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+    </row>
+    <row r="44" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB44" s="11">
+        <v>39</v>
+      </c>
+      <c r="BC44" s="11">
+        <v>13</v>
+      </c>
+      <c r="BD44" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE44" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF44" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG44" s="11">
+        <v>68</v>
+      </c>
+      <c r="BH44" s="11">
+        <v>2018</v>
+      </c>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="4"/>
+      <c r="BM44" s="4"/>
+      <c r="BN44" s="35"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+    </row>
+    <row r="45" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB45" s="11">
+        <v>40</v>
+      </c>
+      <c r="BC45" s="11">
+        <v>14</v>
+      </c>
+      <c r="BD45" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE45" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF45" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG45" s="11">
+        <v>67</v>
+      </c>
+      <c r="BH45" s="11">
+        <v>2013</v>
+      </c>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="4"/>
+      <c r="BM45" s="4"/>
+      <c r="BN45" s="35"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+    </row>
+    <row r="46" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB46" s="11">
+        <v>41</v>
+      </c>
+      <c r="BC46" s="11">
+        <v>14</v>
+      </c>
+      <c r="BD46" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE46" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF46" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG46" s="11">
+        <v>87</v>
+      </c>
+      <c r="BH46" s="11">
+        <v>2015</v>
+      </c>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="4"/>
+      <c r="BM46" s="4"/>
+      <c r="BN46" s="35"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+    </row>
+    <row r="47" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB47" s="11">
+        <v>42</v>
+      </c>
+      <c r="BC47" s="11">
+        <v>14</v>
+      </c>
+      <c r="BD47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE47" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="BD28" s="14"/>
-      <c r="BE28" s="11">
+      <c r="BF47" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG47" s="11">
+        <v>57</v>
+      </c>
+      <c r="BH47" s="11">
+        <v>2019</v>
+      </c>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="4"/>
+      <c r="BM47" s="4"/>
+      <c r="BN47" s="35"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+    </row>
+    <row r="48" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB48" s="11">
+        <v>43</v>
+      </c>
+      <c r="BC48" s="11">
+        <v>15</v>
+      </c>
+      <c r="BD48" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE48" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF48" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG48" s="11">
+        <v>96</v>
+      </c>
+      <c r="BH48" s="11">
+        <v>2011</v>
+      </c>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="4"/>
+      <c r="BM48" s="4"/>
+      <c r="BN48" s="35"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+    </row>
+    <row r="49" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB49" s="11">
+        <v>44</v>
+      </c>
+      <c r="BC49" s="11">
+        <v>15</v>
+      </c>
+      <c r="BD49" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE49" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF49" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG49" s="11">
+        <v>56</v>
+      </c>
+      <c r="BH49" s="11">
+        <v>2013</v>
+      </c>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="4"/>
+      <c r="BM49" s="4"/>
+      <c r="BN49" s="35"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+    </row>
+    <row r="50" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB50" s="11">
+        <v>45</v>
+      </c>
+      <c r="BC50" s="11">
+        <v>15</v>
+      </c>
+      <c r="BD50" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE50" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF50" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG50" s="11">
+        <v>65</v>
+      </c>
+      <c r="BH50" s="11">
+        <v>2017</v>
+      </c>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="4"/>
+      <c r="BM50" s="4"/>
+      <c r="BN50" s="35"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+    </row>
+    <row r="51" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB51" s="11">
+        <v>46</v>
+      </c>
+      <c r="BC51" s="11">
+        <v>16</v>
+      </c>
+      <c r="BD51" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE51" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF51" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG51" s="11">
+        <v>76</v>
+      </c>
+      <c r="BH51" s="11">
         <v>2012</v>
       </c>
-    </row>
-    <row r="29" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="J29" s="17"/>
-      <c r="AF29" s="1"/>
-      <c r="AJ29" s="11">
-        <v>24</v>
-      </c>
-      <c r="AK29" s="11">
-        <v>5</v>
-      </c>
-      <c r="AL29" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN29" s="22">
-        <v>24</v>
-      </c>
-      <c r="AO29" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP29" s="11">
-        <v>4</v>
-      </c>
-      <c r="AQ29" s="31">
-        <v>43466</v>
-      </c>
-      <c r="AR29" s="31">
-        <v>43554</v>
-      </c>
-      <c r="AS29" s="11">
-        <v>30</v>
-      </c>
-      <c r="AU29" s="11">
-        <v>24</v>
-      </c>
-      <c r="AV29" s="11">
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="4"/>
+      <c r="BM51" s="4"/>
+      <c r="BN51" s="35"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+    </row>
+    <row r="52" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB52" s="11">
+        <v>47</v>
+      </c>
+      <c r="BC52" s="11">
+        <v>16</v>
+      </c>
+      <c r="BD52" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE52" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF52" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG52" s="11">
+        <v>56</v>
+      </c>
+      <c r="BH52" s="11">
+        <v>2014</v>
+      </c>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="4"/>
+      <c r="BM52" s="4"/>
+      <c r="BN52" s="35"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+    </row>
+    <row r="53" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB53" s="11">
+        <v>48</v>
+      </c>
+      <c r="BC53" s="11">
+        <v>16</v>
+      </c>
+      <c r="BD53" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE53" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF53" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG53" s="11">
+        <v>76</v>
+      </c>
+      <c r="BH53" s="11">
+        <v>2018</v>
+      </c>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="4"/>
+      <c r="BM53" s="4"/>
+      <c r="BN53" s="35"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+    </row>
+    <row r="54" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB54" s="11">
+        <v>49</v>
+      </c>
+      <c r="BC54" s="11">
         <v>17</v>
       </c>
-      <c r="AW29" s="22">
+      <c r="BD54" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE54" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF54" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG54" s="11">
+        <v>88</v>
+      </c>
+      <c r="BH54" s="11">
+        <v>2013</v>
+      </c>
+      <c r="BJ54" s="1"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="4"/>
+      <c r="BM54" s="4"/>
+      <c r="BN54" s="35"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+    </row>
+    <row r="55" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB55" s="11">
+        <v>50</v>
+      </c>
+      <c r="BC55" s="11">
+        <v>17</v>
+      </c>
+      <c r="BD55" s="12">
         <v>12</v>
       </c>
-      <c r="AY29" s="11">
-        <v>24</v>
-      </c>
-      <c r="AZ29" s="11">
-        <v>8</v>
-      </c>
-      <c r="BA29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB29" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC29" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD29" s="14"/>
-      <c r="BE29" s="11">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="30" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="AP30" s="1"/>
-      <c r="AY30" s="11">
-        <v>25</v>
-      </c>
-      <c r="AZ30" s="11">
-        <v>9</v>
-      </c>
-      <c r="BA30" s="12">
+      <c r="BE55" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF55" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG55" s="11">
+        <v>76</v>
+      </c>
+      <c r="BH55" s="11">
+        <v>2015</v>
+      </c>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="4"/>
+      <c r="BM55" s="4"/>
+      <c r="BN55" s="35"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+    </row>
+    <row r="56" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB56" s="11">
+        <v>51</v>
+      </c>
+      <c r="BC56" s="11">
+        <v>17</v>
+      </c>
+      <c r="BD56" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE56" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF56" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG56" s="11">
+        <v>68</v>
+      </c>
+      <c r="BH56" s="11">
+        <v>2019</v>
+      </c>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="4"/>
+      <c r="BM56" s="4"/>
+      <c r="BN56" s="35"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+    </row>
+    <row r="57" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB57" s="11">
+        <v>52</v>
+      </c>
+      <c r="BC57" s="11">
+        <v>18</v>
+      </c>
+      <c r="BD57" s="12">
         <v>10</v>
       </c>
-      <c r="BB30" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC30" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD30" s="14"/>
-      <c r="BE30" s="11">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="31" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="AY31" s="11">
-        <v>26</v>
-      </c>
-      <c r="AZ31" s="11">
-        <v>9</v>
-      </c>
-      <c r="BA31" s="12">
+      <c r="BE57" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF57" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG57" s="11">
+        <v>86</v>
+      </c>
+      <c r="BH57" s="11">
+        <v>2011</v>
+      </c>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="4"/>
+      <c r="BM57" s="4"/>
+      <c r="BN57" s="35"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+    </row>
+    <row r="58" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB58" s="11">
+        <v>53</v>
+      </c>
+      <c r="BC58" s="11">
+        <v>18</v>
+      </c>
+      <c r="BD58" s="12">
         <v>12</v>
       </c>
-      <c r="BB31" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="BC31" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD31" s="14"/>
-      <c r="BE31" s="11">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="32" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="AY32" s="11">
-        <v>27</v>
-      </c>
-      <c r="AZ32" s="11">
-        <v>9</v>
-      </c>
-      <c r="BA32" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB32" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC32" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="BD32" s="14"/>
-      <c r="BE32" s="11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="33" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY33" s="11">
-        <v>28</v>
-      </c>
-      <c r="AZ33" s="11">
+      <c r="BE58" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF58" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG58" s="11">
+        <v>57</v>
+      </c>
+      <c r="BH58" s="11">
+        <v>2013</v>
+      </c>
+      <c r="BJ58" s="1"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="4"/>
+      <c r="BM58" s="4"/>
+      <c r="BN58" s="35"/>
+      <c r="BO58" s="1"/>
+      <c r="BP58" s="1"/>
+    </row>
+    <row r="59" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB59" s="11">
+        <v>54</v>
+      </c>
+      <c r="BC59" s="11">
+        <v>18</v>
+      </c>
+      <c r="BD59" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE59" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF59" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG59" s="11">
+        <v>75</v>
+      </c>
+      <c r="BH59" s="11">
+        <v>2017</v>
+      </c>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="4"/>
+      <c r="BM59" s="4"/>
+      <c r="BN59" s="35"/>
+      <c r="BO59" s="1"/>
+      <c r="BP59" s="1"/>
+    </row>
+    <row r="60" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB60" s="11">
+        <v>55</v>
+      </c>
+      <c r="BC60" s="11">
+        <v>19</v>
+      </c>
+      <c r="BD60" s="12">
         <v>10</v>
       </c>
-      <c r="BA33" s="12">
+      <c r="BE60" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF60" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG60" s="11">
+        <v>69</v>
+      </c>
+      <c r="BH60" s="11">
+        <v>2013</v>
+      </c>
+      <c r="BJ60" s="1"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="4"/>
+      <c r="BM60" s="4"/>
+      <c r="BN60" s="35"/>
+      <c r="BO60" s="1"/>
+      <c r="BP60" s="1"/>
+    </row>
+    <row r="61" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB61" s="11">
+        <v>56</v>
+      </c>
+      <c r="BC61" s="11">
+        <v>19</v>
+      </c>
+      <c r="BD61" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE61" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF61" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG61" s="11">
+        <v>60</v>
+      </c>
+      <c r="BH61" s="11">
+        <v>2015</v>
+      </c>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="4"/>
+      <c r="BM61" s="4"/>
+      <c r="BN61" s="35"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+    </row>
+    <row r="62" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB62" s="11">
+        <v>57</v>
+      </c>
+      <c r="BC62" s="11">
+        <v>19</v>
+      </c>
+      <c r="BD62" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE62" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF62" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG62" s="11">
+        <v>61</v>
+      </c>
+      <c r="BH62" s="11">
+        <v>2019</v>
+      </c>
+      <c r="BJ62" s="1"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="4"/>
+      <c r="BM62" s="4"/>
+      <c r="BN62" s="35"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+    </row>
+    <row r="63" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB63" s="11">
+        <v>58</v>
+      </c>
+      <c r="BC63" s="11">
+        <v>20</v>
+      </c>
+      <c r="BD63" s="12">
         <v>10</v>
       </c>
-      <c r="BB33" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC33" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD33" s="14"/>
-      <c r="BE33" s="11">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="34" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY34" s="11">
-        <v>29</v>
-      </c>
-      <c r="AZ34" s="11">
-        <v>10</v>
-      </c>
-      <c r="BA34" s="12">
+      <c r="BE63" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF63" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG63" s="11">
+        <v>72</v>
+      </c>
+      <c r="BH63" s="11">
+        <v>2013</v>
+      </c>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="4"/>
+      <c r="BM63" s="4"/>
+      <c r="BN63" s="35"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+    </row>
+    <row r="64" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB64" s="11">
+        <v>59</v>
+      </c>
+      <c r="BC64" s="11">
+        <v>20</v>
+      </c>
+      <c r="BD64" s="12">
         <v>12</v>
       </c>
-      <c r="BB34" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC34" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="11">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="35" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY35" s="11">
-        <v>30</v>
-      </c>
-      <c r="AZ35" s="11">
-        <v>10</v>
-      </c>
-      <c r="BA35" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB35" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC35" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD35" s="14"/>
-      <c r="BE35" s="11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="36" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY36" s="11">
-        <v>31</v>
-      </c>
-      <c r="AZ36" s="11">
-        <v>11</v>
-      </c>
-      <c r="BA36" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB36" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="BC36" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD36" s="14"/>
-      <c r="BE36" s="11">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="37" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY37" s="11">
-        <v>32</v>
-      </c>
-      <c r="AZ37" s="11">
-        <v>11</v>
-      </c>
-      <c r="BA37" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB37" s="12" t="s">
+      <c r="BE64" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="BC37" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD37" s="14"/>
-      <c r="BE37" s="11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="38" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY38" s="11">
-        <v>33</v>
-      </c>
-      <c r="AZ38" s="11">
-        <v>11</v>
-      </c>
-      <c r="BA38" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB38" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC38" s="28" t="s">
+      <c r="BF64" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG64" s="11">
+        <v>83</v>
+      </c>
+      <c r="BH64" s="11">
+        <v>2015</v>
+      </c>
+      <c r="BJ64" s="1"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="4"/>
+      <c r="BM64" s="4"/>
+      <c r="BN64" s="35"/>
+      <c r="BO64" s="1"/>
+      <c r="BP64" s="1"/>
+    </row>
+    <row r="65" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB65" s="11">
+        <v>60</v>
+      </c>
+      <c r="BC65" s="11">
+        <v>20</v>
+      </c>
+      <c r="BD65" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE65" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="BD38" s="14"/>
-      <c r="BE38" s="11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="39" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY39" s="11">
-        <v>34</v>
-      </c>
-      <c r="AZ39" s="11">
-        <v>12</v>
-      </c>
-      <c r="BA39" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB39" s="12" t="s">
+      <c r="BF65" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BC39" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD39" s="14"/>
-      <c r="BE39" s="11">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="40" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY40" s="11">
-        <v>35</v>
-      </c>
-      <c r="AZ40" s="11">
-        <v>12</v>
-      </c>
-      <c r="BA40" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB40" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC40" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD40" s="14"/>
-      <c r="BE40" s="11">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="41" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY41" s="11">
-        <v>36</v>
-      </c>
-      <c r="AZ41" s="11">
-        <v>12</v>
-      </c>
-      <c r="BA41" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="BB41" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="BC41" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD41" s="14"/>
-      <c r="BE41" s="11">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="42" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY42" s="11">
-        <v>37</v>
-      </c>
-      <c r="AZ42" s="11">
-        <v>13</v>
-      </c>
-      <c r="BA42" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB42" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC42" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD42" s="14"/>
-      <c r="BE42" s="11">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="43" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY43" s="11">
-        <v>38</v>
-      </c>
-      <c r="AZ43" s="11">
-        <v>13</v>
-      </c>
-      <c r="BA43" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB43" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC43" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD43" s="14"/>
-      <c r="BE43" s="11">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="44" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY44" s="11">
-        <v>39</v>
-      </c>
-      <c r="AZ44" s="11">
-        <v>13</v>
-      </c>
-      <c r="BA44" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB44" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC44" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD44" s="14"/>
-      <c r="BE44" s="11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="45" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY45" s="11">
-        <v>40</v>
-      </c>
-      <c r="AZ45" s="11">
-        <v>14</v>
-      </c>
-      <c r="BA45" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB45" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC45" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD45" s="14"/>
-      <c r="BE45" s="11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="46" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY46" s="11">
-        <v>41</v>
-      </c>
-      <c r="AZ46" s="11">
-        <v>14</v>
-      </c>
-      <c r="BA46" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB46" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC46" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD46" s="14"/>
-      <c r="BE46" s="11">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="47" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY47" s="11">
-        <v>42</v>
-      </c>
-      <c r="AZ47" s="11">
-        <v>14</v>
-      </c>
-      <c r="BA47" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB47" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC47" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD47" s="14"/>
-      <c r="BE47" s="11">
+      <c r="BG65" s="11">
+        <v>72</v>
+      </c>
+      <c r="BH65" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="48" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY48" s="11">
-        <v>43</v>
-      </c>
-      <c r="AZ48" s="11">
-        <v>15</v>
-      </c>
-      <c r="BA48" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB48" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC48" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD48" s="14"/>
-      <c r="BE48" s="11">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="49" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY49" s="11">
-        <v>44</v>
-      </c>
-      <c r="AZ49" s="11">
-        <v>15</v>
-      </c>
-      <c r="BA49" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB49" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC49" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD49" s="14"/>
-      <c r="BE49" s="11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="50" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY50" s="11">
-        <v>45</v>
-      </c>
-      <c r="AZ50" s="11">
-        <v>15</v>
-      </c>
-      <c r="BA50" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB50" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC50" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD50" s="14"/>
-      <c r="BE50" s="11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="51" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY51" s="11">
-        <v>46</v>
-      </c>
-      <c r="AZ51" s="11">
-        <v>16</v>
-      </c>
-      <c r="BA51" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB51" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="BC51" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD51" s="14"/>
-      <c r="BE51" s="11">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="52" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY52" s="11">
-        <v>47</v>
-      </c>
-      <c r="AZ52" s="11">
-        <v>16</v>
-      </c>
-      <c r="BA52" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB52" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC52" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="BD52" s="14"/>
-      <c r="BE52" s="11">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="53" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY53" s="11">
-        <v>48</v>
-      </c>
-      <c r="AZ53" s="11">
-        <v>16</v>
-      </c>
-      <c r="BA53" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB53" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC53" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD53" s="14"/>
-      <c r="BE53" s="11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="54" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY54" s="11">
-        <v>49</v>
-      </c>
-      <c r="AZ54" s="11">
-        <v>17</v>
-      </c>
-      <c r="BA54" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB54" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC54" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD54" s="14"/>
-      <c r="BE54" s="11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="55" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY55" s="11">
-        <v>50</v>
-      </c>
-      <c r="AZ55" s="11">
-        <v>17</v>
-      </c>
-      <c r="BA55" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB55" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC55" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD55" s="14"/>
-      <c r="BE55" s="11">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="56" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY56" s="11">
-        <v>51</v>
-      </c>
-      <c r="AZ56" s="11">
-        <v>17</v>
-      </c>
-      <c r="BA56" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB56" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC56" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD56" s="14"/>
-      <c r="BE56" s="11">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="57" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY57" s="11">
-        <v>52</v>
-      </c>
-      <c r="AZ57" s="11">
-        <v>18</v>
-      </c>
-      <c r="BA57" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB57" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BC57" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD57" s="14"/>
-      <c r="BE57" s="11">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="58" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY58" s="11">
-        <v>53</v>
-      </c>
-      <c r="AZ58" s="11">
-        <v>18</v>
-      </c>
-      <c r="BA58" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB58" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC58" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD58" s="14"/>
-      <c r="BE58" s="11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="59" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY59" s="11">
-        <v>54</v>
-      </c>
-      <c r="AZ59" s="11">
-        <v>18</v>
-      </c>
-      <c r="BA59" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB59" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="BC59" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD59" s="14"/>
-      <c r="BE59" s="11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="60" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY60" s="11">
-        <v>55</v>
-      </c>
-      <c r="AZ60" s="11">
-        <v>19</v>
-      </c>
-      <c r="BA60" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB60" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC60" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD60" s="14"/>
-      <c r="BE60" s="11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="61" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY61" s="11">
-        <v>56</v>
-      </c>
-      <c r="AZ61" s="11">
-        <v>19</v>
-      </c>
-      <c r="BA61" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB61" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC61" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD61" s="14"/>
-      <c r="BE61" s="11">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="62" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY62" s="11">
-        <v>57</v>
-      </c>
-      <c r="AZ62" s="11">
-        <v>19</v>
-      </c>
-      <c r="BA62" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB62" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC62" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD62" s="14"/>
-      <c r="BE62" s="11">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="63" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY63" s="11">
-        <v>58</v>
-      </c>
-      <c r="AZ63" s="11">
-        <v>20</v>
-      </c>
-      <c r="BA63" s="12">
-        <v>10</v>
-      </c>
-      <c r="BB63" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="BC63" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD63" s="14"/>
-      <c r="BE63" s="11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="64" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY64" s="11">
-        <v>59</v>
-      </c>
-      <c r="AZ64" s="11">
-        <v>20</v>
-      </c>
-      <c r="BA64" s="12">
-        <v>12</v>
-      </c>
-      <c r="BB64" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BC64" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD64" s="14"/>
-      <c r="BE64" s="11">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="65" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY65" s="11">
-        <v>60</v>
-      </c>
-      <c r="AZ65" s="11">
-        <v>20</v>
-      </c>
-      <c r="BA65" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB65" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="BC65" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="BD65" s="14"/>
-      <c r="BE65" s="11">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="66" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY66" s="1"/>
-      <c r="AZ66" s="1"/>
-      <c r="BA66" s="4"/>
-      <c r="BB66" s="24"/>
-      <c r="BC66" s="17"/>
-      <c r="BE66" s="1"/>
-    </row>
-    <row r="67" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY67" s="1"/>
-      <c r="AZ67" s="1"/>
-      <c r="BA67" s="4"/>
-      <c r="BB67" s="24"/>
-      <c r="BC67" s="17"/>
-      <c r="BE67" s="1"/>
-    </row>
-    <row r="68" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY68" s="1"/>
-      <c r="AZ68" s="1"/>
-      <c r="BA68" s="4"/>
-      <c r="BB68" s="24"/>
-      <c r="BC68" s="17"/>
-      <c r="BE68" s="1"/>
-    </row>
-    <row r="69" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY69" s="1"/>
-      <c r="AZ69" s="1"/>
-      <c r="BA69" s="4"/>
-      <c r="BB69" s="24"/>
-      <c r="BC69" s="17"/>
-      <c r="BE69" s="1"/>
-    </row>
-    <row r="70" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY70" s="1"/>
-      <c r="AZ70" s="1"/>
-      <c r="BA70" s="4"/>
-      <c r="BB70" s="24"/>
-      <c r="BC70" s="17"/>
-      <c r="BE70" s="1"/>
-    </row>
-    <row r="71" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="4"/>
-      <c r="BB71" s="24"/>
-      <c r="BC71" s="17"/>
-      <c r="BE71" s="1"/>
-    </row>
-    <row r="72" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY72" s="1"/>
-      <c r="AZ72" s="1"/>
-      <c r="BA72" s="4"/>
-      <c r="BB72" s="24"/>
-      <c r="BC72" s="17"/>
-      <c r="BE72" s="1"/>
-    </row>
-    <row r="73" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY73" s="1"/>
-      <c r="AZ73" s="1"/>
-      <c r="BA73" s="4"/>
-      <c r="BB73" s="24"/>
-      <c r="BC73" s="17"/>
-      <c r="BE73" s="1"/>
-    </row>
-    <row r="74" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY74" s="1"/>
-      <c r="AZ74" s="1"/>
-      <c r="BA74" s="4"/>
-      <c r="BB74" s="24"/>
-      <c r="BC74" s="17"/>
-      <c r="BE74" s="1"/>
-    </row>
-    <row r="75" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY75" s="1"/>
-      <c r="AZ75" s="1"/>
-      <c r="BA75" s="4"/>
-      <c r="BB75" s="24"/>
-      <c r="BC75" s="17"/>
-      <c r="BE75" s="1"/>
-    </row>
-    <row r="76" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY76" s="1"/>
-      <c r="AZ76" s="1"/>
-      <c r="BA76" s="4"/>
-      <c r="BB76" s="24"/>
-      <c r="BC76" s="17"/>
-      <c r="BE76" s="1"/>
-    </row>
-    <row r="77" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY77" s="1"/>
-      <c r="AZ77" s="1"/>
-      <c r="BA77" s="4"/>
-      <c r="BB77" s="24"/>
-      <c r="BC77" s="17"/>
-      <c r="BE77" s="1"/>
-    </row>
-    <row r="78" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY78" s="1"/>
-      <c r="AZ78" s="1"/>
-      <c r="BA78" s="4"/>
-      <c r="BB78" s="24"/>
-      <c r="BC78" s="17"/>
-      <c r="BE78" s="1"/>
-    </row>
-    <row r="79" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY79" s="1"/>
-      <c r="AZ79" s="1"/>
-      <c r="BA79" s="4"/>
-      <c r="BB79" s="24"/>
-      <c r="BC79" s="17"/>
-      <c r="BE79" s="1"/>
-    </row>
-    <row r="80" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY80" s="1"/>
-      <c r="AZ80" s="1"/>
-      <c r="BA80" s="4"/>
-      <c r="BB80" s="24"/>
-      <c r="BC80" s="17"/>
-      <c r="BE80" s="1"/>
-    </row>
-    <row r="81" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY81" s="1"/>
-      <c r="AZ81" s="1"/>
-      <c r="BA81" s="4"/>
-      <c r="BB81" s="24"/>
-      <c r="BC81" s="17"/>
-      <c r="BE81" s="1"/>
-    </row>
-    <row r="82" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY82" s="1"/>
-      <c r="AZ82" s="21"/>
-      <c r="BA82" s="4"/>
-      <c r="BB82" s="24"/>
-      <c r="BC82" s="17"/>
-      <c r="BE82" s="1"/>
-    </row>
-    <row r="83" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY83" s="1"/>
-      <c r="AZ83" s="21"/>
-      <c r="BA83" s="4"/>
-      <c r="BB83" s="24"/>
-      <c r="BC83" s="17"/>
-      <c r="BE83" s="1"/>
-    </row>
-    <row r="84" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY84" s="1"/>
-      <c r="AZ84" s="21"/>
-      <c r="BA84" s="4"/>
-      <c r="BB84" s="24"/>
-      <c r="BC84" s="17"/>
-      <c r="BE84" s="1"/>
-    </row>
-    <row r="85" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY85" s="1"/>
-      <c r="AZ85" s="21"/>
-      <c r="BA85" s="4"/>
-      <c r="BB85" s="24"/>
-      <c r="BC85" s="17"/>
-      <c r="BE85" s="1"/>
-    </row>
-    <row r="86" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY86" s="1"/>
-      <c r="AZ86" s="21"/>
-      <c r="BA86" s="4"/>
-      <c r="BB86" s="24"/>
-      <c r="BC86" s="17"/>
-      <c r="BE86" s="1"/>
-    </row>
-    <row r="87" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY87" s="1"/>
-      <c r="AZ87" s="1"/>
-      <c r="BA87" s="4"/>
-      <c r="BB87" s="24"/>
-      <c r="BC87" s="17"/>
-      <c r="BE87" s="1"/>
-    </row>
-    <row r="88" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY88" s="21"/>
-      <c r="AZ88" s="21"/>
-      <c r="BA88" s="23"/>
-      <c r="BB88" s="26"/>
-      <c r="BC88" s="27"/>
-      <c r="BE88" s="1"/>
-    </row>
-    <row r="89" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY89" s="21"/>
-      <c r="AZ89" s="21"/>
-      <c r="BA89" s="23"/>
-      <c r="BB89" s="26"/>
-      <c r="BC89" s="27"/>
-      <c r="BE89" s="1"/>
-    </row>
-    <row r="90" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY90" s="21"/>
-      <c r="AZ90" s="21"/>
-      <c r="BA90" s="23"/>
-      <c r="BB90" s="26"/>
-      <c r="BC90" s="27"/>
-      <c r="BE90" s="1"/>
-    </row>
-    <row r="91" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY91" s="21"/>
-      <c r="AZ91" s="1"/>
-      <c r="BA91" s="4"/>
-      <c r="BB91" s="24"/>
-      <c r="BC91" s="17"/>
-      <c r="BE91" s="1"/>
-    </row>
-    <row r="92" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY92" s="21"/>
-      <c r="AZ92" s="1"/>
-      <c r="BA92" s="4"/>
-      <c r="BB92" s="24"/>
-      <c r="BC92" s="17"/>
-      <c r="BE92" s="1"/>
-    </row>
-    <row r="93" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY93" s="21"/>
-      <c r="AZ93" s="1"/>
-      <c r="BA93" s="4"/>
-      <c r="BB93" s="24"/>
-      <c r="BC93" s="17"/>
-      <c r="BE93" s="1"/>
-    </row>
-    <row r="94" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY94" s="21"/>
-      <c r="AZ94" s="1"/>
-      <c r="BA94" s="4"/>
-      <c r="BB94" s="24"/>
-      <c r="BC94" s="17"/>
-      <c r="BE94" s="1"/>
-    </row>
-    <row r="95" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY95" s="21"/>
-      <c r="AZ95" s="21"/>
-      <c r="BA95" s="4"/>
-      <c r="BB95" s="24"/>
-      <c r="BC95" s="17"/>
-      <c r="BE95" s="1"/>
-    </row>
-    <row r="96" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY96" s="21"/>
-      <c r="AZ96" s="21"/>
-      <c r="BA96" s="4"/>
-      <c r="BB96" s="24"/>
-      <c r="BC96" s="17"/>
-      <c r="BE96" s="1"/>
-    </row>
-    <row r="97" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY97" s="21"/>
-      <c r="AZ97" s="21"/>
-      <c r="BA97" s="4"/>
-      <c r="BB97" s="24"/>
-      <c r="BC97" s="17"/>
-      <c r="BE97" s="1"/>
-    </row>
-    <row r="98" spans="51:57" x14ac:dyDescent="0.25">
-      <c r="AY98" s="21"/>
-      <c r="AZ98" s="21"/>
-      <c r="BB98" s="24"/>
-      <c r="BC98" s="17"/>
-      <c r="BE98" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="4"/>
+      <c r="BM65" s="4"/>
+      <c r="BN65" s="35"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+    </row>
+    <row r="66" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="4"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="17"/>
+      <c r="BH66" s="1"/>
+      <c r="BJ66" s="1"/>
+      <c r="BK66" s="1"/>
+      <c r="BL66" s="4"/>
+      <c r="BM66" s="24"/>
+      <c r="BN66" s="17"/>
+      <c r="BP66" s="1"/>
+    </row>
+    <row r="67" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="4"/>
+      <c r="BE67" s="24"/>
+      <c r="BF67" s="17"/>
+      <c r="BH67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="4"/>
+      <c r="BM67" s="24"/>
+      <c r="BN67" s="17"/>
+      <c r="BP67" s="1"/>
+    </row>
+    <row r="68" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="4"/>
+      <c r="BE68" s="24"/>
+      <c r="BF68" s="17"/>
+      <c r="BH68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="4"/>
+      <c r="BM68" s="24"/>
+      <c r="BN68" s="17"/>
+      <c r="BP68" s="1"/>
+    </row>
+    <row r="69" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="4"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="17"/>
+      <c r="BH69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="4"/>
+      <c r="BM69" s="24"/>
+      <c r="BN69" s="17"/>
+      <c r="BP69" s="1"/>
+    </row>
+    <row r="70" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="4"/>
+      <c r="BE70" s="24"/>
+      <c r="BF70" s="17"/>
+      <c r="BH70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="4"/>
+      <c r="BM70" s="24"/>
+      <c r="BN70" s="17"/>
+      <c r="BP70" s="1"/>
+    </row>
+    <row r="71" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="4"/>
+      <c r="BE71" s="24"/>
+      <c r="BF71" s="17"/>
+      <c r="BH71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="4"/>
+      <c r="BM71" s="24"/>
+      <c r="BN71" s="17"/>
+      <c r="BP71" s="1"/>
+    </row>
+    <row r="72" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="4"/>
+      <c r="BE72" s="24"/>
+      <c r="BF72" s="17"/>
+      <c r="BH72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="4"/>
+      <c r="BM72" s="24"/>
+      <c r="BN72" s="17"/>
+      <c r="BP72" s="1"/>
+    </row>
+    <row r="73" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="4"/>
+      <c r="BE73" s="24"/>
+      <c r="BF73" s="17"/>
+      <c r="BH73" s="1"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="4"/>
+      <c r="BM73" s="24"/>
+      <c r="BN73" s="17"/>
+      <c r="BP73" s="1"/>
+    </row>
+    <row r="74" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="4"/>
+      <c r="BE74" s="24"/>
+      <c r="BF74" s="17"/>
+      <c r="BH74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="4"/>
+      <c r="BM74" s="24"/>
+      <c r="BN74" s="17"/>
+      <c r="BP74" s="1"/>
+    </row>
+    <row r="75" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="4"/>
+      <c r="BE75" s="24"/>
+      <c r="BF75" s="17"/>
+      <c r="BH75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="4"/>
+      <c r="BM75" s="24"/>
+      <c r="BN75" s="17"/>
+      <c r="BP75" s="1"/>
+    </row>
+    <row r="76" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="4"/>
+      <c r="BE76" s="24"/>
+      <c r="BF76" s="17"/>
+      <c r="BH76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="4"/>
+      <c r="BM76" s="24"/>
+      <c r="BN76" s="17"/>
+      <c r="BP76" s="1"/>
+    </row>
+    <row r="77" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="4"/>
+      <c r="BE77" s="24"/>
+      <c r="BF77" s="17"/>
+      <c r="BH77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="4"/>
+      <c r="BM77" s="24"/>
+      <c r="BN77" s="17"/>
+      <c r="BP77" s="1"/>
+    </row>
+    <row r="78" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="4"/>
+      <c r="BE78" s="24"/>
+      <c r="BF78" s="17"/>
+      <c r="BH78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="4"/>
+      <c r="BM78" s="24"/>
+      <c r="BN78" s="17"/>
+      <c r="BP78" s="1"/>
+    </row>
+    <row r="79" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="4"/>
+      <c r="BE79" s="24"/>
+      <c r="BF79" s="17"/>
+      <c r="BH79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="4"/>
+      <c r="BM79" s="24"/>
+      <c r="BN79" s="17"/>
+      <c r="BP79" s="1"/>
+    </row>
+    <row r="80" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="4"/>
+      <c r="BE80" s="24"/>
+      <c r="BF80" s="17"/>
+      <c r="BH80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="4"/>
+      <c r="BM80" s="24"/>
+      <c r="BN80" s="17"/>
+      <c r="BP80" s="1"/>
+    </row>
+    <row r="81" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="4"/>
+      <c r="BE81" s="24"/>
+      <c r="BF81" s="17"/>
+      <c r="BH81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="4"/>
+      <c r="BM81" s="24"/>
+      <c r="BN81" s="17"/>
+      <c r="BP81" s="1"/>
+    </row>
+    <row r="82" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="21"/>
+      <c r="BD82" s="4"/>
+      <c r="BE82" s="24"/>
+      <c r="BF82" s="17"/>
+      <c r="BH82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="21"/>
+      <c r="BL82" s="4"/>
+      <c r="BM82" s="24"/>
+      <c r="BN82" s="17"/>
+      <c r="BP82" s="1"/>
+    </row>
+    <row r="83" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="21"/>
+      <c r="BD83" s="4"/>
+      <c r="BE83" s="24"/>
+      <c r="BF83" s="17"/>
+      <c r="BH83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="21"/>
+      <c r="BL83" s="4"/>
+      <c r="BM83" s="24"/>
+      <c r="BN83" s="17"/>
+      <c r="BP83" s="1"/>
+    </row>
+    <row r="84" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="21"/>
+      <c r="BD84" s="4"/>
+      <c r="BE84" s="24"/>
+      <c r="BF84" s="17"/>
+      <c r="BH84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="21"/>
+      <c r="BL84" s="4"/>
+      <c r="BM84" s="24"/>
+      <c r="BN84" s="17"/>
+      <c r="BP84" s="1"/>
+    </row>
+    <row r="85" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="21"/>
+      <c r="BD85" s="4"/>
+      <c r="BE85" s="24"/>
+      <c r="BF85" s="17"/>
+      <c r="BH85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="21"/>
+      <c r="BL85" s="4"/>
+      <c r="BM85" s="24"/>
+      <c r="BN85" s="17"/>
+      <c r="BP85" s="1"/>
+    </row>
+    <row r="86" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="21"/>
+      <c r="BD86" s="4"/>
+      <c r="BE86" s="24"/>
+      <c r="BF86" s="17"/>
+      <c r="BH86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="21"/>
+      <c r="BL86" s="4"/>
+      <c r="BM86" s="24"/>
+      <c r="BN86" s="17"/>
+      <c r="BP86" s="1"/>
+    </row>
+    <row r="87" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="4"/>
+      <c r="BE87" s="24"/>
+      <c r="BF87" s="17"/>
+      <c r="BH87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="4"/>
+      <c r="BM87" s="24"/>
+      <c r="BN87" s="17"/>
+      <c r="BP87" s="1"/>
+    </row>
+    <row r="88" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB88" s="21"/>
+      <c r="BC88" s="21"/>
+      <c r="BD88" s="23"/>
+      <c r="BE88" s="26"/>
+      <c r="BF88" s="27"/>
+      <c r="BH88" s="1"/>
+      <c r="BJ88" s="21"/>
+      <c r="BK88" s="21"/>
+      <c r="BL88" s="23"/>
+      <c r="BM88" s="26"/>
+      <c r="BN88" s="27"/>
+      <c r="BP88" s="1"/>
+    </row>
+    <row r="89" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB89" s="21"/>
+      <c r="BC89" s="21"/>
+      <c r="BD89" s="23"/>
+      <c r="BE89" s="26"/>
+      <c r="BF89" s="27"/>
+      <c r="BH89" s="1"/>
+      <c r="BJ89" s="21"/>
+      <c r="BK89" s="21"/>
+      <c r="BL89" s="23"/>
+      <c r="BM89" s="26"/>
+      <c r="BN89" s="27"/>
+      <c r="BP89" s="1"/>
+    </row>
+    <row r="90" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB90" s="21"/>
+      <c r="BC90" s="21"/>
+      <c r="BD90" s="23"/>
+      <c r="BE90" s="26"/>
+      <c r="BF90" s="27"/>
+      <c r="BH90" s="1"/>
+      <c r="BJ90" s="21"/>
+      <c r="BK90" s="21"/>
+      <c r="BL90" s="23"/>
+      <c r="BM90" s="26"/>
+      <c r="BN90" s="27"/>
+      <c r="BP90" s="1"/>
+    </row>
+    <row r="91" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB91" s="21"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="4"/>
+      <c r="BE91" s="24"/>
+      <c r="BF91" s="17"/>
+      <c r="BH91" s="1"/>
+      <c r="BJ91" s="21"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="4"/>
+      <c r="BM91" s="24"/>
+      <c r="BN91" s="17"/>
+      <c r="BP91" s="1"/>
+    </row>
+    <row r="92" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB92" s="21"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="4"/>
+      <c r="BE92" s="24"/>
+      <c r="BF92" s="17"/>
+      <c r="BH92" s="1"/>
+      <c r="BJ92" s="21"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="4"/>
+      <c r="BM92" s="24"/>
+      <c r="BN92" s="17"/>
+      <c r="BP92" s="1"/>
+    </row>
+    <row r="93" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB93" s="21"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="4"/>
+      <c r="BE93" s="24"/>
+      <c r="BF93" s="17"/>
+      <c r="BH93" s="1"/>
+      <c r="BJ93" s="21"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="4"/>
+      <c r="BM93" s="24"/>
+      <c r="BN93" s="17"/>
+      <c r="BP93" s="1"/>
+    </row>
+    <row r="94" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB94" s="21"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="4"/>
+      <c r="BE94" s="24"/>
+      <c r="BF94" s="17"/>
+      <c r="BH94" s="1"/>
+      <c r="BJ94" s="21"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="4"/>
+      <c r="BM94" s="24"/>
+      <c r="BN94" s="17"/>
+      <c r="BP94" s="1"/>
+    </row>
+    <row r="95" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB95" s="21"/>
+      <c r="BC95" s="21"/>
+      <c r="BD95" s="4"/>
+      <c r="BE95" s="24"/>
+      <c r="BF95" s="17"/>
+      <c r="BH95" s="1"/>
+      <c r="BJ95" s="21"/>
+      <c r="BK95" s="21"/>
+      <c r="BL95" s="4"/>
+      <c r="BM95" s="24"/>
+      <c r="BN95" s="17"/>
+      <c r="BP95" s="1"/>
+    </row>
+    <row r="96" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB96" s="21"/>
+      <c r="BC96" s="21"/>
+      <c r="BD96" s="4"/>
+      <c r="BE96" s="24"/>
+      <c r="BF96" s="17"/>
+      <c r="BH96" s="1"/>
+      <c r="BJ96" s="21"/>
+      <c r="BK96" s="21"/>
+      <c r="BL96" s="4"/>
+      <c r="BM96" s="24"/>
+      <c r="BN96" s="17"/>
+      <c r="BP96" s="1"/>
+    </row>
+    <row r="97" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB97" s="21"/>
+      <c r="BC97" s="21"/>
+      <c r="BD97" s="4"/>
+      <c r="BE97" s="24"/>
+      <c r="BF97" s="17"/>
+      <c r="BH97" s="1"/>
+      <c r="BJ97" s="21"/>
+      <c r="BK97" s="21"/>
+      <c r="BL97" s="4"/>
+      <c r="BM97" s="24"/>
+      <c r="BN97" s="17"/>
+      <c r="BP97" s="1"/>
+    </row>
+    <row r="98" spans="54:68" x14ac:dyDescent="0.25">
+      <c r="BB98" s="21"/>
+      <c r="BC98" s="21"/>
+      <c r="BE98" s="24"/>
+      <c r="BF98" s="17"/>
+      <c r="BH98" s="1"/>
+      <c r="BJ98" s="21"/>
+      <c r="BK98" s="21"/>
+      <c r="BM98" s="24"/>
+      <c r="BN98" s="17"/>
+      <c r="BP98" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AM4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -1884,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BP98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BP98"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BM14" sqref="BM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,6 +4847,15 @@
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="J26" s="17"/>
+      <c r="M26" s="11">
+        <v>21</v>
+      </c>
+      <c r="N26" s="11">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11">
+        <v>7132300034</v>
+      </c>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
@@ -4921,6 +4930,15 @@
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="J27" s="17"/>
+      <c r="M27" s="11">
+        <v>22</v>
+      </c>
+      <c r="N27" s="11">
+        <v>2</v>
+      </c>
+      <c r="O27" s="11">
+        <v>7132300039</v>
+      </c>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
@@ -4995,6 +5013,15 @@
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="J28" s="17"/>
+      <c r="M28" s="11">
+        <v>23</v>
+      </c>
+      <c r="N28" s="11">
+        <v>3</v>
+      </c>
+      <c r="O28" s="11">
+        <v>7132300050</v>
+      </c>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
@@ -5065,6 +5092,15 @@
     </row>
     <row r="29" spans="2:68" x14ac:dyDescent="0.25">
       <c r="J29" s="17"/>
+      <c r="M29" s="11">
+        <v>24</v>
+      </c>
+      <c r="N29" s="11">
+        <v>4</v>
+      </c>
+      <c r="O29" s="11">
+        <v>7132300027</v>
+      </c>
       <c r="AI29" s="1"/>
       <c r="AM29" s="11">
         <v>24</v>
@@ -5132,6 +5168,15 @@
       <c r="BP29" s="1"/>
     </row>
     <row r="30" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="M30" s="11">
+        <v>25</v>
+      </c>
+      <c r="N30" s="11">
+        <v>5</v>
+      </c>
+      <c r="O30" s="11">
+        <v>7032300001</v>
+      </c>
       <c r="AS30" s="1"/>
       <c r="BB30" s="11">
         <v>25</v>
@@ -5163,6 +5208,15 @@
       <c r="BP30" s="1"/>
     </row>
     <row r="31" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="M31" s="11">
+        <v>26</v>
+      </c>
+      <c r="N31" s="11">
+        <v>6</v>
+      </c>
+      <c r="O31" s="11">
+        <v>7132300079</v>
+      </c>
       <c r="BB31" s="11">
         <v>26</v>
       </c>
@@ -5193,6 +5247,15 @@
       <c r="BP31" s="1"/>
     </row>
     <row r="32" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="M32" s="11">
+        <v>27</v>
+      </c>
+      <c r="N32" s="11">
+        <v>7</v>
+      </c>
+      <c r="O32" s="11">
+        <v>7132300081</v>
+      </c>
       <c r="BB32" s="11">
         <v>27</v>
       </c>
@@ -5222,7 +5285,16 @@
       <c r="BO32" s="1"/>
       <c r="BP32" s="1"/>
     </row>
-    <row r="33" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="M33" s="11">
+        <v>28</v>
+      </c>
+      <c r="N33" s="11">
+        <v>8</v>
+      </c>
+      <c r="O33" s="11">
+        <v>7132300054</v>
+      </c>
       <c r="BB33" s="11">
         <v>28</v>
       </c>
@@ -5252,7 +5324,16 @@
       <c r="BO33" s="1"/>
       <c r="BP33" s="1"/>
     </row>
-    <row r="34" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="M34" s="11">
+        <v>29</v>
+      </c>
+      <c r="N34" s="11">
+        <v>9</v>
+      </c>
+      <c r="O34" s="11">
+        <v>7132300059</v>
+      </c>
       <c r="BB34" s="11">
         <v>29</v>
       </c>
@@ -5282,7 +5363,16 @@
       <c r="BO34" s="1"/>
       <c r="BP34" s="1"/>
     </row>
-    <row r="35" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="M35" s="11">
+        <v>30</v>
+      </c>
+      <c r="N35" s="11">
+        <v>10</v>
+      </c>
+      <c r="O35" s="11">
+        <v>7132300086</v>
+      </c>
       <c r="BB35" s="11">
         <v>30</v>
       </c>
@@ -5312,7 +5402,16 @@
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
     </row>
-    <row r="36" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="M36" s="11">
+        <v>31</v>
+      </c>
+      <c r="N36" s="11">
+        <v>11</v>
+      </c>
+      <c r="O36" s="11">
+        <v>7132300082</v>
+      </c>
       <c r="BB36" s="11">
         <v>31</v>
       </c>
@@ -5342,7 +5441,16 @@
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
     </row>
-    <row r="37" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="M37" s="11">
+        <v>32</v>
+      </c>
+      <c r="N37" s="11">
+        <v>12</v>
+      </c>
+      <c r="O37" s="11">
+        <v>7132300042</v>
+      </c>
       <c r="BB37" s="11">
         <v>32</v>
       </c>
@@ -5372,7 +5480,16 @@
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
     </row>
-    <row r="38" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="M38" s="11">
+        <v>33</v>
+      </c>
+      <c r="N38" s="11">
+        <v>13</v>
+      </c>
+      <c r="O38" s="11">
+        <v>7132300055</v>
+      </c>
       <c r="BB38" s="11">
         <v>33</v>
       </c>
@@ -5402,7 +5519,16 @@
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
     </row>
-    <row r="39" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="M39" s="11">
+        <v>34</v>
+      </c>
+      <c r="N39" s="11">
+        <v>13</v>
+      </c>
+      <c r="O39" s="11">
+        <v>7132300055</v>
+      </c>
       <c r="BB39" s="11">
         <v>34</v>
       </c>
@@ -5432,7 +5558,16 @@
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
     </row>
-    <row r="40" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="M40" s="11">
+        <v>35</v>
+      </c>
+      <c r="N40" s="11">
+        <v>13</v>
+      </c>
+      <c r="O40" s="11">
+        <v>7132300055</v>
+      </c>
       <c r="BB40" s="11">
         <v>35</v>
       </c>
@@ -5462,7 +5597,7 @@
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
     </row>
-    <row r="41" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:68" x14ac:dyDescent="0.25">
       <c r="BB41" s="11">
         <v>36</v>
       </c>
@@ -5492,7 +5627,7 @@
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
     </row>
-    <row r="42" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:68" x14ac:dyDescent="0.25">
       <c r="BB42" s="11">
         <v>37</v>
       </c>
@@ -5522,7 +5657,7 @@
       <c r="BO42" s="1"/>
       <c r="BP42" s="1"/>
     </row>
-    <row r="43" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:68" x14ac:dyDescent="0.25">
       <c r="BB43" s="11">
         <v>38</v>
       </c>
@@ -5552,7 +5687,7 @@
       <c r="BO43" s="1"/>
       <c r="BP43" s="1"/>
     </row>
-    <row r="44" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:68" x14ac:dyDescent="0.25">
       <c r="BB44" s="11">
         <v>39</v>
       </c>
@@ -5582,7 +5717,7 @@
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
     </row>
-    <row r="45" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:68" x14ac:dyDescent="0.25">
       <c r="BB45" s="11">
         <v>40</v>
       </c>
@@ -5612,7 +5747,7 @@
       <c r="BO45" s="1"/>
       <c r="BP45" s="1"/>
     </row>
-    <row r="46" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:68" x14ac:dyDescent="0.25">
       <c r="BB46" s="11">
         <v>41</v>
       </c>
@@ -5642,7 +5777,7 @@
       <c r="BO46" s="1"/>
       <c r="BP46" s="1"/>
     </row>
-    <row r="47" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:68" x14ac:dyDescent="0.25">
       <c r="BB47" s="11">
         <v>42</v>
       </c>
@@ -5672,7 +5807,7 @@
       <c r="BO47" s="1"/>
       <c r="BP47" s="1"/>
     </row>
-    <row r="48" spans="54:68" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:68" x14ac:dyDescent="0.25">
       <c r="BB48" s="11">
         <v>43</v>
       </c>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -1882,20 +1882,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:BP98"/>
+  <dimension ref="B4:BU98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BM14" sqref="BM14"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="6" customWidth="1"/>
     <col min="8" max="9" width="13.140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="6" customWidth="1"/>
@@ -1923,41 +1923,46 @@
     <col min="32" max="32" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="43.28515625" style="6" customWidth="1"/>
     <col min="34" max="34" width="3.85546875" style="6" customWidth="1"/>
-    <col min="35" max="35" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.42578125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.85546875" style="6" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" style="6" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="6"/>
-    <col min="41" max="41" width="14" style="6" customWidth="1"/>
-    <col min="42" max="42" width="3.85546875" style="6" customWidth="1"/>
-    <col min="43" max="43" width="6.140625" style="6" customWidth="1"/>
-    <col min="44" max="44" width="8.7109375" style="6" customWidth="1"/>
-    <col min="45" max="45" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="3.85546875" style="6" customWidth="1"/>
-    <col min="50" max="52" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="3.85546875" style="6" customWidth="1"/>
-    <col min="54" max="54" width="6.7109375" style="6" customWidth="1"/>
-    <col min="55" max="55" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.140625" style="6" customWidth="1"/>
-    <col min="58" max="58" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.140625" style="6" customWidth="1"/>
-    <col min="60" max="60" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="3.85546875" style="6" customWidth="1"/>
-    <col min="62" max="62" width="6.7109375" style="6" customWidth="1"/>
-    <col min="63" max="63" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.140625" style="6" customWidth="1"/>
-    <col min="68" max="68" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="6"/>
+    <col min="38" max="38" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.85546875" style="6" customWidth="1"/>
+    <col min="40" max="40" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.85546875" style="6" customWidth="1"/>
+    <col min="44" max="44" width="7.42578125" style="6" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="6"/>
+    <col min="46" max="46" width="14" style="6" customWidth="1"/>
+    <col min="47" max="47" width="3.85546875" style="6" customWidth="1"/>
+    <col min="48" max="48" width="6.140625" style="6" customWidth="1"/>
+    <col min="49" max="49" width="8.7109375" style="6" customWidth="1"/>
+    <col min="50" max="50" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.85546875" style="6" customWidth="1"/>
+    <col min="55" max="57" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="3.85546875" style="6" customWidth="1"/>
+    <col min="59" max="59" width="6.7109375" style="6" customWidth="1"/>
+    <col min="60" max="60" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.140625" style="6" customWidth="1"/>
+    <col min="63" max="63" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.140625" style="6" customWidth="1"/>
+    <col min="65" max="65" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="3.85546875" style="6" customWidth="1"/>
+    <col min="67" max="67" width="6.7109375" style="6" customWidth="1"/>
+    <col min="68" max="68" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.140625" style="6" customWidth="1"/>
+    <col min="73" max="73" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:68" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:73" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
@@ -1999,48 +2004,54 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AI4" s="36" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="36"/>
       <c r="AK4" s="36"/>
-      <c r="AM4" s="36" t="s">
+      <c r="AL4" s="5"/>
+      <c r="AN4" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AR4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AQ4" s="9" t="s">
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AV4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AX4" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
       <c r="AZ4" s="9"/>
-      <c r="BB4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BC4" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="BD4" s="9"/>
       <c r="BE4" s="9"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
+      <c r="BG4" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="BH4" s="9"/>
-      <c r="BJ4" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
       <c r="BK4" s="9"/>
       <c r="BL4" s="9"/>
       <c r="BM4" s="9"/>
-      <c r="BN4" s="9"/>
-      <c r="BO4" s="9"/>
+      <c r="BO4" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="BP4" s="9"/>
-    </row>
-    <row r="5" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+    </row>
+    <row r="5" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>89</v>
       </c>
@@ -2128,86 +2139,98 @@
       <c r="AK5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AL5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AO5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AT5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AQ5" s="10" t="s">
+      <c r="AV5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AR5" s="10" t="s">
+      <c r="AW5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AS5" s="10" t="s">
+      <c r="AX5" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AY5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AZ5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="BA5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="BC5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AY5" s="10" t="s">
+      <c r="BD5" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AZ5" s="10" t="s">
+      <c r="BE5" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="BB5" s="25" t="s">
+      <c r="BG5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="BC5" s="8" t="s">
+      <c r="BH5" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="BD5" s="8" t="s">
+      <c r="BI5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BE5" s="8" t="s">
+      <c r="BJ5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BF5" s="8" t="s">
+      <c r="BK5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BG5" s="8" t="s">
+      <c r="BL5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="8" t="s">
+      <c r="BM5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="25" t="s">
+      <c r="BO5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="BK5" s="8" t="s">
+      <c r="BP5" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="BL5" s="8" t="s">
+      <c r="BQ5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BM5" s="8" t="s">
+      <c r="BR5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BN5" s="8" t="s">
+      <c r="BS5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BO5" s="8" t="s">
+      <c r="BT5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BP5" s="8" t="s">
+      <c r="BU5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>1</v>
       </c>
@@ -2229,7 +2252,7 @@
       <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <v>30845</v>
       </c>
       <c r="K6" s="12" t="str">
@@ -2292,91 +2315,103 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="12" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="AK6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="11">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AL6" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="AN6" s="11">
         <v>1</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" s="11">
         <v>1</v>
       </c>
-      <c r="AQ6" s="22">
+      <c r="AR6" s="11">
         <v>1</v>
-      </c>
-      <c r="AR6" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="AS6" s="11">
         <v>1</v>
       </c>
-      <c r="AT6" s="30">
-        <v>42401</v>
-      </c>
-      <c r="AU6" s="30">
-        <v>42613</v>
-      </c>
-      <c r="AV6" s="11">
-        <v>80</v>
+      <c r="AT6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="AX6" s="11">
         <v>1</v>
       </c>
-      <c r="AY6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="11">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="11">
-        <v>1</v>
+      <c r="AY6" s="30">
+        <v>42401</v>
+      </c>
+      <c r="AZ6" s="30">
+        <v>42613</v>
+      </c>
+      <c r="BA6" s="11">
+        <v>80</v>
       </c>
       <c r="BC6" s="11">
         <v>1</v>
       </c>
-      <c r="BD6" s="12">
+      <c r="BD6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="12">
         <v>10</v>
       </c>
-      <c r="BE6" s="12" t="s">
+      <c r="BJ6" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF6" s="28" t="s">
+      <c r="BK6" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="BG6" s="11">
+      <c r="BL6" s="11">
         <v>67</v>
       </c>
-      <c r="BH6" s="11">
+      <c r="BM6" s="11">
         <v>2012</v>
       </c>
-      <c r="BJ6" s="11">
+      <c r="BO6" s="11">
         <v>1</v>
       </c>
-      <c r="BK6" s="11">
+      <c r="BP6" s="11">
         <v>1</v>
       </c>
-      <c r="BL6" s="12">
+      <c r="BQ6" s="12">
         <v>10</v>
       </c>
-      <c r="BM6" s="12" t="s">
+      <c r="BR6" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BN6" s="28" t="s">
+      <c r="BS6" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="BO6" s="11">
+      <c r="BT6" s="11">
         <v>67</v>
       </c>
-      <c r="BP6" s="11">
+      <c r="BU6" s="11">
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>2</v>
       </c>
@@ -2398,7 +2433,7 @@
       <c r="I7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <v>25501</v>
       </c>
       <c r="K7" s="12" t="str">
@@ -2461,91 +2496,103 @@
         <v>2</v>
       </c>
       <c r="AJ7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AP7" s="11">
         <v>1</v>
       </c>
-      <c r="AM7" s="11">
+      <c r="AR7" s="11">
         <v>2</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AS7" s="11">
         <v>1</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AT7" s="11">
         <v>2</v>
       </c>
-      <c r="AQ7" s="22">
+      <c r="AV7" s="22">
         <v>2</v>
       </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AW7" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="AS7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="30">
-        <v>42401</v>
-      </c>
-      <c r="AU7" s="30">
-        <v>42613</v>
-      </c>
-      <c r="AV7" s="11">
-        <v>30</v>
       </c>
       <c r="AX7" s="11">
         <v>2</v>
       </c>
-      <c r="AY7" s="11">
+      <c r="AY7" s="30">
+        <v>42401</v>
+      </c>
+      <c r="AZ7" s="30">
+        <v>42613</v>
+      </c>
+      <c r="BA7" s="11">
+        <v>30</v>
+      </c>
+      <c r="BC7" s="11">
+        <v>2</v>
+      </c>
+      <c r="BD7" s="11">
         <v>7</v>
       </c>
-      <c r="AZ7" s="11">
+      <c r="BE7" s="11">
         <v>5</v>
       </c>
-      <c r="BB7" s="11">
+      <c r="BG7" s="11">
         <v>2</v>
       </c>
-      <c r="BC7" s="11">
+      <c r="BH7" s="11">
         <v>1</v>
       </c>
-      <c r="BD7" s="12">
+      <c r="BI7" s="12">
         <v>12</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BJ7" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="BF7" s="28" t="s">
+      <c r="BK7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BG7" s="11">
+      <c r="BL7" s="11">
         <v>74</v>
       </c>
-      <c r="BH7" s="11">
+      <c r="BM7" s="11">
         <v>2014</v>
       </c>
-      <c r="BJ7" s="11">
+      <c r="BO7" s="11">
         <v>2</v>
       </c>
-      <c r="BK7" s="11">
+      <c r="BP7" s="11">
         <v>1</v>
       </c>
-      <c r="BL7" s="12">
+      <c r="BQ7" s="12">
         <v>12</v>
       </c>
-      <c r="BM7" s="12" t="s">
+      <c r="BR7" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="BN7" s="28" t="s">
+      <c r="BS7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BO7" s="11">
+      <c r="BT7" s="11">
         <v>74</v>
       </c>
-      <c r="BP7" s="11">
+      <c r="BU7" s="11">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>3</v>
       </c>
@@ -2567,7 +2614,7 @@
       <c r="I8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="13">
         <v>25866</v>
       </c>
       <c r="K8" s="12" t="str">
@@ -2630,91 +2677,103 @@
         <v>3</v>
       </c>
       <c r="AJ8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AK8" s="11">
+      <c r="AP8" s="11">
         <v>1</v>
       </c>
-      <c r="AM8" s="11">
+      <c r="AR8" s="11">
         <v>3</v>
       </c>
-      <c r="AN8" s="11">
+      <c r="AS8" s="11">
         <v>1</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AT8" s="11">
         <v>3</v>
       </c>
-      <c r="AQ8" s="22">
+      <c r="AV8" s="22">
         <v>3</v>
       </c>
-      <c r="AR8" s="12" t="s">
+      <c r="AW8" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="AS8" s="11">
-        <v>3</v>
-      </c>
-      <c r="AT8" s="30">
-        <v>42401</v>
-      </c>
-      <c r="AU8" s="30">
-        <v>42460</v>
-      </c>
-      <c r="AV8" s="11">
-        <v>35</v>
       </c>
       <c r="AX8" s="11">
         <v>3</v>
       </c>
-      <c r="AY8" s="11">
+      <c r="AY8" s="30">
+        <v>42401</v>
+      </c>
+      <c r="AZ8" s="30">
+        <v>42460</v>
+      </c>
+      <c r="BA8" s="11">
+        <v>35</v>
+      </c>
+      <c r="BC8" s="11">
         <v>3</v>
       </c>
-      <c r="AZ8" s="11">
+      <c r="BD8" s="11">
+        <v>3</v>
+      </c>
+      <c r="BE8" s="11">
         <v>4</v>
       </c>
-      <c r="BB8" s="11">
+      <c r="BG8" s="11">
         <v>3</v>
       </c>
-      <c r="BC8" s="11">
+      <c r="BH8" s="11">
         <v>1</v>
       </c>
-      <c r="BD8" s="12" t="s">
+      <c r="BI8" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE8" s="12" t="s">
+      <c r="BJ8" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="BF8" s="28" t="s">
+      <c r="BK8" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BG8" s="11">
+      <c r="BL8" s="11">
         <v>68</v>
       </c>
-      <c r="BH8" s="11">
+      <c r="BM8" s="11">
         <v>2018</v>
       </c>
-      <c r="BJ8" s="11">
+      <c r="BO8" s="11">
         <v>3</v>
       </c>
-      <c r="BK8" s="11">
+      <c r="BP8" s="11">
         <v>1</v>
       </c>
-      <c r="BL8" s="12" t="s">
+      <c r="BQ8" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BM8" s="12" t="s">
+      <c r="BR8" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="BN8" s="28" t="s">
+      <c r="BS8" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BO8" s="11">
+      <c r="BT8" s="11">
         <v>68</v>
       </c>
-      <c r="BP8" s="11">
+      <c r="BU8" s="11">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>4</v>
       </c>
@@ -2736,7 +2795,7 @@
       <c r="I9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="13">
         <v>30255</v>
       </c>
       <c r="K9" s="12" t="str">
@@ -2799,91 +2858,103 @@
         <v>4</v>
       </c>
       <c r="AJ9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK9" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN9" s="11">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AK9" s="11">
+      <c r="AP9" s="11">
         <v>1</v>
       </c>
-      <c r="AM9" s="11">
+      <c r="AR9" s="11">
         <v>4</v>
       </c>
-      <c r="AN9" s="11">
+      <c r="AS9" s="11">
         <v>1</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AT9" s="11">
         <v>4</v>
       </c>
-      <c r="AQ9" s="22">
+      <c r="AV9" s="22">
         <v>4</v>
       </c>
-      <c r="AR9" s="12" t="s">
+      <c r="AW9" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="AS9" s="11">
-        <v>4</v>
-      </c>
-      <c r="AT9" s="30">
-        <v>42552</v>
-      </c>
-      <c r="AU9" s="32">
-        <v>42643</v>
-      </c>
-      <c r="AV9" s="11">
-        <v>25</v>
       </c>
       <c r="AX9" s="11">
         <v>4</v>
       </c>
-      <c r="AY9" s="11">
+      <c r="AY9" s="30">
+        <v>42552</v>
+      </c>
+      <c r="AZ9" s="32">
+        <v>42643</v>
+      </c>
+      <c r="BA9" s="11">
+        <v>25</v>
+      </c>
+      <c r="BC9" s="11">
+        <v>4</v>
+      </c>
+      <c r="BD9" s="11">
         <v>6</v>
       </c>
-      <c r="AZ9" s="11">
+      <c r="BE9" s="11">
         <v>3</v>
       </c>
-      <c r="BB9" s="11">
+      <c r="BG9" s="11">
         <v>4</v>
       </c>
-      <c r="BC9" s="11">
+      <c r="BH9" s="11">
         <v>2</v>
       </c>
-      <c r="BD9" s="12">
+      <c r="BI9" s="12">
         <v>10</v>
       </c>
-      <c r="BE9" s="12" t="s">
+      <c r="BJ9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="BF9" s="28" t="s">
+      <c r="BK9" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BG9" s="11">
+      <c r="BL9" s="11">
         <v>68</v>
       </c>
-      <c r="BH9" s="11">
+      <c r="BM9" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ9" s="11">
+      <c r="BO9" s="11">
         <v>4</v>
       </c>
-      <c r="BK9" s="11">
+      <c r="BP9" s="11">
         <v>2</v>
       </c>
-      <c r="BL9" s="12">
+      <c r="BQ9" s="12">
         <v>10</v>
       </c>
-      <c r="BM9" s="12" t="s">
+      <c r="BR9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="BN9" s="28" t="s">
+      <c r="BS9" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BO9" s="11">
+      <c r="BT9" s="11">
         <v>68</v>
       </c>
-      <c r="BP9" s="11">
+      <c r="BU9" s="11">
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>5</v>
       </c>
@@ -2905,7 +2976,7 @@
       <c r="I10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="13">
         <v>30693</v>
       </c>
       <c r="K10" s="12" t="str">
@@ -2943,91 +3014,103 @@
         <v>5</v>
       </c>
       <c r="AJ10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AK10" s="11">
+      <c r="AP10" s="11">
         <v>1</v>
       </c>
-      <c r="AM10" s="11">
+      <c r="AR10" s="11">
         <v>5</v>
       </c>
-      <c r="AN10" s="11">
+      <c r="AS10" s="11">
         <v>1</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AT10" s="11">
         <v>5</v>
       </c>
-      <c r="AQ10" s="22">
+      <c r="AV10" s="22">
         <v>5</v>
       </c>
-      <c r="AR10" s="12" t="s">
+      <c r="AW10" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="AS10" s="11">
-        <v>5</v>
-      </c>
-      <c r="AT10" s="30">
-        <v>42552</v>
-      </c>
-      <c r="AU10" s="32">
-        <v>42643</v>
-      </c>
-      <c r="AV10" s="11">
-        <v>25</v>
       </c>
       <c r="AX10" s="11">
         <v>5</v>
       </c>
-      <c r="AY10" s="11">
+      <c r="AY10" s="30">
+        <v>42552</v>
+      </c>
+      <c r="AZ10" s="32">
+        <v>42643</v>
+      </c>
+      <c r="BA10" s="11">
+        <v>25</v>
+      </c>
+      <c r="BC10" s="11">
+        <v>5</v>
+      </c>
+      <c r="BD10" s="11">
         <v>10</v>
       </c>
-      <c r="AZ10" s="22">
+      <c r="BE10" s="22">
         <v>6</v>
       </c>
-      <c r="BB10" s="11">
+      <c r="BG10" s="11">
         <v>5</v>
       </c>
-      <c r="BC10" s="11">
+      <c r="BH10" s="11">
         <v>2</v>
       </c>
-      <c r="BD10" s="12">
+      <c r="BI10" s="12">
         <v>12</v>
       </c>
-      <c r="BE10" s="12" t="s">
+      <c r="BJ10" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="BF10" s="28" t="s">
+      <c r="BK10" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG10" s="11">
+      <c r="BL10" s="11">
         <v>56</v>
       </c>
-      <c r="BH10" s="11">
+      <c r="BM10" s="11">
         <v>2015</v>
       </c>
-      <c r="BJ10" s="11">
+      <c r="BO10" s="11">
         <v>5</v>
       </c>
-      <c r="BK10" s="11">
+      <c r="BP10" s="11">
         <v>2</v>
       </c>
-      <c r="BL10" s="12">
+      <c r="BQ10" s="12">
         <v>12</v>
       </c>
-      <c r="BM10" s="12" t="s">
+      <c r="BR10" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="BN10" s="28" t="s">
+      <c r="BS10" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BO10" s="11">
+      <c r="BT10" s="11">
         <v>56</v>
       </c>
-      <c r="BP10" s="11">
+      <c r="BU10" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3041,7 +3124,7 @@
       <c r="I11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="13">
         <v>29556</v>
       </c>
       <c r="K11" s="12" t="str">
@@ -3075,95 +3158,99 @@
       <c r="AC11" s="11">
         <v>7032303479</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="3"/>
+      <c r="AN11" s="11">
         <v>6</v>
       </c>
-      <c r="AJ11" s="12" t="s">
+      <c r="AO11" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AK11" s="11">
+      <c r="AP11" s="11">
         <v>1</v>
       </c>
-      <c r="AM11" s="11">
+      <c r="AR11" s="11">
         <v>6</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AQ11" s="22">
-        <v>6</v>
-      </c>
-      <c r="AR11" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="AS11" s="11">
         <v>1</v>
       </c>
-      <c r="AT11" s="30">
+      <c r="AT11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AV11" s="22">
+        <v>6</v>
+      </c>
+      <c r="AW11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="30">
         <v>42036</v>
       </c>
-      <c r="AU11" s="30">
+      <c r="AZ11" s="30">
         <v>42247</v>
       </c>
-      <c r="AV11" s="11">
+      <c r="BA11" s="11">
         <v>80</v>
       </c>
-      <c r="AX11" s="11">
+      <c r="BC11" s="11">
         <v>6</v>
       </c>
-      <c r="AY11" s="11">
+      <c r="BD11" s="11">
         <v>17</v>
       </c>
-      <c r="AZ11" s="22">
+      <c r="BE11" s="22">
         <v>8</v>
       </c>
-      <c r="BB11" s="11">
+      <c r="BG11" s="11">
         <v>6</v>
       </c>
-      <c r="BC11" s="11">
+      <c r="BH11" s="11">
         <v>2</v>
       </c>
-      <c r="BD11" s="12" t="s">
+      <c r="BI11" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="BE11" s="12" t="s">
+      <c r="BJ11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="BF11" s="28" t="s">
+      <c r="BK11" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG11" s="11">
+      <c r="BL11" s="11">
         <v>64</v>
       </c>
-      <c r="BH11" s="11">
+      <c r="BM11" s="11">
         <v>2019</v>
       </c>
-      <c r="BJ11" s="11">
+      <c r="BO11" s="11">
         <v>6</v>
       </c>
-      <c r="BK11" s="11">
+      <c r="BP11" s="11">
         <v>2</v>
       </c>
-      <c r="BL11" s="12" t="s">
+      <c r="BQ11" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BM11" s="12" t="s">
+      <c r="BR11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="BN11" s="28" t="s">
+      <c r="BS11" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BO11" s="11">
+      <c r="BT11" s="11">
         <v>64</v>
       </c>
-      <c r="BP11" s="11">
+      <c r="BU11" s="11">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -3177,7 +3264,7 @@
       <c r="I12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>31760</v>
       </c>
       <c r="K12" s="12" t="str">
@@ -3211,95 +3298,99 @@
       <c r="AC12" s="11">
         <v>7032306781</v>
       </c>
-      <c r="AI12" s="11">
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="3"/>
+      <c r="AN12" s="11">
         <v>7</v>
       </c>
-      <c r="AJ12" s="12" t="s">
+      <c r="AO12" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AK12" s="11">
+      <c r="AP12" s="11">
         <v>2</v>
       </c>
-      <c r="AM12" s="11">
+      <c r="AR12" s="11">
         <v>7</v>
       </c>
-      <c r="AN12" s="11">
+      <c r="AS12" s="11">
         <v>1</v>
       </c>
-      <c r="AO12" s="11">
+      <c r="AT12" s="11">
         <v>7</v>
       </c>
-      <c r="AQ12" s="22">
+      <c r="AV12" s="22">
         <v>7</v>
       </c>
-      <c r="AR12" s="12" t="s">
+      <c r="AW12" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AS12" s="11">
+      <c r="AX12" s="11">
         <v>2</v>
       </c>
-      <c r="AT12" s="30">
+      <c r="AY12" s="30">
         <v>42036</v>
       </c>
-      <c r="AU12" s="30">
+      <c r="AZ12" s="30">
         <v>42247</v>
       </c>
-      <c r="AV12" s="11">
+      <c r="BA12" s="11">
         <v>30</v>
       </c>
-      <c r="AX12" s="11">
+      <c r="BC12" s="11">
         <v>7</v>
       </c>
-      <c r="AY12" s="11">
+      <c r="BD12" s="11">
         <v>20</v>
       </c>
-      <c r="AZ12" s="22">
+      <c r="BE12" s="22">
         <v>12</v>
       </c>
-      <c r="BB12" s="11">
+      <c r="BG12" s="11">
         <v>7</v>
       </c>
-      <c r="BC12" s="11">
+      <c r="BH12" s="11">
         <v>3</v>
       </c>
-      <c r="BD12" s="12">
+      <c r="BI12" s="12">
         <v>10</v>
       </c>
-      <c r="BE12" s="12" t="s">
+      <c r="BJ12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="BF12" s="28" t="s">
+      <c r="BK12" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG12" s="11">
+      <c r="BL12" s="11">
         <v>75</v>
       </c>
-      <c r="BH12" s="11">
+      <c r="BM12" s="11">
         <v>2011</v>
       </c>
-      <c r="BJ12" s="11">
+      <c r="BO12" s="11">
         <v>7</v>
       </c>
-      <c r="BK12" s="11">
+      <c r="BP12" s="11">
         <v>3</v>
       </c>
-      <c r="BL12" s="12">
+      <c r="BQ12" s="12">
         <v>10</v>
       </c>
-      <c r="BM12" s="12" t="s">
+      <c r="BR12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="BN12" s="28" t="s">
+      <c r="BS12" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BO12" s="11">
+      <c r="BT12" s="11">
         <v>75</v>
       </c>
-      <c r="BP12" s="11">
+      <c r="BU12" s="11">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3313,7 +3404,7 @@
       <c r="I13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <v>31045</v>
       </c>
       <c r="K13" s="12" t="str">
@@ -3347,95 +3438,99 @@
       <c r="AC13" s="11">
         <v>7032390234</v>
       </c>
-      <c r="AI13" s="11">
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="3"/>
+      <c r="AN13" s="11">
         <v>8</v>
       </c>
-      <c r="AJ13" s="12" t="s">
+      <c r="AO13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AK13" s="11">
+      <c r="AP13" s="11">
         <v>2</v>
       </c>
-      <c r="AM13" s="11">
+      <c r="AR13" s="11">
         <v>8</v>
       </c>
-      <c r="AN13" s="11">
+      <c r="AS13" s="11">
         <v>1</v>
       </c>
-      <c r="AO13" s="11">
+      <c r="AT13" s="11">
         <v>8</v>
       </c>
-      <c r="AQ13" s="22">
+      <c r="AV13" s="22">
         <v>8</v>
       </c>
-      <c r="AR13" s="12" t="s">
+      <c r="AW13" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AS13" s="11">
+      <c r="AX13" s="11">
         <v>3</v>
       </c>
-      <c r="AT13" s="30">
+      <c r="AY13" s="30">
         <v>42826</v>
       </c>
-      <c r="AU13" s="33">
+      <c r="AZ13" s="33">
         <v>42886</v>
       </c>
-      <c r="AV13" s="11">
+      <c r="BA13" s="11">
         <v>30</v>
       </c>
-      <c r="AX13" s="11">
+      <c r="BC13" s="11">
         <v>8</v>
       </c>
-      <c r="AY13" s="11">
+      <c r="BD13" s="11">
         <v>1</v>
       </c>
-      <c r="AZ13" s="22">
+      <c r="BE13" s="22">
         <v>7</v>
       </c>
-      <c r="BB13" s="11">
+      <c r="BG13" s="11">
         <v>8</v>
       </c>
-      <c r="BC13" s="11">
+      <c r="BH13" s="11">
         <v>3</v>
       </c>
-      <c r="BD13" s="12">
+      <c r="BI13" s="12">
         <v>12</v>
       </c>
-      <c r="BE13" s="12" t="s">
+      <c r="BJ13" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="BF13" s="28" t="s">
+      <c r="BK13" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="BG13" s="11">
+      <c r="BL13" s="11">
         <v>86</v>
       </c>
-      <c r="BH13" s="11">
+      <c r="BM13" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ13" s="11">
+      <c r="BO13" s="11">
         <v>8</v>
       </c>
-      <c r="BK13" s="11">
+      <c r="BP13" s="11">
         <v>3</v>
       </c>
-      <c r="BL13" s="12">
+      <c r="BQ13" s="12">
         <v>12</v>
       </c>
-      <c r="BM13" s="12" t="s">
+      <c r="BR13" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="BN13" s="28" t="s">
+      <c r="BS13" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="BO13" s="11">
+      <c r="BT13" s="11">
         <v>86</v>
       </c>
-      <c r="BP13" s="11">
+      <c r="BU13" s="11">
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3449,7 +3544,7 @@
       <c r="I14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="13">
         <v>33903</v>
       </c>
       <c r="K14" s="12" t="str">
@@ -3477,95 +3572,99 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AI14" s="11">
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="3"/>
+      <c r="AN14" s="11">
         <v>9</v>
       </c>
-      <c r="AJ14" s="12" t="s">
+      <c r="AO14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AK14" s="11">
+      <c r="AP14" s="11">
         <v>1</v>
       </c>
-      <c r="AM14" s="11">
+      <c r="AR14" s="11">
         <v>9</v>
       </c>
-      <c r="AN14" s="11">
+      <c r="AS14" s="11">
         <v>1</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AT14" s="11">
         <v>9</v>
       </c>
-      <c r="AQ14" s="22">
+      <c r="AV14" s="22">
         <v>9</v>
       </c>
-      <c r="AR14" s="12" t="s">
+      <c r="AW14" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AS14" s="11">
+      <c r="AX14" s="11">
         <v>4</v>
       </c>
-      <c r="AT14" s="30">
+      <c r="AY14" s="30">
         <v>43282</v>
       </c>
-      <c r="AU14" s="32">
+      <c r="AZ14" s="32">
         <v>43373</v>
       </c>
-      <c r="AV14" s="11">
+      <c r="BA14" s="11">
         <v>25</v>
       </c>
-      <c r="AX14" s="11">
+      <c r="BC14" s="11">
         <v>9</v>
       </c>
-      <c r="AY14" s="11">
+      <c r="BD14" s="11">
         <v>2</v>
       </c>
-      <c r="AZ14" s="22">
+      <c r="BE14" s="22">
         <v>12</v>
       </c>
-      <c r="BB14" s="11">
+      <c r="BG14" s="11">
         <v>9</v>
       </c>
-      <c r="BC14" s="11">
+      <c r="BH14" s="11">
         <v>3</v>
       </c>
-      <c r="BD14" s="12" t="s">
+      <c r="BI14" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE14" s="12" t="s">
+      <c r="BJ14" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="BF14" s="28" t="s">
+      <c r="BK14" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="BG14" s="11">
+      <c r="BL14" s="11">
         <v>67</v>
       </c>
-      <c r="BH14" s="11">
+      <c r="BM14" s="11">
         <v>2017</v>
       </c>
-      <c r="BJ14" s="11">
+      <c r="BO14" s="11">
         <v>9</v>
       </c>
-      <c r="BK14" s="11">
+      <c r="BP14" s="11">
         <v>3</v>
       </c>
-      <c r="BL14" s="12" t="s">
+      <c r="BQ14" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BM14" s="12" t="s">
+      <c r="BR14" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="BN14" s="28" t="s">
+      <c r="BS14" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="BO14" s="11">
+      <c r="BT14" s="11">
         <v>67</v>
       </c>
-      <c r="BP14" s="11">
+      <c r="BU14" s="11">
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3579,7 +3678,7 @@
       <c r="I15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <v>33172</v>
       </c>
       <c r="K15" s="12" t="str">
@@ -3607,95 +3706,99 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AI15" s="11">
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="3"/>
+      <c r="AN15" s="11">
         <v>10</v>
       </c>
-      <c r="AJ15" s="12" t="s">
+      <c r="AO15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AK15" s="11">
+      <c r="AP15" s="11">
         <v>2</v>
       </c>
-      <c r="AM15" s="11">
+      <c r="AR15" s="11">
         <v>10</v>
       </c>
-      <c r="AN15" s="11">
+      <c r="AS15" s="11">
         <v>2</v>
       </c>
-      <c r="AO15" s="11">
+      <c r="AT15" s="11">
         <v>1</v>
       </c>
-      <c r="AQ15" s="22">
+      <c r="AV15" s="22">
         <v>10</v>
       </c>
-      <c r="AR15" s="12" t="s">
+      <c r="AW15" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AS15" s="11">
+      <c r="AX15" s="11">
         <v>5</v>
       </c>
-      <c r="AT15" s="30">
+      <c r="AY15" s="30">
         <v>43344</v>
       </c>
-      <c r="AU15" s="34">
+      <c r="AZ15" s="34">
         <v>43434</v>
       </c>
-      <c r="AV15" s="11">
+      <c r="BA15" s="11">
         <v>25</v>
       </c>
-      <c r="AX15" s="11">
+      <c r="BC15" s="11">
         <v>10</v>
       </c>
-      <c r="AY15" s="11">
+      <c r="BD15" s="11">
         <v>4</v>
       </c>
-      <c r="AZ15" s="22">
+      <c r="BE15" s="22">
         <v>15</v>
       </c>
-      <c r="BB15" s="11">
+      <c r="BG15" s="11">
         <v>10</v>
       </c>
-      <c r="BC15" s="11">
+      <c r="BH15" s="11">
         <v>4</v>
       </c>
-      <c r="BD15" s="12">
+      <c r="BI15" s="12">
         <v>10</v>
       </c>
-      <c r="BE15" s="12" t="s">
+      <c r="BJ15" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="BF15" s="28" t="s">
+      <c r="BK15" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="BG15" s="11">
+      <c r="BL15" s="11">
         <v>58</v>
       </c>
-      <c r="BH15" s="11">
+      <c r="BM15" s="11">
         <v>2010</v>
       </c>
-      <c r="BJ15" s="11">
+      <c r="BO15" s="11">
         <v>10</v>
       </c>
-      <c r="BK15" s="11">
+      <c r="BP15" s="11">
         <v>4</v>
       </c>
-      <c r="BL15" s="12">
+      <c r="BQ15" s="12">
         <v>10</v>
       </c>
-      <c r="BM15" s="12" t="s">
+      <c r="BR15" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="BN15" s="28" t="s">
+      <c r="BS15" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="BO15" s="11">
+      <c r="BT15" s="11">
         <v>58</v>
       </c>
-      <c r="BP15" s="11">
+      <c r="BU15" s="11">
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3709,7 +3812,7 @@
       <c r="I16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <v>27697</v>
       </c>
       <c r="K16" s="12" t="str">
@@ -3737,95 +3840,99 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AI16" s="11">
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="3"/>
+      <c r="AN16" s="11">
         <v>11</v>
       </c>
-      <c r="AJ16" s="12" t="s">
+      <c r="AO16" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AK16" s="11">
+      <c r="AP16" s="11">
         <v>1</v>
       </c>
-      <c r="AM16" s="11">
+      <c r="AR16" s="11">
         <v>11</v>
       </c>
-      <c r="AN16" s="11">
+      <c r="AS16" s="11">
         <v>2</v>
       </c>
-      <c r="AO16" s="11">
+      <c r="AT16" s="11">
         <v>2</v>
       </c>
-      <c r="AQ16" s="22">
+      <c r="AV16" s="22">
         <v>11</v>
       </c>
-      <c r="AR16" s="12" t="s">
+      <c r="AW16" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AS16" s="11">
+      <c r="AX16" s="11">
         <v>1</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AY16" s="30">
         <v>42948</v>
       </c>
-      <c r="AU16" s="30">
+      <c r="AZ16" s="30">
         <v>43159</v>
       </c>
-      <c r="AV16" s="11">
+      <c r="BA16" s="11">
         <v>80</v>
       </c>
-      <c r="AX16" s="11">
+      <c r="BC16" s="11">
         <v>11</v>
       </c>
-      <c r="AY16" s="11">
+      <c r="BD16" s="11">
         <v>5</v>
       </c>
-      <c r="AZ16" s="22">
+      <c r="BE16" s="22">
         <v>20</v>
       </c>
-      <c r="BB16" s="11">
+      <c r="BG16" s="11">
         <v>11</v>
       </c>
-      <c r="BC16" s="11">
+      <c r="BH16" s="11">
         <v>4</v>
       </c>
-      <c r="BD16" s="12">
+      <c r="BI16" s="12">
         <v>12</v>
       </c>
-      <c r="BE16" s="12" t="s">
+      <c r="BJ16" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="BF16" s="28" t="s">
+      <c r="BK16" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG16" s="11">
+      <c r="BL16" s="11">
         <v>97</v>
       </c>
-      <c r="BH16" s="11">
+      <c r="BM16" s="11">
         <v>2012</v>
       </c>
-      <c r="BJ16" s="11">
+      <c r="BO16" s="11">
         <v>11</v>
       </c>
-      <c r="BK16" s="11">
+      <c r="BP16" s="11">
         <v>4</v>
       </c>
-      <c r="BL16" s="12">
+      <c r="BQ16" s="12">
         <v>12</v>
       </c>
-      <c r="BM16" s="12" t="s">
+      <c r="BR16" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="BN16" s="28" t="s">
+      <c r="BS16" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BO16" s="11">
+      <c r="BT16" s="11">
         <v>97</v>
       </c>
-      <c r="BP16" s="11">
+      <c r="BU16" s="11">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3839,7 +3946,7 @@
       <c r="I17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="13">
         <v>31746</v>
       </c>
       <c r="K17" s="12" t="str">
@@ -3867,95 +3974,99 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AI17" s="11">
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="3"/>
+      <c r="AN17" s="11">
         <v>12</v>
       </c>
-      <c r="AJ17" s="12" t="s">
+      <c r="AO17" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AK17" s="11">
+      <c r="AP17" s="11">
         <v>1</v>
       </c>
-      <c r="AM17" s="11">
+      <c r="AR17" s="11">
         <v>12</v>
-      </c>
-      <c r="AN17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AO17" s="11">
-        <v>3</v>
-      </c>
-      <c r="AQ17" s="22">
-        <v>12</v>
-      </c>
-      <c r="AR17" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="AS17" s="11">
         <v>2</v>
       </c>
-      <c r="AT17" s="30">
+      <c r="AT17" s="11">
+        <v>3</v>
+      </c>
+      <c r="AV17" s="22">
+        <v>12</v>
+      </c>
+      <c r="AW17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AY17" s="30">
         <v>42948</v>
       </c>
-      <c r="AU17" s="30">
+      <c r="AZ17" s="30">
         <v>43159</v>
       </c>
-      <c r="AV17" s="11">
+      <c r="BA17" s="11">
         <v>30</v>
       </c>
-      <c r="AX17" s="11">
+      <c r="BC17" s="11">
         <v>12</v>
       </c>
-      <c r="AY17" s="11">
+      <c r="BD17" s="11">
         <v>6</v>
       </c>
-      <c r="AZ17" s="22">
+      <c r="BE17" s="22">
         <v>5</v>
       </c>
-      <c r="BB17" s="11">
+      <c r="BG17" s="11">
         <v>12</v>
       </c>
-      <c r="BC17" s="11">
+      <c r="BH17" s="11">
         <v>4</v>
       </c>
-      <c r="BD17" s="12" t="s">
+      <c r="BI17" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="BE17" s="12" t="s">
+      <c r="BJ17" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="BF17" s="28" t="s">
+      <c r="BK17" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BG17" s="11">
+      <c r="BL17" s="11">
         <v>77</v>
       </c>
-      <c r="BH17" s="11">
+      <c r="BM17" s="11">
         <v>2016</v>
       </c>
-      <c r="BJ17" s="11">
+      <c r="BO17" s="11">
         <v>12</v>
       </c>
-      <c r="BK17" s="11">
+      <c r="BP17" s="11">
         <v>4</v>
       </c>
-      <c r="BL17" s="12" t="s">
+      <c r="BQ17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BM17" s="12" t="s">
+      <c r="BR17" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="BN17" s="28" t="s">
+      <c r="BS17" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BO17" s="11">
+      <c r="BT17" s="11">
         <v>77</v>
       </c>
-      <c r="BP17" s="11">
+      <c r="BU17" s="11">
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3969,7 +4080,7 @@
       <c r="I18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="13">
         <v>29921</v>
       </c>
       <c r="K18" s="12" t="str">
@@ -3997,81 +4108,85 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AI18" s="11">
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="3"/>
+      <c r="AN18" s="11">
         <v>13</v>
       </c>
-      <c r="AJ18" s="12" t="s">
+      <c r="AO18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AK18" s="11">
+      <c r="AP18" s="11">
         <v>1</v>
       </c>
-      <c r="AM18" s="11">
+      <c r="AR18" s="11">
         <v>13</v>
       </c>
-      <c r="AN18" s="11">
+      <c r="AS18" s="11">
         <v>2</v>
       </c>
-      <c r="AO18" s="11">
+      <c r="AT18" s="11">
         <v>11</v>
       </c>
-      <c r="AQ18" s="22">
+      <c r="AV18" s="22">
         <v>13</v>
       </c>
-      <c r="AR18" s="12" t="s">
+      <c r="AW18" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="AS18" s="11">
+      <c r="AX18" s="11">
         <v>3</v>
       </c>
-      <c r="AT18" s="30">
+      <c r="AY18" s="30">
         <v>42917</v>
       </c>
-      <c r="AU18" s="30">
+      <c r="AZ18" s="30">
         <v>42978</v>
       </c>
-      <c r="AV18" s="11">
+      <c r="BA18" s="11">
         <v>30</v>
       </c>
-      <c r="AX18" s="11">
+      <c r="BC18" s="11">
         <v>13</v>
       </c>
-      <c r="AY18" s="11">
+      <c r="BD18" s="11">
         <v>7</v>
       </c>
-      <c r="AZ18" s="22">
+      <c r="BE18" s="22">
         <v>3</v>
       </c>
-      <c r="BB18" s="11">
+      <c r="BG18" s="11">
         <v>13</v>
       </c>
-      <c r="BC18" s="11">
+      <c r="BH18" s="11">
         <v>5</v>
       </c>
-      <c r="BD18" s="12">
+      <c r="BI18" s="12">
         <v>10</v>
       </c>
-      <c r="BE18" s="12" t="s">
+      <c r="BJ18" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF18" s="28" t="s">
+      <c r="BK18" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG18" s="11">
+      <c r="BL18" s="11">
         <v>56</v>
       </c>
-      <c r="BH18" s="11">
+      <c r="BM18" s="11">
         <v>2008</v>
       </c>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="4"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="35"/>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
-    </row>
-    <row r="19" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+      <c r="BS18" s="35"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+    </row>
+    <row r="19" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4085,7 +4200,7 @@
       <c r="I19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="13">
         <v>30665</v>
       </c>
       <c r="K19" s="12" t="str">
@@ -4116,72 +4231,76 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
-      <c r="AM19" s="11">
+      <c r="AL19" s="3"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AR19" s="11">
         <v>14</v>
       </c>
-      <c r="AN19" s="11">
+      <c r="AS19" s="11">
         <v>2</v>
       </c>
-      <c r="AO19" s="11">
+      <c r="AT19" s="11">
         <v>12</v>
       </c>
-      <c r="AQ19" s="22">
+      <c r="AV19" s="22">
         <v>14</v>
       </c>
-      <c r="AR19" s="12" t="s">
+      <c r="AW19" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AS19" s="11">
+      <c r="AX19" s="11">
         <v>4</v>
       </c>
-      <c r="AT19" s="30">
+      <c r="AY19" s="30">
         <v>43221</v>
       </c>
-      <c r="AU19" s="30">
+      <c r="AZ19" s="30">
         <v>43312</v>
       </c>
-      <c r="AV19" s="11">
+      <c r="BA19" s="11">
         <v>25</v>
       </c>
-      <c r="AX19" s="11">
+      <c r="BC19" s="11">
         <v>14</v>
       </c>
-      <c r="AY19" s="11">
+      <c r="BD19" s="11">
         <v>1</v>
       </c>
-      <c r="AZ19" s="22">
+      <c r="BE19" s="22">
         <v>7</v>
       </c>
-      <c r="BB19" s="11">
+      <c r="BG19" s="11">
         <v>14</v>
       </c>
-      <c r="BC19" s="11">
+      <c r="BH19" s="11">
         <v>5</v>
       </c>
-      <c r="BD19" s="12">
+      <c r="BI19" s="12">
         <v>12</v>
       </c>
-      <c r="BE19" s="12" t="s">
+      <c r="BJ19" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="BF19" s="28" t="s">
+      <c r="BK19" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="BG19" s="11">
+      <c r="BL19" s="11">
         <v>57</v>
       </c>
-      <c r="BH19" s="11">
+      <c r="BM19" s="11">
         <v>2010</v>
       </c>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="4"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="35"/>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
-    </row>
-    <row r="20" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="35"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+    </row>
+    <row r="20" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4195,7 +4314,7 @@
       <c r="I20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="13">
         <v>32141</v>
       </c>
       <c r="K20" s="12" t="str">
@@ -4226,72 +4345,76 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
-      <c r="AM20" s="11">
+      <c r="AL20" s="3"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AR20" s="11">
         <v>15</v>
       </c>
-      <c r="AN20" s="11">
+      <c r="AS20" s="11">
         <v>2</v>
       </c>
-      <c r="AO20" s="11">
+      <c r="AT20" s="11">
         <v>9</v>
       </c>
-      <c r="AQ20" s="22">
+      <c r="AV20" s="22">
         <v>15</v>
       </c>
-      <c r="AR20" s="12" t="s">
+      <c r="AW20" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="AS20" s="11">
+      <c r="AX20" s="11">
         <v>5</v>
       </c>
-      <c r="AT20" s="30">
+      <c r="AY20" s="30">
         <v>43252</v>
       </c>
-      <c r="AU20" s="30">
+      <c r="AZ20" s="30">
         <v>43342</v>
       </c>
-      <c r="AV20" s="11">
+      <c r="BA20" s="11">
         <v>25</v>
       </c>
-      <c r="AX20" s="11">
+      <c r="BC20" s="11">
         <v>15</v>
       </c>
-      <c r="AY20" s="11">
+      <c r="BD20" s="11">
         <v>2</v>
       </c>
-      <c r="AZ20" s="22">
+      <c r="BE20" s="22">
         <v>10</v>
       </c>
-      <c r="BB20" s="11">
+      <c r="BG20" s="11">
         <v>15</v>
       </c>
-      <c r="BC20" s="11">
+      <c r="BH20" s="11">
         <v>5</v>
       </c>
-      <c r="BD20" s="12" t="s">
+      <c r="BI20" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="BE20" s="12" t="s">
+      <c r="BJ20" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="BF20" s="28" t="s">
+      <c r="BK20" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="BG20" s="11">
+      <c r="BL20" s="11">
         <v>86</v>
       </c>
-      <c r="BH20" s="11">
+      <c r="BM20" s="11">
         <v>2014</v>
       </c>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="4"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="35"/>
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
-    </row>
-    <row r="21" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="BQ20" s="4"/>
+      <c r="BR20" s="4"/>
+      <c r="BS20" s="35"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+    </row>
+    <row r="21" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4305,7 +4428,7 @@
       <c r="I21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="13">
         <v>33208</v>
       </c>
       <c r="K21" s="12" t="str">
@@ -4336,72 +4459,76 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
-      <c r="AM21" s="11">
+      <c r="AL21" s="3"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AR21" s="11">
         <v>16</v>
       </c>
-      <c r="AN21" s="11">
+      <c r="AS21" s="11">
         <v>3</v>
       </c>
-      <c r="AO21" s="11">
+      <c r="AT21" s="11">
         <v>13</v>
       </c>
-      <c r="AQ21" s="22">
+      <c r="AV21" s="22">
         <v>16</v>
       </c>
-      <c r="AR21" s="12" t="s">
+      <c r="AW21" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AS21" s="11">
+      <c r="AX21" s="11">
         <v>1</v>
       </c>
-      <c r="AT21" s="30">
+      <c r="AY21" s="30">
         <v>41852</v>
       </c>
-      <c r="AU21" s="30">
+      <c r="AZ21" s="30">
         <v>42063</v>
       </c>
-      <c r="AV21" s="11">
+      <c r="BA21" s="11">
         <v>80</v>
       </c>
-      <c r="AX21" s="11">
+      <c r="BC21" s="11">
         <v>16</v>
       </c>
-      <c r="AY21" s="11">
+      <c r="BD21" s="11">
         <v>3</v>
       </c>
-      <c r="AZ21" s="22">
+      <c r="BE21" s="22">
         <v>5</v>
       </c>
-      <c r="BB21" s="11">
+      <c r="BG21" s="11">
         <v>16</v>
       </c>
-      <c r="BC21" s="11">
+      <c r="BH21" s="11">
         <v>6</v>
       </c>
-      <c r="BD21" s="12">
+      <c r="BI21" s="12">
         <v>10</v>
       </c>
-      <c r="BE21" s="12" t="s">
+      <c r="BJ21" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="BF21" s="28" t="s">
+      <c r="BK21" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BG21" s="11">
+      <c r="BL21" s="11">
         <v>56</v>
       </c>
-      <c r="BH21" s="11">
+      <c r="BM21" s="11">
         <v>2009</v>
       </c>
-      <c r="BJ21" s="1"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="4"/>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="35"/>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
-    </row>
-    <row r="22" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="BQ21" s="4"/>
+      <c r="BR21" s="4"/>
+      <c r="BS21" s="35"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+    </row>
+    <row r="22" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -4415,7 +4542,7 @@
       <c r="I22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="13">
         <v>32807</v>
       </c>
       <c r="K22" s="12" t="str">
@@ -4446,72 +4573,76 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
-      <c r="AM22" s="11">
+      <c r="AL22" s="3"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AR22" s="11">
         <v>17</v>
       </c>
-      <c r="AN22" s="11">
+      <c r="AS22" s="11">
         <v>3</v>
       </c>
-      <c r="AO22" s="11">
+      <c r="AT22" s="11">
         <v>5</v>
       </c>
-      <c r="AQ22" s="22">
+      <c r="AV22" s="22">
         <v>17</v>
       </c>
-      <c r="AR22" s="12" t="s">
+      <c r="AW22" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AS22" s="11">
+      <c r="AX22" s="11">
         <v>2</v>
       </c>
-      <c r="AT22" s="30">
+      <c r="AY22" s="30">
         <v>41852</v>
       </c>
-      <c r="AU22" s="30">
+      <c r="AZ22" s="30">
         <v>42063</v>
       </c>
-      <c r="AV22" s="11">
+      <c r="BA22" s="11">
         <v>30</v>
       </c>
-      <c r="AX22" s="11">
+      <c r="BC22" s="11">
         <v>17</v>
       </c>
-      <c r="AY22" s="11">
+      <c r="BD22" s="11">
         <v>4</v>
       </c>
-      <c r="AZ22" s="22">
+      <c r="BE22" s="22">
         <v>6</v>
       </c>
-      <c r="BB22" s="11">
+      <c r="BG22" s="11">
         <v>17</v>
       </c>
-      <c r="BC22" s="11">
+      <c r="BH22" s="11">
         <v>6</v>
       </c>
-      <c r="BD22" s="12">
+      <c r="BI22" s="12">
         <v>12</v>
       </c>
-      <c r="BE22" s="12" t="s">
+      <c r="BJ22" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF22" s="28" t="s">
+      <c r="BK22" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BG22" s="11">
+      <c r="BL22" s="11">
         <v>76</v>
       </c>
-      <c r="BH22" s="11">
+      <c r="BM22" s="11">
         <v>2011</v>
       </c>
-      <c r="BJ22" s="1"/>
-      <c r="BK22" s="1"/>
-      <c r="BL22" s="4"/>
-      <c r="BM22" s="4"/>
-      <c r="BN22" s="35"/>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
-    </row>
-    <row r="23" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="BQ22" s="4"/>
+      <c r="BR22" s="4"/>
+      <c r="BS22" s="35"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+    </row>
+    <row r="23" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4525,7 +4656,7 @@
       <c r="I23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="13">
         <v>30114</v>
       </c>
       <c r="K23" s="12" t="str">
@@ -4556,72 +4687,76 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
-      <c r="AM23" s="11">
+      <c r="AL23" s="3"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AR23" s="11">
         <v>18</v>
-      </c>
-      <c r="AN23" s="11">
-        <v>3</v>
-      </c>
-      <c r="AO23" s="11">
-        <v>6</v>
-      </c>
-      <c r="AQ23" s="22">
-        <v>18</v>
-      </c>
-      <c r="AR23" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="AS23" s="11">
         <v>3</v>
       </c>
-      <c r="AT23" s="30">
+      <c r="AT23" s="11">
+        <v>6</v>
+      </c>
+      <c r="AV23" s="22">
+        <v>18</v>
+      </c>
+      <c r="AW23" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX23" s="11">
+        <v>3</v>
+      </c>
+      <c r="AY23" s="30">
         <v>43160</v>
       </c>
-      <c r="AU23" s="30">
+      <c r="AZ23" s="30">
         <v>43220</v>
       </c>
-      <c r="AV23" s="11">
+      <c r="BA23" s="11">
         <v>35</v>
       </c>
-      <c r="AX23" s="11">
+      <c r="BC23" s="11">
         <v>18</v>
       </c>
-      <c r="AY23" s="11">
+      <c r="BD23" s="11">
         <v>5</v>
       </c>
-      <c r="AZ23" s="22">
+      <c r="BE23" s="22">
         <v>3</v>
       </c>
-      <c r="BB23" s="11">
+      <c r="BG23" s="11">
         <v>18</v>
       </c>
-      <c r="BC23" s="11">
+      <c r="BH23" s="11">
         <v>6</v>
       </c>
-      <c r="BD23" s="12" t="s">
+      <c r="BI23" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE23" s="12" t="s">
+      <c r="BJ23" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="BF23" s="28" t="s">
+      <c r="BK23" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BG23" s="11">
+      <c r="BL23" s="11">
         <v>87</v>
       </c>
-      <c r="BH23" s="11">
+      <c r="BM23" s="11">
         <v>2015</v>
       </c>
-      <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="4"/>
-      <c r="BM23" s="4"/>
-      <c r="BN23" s="35"/>
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
-    </row>
-    <row r="24" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+      <c r="BS23" s="35"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+    </row>
+    <row r="24" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4635,7 +4770,7 @@
       <c r="I24" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="13">
         <v>30633</v>
       </c>
       <c r="K24" s="12" t="str">
@@ -4666,72 +4801,76 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
-      <c r="AM24" s="11">
+      <c r="AL24" s="3"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AR24" s="11">
         <v>19</v>
-      </c>
-      <c r="AN24" s="11">
-        <v>4</v>
-      </c>
-      <c r="AO24" s="11">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="22">
-        <v>19</v>
-      </c>
-      <c r="AR24" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="AS24" s="11">
         <v>4</v>
       </c>
-      <c r="AT24" s="30">
+      <c r="AT24" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="22">
+        <v>19</v>
+      </c>
+      <c r="AW24" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX24" s="11">
+        <v>4</v>
+      </c>
+      <c r="AY24" s="30">
         <v>43466</v>
       </c>
-      <c r="AU24" s="30">
+      <c r="AZ24" s="30">
         <v>43554</v>
       </c>
-      <c r="AV24" s="11">
+      <c r="BA24" s="11">
         <v>25</v>
       </c>
-      <c r="AX24" s="11">
+      <c r="BC24" s="11">
         <v>19</v>
       </c>
-      <c r="AY24" s="11">
+      <c r="BD24" s="11">
         <v>6</v>
       </c>
-      <c r="AZ24" s="22">
+      <c r="BE24" s="22">
         <v>1</v>
       </c>
-      <c r="BB24" s="11">
+      <c r="BG24" s="11">
         <v>19</v>
       </c>
-      <c r="BC24" s="11">
+      <c r="BH24" s="11">
         <v>7</v>
       </c>
-      <c r="BD24" s="12">
+      <c r="BI24" s="12">
         <v>10</v>
       </c>
-      <c r="BE24" s="12" t="s">
+      <c r="BJ24" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="BF24" s="28" t="s">
+      <c r="BK24" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="BG24" s="11">
+      <c r="BL24" s="11">
         <v>87</v>
       </c>
-      <c r="BH24" s="11">
+      <c r="BM24" s="11">
         <v>2011</v>
       </c>
-      <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="4"/>
-      <c r="BM24" s="4"/>
-      <c r="BN24" s="35"/>
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
-    </row>
-    <row r="25" spans="2:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="BQ24" s="4"/>
+      <c r="BR24" s="4"/>
+      <c r="BS24" s="35"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+    </row>
+    <row r="25" spans="2:73" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4745,7 +4884,7 @@
       <c r="I25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="13">
         <v>30162</v>
       </c>
       <c r="K25" s="12" t="str">
@@ -4776,77 +4915,81 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
-      <c r="AM25" s="11">
+      <c r="AL25" s="3"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AR25" s="11">
         <v>20</v>
       </c>
-      <c r="AN25" s="11">
+      <c r="AS25" s="11">
         <v>4</v>
       </c>
-      <c r="AO25" s="11">
+      <c r="AT25" s="11">
         <v>7</v>
       </c>
-      <c r="AQ25" s="22">
+      <c r="AV25" s="22">
         <v>20</v>
       </c>
-      <c r="AR25" s="12" t="s">
+      <c r="AW25" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AS25" s="11">
+      <c r="AX25" s="11">
         <v>5</v>
       </c>
-      <c r="AT25" s="30">
+      <c r="AY25" s="30">
         <v>43435</v>
       </c>
-      <c r="AU25" s="30">
+      <c r="AZ25" s="30">
         <v>43524</v>
       </c>
-      <c r="AV25" s="11">
+      <c r="BA25" s="11">
         <v>25</v>
       </c>
-      <c r="AX25" s="11">
+      <c r="BC25" s="11">
         <v>20</v>
       </c>
-      <c r="AY25" s="11">
+      <c r="BD25" s="11">
         <v>12</v>
       </c>
-      <c r="AZ25" s="22">
+      <c r="BE25" s="22">
         <v>10</v>
       </c>
-      <c r="BB25" s="11">
+      <c r="BG25" s="11">
         <v>20</v>
       </c>
-      <c r="BC25" s="11">
+      <c r="BH25" s="11">
         <v>7</v>
       </c>
-      <c r="BD25" s="12">
+      <c r="BI25" s="12">
         <v>12</v>
       </c>
-      <c r="BE25" s="12" t="s">
+      <c r="BJ25" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="BF25" s="28" t="s">
+      <c r="BK25" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="BG25" s="11">
+      <c r="BL25" s="11">
         <v>78</v>
       </c>
-      <c r="BH25" s="11">
+      <c r="BM25" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="4"/>
-      <c r="BM25" s="4"/>
-      <c r="BN25" s="35"/>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
-    </row>
-    <row r="26" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BQ25" s="4"/>
+      <c r="BR25" s="4"/>
+      <c r="BS25" s="35"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+    </row>
+    <row r="26" spans="2:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
-      <c r="J26" s="17"/>
+      <c r="J26" s="3"/>
       <c r="M26" s="11">
         <v>21</v>
       </c>
@@ -4859,77 +5002,81 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-      <c r="AM26" s="11">
+      <c r="AL26" s="3"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AR26" s="11">
         <v>21</v>
       </c>
-      <c r="AN26" s="11">
+      <c r="AS26" s="11">
         <v>4</v>
       </c>
-      <c r="AO26" s="11">
+      <c r="AT26" s="11">
         <v>8</v>
       </c>
-      <c r="AQ26" s="22">
+      <c r="AV26" s="22">
         <v>21</v>
       </c>
-      <c r="AR26" s="12" t="s">
+      <c r="AW26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AS26" s="11">
+      <c r="AX26" s="11">
         <v>1</v>
       </c>
-      <c r="AT26" s="30">
+      <c r="AY26" s="30">
         <v>42217</v>
       </c>
-      <c r="AU26" s="30">
+      <c r="AZ26" s="30">
         <v>42428</v>
       </c>
-      <c r="AV26" s="11">
+      <c r="BA26" s="11">
         <v>80</v>
       </c>
-      <c r="AX26" s="11">
+      <c r="BC26" s="11">
         <v>21</v>
       </c>
-      <c r="AY26" s="11">
+      <c r="BD26" s="11">
         <v>15</v>
       </c>
-      <c r="AZ26" s="22">
+      <c r="BE26" s="22">
         <v>17</v>
       </c>
-      <c r="BB26" s="11">
+      <c r="BG26" s="11">
         <v>21</v>
       </c>
-      <c r="BC26" s="11">
+      <c r="BH26" s="11">
         <v>7</v>
       </c>
-      <c r="BD26" s="12" t="s">
+      <c r="BI26" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE26" s="12" t="s">
+      <c r="BJ26" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="BF26" s="28" t="s">
+      <c r="BK26" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BG26" s="11">
+      <c r="BL26" s="11">
         <v>97</v>
       </c>
-      <c r="BH26" s="11">
+      <c r="BM26" s="11">
         <v>2017</v>
       </c>
-      <c r="BJ26" s="1"/>
-      <c r="BK26" s="1"/>
-      <c r="BL26" s="4"/>
-      <c r="BM26" s="4"/>
-      <c r="BN26" s="35"/>
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
-    </row>
-    <row r="27" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BQ26" s="4"/>
+      <c r="BR26" s="4"/>
+      <c r="BS26" s="35"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+    </row>
+    <row r="27" spans="2:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
-      <c r="J27" s="17"/>
+      <c r="J27" s="3"/>
       <c r="M27" s="11">
         <v>22</v>
       </c>
@@ -4942,77 +5089,81 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
-      <c r="AM27" s="11">
+      <c r="AL27" s="3"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AR27" s="11">
         <v>22</v>
       </c>
-      <c r="AN27" s="11">
+      <c r="AS27" s="11">
         <v>5</v>
       </c>
-      <c r="AO27" s="11">
+      <c r="AT27" s="11">
         <v>1</v>
       </c>
-      <c r="AQ27" s="22">
+      <c r="AV27" s="22">
         <v>22</v>
       </c>
-      <c r="AR27" s="12" t="s">
+      <c r="AW27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AS27" s="11">
+      <c r="AX27" s="11">
         <v>2</v>
       </c>
-      <c r="AT27" s="30">
+      <c r="AY27" s="30">
         <v>42217</v>
       </c>
-      <c r="AU27" s="30">
+      <c r="AZ27" s="30">
         <v>42428</v>
       </c>
-      <c r="AV27" s="11">
+      <c r="BA27" s="11">
         <v>30</v>
       </c>
-      <c r="AX27" s="11">
+      <c r="BC27" s="11">
         <v>22</v>
       </c>
-      <c r="AY27" s="11">
+      <c r="BD27" s="11">
         <v>15</v>
       </c>
-      <c r="AZ27" s="22">
+      <c r="BE27" s="22">
         <v>18</v>
       </c>
-      <c r="BB27" s="11">
+      <c r="BG27" s="11">
         <v>22</v>
       </c>
-      <c r="BC27" s="11">
+      <c r="BH27" s="11">
         <v>8</v>
       </c>
-      <c r="BD27" s="12">
+      <c r="BI27" s="12">
         <v>10</v>
       </c>
-      <c r="BE27" s="12" t="s">
+      <c r="BJ27" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="BF27" s="28" t="s">
+      <c r="BK27" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="BG27" s="11">
+      <c r="BL27" s="11">
         <v>56</v>
       </c>
-      <c r="BH27" s="11">
+      <c r="BM27" s="11">
         <v>2010</v>
       </c>
-      <c r="BJ27" s="1"/>
-      <c r="BK27" s="1"/>
-      <c r="BL27" s="4"/>
-      <c r="BM27" s="4"/>
-      <c r="BN27" s="35"/>
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
-    </row>
-    <row r="28" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BQ27" s="4"/>
+      <c r="BR27" s="4"/>
+      <c r="BS27" s="35"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+    </row>
+    <row r="28" spans="2:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
-      <c r="J28" s="17"/>
+      <c r="J28" s="3"/>
       <c r="M28" s="11">
         <v>23</v>
       </c>
@@ -5025,73 +5176,77 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
-      <c r="AM28" s="11">
+      <c r="AL28" s="3"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AR28" s="11">
         <v>23</v>
       </c>
-      <c r="AN28" s="11">
+      <c r="AS28" s="11">
         <v>5</v>
       </c>
-      <c r="AO28" s="11">
+      <c r="AT28" s="11">
         <v>7</v>
       </c>
-      <c r="AQ28" s="22">
+      <c r="AV28" s="22">
         <v>23</v>
       </c>
-      <c r="AR28" s="12" t="s">
+      <c r="AW28" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AS28" s="11">
+      <c r="AX28" s="11">
         <v>3</v>
       </c>
-      <c r="AT28" s="30">
+      <c r="AY28" s="30">
         <v>43525</v>
       </c>
-      <c r="AU28" s="30">
+      <c r="AZ28" s="30">
         <v>43585</v>
       </c>
-      <c r="AV28" s="11">
+      <c r="BA28" s="11">
         <v>40</v>
       </c>
-      <c r="AX28" s="11">
+      <c r="BC28" s="11">
         <v>23</v>
       </c>
-      <c r="AY28" s="11">
+      <c r="BD28" s="11">
         <v>16</v>
       </c>
-      <c r="AZ28" s="22">
+      <c r="BE28" s="22">
         <v>18</v>
       </c>
-      <c r="BB28" s="11">
+      <c r="BG28" s="11">
         <v>23</v>
       </c>
-      <c r="BC28" s="11">
+      <c r="BH28" s="11">
         <v>8</v>
       </c>
-      <c r="BD28" s="12">
+      <c r="BI28" s="12">
         <v>12</v>
       </c>
-      <c r="BE28" s="12" t="s">
+      <c r="BJ28" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF28" s="28" t="s">
+      <c r="BK28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="BG28" s="11">
+      <c r="BL28" s="11">
         <v>467</v>
       </c>
-      <c r="BH28" s="11">
+      <c r="BM28" s="11">
         <v>2012</v>
       </c>
-      <c r="BJ28" s="1"/>
-      <c r="BK28" s="1"/>
-      <c r="BL28" s="4"/>
-      <c r="BM28" s="4"/>
-      <c r="BN28" s="35"/>
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
-    </row>
-    <row r="29" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="J29" s="17"/>
+      <c r="BQ28" s="4"/>
+      <c r="BR28" s="4"/>
+      <c r="BS28" s="35"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+    </row>
+    <row r="29" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
       <c r="M29" s="11">
         <v>24</v>
       </c>
@@ -5101,73 +5256,74 @@
       <c r="O29" s="11">
         <v>7132300027</v>
       </c>
-      <c r="AI29" s="1"/>
-      <c r="AM29" s="11">
+      <c r="AN29" s="1"/>
+      <c r="AR29" s="11">
         <v>24</v>
       </c>
-      <c r="AN29" s="11">
+      <c r="AS29" s="11">
         <v>5</v>
       </c>
-      <c r="AO29" s="11">
+      <c r="AT29" s="11">
         <v>8</v>
       </c>
-      <c r="AQ29" s="22">
+      <c r="AV29" s="22">
         <v>24</v>
       </c>
-      <c r="AR29" s="12" t="s">
+      <c r="AW29" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AS29" s="11">
+      <c r="AX29" s="11">
         <v>4</v>
       </c>
-      <c r="AT29" s="30">
+      <c r="AY29" s="30">
         <v>43466</v>
       </c>
-      <c r="AU29" s="30">
+      <c r="AZ29" s="30">
         <v>43554</v>
       </c>
-      <c r="AV29" s="11">
+      <c r="BA29" s="11">
         <v>30</v>
       </c>
-      <c r="AX29" s="11">
+      <c r="BC29" s="11">
         <v>24</v>
       </c>
-      <c r="AY29" s="11">
+      <c r="BD29" s="11">
         <v>17</v>
       </c>
-      <c r="AZ29" s="22">
+      <c r="BE29" s="22">
         <v>12</v>
       </c>
-      <c r="BB29" s="11">
+      <c r="BG29" s="11">
         <v>24</v>
       </c>
-      <c r="BC29" s="11">
+      <c r="BH29" s="11">
         <v>8</v>
       </c>
-      <c r="BD29" s="12" t="s">
+      <c r="BI29" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="BE29" s="12" t="s">
+      <c r="BJ29" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="BF29" s="28" t="s">
+      <c r="BK29" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="BG29" s="11">
+      <c r="BL29" s="11">
         <v>87</v>
       </c>
-      <c r="BH29" s="11">
+      <c r="BM29" s="11">
         <v>2016</v>
       </c>
-      <c r="BJ29" s="1"/>
-      <c r="BK29" s="1"/>
-      <c r="BL29" s="4"/>
-      <c r="BM29" s="4"/>
-      <c r="BN29" s="35"/>
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
-    </row>
-    <row r="30" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BQ29" s="4"/>
+      <c r="BR29" s="4"/>
+      <c r="BS29" s="35"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+    </row>
+    <row r="30" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
       <c r="M30" s="11">
         <v>25</v>
       </c>
@@ -5177,37 +5333,38 @@
       <c r="O30" s="11">
         <v>7032300001</v>
       </c>
-      <c r="AS30" s="1"/>
-      <c r="BB30" s="11">
+      <c r="AX30" s="1"/>
+      <c r="BG30" s="11">
         <v>25</v>
       </c>
-      <c r="BC30" s="11">
+      <c r="BH30" s="11">
         <v>9</v>
       </c>
-      <c r="BD30" s="12">
+      <c r="BI30" s="12">
         <v>10</v>
       </c>
-      <c r="BE30" s="12" t="s">
+      <c r="BJ30" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="BF30" s="28" t="s">
+      <c r="BK30" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="BG30" s="11">
+      <c r="BL30" s="11">
         <v>98</v>
       </c>
-      <c r="BH30" s="11">
+      <c r="BM30" s="11">
         <v>2012</v>
       </c>
-      <c r="BJ30" s="1"/>
-      <c r="BK30" s="1"/>
-      <c r="BL30" s="4"/>
-      <c r="BM30" s="4"/>
-      <c r="BN30" s="35"/>
       <c r="BO30" s="1"/>
       <c r="BP30" s="1"/>
-    </row>
-    <row r="31" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BQ30" s="4"/>
+      <c r="BR30" s="4"/>
+      <c r="BS30" s="35"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+    </row>
+    <row r="31" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="J31" s="1"/>
       <c r="M31" s="11">
         <v>26</v>
       </c>
@@ -5217,36 +5374,37 @@
       <c r="O31" s="11">
         <v>7132300079</v>
       </c>
-      <c r="BB31" s="11">
+      <c r="BG31" s="11">
         <v>26</v>
       </c>
-      <c r="BC31" s="11">
+      <c r="BH31" s="11">
         <v>9</v>
       </c>
-      <c r="BD31" s="12">
+      <c r="BI31" s="12">
         <v>12</v>
       </c>
-      <c r="BE31" s="12" t="s">
+      <c r="BJ31" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="BF31" s="28" t="s">
+      <c r="BK31" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG31" s="11">
+      <c r="BL31" s="11">
         <v>67</v>
       </c>
-      <c r="BH31" s="11">
+      <c r="BM31" s="11">
         <v>2014</v>
       </c>
-      <c r="BJ31" s="1"/>
-      <c r="BK31" s="1"/>
-      <c r="BL31" s="4"/>
-      <c r="BM31" s="4"/>
-      <c r="BN31" s="35"/>
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
-    </row>
-    <row r="32" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="BQ31" s="4"/>
+      <c r="BR31" s="4"/>
+      <c r="BS31" s="35"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+    </row>
+    <row r="32" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="J32" s="1"/>
       <c r="M32" s="11">
         <v>27</v>
       </c>
@@ -5256,36 +5414,37 @@
       <c r="O32" s="11">
         <v>7132300081</v>
       </c>
-      <c r="BB32" s="11">
+      <c r="BG32" s="11">
         <v>27</v>
       </c>
-      <c r="BC32" s="11">
+      <c r="BH32" s="11">
         <v>9</v>
       </c>
-      <c r="BD32" s="12" t="s">
+      <c r="BI32" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE32" s="12" t="s">
+      <c r="BJ32" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="BF32" s="28" t="s">
+      <c r="BK32" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BG32" s="11">
+      <c r="BL32" s="11">
         <v>87</v>
       </c>
-      <c r="BH32" s="11">
+      <c r="BM32" s="11">
         <v>2018</v>
       </c>
-      <c r="BJ32" s="1"/>
-      <c r="BK32" s="1"/>
-      <c r="BL32" s="4"/>
-      <c r="BM32" s="4"/>
-      <c r="BN32" s="35"/>
       <c r="BO32" s="1"/>
       <c r="BP32" s="1"/>
-    </row>
-    <row r="33" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="BQ32" s="4"/>
+      <c r="BR32" s="4"/>
+      <c r="BS32" s="35"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+    </row>
+    <row r="33" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J33" s="1"/>
       <c r="M33" s="11">
         <v>28</v>
       </c>
@@ -5295,36 +5454,37 @@
       <c r="O33" s="11">
         <v>7132300054</v>
       </c>
-      <c r="BB33" s="11">
+      <c r="BG33" s="11">
         <v>28</v>
       </c>
-      <c r="BC33" s="11">
+      <c r="BH33" s="11">
         <v>10</v>
       </c>
-      <c r="BD33" s="12">
+      <c r="BI33" s="12">
         <v>10</v>
       </c>
-      <c r="BE33" s="12" t="s">
+      <c r="BJ33" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="BF33" s="28" t="s">
+      <c r="BK33" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG33" s="11">
+      <c r="BL33" s="11">
         <v>65</v>
       </c>
-      <c r="BH33" s="11">
+      <c r="BM33" s="11">
         <v>2012</v>
       </c>
-      <c r="BJ33" s="1"/>
-      <c r="BK33" s="1"/>
-      <c r="BL33" s="4"/>
-      <c r="BM33" s="4"/>
-      <c r="BN33" s="35"/>
       <c r="BO33" s="1"/>
       <c r="BP33" s="1"/>
-    </row>
-    <row r="34" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="BQ33" s="4"/>
+      <c r="BR33" s="4"/>
+      <c r="BS33" s="35"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+    </row>
+    <row r="34" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J34" s="1"/>
       <c r="M34" s="11">
         <v>29</v>
       </c>
@@ -5334,36 +5494,37 @@
       <c r="O34" s="11">
         <v>7132300059</v>
       </c>
-      <c r="BB34" s="11">
+      <c r="BG34" s="11">
         <v>29</v>
       </c>
-      <c r="BC34" s="11">
+      <c r="BH34" s="11">
         <v>10</v>
       </c>
-      <c r="BD34" s="12">
+      <c r="BI34" s="12">
         <v>12</v>
       </c>
-      <c r="BE34" s="12" t="s">
+      <c r="BJ34" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="BF34" s="28" t="s">
+      <c r="BK34" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="BG34" s="11">
+      <c r="BL34" s="11">
         <v>76</v>
       </c>
-      <c r="BH34" s="11">
+      <c r="BM34" s="11">
         <v>2014</v>
       </c>
-      <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
-      <c r="BL34" s="4"/>
-      <c r="BM34" s="4"/>
-      <c r="BN34" s="35"/>
       <c r="BO34" s="1"/>
       <c r="BP34" s="1"/>
-    </row>
-    <row r="35" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="BQ34" s="4"/>
+      <c r="BR34" s="4"/>
+      <c r="BS34" s="35"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+    </row>
+    <row r="35" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J35" s="1"/>
       <c r="M35" s="11">
         <v>30</v>
       </c>
@@ -5373,36 +5534,37 @@
       <c r="O35" s="11">
         <v>7132300086</v>
       </c>
-      <c r="BB35" s="11">
+      <c r="BG35" s="11">
         <v>30</v>
       </c>
-      <c r="BC35" s="11">
+      <c r="BH35" s="11">
         <v>10</v>
       </c>
-      <c r="BD35" s="12" t="s">
+      <c r="BI35" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="BE35" s="12" t="s">
+      <c r="BJ35" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="BF35" s="28" t="s">
+      <c r="BK35" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="BG35" s="11">
+      <c r="BL35" s="11">
         <v>61</v>
       </c>
-      <c r="BH35" s="11">
+      <c r="BM35" s="11">
         <v>2018</v>
       </c>
-      <c r="BJ35" s="1"/>
-      <c r="BK35" s="1"/>
-      <c r="BL35" s="4"/>
-      <c r="BM35" s="4"/>
-      <c r="BN35" s="35"/>
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
-    </row>
-    <row r="36" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="BQ35" s="4"/>
+      <c r="BR35" s="4"/>
+      <c r="BS35" s="35"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+    </row>
+    <row r="36" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J36" s="1"/>
       <c r="M36" s="11">
         <v>31</v>
       </c>
@@ -5412,36 +5574,37 @@
       <c r="O36" s="11">
         <v>7132300082</v>
       </c>
-      <c r="BB36" s="11">
+      <c r="BG36" s="11">
         <v>31</v>
       </c>
-      <c r="BC36" s="11">
+      <c r="BH36" s="11">
         <v>11</v>
       </c>
-      <c r="BD36" s="12">
+      <c r="BI36" s="12">
         <v>10</v>
       </c>
-      <c r="BE36" s="12" t="s">
+      <c r="BJ36" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="BF36" s="28" t="s">
+      <c r="BK36" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="BG36" s="11">
+      <c r="BL36" s="11">
         <v>62</v>
       </c>
-      <c r="BH36" s="11">
+      <c r="BM36" s="11">
         <v>2011</v>
       </c>
-      <c r="BJ36" s="1"/>
-      <c r="BK36" s="1"/>
-      <c r="BL36" s="4"/>
-      <c r="BM36" s="4"/>
-      <c r="BN36" s="35"/>
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
-    </row>
-    <row r="37" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+      <c r="BS36" s="35"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+    </row>
+    <row r="37" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
       <c r="M37" s="11">
         <v>32</v>
       </c>
@@ -5451,36 +5614,37 @@
       <c r="O37" s="11">
         <v>7132300042</v>
       </c>
-      <c r="BB37" s="11">
+      <c r="BG37" s="11">
         <v>32</v>
       </c>
-      <c r="BC37" s="11">
+      <c r="BH37" s="11">
         <v>11</v>
       </c>
-      <c r="BD37" s="12">
+      <c r="BI37" s="12">
         <v>12</v>
       </c>
-      <c r="BE37" s="12" t="s">
+      <c r="BJ37" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="BF37" s="28" t="s">
+      <c r="BK37" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="BG37" s="11">
+      <c r="BL37" s="11">
         <v>63</v>
       </c>
-      <c r="BH37" s="11">
+      <c r="BM37" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ37" s="1"/>
-      <c r="BK37" s="1"/>
-      <c r="BL37" s="4"/>
-      <c r="BM37" s="4"/>
-      <c r="BN37" s="35"/>
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
-    </row>
-    <row r="38" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="BQ37" s="4"/>
+      <c r="BR37" s="4"/>
+      <c r="BS37" s="35"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+    </row>
+    <row r="38" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J38" s="1"/>
       <c r="M38" s="11">
         <v>33</v>
       </c>
@@ -5490,36 +5654,37 @@
       <c r="O38" s="11">
         <v>7132300055</v>
       </c>
-      <c r="BB38" s="11">
+      <c r="BG38" s="11">
         <v>33</v>
       </c>
-      <c r="BC38" s="11">
+      <c r="BH38" s="11">
         <v>11</v>
       </c>
-      <c r="BD38" s="12" t="s">
+      <c r="BI38" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="BE38" s="12" t="s">
+      <c r="BJ38" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="BF38" s="28" t="s">
+      <c r="BK38" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="BG38" s="11">
+      <c r="BL38" s="11">
         <v>56</v>
       </c>
-      <c r="BH38" s="11">
+      <c r="BM38" s="11">
         <v>2017</v>
       </c>
-      <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
-      <c r="BL38" s="4"/>
-      <c r="BM38" s="4"/>
-      <c r="BN38" s="35"/>
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
-    </row>
-    <row r="39" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="BQ38" s="4"/>
+      <c r="BR38" s="4"/>
+      <c r="BS38" s="35"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+    </row>
+    <row r="39" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
       <c r="M39" s="11">
         <v>34</v>
       </c>
@@ -5529,36 +5694,37 @@
       <c r="O39" s="11">
         <v>7132300055</v>
       </c>
-      <c r="BB39" s="11">
+      <c r="BG39" s="11">
         <v>34</v>
       </c>
-      <c r="BC39" s="11">
+      <c r="BH39" s="11">
         <v>12</v>
       </c>
-      <c r="BD39" s="12">
+      <c r="BI39" s="12">
         <v>10</v>
       </c>
-      <c r="BE39" s="12" t="s">
+      <c r="BJ39" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="BF39" s="28" t="s">
+      <c r="BK39" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG39" s="11">
+      <c r="BL39" s="11">
         <v>75</v>
       </c>
-      <c r="BH39" s="11">
+      <c r="BM39" s="11">
         <v>2010</v>
       </c>
-      <c r="BJ39" s="1"/>
-      <c r="BK39" s="1"/>
-      <c r="BL39" s="4"/>
-      <c r="BM39" s="4"/>
-      <c r="BN39" s="35"/>
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
-    </row>
-    <row r="40" spans="13:68" x14ac:dyDescent="0.25">
+      <c r="BQ39" s="4"/>
+      <c r="BR39" s="4"/>
+      <c r="BS39" s="35"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+    </row>
+    <row r="40" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
       <c r="M40" s="11">
         <v>35</v>
       </c>
@@ -5568,1250 +5734,1253 @@
       <c r="O40" s="11">
         <v>7132300055</v>
       </c>
-      <c r="BB40" s="11">
+      <c r="BG40" s="11">
         <v>35</v>
       </c>
-      <c r="BC40" s="11">
+      <c r="BH40" s="11">
         <v>12</v>
       </c>
-      <c r="BD40" s="12">
+      <c r="BI40" s="12">
         <v>12</v>
       </c>
-      <c r="BE40" s="12" t="s">
+      <c r="BJ40" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="BF40" s="28" t="s">
+      <c r="BK40" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="BG40" s="11">
+      <c r="BL40" s="11">
         <v>45</v>
       </c>
-      <c r="BH40" s="11">
+      <c r="BM40" s="11">
         <v>2012</v>
       </c>
-      <c r="BJ40" s="1"/>
-      <c r="BK40" s="1"/>
-      <c r="BL40" s="4"/>
-      <c r="BM40" s="4"/>
-      <c r="BN40" s="35"/>
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
-    </row>
-    <row r="41" spans="13:68" x14ac:dyDescent="0.25">
-      <c r="BB41" s="11">
+      <c r="BQ40" s="4"/>
+      <c r="BR40" s="4"/>
+      <c r="BS40" s="35"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+    </row>
+    <row r="41" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+      <c r="BG41" s="11">
         <v>36</v>
       </c>
-      <c r="BC41" s="11">
+      <c r="BH41" s="11">
         <v>12</v>
       </c>
-      <c r="BD41" s="12" t="s">
+      <c r="BI41" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="BE41" s="12" t="s">
+      <c r="BJ41" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="BF41" s="28" t="s">
+      <c r="BK41" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BG41" s="11">
+      <c r="BL41" s="11">
         <v>50</v>
       </c>
-      <c r="BH41" s="11">
+      <c r="BM41" s="11">
         <v>2016</v>
       </c>
-      <c r="BJ41" s="1"/>
-      <c r="BK41" s="1"/>
-      <c r="BL41" s="4"/>
-      <c r="BM41" s="4"/>
-      <c r="BN41" s="35"/>
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
-    </row>
-    <row r="42" spans="13:68" x14ac:dyDescent="0.25">
-      <c r="BB42" s="11">
+      <c r="BQ41" s="4"/>
+      <c r="BR41" s="4"/>
+      <c r="BS41" s="35"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+    </row>
+    <row r="42" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="BG42" s="11">
         <v>37</v>
       </c>
-      <c r="BC42" s="11">
+      <c r="BH42" s="11">
         <v>13</v>
       </c>
-      <c r="BD42" s="12">
+      <c r="BI42" s="12">
         <v>10</v>
       </c>
-      <c r="BE42" s="12" t="s">
+      <c r="BJ42" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="BF42" s="28" t="s">
+      <c r="BK42" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BG42" s="11">
+      <c r="BL42" s="11">
         <v>67</v>
       </c>
-      <c r="BH42" s="11">
+      <c r="BM42" s="11">
         <v>2012</v>
       </c>
-      <c r="BJ42" s="1"/>
-      <c r="BK42" s="1"/>
-      <c r="BL42" s="4"/>
-      <c r="BM42" s="4"/>
-      <c r="BN42" s="35"/>
       <c r="BO42" s="1"/>
       <c r="BP42" s="1"/>
-    </row>
-    <row r="43" spans="13:68" x14ac:dyDescent="0.25">
-      <c r="BB43" s="11">
+      <c r="BQ42" s="4"/>
+      <c r="BR42" s="4"/>
+      <c r="BS42" s="35"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+    </row>
+    <row r="43" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="BG43" s="11">
         <v>38</v>
       </c>
-      <c r="BC43" s="11">
+      <c r="BH43" s="11">
         <v>13</v>
       </c>
-      <c r="BD43" s="12">
+      <c r="BI43" s="12">
         <v>12</v>
       </c>
-      <c r="BE43" s="12" t="s">
+      <c r="BJ43" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="BF43" s="28" t="s">
+      <c r="BK43" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BG43" s="11">
+      <c r="BL43" s="11">
         <v>78</v>
       </c>
-      <c r="BH43" s="11">
+      <c r="BM43" s="11">
         <v>2014</v>
       </c>
-      <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
-      <c r="BL43" s="4"/>
-      <c r="BM43" s="4"/>
-      <c r="BN43" s="35"/>
       <c r="BO43" s="1"/>
       <c r="BP43" s="1"/>
-    </row>
-    <row r="44" spans="13:68" x14ac:dyDescent="0.25">
-      <c r="BB44" s="11">
+      <c r="BQ43" s="4"/>
+      <c r="BR43" s="4"/>
+      <c r="BS43" s="35"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+    </row>
+    <row r="44" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="BG44" s="11">
         <v>39</v>
       </c>
-      <c r="BC44" s="11">
+      <c r="BH44" s="11">
         <v>13</v>
       </c>
-      <c r="BD44" s="12" t="s">
+      <c r="BI44" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE44" s="12" t="s">
+      <c r="BJ44" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="BF44" s="28" t="s">
+      <c r="BK44" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="BG44" s="11">
+      <c r="BL44" s="11">
         <v>68</v>
       </c>
-      <c r="BH44" s="11">
+      <c r="BM44" s="11">
         <v>2018</v>
       </c>
-      <c r="BJ44" s="1"/>
-      <c r="BK44" s="1"/>
-      <c r="BL44" s="4"/>
-      <c r="BM44" s="4"/>
-      <c r="BN44" s="35"/>
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
-    </row>
-    <row r="45" spans="13:68" x14ac:dyDescent="0.25">
-      <c r="BB45" s="11">
+      <c r="BQ44" s="4"/>
+      <c r="BR44" s="4"/>
+      <c r="BS44" s="35"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+    </row>
+    <row r="45" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="BG45" s="11">
         <v>40</v>
       </c>
-      <c r="BC45" s="11">
+      <c r="BH45" s="11">
         <v>14</v>
       </c>
-      <c r="BD45" s="12">
+      <c r="BI45" s="12">
         <v>10</v>
       </c>
-      <c r="BE45" s="12" t="s">
+      <c r="BJ45" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="BF45" s="28" t="s">
+      <c r="BK45" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="BG45" s="11">
+      <c r="BL45" s="11">
         <v>67</v>
       </c>
-      <c r="BH45" s="11">
+      <c r="BM45" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ45" s="1"/>
-      <c r="BK45" s="1"/>
-      <c r="BL45" s="4"/>
-      <c r="BM45" s="4"/>
-      <c r="BN45" s="35"/>
       <c r="BO45" s="1"/>
       <c r="BP45" s="1"/>
-    </row>
-    <row r="46" spans="13:68" x14ac:dyDescent="0.25">
-      <c r="BB46" s="11">
+      <c r="BQ45" s="4"/>
+      <c r="BR45" s="4"/>
+      <c r="BS45" s="35"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+    </row>
+    <row r="46" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="BG46" s="11">
         <v>41</v>
       </c>
-      <c r="BC46" s="11">
+      <c r="BH46" s="11">
         <v>14</v>
       </c>
-      <c r="BD46" s="12">
+      <c r="BI46" s="12">
         <v>12</v>
       </c>
-      <c r="BE46" s="12" t="s">
+      <c r="BJ46" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="BF46" s="28" t="s">
+      <c r="BK46" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="BG46" s="11">
+      <c r="BL46" s="11">
         <v>87</v>
       </c>
-      <c r="BH46" s="11">
+      <c r="BM46" s="11">
         <v>2015</v>
       </c>
-      <c r="BJ46" s="1"/>
-      <c r="BK46" s="1"/>
-      <c r="BL46" s="4"/>
-      <c r="BM46" s="4"/>
-      <c r="BN46" s="35"/>
       <c r="BO46" s="1"/>
       <c r="BP46" s="1"/>
-    </row>
-    <row r="47" spans="13:68" x14ac:dyDescent="0.25">
-      <c r="BB47" s="11">
+      <c r="BQ46" s="4"/>
+      <c r="BR46" s="4"/>
+      <c r="BS46" s="35"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+    </row>
+    <row r="47" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="BG47" s="11">
         <v>42</v>
       </c>
-      <c r="BC47" s="11">
+      <c r="BH47" s="11">
         <v>14</v>
       </c>
-      <c r="BD47" s="12" t="s">
+      <c r="BI47" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE47" s="12" t="s">
+      <c r="BJ47" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="BF47" s="28" t="s">
+      <c r="BK47" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG47" s="11">
+      <c r="BL47" s="11">
         <v>57</v>
       </c>
-      <c r="BH47" s="11">
+      <c r="BM47" s="11">
         <v>2019</v>
       </c>
-      <c r="BJ47" s="1"/>
-      <c r="BK47" s="1"/>
-      <c r="BL47" s="4"/>
-      <c r="BM47" s="4"/>
-      <c r="BN47" s="35"/>
       <c r="BO47" s="1"/>
       <c r="BP47" s="1"/>
-    </row>
-    <row r="48" spans="13:68" x14ac:dyDescent="0.25">
-      <c r="BB48" s="11">
+      <c r="BQ47" s="4"/>
+      <c r="BR47" s="4"/>
+      <c r="BS47" s="35"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+    </row>
+    <row r="48" spans="10:73" x14ac:dyDescent="0.25">
+      <c r="BG48" s="11">
         <v>43</v>
       </c>
-      <c r="BC48" s="11">
+      <c r="BH48" s="11">
         <v>15</v>
       </c>
-      <c r="BD48" s="12">
+      <c r="BI48" s="12">
         <v>10</v>
       </c>
-      <c r="BE48" s="12" t="s">
+      <c r="BJ48" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="BF48" s="28" t="s">
+      <c r="BK48" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="BG48" s="11">
+      <c r="BL48" s="11">
         <v>96</v>
       </c>
-      <c r="BH48" s="11">
+      <c r="BM48" s="11">
         <v>2011</v>
       </c>
-      <c r="BJ48" s="1"/>
-      <c r="BK48" s="1"/>
-      <c r="BL48" s="4"/>
-      <c r="BM48" s="4"/>
-      <c r="BN48" s="35"/>
       <c r="BO48" s="1"/>
       <c r="BP48" s="1"/>
-    </row>
-    <row r="49" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB49" s="11">
+      <c r="BQ48" s="4"/>
+      <c r="BR48" s="4"/>
+      <c r="BS48" s="35"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+    </row>
+    <row r="49" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG49" s="11">
         <v>44</v>
       </c>
-      <c r="BC49" s="11">
+      <c r="BH49" s="11">
         <v>15</v>
       </c>
-      <c r="BD49" s="12">
+      <c r="BI49" s="12">
         <v>12</v>
       </c>
-      <c r="BE49" s="12" t="s">
+      <c r="BJ49" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="BF49" s="28" t="s">
+      <c r="BK49" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="BG49" s="11">
+      <c r="BL49" s="11">
         <v>56</v>
       </c>
-      <c r="BH49" s="11">
+      <c r="BM49" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ49" s="1"/>
-      <c r="BK49" s="1"/>
-      <c r="BL49" s="4"/>
-      <c r="BM49" s="4"/>
-      <c r="BN49" s="35"/>
       <c r="BO49" s="1"/>
       <c r="BP49" s="1"/>
-    </row>
-    <row r="50" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB50" s="11">
+      <c r="BQ49" s="4"/>
+      <c r="BR49" s="4"/>
+      <c r="BS49" s="35"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+    </row>
+    <row r="50" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG50" s="11">
         <v>45</v>
       </c>
-      <c r="BC50" s="11">
+      <c r="BH50" s="11">
         <v>15</v>
       </c>
-      <c r="BD50" s="12" t="s">
+      <c r="BI50" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE50" s="12" t="s">
+      <c r="BJ50" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF50" s="28" t="s">
+      <c r="BK50" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="BG50" s="11">
+      <c r="BL50" s="11">
         <v>65</v>
       </c>
-      <c r="BH50" s="11">
+      <c r="BM50" s="11">
         <v>2017</v>
       </c>
-      <c r="BJ50" s="1"/>
-      <c r="BK50" s="1"/>
-      <c r="BL50" s="4"/>
-      <c r="BM50" s="4"/>
-      <c r="BN50" s="35"/>
       <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
-    </row>
-    <row r="51" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB51" s="11">
+      <c r="BQ50" s="4"/>
+      <c r="BR50" s="4"/>
+      <c r="BS50" s="35"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+    </row>
+    <row r="51" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG51" s="11">
         <v>46</v>
       </c>
-      <c r="BC51" s="11">
+      <c r="BH51" s="11">
         <v>16</v>
       </c>
-      <c r="BD51" s="12">
+      <c r="BI51" s="12">
         <v>10</v>
       </c>
-      <c r="BE51" s="12" t="s">
+      <c r="BJ51" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="BF51" s="28" t="s">
+      <c r="BK51" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="BG51" s="11">
+      <c r="BL51" s="11">
         <v>76</v>
       </c>
-      <c r="BH51" s="11">
+      <c r="BM51" s="11">
         <v>2012</v>
       </c>
-      <c r="BJ51" s="1"/>
-      <c r="BK51" s="1"/>
-      <c r="BL51" s="4"/>
-      <c r="BM51" s="4"/>
-      <c r="BN51" s="35"/>
       <c r="BO51" s="1"/>
       <c r="BP51" s="1"/>
-    </row>
-    <row r="52" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB52" s="11">
+      <c r="BQ51" s="4"/>
+      <c r="BR51" s="4"/>
+      <c r="BS51" s="35"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+    </row>
+    <row r="52" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG52" s="11">
         <v>47</v>
       </c>
-      <c r="BC52" s="11">
+      <c r="BH52" s="11">
         <v>16</v>
       </c>
-      <c r="BD52" s="12">
+      <c r="BI52" s="12">
         <v>12</v>
       </c>
-      <c r="BE52" s="12" t="s">
+      <c r="BJ52" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="BF52" s="28" t="s">
+      <c r="BK52" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BG52" s="11">
+      <c r="BL52" s="11">
         <v>56</v>
       </c>
-      <c r="BH52" s="11">
+      <c r="BM52" s="11">
         <v>2014</v>
       </c>
-      <c r="BJ52" s="1"/>
-      <c r="BK52" s="1"/>
-      <c r="BL52" s="4"/>
-      <c r="BM52" s="4"/>
-      <c r="BN52" s="35"/>
       <c r="BO52" s="1"/>
       <c r="BP52" s="1"/>
-    </row>
-    <row r="53" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB53" s="11">
+      <c r="BQ52" s="4"/>
+      <c r="BR52" s="4"/>
+      <c r="BS52" s="35"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+    </row>
+    <row r="53" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG53" s="11">
         <v>48</v>
       </c>
-      <c r="BC53" s="11">
+      <c r="BH53" s="11">
         <v>16</v>
       </c>
-      <c r="BD53" s="12" t="s">
+      <c r="BI53" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE53" s="12" t="s">
+      <c r="BJ53" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="BF53" s="28" t="s">
+      <c r="BK53" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="BG53" s="11">
+      <c r="BL53" s="11">
         <v>76</v>
       </c>
-      <c r="BH53" s="11">
+      <c r="BM53" s="11">
         <v>2018</v>
       </c>
-      <c r="BJ53" s="1"/>
-      <c r="BK53" s="1"/>
-      <c r="BL53" s="4"/>
-      <c r="BM53" s="4"/>
-      <c r="BN53" s="35"/>
       <c r="BO53" s="1"/>
       <c r="BP53" s="1"/>
-    </row>
-    <row r="54" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB54" s="11">
+      <c r="BQ53" s="4"/>
+      <c r="BR53" s="4"/>
+      <c r="BS53" s="35"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="1"/>
+    </row>
+    <row r="54" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG54" s="11">
         <v>49</v>
       </c>
-      <c r="BC54" s="11">
+      <c r="BH54" s="11">
         <v>17</v>
       </c>
-      <c r="BD54" s="12">
+      <c r="BI54" s="12">
         <v>10</v>
       </c>
-      <c r="BE54" s="12" t="s">
+      <c r="BJ54" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF54" s="28" t="s">
+      <c r="BK54" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="BG54" s="11">
+      <c r="BL54" s="11">
         <v>88</v>
       </c>
-      <c r="BH54" s="11">
+      <c r="BM54" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ54" s="1"/>
-      <c r="BK54" s="1"/>
-      <c r="BL54" s="4"/>
-      <c r="BM54" s="4"/>
-      <c r="BN54" s="35"/>
       <c r="BO54" s="1"/>
       <c r="BP54" s="1"/>
-    </row>
-    <row r="55" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB55" s="11">
+      <c r="BQ54" s="4"/>
+      <c r="BR54" s="4"/>
+      <c r="BS54" s="35"/>
+      <c r="BT54" s="1"/>
+      <c r="BU54" s="1"/>
+    </row>
+    <row r="55" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG55" s="11">
         <v>50</v>
       </c>
-      <c r="BC55" s="11">
+      <c r="BH55" s="11">
         <v>17</v>
       </c>
-      <c r="BD55" s="12">
+      <c r="BI55" s="12">
         <v>12</v>
       </c>
-      <c r="BE55" s="12" t="s">
+      <c r="BJ55" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="BF55" s="28" t="s">
+      <c r="BK55" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="BG55" s="11">
+      <c r="BL55" s="11">
         <v>76</v>
       </c>
-      <c r="BH55" s="11">
+      <c r="BM55" s="11">
         <v>2015</v>
       </c>
-      <c r="BJ55" s="1"/>
-      <c r="BK55" s="1"/>
-      <c r="BL55" s="4"/>
-      <c r="BM55" s="4"/>
-      <c r="BN55" s="35"/>
       <c r="BO55" s="1"/>
       <c r="BP55" s="1"/>
-    </row>
-    <row r="56" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB56" s="11">
+      <c r="BQ55" s="4"/>
+      <c r="BR55" s="4"/>
+      <c r="BS55" s="35"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+    </row>
+    <row r="56" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG56" s="11">
         <v>51</v>
       </c>
-      <c r="BC56" s="11">
+      <c r="BH56" s="11">
         <v>17</v>
       </c>
-      <c r="BD56" s="12" t="s">
+      <c r="BI56" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE56" s="12" t="s">
+      <c r="BJ56" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="BF56" s="28" t="s">
+      <c r="BK56" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="BG56" s="11">
+      <c r="BL56" s="11">
         <v>68</v>
       </c>
-      <c r="BH56" s="11">
+      <c r="BM56" s="11">
         <v>2019</v>
       </c>
-      <c r="BJ56" s="1"/>
-      <c r="BK56" s="1"/>
-      <c r="BL56" s="4"/>
-      <c r="BM56" s="4"/>
-      <c r="BN56" s="35"/>
       <c r="BO56" s="1"/>
       <c r="BP56" s="1"/>
-    </row>
-    <row r="57" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB57" s="11">
+      <c r="BQ56" s="4"/>
+      <c r="BR56" s="4"/>
+      <c r="BS56" s="35"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="1"/>
+    </row>
+    <row r="57" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG57" s="11">
         <v>52</v>
       </c>
-      <c r="BC57" s="11">
+      <c r="BH57" s="11">
         <v>18</v>
       </c>
-      <c r="BD57" s="12">
+      <c r="BI57" s="12">
         <v>10</v>
       </c>
-      <c r="BE57" s="12" t="s">
+      <c r="BJ57" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="BF57" s="28" t="s">
+      <c r="BK57" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="BG57" s="11">
+      <c r="BL57" s="11">
         <v>86</v>
       </c>
-      <c r="BH57" s="11">
+      <c r="BM57" s="11">
         <v>2011</v>
       </c>
-      <c r="BJ57" s="1"/>
-      <c r="BK57" s="1"/>
-      <c r="BL57" s="4"/>
-      <c r="BM57" s="4"/>
-      <c r="BN57" s="35"/>
       <c r="BO57" s="1"/>
       <c r="BP57" s="1"/>
-    </row>
-    <row r="58" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB58" s="11">
+      <c r="BQ57" s="4"/>
+      <c r="BR57" s="4"/>
+      <c r="BS57" s="35"/>
+      <c r="BT57" s="1"/>
+      <c r="BU57" s="1"/>
+    </row>
+    <row r="58" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG58" s="11">
         <v>53</v>
       </c>
-      <c r="BC58" s="11">
+      <c r="BH58" s="11">
         <v>18</v>
       </c>
-      <c r="BD58" s="12">
+      <c r="BI58" s="12">
         <v>12</v>
       </c>
-      <c r="BE58" s="12" t="s">
+      <c r="BJ58" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="BF58" s="28" t="s">
+      <c r="BK58" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BG58" s="11">
+      <c r="BL58" s="11">
         <v>57</v>
       </c>
-      <c r="BH58" s="11">
+      <c r="BM58" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ58" s="1"/>
-      <c r="BK58" s="1"/>
-      <c r="BL58" s="4"/>
-      <c r="BM58" s="4"/>
-      <c r="BN58" s="35"/>
       <c r="BO58" s="1"/>
       <c r="BP58" s="1"/>
-    </row>
-    <row r="59" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB59" s="11">
+      <c r="BQ58" s="4"/>
+      <c r="BR58" s="4"/>
+      <c r="BS58" s="35"/>
+      <c r="BT58" s="1"/>
+      <c r="BU58" s="1"/>
+    </row>
+    <row r="59" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG59" s="11">
         <v>54</v>
       </c>
-      <c r="BC59" s="11">
+      <c r="BH59" s="11">
         <v>18</v>
       </c>
-      <c r="BD59" s="12" t="s">
+      <c r="BI59" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE59" s="12" t="s">
+      <c r="BJ59" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="BF59" s="28" t="s">
+      <c r="BK59" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="BG59" s="11">
+      <c r="BL59" s="11">
         <v>75</v>
       </c>
-      <c r="BH59" s="11">
+      <c r="BM59" s="11">
         <v>2017</v>
       </c>
-      <c r="BJ59" s="1"/>
-      <c r="BK59" s="1"/>
-      <c r="BL59" s="4"/>
-      <c r="BM59" s="4"/>
-      <c r="BN59" s="35"/>
       <c r="BO59" s="1"/>
       <c r="BP59" s="1"/>
-    </row>
-    <row r="60" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB60" s="11">
+      <c r="BQ59" s="4"/>
+      <c r="BR59" s="4"/>
+      <c r="BS59" s="35"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="1"/>
+    </row>
+    <row r="60" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG60" s="11">
         <v>55</v>
       </c>
-      <c r="BC60" s="11">
+      <c r="BH60" s="11">
         <v>19</v>
       </c>
-      <c r="BD60" s="12">
+      <c r="BI60" s="12">
         <v>10</v>
       </c>
-      <c r="BE60" s="12" t="s">
+      <c r="BJ60" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF60" s="28" t="s">
+      <c r="BK60" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BG60" s="11">
+      <c r="BL60" s="11">
         <v>69</v>
       </c>
-      <c r="BH60" s="11">
+      <c r="BM60" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ60" s="1"/>
-      <c r="BK60" s="1"/>
-      <c r="BL60" s="4"/>
-      <c r="BM60" s="4"/>
-      <c r="BN60" s="35"/>
       <c r="BO60" s="1"/>
       <c r="BP60" s="1"/>
-    </row>
-    <row r="61" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB61" s="11">
+      <c r="BQ60" s="4"/>
+      <c r="BR60" s="4"/>
+      <c r="BS60" s="35"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+    </row>
+    <row r="61" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG61" s="11">
         <v>56</v>
       </c>
-      <c r="BC61" s="11">
+      <c r="BH61" s="11">
         <v>19</v>
       </c>
-      <c r="BD61" s="12">
+      <c r="BI61" s="12">
         <v>12</v>
       </c>
-      <c r="BE61" s="12" t="s">
+      <c r="BJ61" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="BF61" s="28" t="s">
+      <c r="BK61" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="BG61" s="11">
+      <c r="BL61" s="11">
         <v>60</v>
       </c>
-      <c r="BH61" s="11">
+      <c r="BM61" s="11">
         <v>2015</v>
       </c>
-      <c r="BJ61" s="1"/>
-      <c r="BK61" s="1"/>
-      <c r="BL61" s="4"/>
-      <c r="BM61" s="4"/>
-      <c r="BN61" s="35"/>
       <c r="BO61" s="1"/>
       <c r="BP61" s="1"/>
-    </row>
-    <row r="62" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB62" s="11">
+      <c r="BQ61" s="4"/>
+      <c r="BR61" s="4"/>
+      <c r="BS61" s="35"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="1"/>
+    </row>
+    <row r="62" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG62" s="11">
         <v>57</v>
       </c>
-      <c r="BC62" s="11">
+      <c r="BH62" s="11">
         <v>19</v>
       </c>
-      <c r="BD62" s="12" t="s">
+      <c r="BI62" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE62" s="12" t="s">
+      <c r="BJ62" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="BF62" s="28" t="s">
+      <c r="BK62" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="BG62" s="11">
+      <c r="BL62" s="11">
         <v>61</v>
       </c>
-      <c r="BH62" s="11">
+      <c r="BM62" s="11">
         <v>2019</v>
       </c>
-      <c r="BJ62" s="1"/>
-      <c r="BK62" s="1"/>
-      <c r="BL62" s="4"/>
-      <c r="BM62" s="4"/>
-      <c r="BN62" s="35"/>
       <c r="BO62" s="1"/>
       <c r="BP62" s="1"/>
-    </row>
-    <row r="63" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB63" s="11">
+      <c r="BQ62" s="4"/>
+      <c r="BR62" s="4"/>
+      <c r="BS62" s="35"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="1"/>
+    </row>
+    <row r="63" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG63" s="11">
         <v>58</v>
       </c>
-      <c r="BC63" s="11">
+      <c r="BH63" s="11">
         <v>20</v>
       </c>
-      <c r="BD63" s="12">
+      <c r="BI63" s="12">
         <v>10</v>
       </c>
-      <c r="BE63" s="12" t="s">
+      <c r="BJ63" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="BF63" s="28" t="s">
+      <c r="BK63" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="BG63" s="11">
+      <c r="BL63" s="11">
         <v>72</v>
       </c>
-      <c r="BH63" s="11">
+      <c r="BM63" s="11">
         <v>2013</v>
       </c>
-      <c r="BJ63" s="1"/>
-      <c r="BK63" s="1"/>
-      <c r="BL63" s="4"/>
-      <c r="BM63" s="4"/>
-      <c r="BN63" s="35"/>
       <c r="BO63" s="1"/>
       <c r="BP63" s="1"/>
-    </row>
-    <row r="64" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB64" s="11">
+      <c r="BQ63" s="4"/>
+      <c r="BR63" s="4"/>
+      <c r="BS63" s="35"/>
+      <c r="BT63" s="1"/>
+      <c r="BU63" s="1"/>
+    </row>
+    <row r="64" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG64" s="11">
         <v>59</v>
       </c>
-      <c r="BC64" s="11">
+      <c r="BH64" s="11">
         <v>20</v>
       </c>
-      <c r="BD64" s="12">
+      <c r="BI64" s="12">
         <v>12</v>
       </c>
-      <c r="BE64" s="12" t="s">
+      <c r="BJ64" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="BF64" s="28" t="s">
+      <c r="BK64" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="BG64" s="11">
+      <c r="BL64" s="11">
         <v>83</v>
       </c>
-      <c r="BH64" s="11">
+      <c r="BM64" s="11">
         <v>2015</v>
       </c>
-      <c r="BJ64" s="1"/>
-      <c r="BK64" s="1"/>
-      <c r="BL64" s="4"/>
-      <c r="BM64" s="4"/>
-      <c r="BN64" s="35"/>
       <c r="BO64" s="1"/>
       <c r="BP64" s="1"/>
-    </row>
-    <row r="65" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB65" s="11">
+      <c r="BQ64" s="4"/>
+      <c r="BR64" s="4"/>
+      <c r="BS64" s="35"/>
+      <c r="BT64" s="1"/>
+      <c r="BU64" s="1"/>
+    </row>
+    <row r="65" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG65" s="11">
         <v>60</v>
       </c>
-      <c r="BC65" s="11">
+      <c r="BH65" s="11">
         <v>20</v>
       </c>
-      <c r="BD65" s="12" t="s">
+      <c r="BI65" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="BE65" s="12" t="s">
+      <c r="BJ65" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="BF65" s="28" t="s">
+      <c r="BK65" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BG65" s="11">
+      <c r="BL65" s="11">
         <v>72</v>
       </c>
-      <c r="BH65" s="11">
+      <c r="BM65" s="11">
         <v>2019</v>
       </c>
-      <c r="BJ65" s="1"/>
-      <c r="BK65" s="1"/>
-      <c r="BL65" s="4"/>
-      <c r="BM65" s="4"/>
-      <c r="BN65" s="35"/>
       <c r="BO65" s="1"/>
       <c r="BP65" s="1"/>
-    </row>
-    <row r="66" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB66" s="1"/>
-      <c r="BC66" s="1"/>
-      <c r="BD66" s="4"/>
-      <c r="BE66" s="24"/>
-      <c r="BF66" s="17"/>
+      <c r="BQ65" s="4"/>
+      <c r="BR65" s="4"/>
+      <c r="BS65" s="35"/>
+      <c r="BT65" s="1"/>
+      <c r="BU65" s="1"/>
+    </row>
+    <row r="66" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG66" s="1"/>
       <c r="BH66" s="1"/>
-      <c r="BJ66" s="1"/>
-      <c r="BK66" s="1"/>
-      <c r="BL66" s="4"/>
-      <c r="BM66" s="24"/>
-      <c r="BN66" s="17"/>
+      <c r="BI66" s="4"/>
+      <c r="BJ66" s="24"/>
+      <c r="BK66" s="17"/>
+      <c r="BM66" s="1"/>
+      <c r="BO66" s="1"/>
       <c r="BP66" s="1"/>
-    </row>
-    <row r="67" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB67" s="1"/>
-      <c r="BC67" s="1"/>
-      <c r="BD67" s="4"/>
-      <c r="BE67" s="24"/>
-      <c r="BF67" s="17"/>
+      <c r="BQ66" s="4"/>
+      <c r="BR66" s="24"/>
+      <c r="BS66" s="17"/>
+      <c r="BU66" s="1"/>
+    </row>
+    <row r="67" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG67" s="1"/>
       <c r="BH67" s="1"/>
-      <c r="BJ67" s="1"/>
-      <c r="BK67" s="1"/>
-      <c r="BL67" s="4"/>
-      <c r="BM67" s="24"/>
-      <c r="BN67" s="17"/>
+      <c r="BI67" s="4"/>
+      <c r="BJ67" s="24"/>
+      <c r="BK67" s="17"/>
+      <c r="BM67" s="1"/>
+      <c r="BO67" s="1"/>
       <c r="BP67" s="1"/>
-    </row>
-    <row r="68" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB68" s="1"/>
-      <c r="BC68" s="1"/>
-      <c r="BD68" s="4"/>
-      <c r="BE68" s="24"/>
-      <c r="BF68" s="17"/>
+      <c r="BQ67" s="4"/>
+      <c r="BR67" s="24"/>
+      <c r="BS67" s="17"/>
+      <c r="BU67" s="1"/>
+    </row>
+    <row r="68" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG68" s="1"/>
       <c r="BH68" s="1"/>
-      <c r="BJ68" s="1"/>
-      <c r="BK68" s="1"/>
-      <c r="BL68" s="4"/>
-      <c r="BM68" s="24"/>
-      <c r="BN68" s="17"/>
+      <c r="BI68" s="4"/>
+      <c r="BJ68" s="24"/>
+      <c r="BK68" s="17"/>
+      <c r="BM68" s="1"/>
+      <c r="BO68" s="1"/>
       <c r="BP68" s="1"/>
-    </row>
-    <row r="69" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB69" s="1"/>
-      <c r="BC69" s="1"/>
-      <c r="BD69" s="4"/>
-      <c r="BE69" s="24"/>
-      <c r="BF69" s="17"/>
+      <c r="BQ68" s="4"/>
+      <c r="BR68" s="24"/>
+      <c r="BS68" s="17"/>
+      <c r="BU68" s="1"/>
+    </row>
+    <row r="69" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG69" s="1"/>
       <c r="BH69" s="1"/>
-      <c r="BJ69" s="1"/>
-      <c r="BK69" s="1"/>
-      <c r="BL69" s="4"/>
-      <c r="BM69" s="24"/>
-      <c r="BN69" s="17"/>
+      <c r="BI69" s="4"/>
+      <c r="BJ69" s="24"/>
+      <c r="BK69" s="17"/>
+      <c r="BM69" s="1"/>
+      <c r="BO69" s="1"/>
       <c r="BP69" s="1"/>
-    </row>
-    <row r="70" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB70" s="1"/>
-      <c r="BC70" s="1"/>
-      <c r="BD70" s="4"/>
-      <c r="BE70" s="24"/>
-      <c r="BF70" s="17"/>
+      <c r="BQ69" s="4"/>
+      <c r="BR69" s="24"/>
+      <c r="BS69" s="17"/>
+      <c r="BU69" s="1"/>
+    </row>
+    <row r="70" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG70" s="1"/>
       <c r="BH70" s="1"/>
-      <c r="BJ70" s="1"/>
-      <c r="BK70" s="1"/>
-      <c r="BL70" s="4"/>
-      <c r="BM70" s="24"/>
-      <c r="BN70" s="17"/>
+      <c r="BI70" s="4"/>
+      <c r="BJ70" s="24"/>
+      <c r="BK70" s="17"/>
+      <c r="BM70" s="1"/>
+      <c r="BO70" s="1"/>
       <c r="BP70" s="1"/>
-    </row>
-    <row r="71" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="4"/>
-      <c r="BE71" s="24"/>
-      <c r="BF71" s="17"/>
+      <c r="BQ70" s="4"/>
+      <c r="BR70" s="24"/>
+      <c r="BS70" s="17"/>
+      <c r="BU70" s="1"/>
+    </row>
+    <row r="71" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG71" s="1"/>
       <c r="BH71" s="1"/>
-      <c r="BJ71" s="1"/>
-      <c r="BK71" s="1"/>
-      <c r="BL71" s="4"/>
-      <c r="BM71" s="24"/>
-      <c r="BN71" s="17"/>
+      <c r="BI71" s="4"/>
+      <c r="BJ71" s="24"/>
+      <c r="BK71" s="17"/>
+      <c r="BM71" s="1"/>
+      <c r="BO71" s="1"/>
       <c r="BP71" s="1"/>
-    </row>
-    <row r="72" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB72" s="1"/>
-      <c r="BC72" s="1"/>
-      <c r="BD72" s="4"/>
-      <c r="BE72" s="24"/>
-      <c r="BF72" s="17"/>
+      <c r="BQ71" s="4"/>
+      <c r="BR71" s="24"/>
+      <c r="BS71" s="17"/>
+      <c r="BU71" s="1"/>
+    </row>
+    <row r="72" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG72" s="1"/>
       <c r="BH72" s="1"/>
-      <c r="BJ72" s="1"/>
-      <c r="BK72" s="1"/>
-      <c r="BL72" s="4"/>
-      <c r="BM72" s="24"/>
-      <c r="BN72" s="17"/>
+      <c r="BI72" s="4"/>
+      <c r="BJ72" s="24"/>
+      <c r="BK72" s="17"/>
+      <c r="BM72" s="1"/>
+      <c r="BO72" s="1"/>
       <c r="BP72" s="1"/>
-    </row>
-    <row r="73" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB73" s="1"/>
-      <c r="BC73" s="1"/>
-      <c r="BD73" s="4"/>
-      <c r="BE73" s="24"/>
-      <c r="BF73" s="17"/>
+      <c r="BQ72" s="4"/>
+      <c r="BR72" s="24"/>
+      <c r="BS72" s="17"/>
+      <c r="BU72" s="1"/>
+    </row>
+    <row r="73" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG73" s="1"/>
       <c r="BH73" s="1"/>
-      <c r="BJ73" s="1"/>
-      <c r="BK73" s="1"/>
-      <c r="BL73" s="4"/>
-      <c r="BM73" s="24"/>
-      <c r="BN73" s="17"/>
+      <c r="BI73" s="4"/>
+      <c r="BJ73" s="24"/>
+      <c r="BK73" s="17"/>
+      <c r="BM73" s="1"/>
+      <c r="BO73" s="1"/>
       <c r="BP73" s="1"/>
-    </row>
-    <row r="74" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB74" s="1"/>
-      <c r="BC74" s="1"/>
-      <c r="BD74" s="4"/>
-      <c r="BE74" s="24"/>
-      <c r="BF74" s="17"/>
+      <c r="BQ73" s="4"/>
+      <c r="BR73" s="24"/>
+      <c r="BS73" s="17"/>
+      <c r="BU73" s="1"/>
+    </row>
+    <row r="74" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG74" s="1"/>
       <c r="BH74" s="1"/>
-      <c r="BJ74" s="1"/>
-      <c r="BK74" s="1"/>
-      <c r="BL74" s="4"/>
-      <c r="BM74" s="24"/>
-      <c r="BN74" s="17"/>
+      <c r="BI74" s="4"/>
+      <c r="BJ74" s="24"/>
+      <c r="BK74" s="17"/>
+      <c r="BM74" s="1"/>
+      <c r="BO74" s="1"/>
       <c r="BP74" s="1"/>
-    </row>
-    <row r="75" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB75" s="1"/>
-      <c r="BC75" s="1"/>
-      <c r="BD75" s="4"/>
-      <c r="BE75" s="24"/>
-      <c r="BF75" s="17"/>
+      <c r="BQ74" s="4"/>
+      <c r="BR74" s="24"/>
+      <c r="BS74" s="17"/>
+      <c r="BU74" s="1"/>
+    </row>
+    <row r="75" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG75" s="1"/>
       <c r="BH75" s="1"/>
-      <c r="BJ75" s="1"/>
-      <c r="BK75" s="1"/>
-      <c r="BL75" s="4"/>
-      <c r="BM75" s="24"/>
-      <c r="BN75" s="17"/>
+      <c r="BI75" s="4"/>
+      <c r="BJ75" s="24"/>
+      <c r="BK75" s="17"/>
+      <c r="BM75" s="1"/>
+      <c r="BO75" s="1"/>
       <c r="BP75" s="1"/>
-    </row>
-    <row r="76" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB76" s="1"/>
-      <c r="BC76" s="1"/>
-      <c r="BD76" s="4"/>
-      <c r="BE76" s="24"/>
-      <c r="BF76" s="17"/>
+      <c r="BQ75" s="4"/>
+      <c r="BR75" s="24"/>
+      <c r="BS75" s="17"/>
+      <c r="BU75" s="1"/>
+    </row>
+    <row r="76" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG76" s="1"/>
       <c r="BH76" s="1"/>
-      <c r="BJ76" s="1"/>
-      <c r="BK76" s="1"/>
-      <c r="BL76" s="4"/>
-      <c r="BM76" s="24"/>
-      <c r="BN76" s="17"/>
+      <c r="BI76" s="4"/>
+      <c r="BJ76" s="24"/>
+      <c r="BK76" s="17"/>
+      <c r="BM76" s="1"/>
+      <c r="BO76" s="1"/>
       <c r="BP76" s="1"/>
-    </row>
-    <row r="77" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB77" s="1"/>
-      <c r="BC77" s="1"/>
-      <c r="BD77" s="4"/>
-      <c r="BE77" s="24"/>
-      <c r="BF77" s="17"/>
+      <c r="BQ76" s="4"/>
+      <c r="BR76" s="24"/>
+      <c r="BS76" s="17"/>
+      <c r="BU76" s="1"/>
+    </row>
+    <row r="77" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG77" s="1"/>
       <c r="BH77" s="1"/>
-      <c r="BJ77" s="1"/>
-      <c r="BK77" s="1"/>
-      <c r="BL77" s="4"/>
-      <c r="BM77" s="24"/>
-      <c r="BN77" s="17"/>
+      <c r="BI77" s="4"/>
+      <c r="BJ77" s="24"/>
+      <c r="BK77" s="17"/>
+      <c r="BM77" s="1"/>
+      <c r="BO77" s="1"/>
       <c r="BP77" s="1"/>
-    </row>
-    <row r="78" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB78" s="1"/>
-      <c r="BC78" s="1"/>
-      <c r="BD78" s="4"/>
-      <c r="BE78" s="24"/>
-      <c r="BF78" s="17"/>
+      <c r="BQ77" s="4"/>
+      <c r="BR77" s="24"/>
+      <c r="BS77" s="17"/>
+      <c r="BU77" s="1"/>
+    </row>
+    <row r="78" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG78" s="1"/>
       <c r="BH78" s="1"/>
-      <c r="BJ78" s="1"/>
-      <c r="BK78" s="1"/>
-      <c r="BL78" s="4"/>
-      <c r="BM78" s="24"/>
-      <c r="BN78" s="17"/>
+      <c r="BI78" s="4"/>
+      <c r="BJ78" s="24"/>
+      <c r="BK78" s="17"/>
+      <c r="BM78" s="1"/>
+      <c r="BO78" s="1"/>
       <c r="BP78" s="1"/>
-    </row>
-    <row r="79" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB79" s="1"/>
-      <c r="BC79" s="1"/>
-      <c r="BD79" s="4"/>
-      <c r="BE79" s="24"/>
-      <c r="BF79" s="17"/>
+      <c r="BQ78" s="4"/>
+      <c r="BR78" s="24"/>
+      <c r="BS78" s="17"/>
+      <c r="BU78" s="1"/>
+    </row>
+    <row r="79" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG79" s="1"/>
       <c r="BH79" s="1"/>
-      <c r="BJ79" s="1"/>
-      <c r="BK79" s="1"/>
-      <c r="BL79" s="4"/>
-      <c r="BM79" s="24"/>
-      <c r="BN79" s="17"/>
+      <c r="BI79" s="4"/>
+      <c r="BJ79" s="24"/>
+      <c r="BK79" s="17"/>
+      <c r="BM79" s="1"/>
+      <c r="BO79" s="1"/>
       <c r="BP79" s="1"/>
-    </row>
-    <row r="80" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB80" s="1"/>
-      <c r="BC80" s="1"/>
-      <c r="BD80" s="4"/>
-      <c r="BE80" s="24"/>
-      <c r="BF80" s="17"/>
+      <c r="BQ79" s="4"/>
+      <c r="BR79" s="24"/>
+      <c r="BS79" s="17"/>
+      <c r="BU79" s="1"/>
+    </row>
+    <row r="80" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG80" s="1"/>
       <c r="BH80" s="1"/>
-      <c r="BJ80" s="1"/>
-      <c r="BK80" s="1"/>
-      <c r="BL80" s="4"/>
-      <c r="BM80" s="24"/>
-      <c r="BN80" s="17"/>
+      <c r="BI80" s="4"/>
+      <c r="BJ80" s="24"/>
+      <c r="BK80" s="17"/>
+      <c r="BM80" s="1"/>
+      <c r="BO80" s="1"/>
       <c r="BP80" s="1"/>
-    </row>
-    <row r="81" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB81" s="1"/>
-      <c r="BC81" s="1"/>
-      <c r="BD81" s="4"/>
-      <c r="BE81" s="24"/>
-      <c r="BF81" s="17"/>
+      <c r="BQ80" s="4"/>
+      <c r="BR80" s="24"/>
+      <c r="BS80" s="17"/>
+      <c r="BU80" s="1"/>
+    </row>
+    <row r="81" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG81" s="1"/>
       <c r="BH81" s="1"/>
-      <c r="BJ81" s="1"/>
-      <c r="BK81" s="1"/>
-      <c r="BL81" s="4"/>
-      <c r="BM81" s="24"/>
-      <c r="BN81" s="17"/>
+      <c r="BI81" s="4"/>
+      <c r="BJ81" s="24"/>
+      <c r="BK81" s="17"/>
+      <c r="BM81" s="1"/>
+      <c r="BO81" s="1"/>
       <c r="BP81" s="1"/>
-    </row>
-    <row r="82" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB82" s="1"/>
-      <c r="BC82" s="21"/>
-      <c r="BD82" s="4"/>
-      <c r="BE82" s="24"/>
-      <c r="BF82" s="17"/>
-      <c r="BH82" s="1"/>
-      <c r="BJ82" s="1"/>
-      <c r="BK82" s="21"/>
-      <c r="BL82" s="4"/>
-      <c r="BM82" s="24"/>
-      <c r="BN82" s="17"/>
-      <c r="BP82" s="1"/>
-    </row>
-    <row r="83" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB83" s="1"/>
-      <c r="BC83" s="21"/>
-      <c r="BD83" s="4"/>
-      <c r="BE83" s="24"/>
-      <c r="BF83" s="17"/>
-      <c r="BH83" s="1"/>
-      <c r="BJ83" s="1"/>
-      <c r="BK83" s="21"/>
-      <c r="BL83" s="4"/>
-      <c r="BM83" s="24"/>
-      <c r="BN83" s="17"/>
-      <c r="BP83" s="1"/>
-    </row>
-    <row r="84" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB84" s="1"/>
-      <c r="BC84" s="21"/>
-      <c r="BD84" s="4"/>
-      <c r="BE84" s="24"/>
-      <c r="BF84" s="17"/>
-      <c r="BH84" s="1"/>
-      <c r="BJ84" s="1"/>
-      <c r="BK84" s="21"/>
-      <c r="BL84" s="4"/>
-      <c r="BM84" s="24"/>
-      <c r="BN84" s="17"/>
-      <c r="BP84" s="1"/>
-    </row>
-    <row r="85" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB85" s="1"/>
-      <c r="BC85" s="21"/>
-      <c r="BD85" s="4"/>
-      <c r="BE85" s="24"/>
-      <c r="BF85" s="17"/>
-      <c r="BH85" s="1"/>
-      <c r="BJ85" s="1"/>
-      <c r="BK85" s="21"/>
-      <c r="BL85" s="4"/>
-      <c r="BM85" s="24"/>
-      <c r="BN85" s="17"/>
-      <c r="BP85" s="1"/>
-    </row>
-    <row r="86" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB86" s="1"/>
-      <c r="BC86" s="21"/>
-      <c r="BD86" s="4"/>
-      <c r="BE86" s="24"/>
-      <c r="BF86" s="17"/>
-      <c r="BH86" s="1"/>
-      <c r="BJ86" s="1"/>
-      <c r="BK86" s="21"/>
-      <c r="BL86" s="4"/>
-      <c r="BM86" s="24"/>
-      <c r="BN86" s="17"/>
-      <c r="BP86" s="1"/>
-    </row>
-    <row r="87" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB87" s="1"/>
-      <c r="BC87" s="1"/>
-      <c r="BD87" s="4"/>
-      <c r="BE87" s="24"/>
-      <c r="BF87" s="17"/>
+      <c r="BQ81" s="4"/>
+      <c r="BR81" s="24"/>
+      <c r="BS81" s="17"/>
+      <c r="BU81" s="1"/>
+    </row>
+    <row r="82" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="21"/>
+      <c r="BI82" s="4"/>
+      <c r="BJ82" s="24"/>
+      <c r="BK82" s="17"/>
+      <c r="BM82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="21"/>
+      <c r="BQ82" s="4"/>
+      <c r="BR82" s="24"/>
+      <c r="BS82" s="17"/>
+      <c r="BU82" s="1"/>
+    </row>
+    <row r="83" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="21"/>
+      <c r="BI83" s="4"/>
+      <c r="BJ83" s="24"/>
+      <c r="BK83" s="17"/>
+      <c r="BM83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="21"/>
+      <c r="BQ83" s="4"/>
+      <c r="BR83" s="24"/>
+      <c r="BS83" s="17"/>
+      <c r="BU83" s="1"/>
+    </row>
+    <row r="84" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="21"/>
+      <c r="BI84" s="4"/>
+      <c r="BJ84" s="24"/>
+      <c r="BK84" s="17"/>
+      <c r="BM84" s="1"/>
+      <c r="BO84" s="1"/>
+      <c r="BP84" s="21"/>
+      <c r="BQ84" s="4"/>
+      <c r="BR84" s="24"/>
+      <c r="BS84" s="17"/>
+      <c r="BU84" s="1"/>
+    </row>
+    <row r="85" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="21"/>
+      <c r="BI85" s="4"/>
+      <c r="BJ85" s="24"/>
+      <c r="BK85" s="17"/>
+      <c r="BM85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="21"/>
+      <c r="BQ85" s="4"/>
+      <c r="BR85" s="24"/>
+      <c r="BS85" s="17"/>
+      <c r="BU85" s="1"/>
+    </row>
+    <row r="86" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="21"/>
+      <c r="BI86" s="4"/>
+      <c r="BJ86" s="24"/>
+      <c r="BK86" s="17"/>
+      <c r="BM86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="21"/>
+      <c r="BQ86" s="4"/>
+      <c r="BR86" s="24"/>
+      <c r="BS86" s="17"/>
+      <c r="BU86" s="1"/>
+    </row>
+    <row r="87" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG87" s="1"/>
       <c r="BH87" s="1"/>
-      <c r="BJ87" s="1"/>
-      <c r="BK87" s="1"/>
-      <c r="BL87" s="4"/>
-      <c r="BM87" s="24"/>
-      <c r="BN87" s="17"/>
+      <c r="BI87" s="4"/>
+      <c r="BJ87" s="24"/>
+      <c r="BK87" s="17"/>
+      <c r="BM87" s="1"/>
+      <c r="BO87" s="1"/>
       <c r="BP87" s="1"/>
-    </row>
-    <row r="88" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB88" s="21"/>
-      <c r="BC88" s="21"/>
-      <c r="BD88" s="23"/>
-      <c r="BE88" s="26"/>
-      <c r="BF88" s="27"/>
-      <c r="BH88" s="1"/>
-      <c r="BJ88" s="21"/>
-      <c r="BK88" s="21"/>
-      <c r="BL88" s="23"/>
-      <c r="BM88" s="26"/>
-      <c r="BN88" s="27"/>
-      <c r="BP88" s="1"/>
-    </row>
-    <row r="89" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB89" s="21"/>
-      <c r="BC89" s="21"/>
-      <c r="BD89" s="23"/>
-      <c r="BE89" s="26"/>
-      <c r="BF89" s="27"/>
-      <c r="BH89" s="1"/>
-      <c r="BJ89" s="21"/>
-      <c r="BK89" s="21"/>
-      <c r="BL89" s="23"/>
-      <c r="BM89" s="26"/>
-      <c r="BN89" s="27"/>
-      <c r="BP89" s="1"/>
-    </row>
-    <row r="90" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB90" s="21"/>
-      <c r="BC90" s="21"/>
-      <c r="BD90" s="23"/>
-      <c r="BE90" s="26"/>
-      <c r="BF90" s="27"/>
-      <c r="BH90" s="1"/>
-      <c r="BJ90" s="21"/>
-      <c r="BK90" s="21"/>
-      <c r="BL90" s="23"/>
-      <c r="BM90" s="26"/>
-      <c r="BN90" s="27"/>
-      <c r="BP90" s="1"/>
-    </row>
-    <row r="91" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB91" s="21"/>
-      <c r="BC91" s="1"/>
-      <c r="BD91" s="4"/>
-      <c r="BE91" s="24"/>
-      <c r="BF91" s="17"/>
+      <c r="BQ87" s="4"/>
+      <c r="BR87" s="24"/>
+      <c r="BS87" s="17"/>
+      <c r="BU87" s="1"/>
+    </row>
+    <row r="88" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG88" s="21"/>
+      <c r="BH88" s="21"/>
+      <c r="BI88" s="23"/>
+      <c r="BJ88" s="26"/>
+      <c r="BK88" s="27"/>
+      <c r="BM88" s="1"/>
+      <c r="BO88" s="21"/>
+      <c r="BP88" s="21"/>
+      <c r="BQ88" s="23"/>
+      <c r="BR88" s="26"/>
+      <c r="BS88" s="27"/>
+      <c r="BU88" s="1"/>
+    </row>
+    <row r="89" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG89" s="21"/>
+      <c r="BH89" s="21"/>
+      <c r="BI89" s="23"/>
+      <c r="BJ89" s="26"/>
+      <c r="BK89" s="27"/>
+      <c r="BM89" s="1"/>
+      <c r="BO89" s="21"/>
+      <c r="BP89" s="21"/>
+      <c r="BQ89" s="23"/>
+      <c r="BR89" s="26"/>
+      <c r="BS89" s="27"/>
+      <c r="BU89" s="1"/>
+    </row>
+    <row r="90" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG90" s="21"/>
+      <c r="BH90" s="21"/>
+      <c r="BI90" s="23"/>
+      <c r="BJ90" s="26"/>
+      <c r="BK90" s="27"/>
+      <c r="BM90" s="1"/>
+      <c r="BO90" s="21"/>
+      <c r="BP90" s="21"/>
+      <c r="BQ90" s="23"/>
+      <c r="BR90" s="26"/>
+      <c r="BS90" s="27"/>
+      <c r="BU90" s="1"/>
+    </row>
+    <row r="91" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG91" s="21"/>
       <c r="BH91" s="1"/>
-      <c r="BJ91" s="21"/>
-      <c r="BK91" s="1"/>
-      <c r="BL91" s="4"/>
-      <c r="BM91" s="24"/>
-      <c r="BN91" s="17"/>
+      <c r="BI91" s="4"/>
+      <c r="BJ91" s="24"/>
+      <c r="BK91" s="17"/>
+      <c r="BM91" s="1"/>
+      <c r="BO91" s="21"/>
       <c r="BP91" s="1"/>
-    </row>
-    <row r="92" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB92" s="21"/>
-      <c r="BC92" s="1"/>
-      <c r="BD92" s="4"/>
-      <c r="BE92" s="24"/>
-      <c r="BF92" s="17"/>
+      <c r="BQ91" s="4"/>
+      <c r="BR91" s="24"/>
+      <c r="BS91" s="17"/>
+      <c r="BU91" s="1"/>
+    </row>
+    <row r="92" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG92" s="21"/>
       <c r="BH92" s="1"/>
-      <c r="BJ92" s="21"/>
-      <c r="BK92" s="1"/>
-      <c r="BL92" s="4"/>
-      <c r="BM92" s="24"/>
-      <c r="BN92" s="17"/>
+      <c r="BI92" s="4"/>
+      <c r="BJ92" s="24"/>
+      <c r="BK92" s="17"/>
+      <c r="BM92" s="1"/>
+      <c r="BO92" s="21"/>
       <c r="BP92" s="1"/>
-    </row>
-    <row r="93" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB93" s="21"/>
-      <c r="BC93" s="1"/>
-      <c r="BD93" s="4"/>
-      <c r="BE93" s="24"/>
-      <c r="BF93" s="17"/>
+      <c r="BQ92" s="4"/>
+      <c r="BR92" s="24"/>
+      <c r="BS92" s="17"/>
+      <c r="BU92" s="1"/>
+    </row>
+    <row r="93" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG93" s="21"/>
       <c r="BH93" s="1"/>
-      <c r="BJ93" s="21"/>
-      <c r="BK93" s="1"/>
-      <c r="BL93" s="4"/>
-      <c r="BM93" s="24"/>
-      <c r="BN93" s="17"/>
+      <c r="BI93" s="4"/>
+      <c r="BJ93" s="24"/>
+      <c r="BK93" s="17"/>
+      <c r="BM93" s="1"/>
+      <c r="BO93" s="21"/>
       <c r="BP93" s="1"/>
-    </row>
-    <row r="94" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB94" s="21"/>
-      <c r="BC94" s="1"/>
-      <c r="BD94" s="4"/>
-      <c r="BE94" s="24"/>
-      <c r="BF94" s="17"/>
+      <c r="BQ93" s="4"/>
+      <c r="BR93" s="24"/>
+      <c r="BS93" s="17"/>
+      <c r="BU93" s="1"/>
+    </row>
+    <row r="94" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG94" s="21"/>
       <c r="BH94" s="1"/>
-      <c r="BJ94" s="21"/>
-      <c r="BK94" s="1"/>
-      <c r="BL94" s="4"/>
-      <c r="BM94" s="24"/>
-      <c r="BN94" s="17"/>
+      <c r="BI94" s="4"/>
+      <c r="BJ94" s="24"/>
+      <c r="BK94" s="17"/>
+      <c r="BM94" s="1"/>
+      <c r="BO94" s="21"/>
       <c r="BP94" s="1"/>
-    </row>
-    <row r="95" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB95" s="21"/>
-      <c r="BC95" s="21"/>
-      <c r="BD95" s="4"/>
-      <c r="BE95" s="24"/>
-      <c r="BF95" s="17"/>
-      <c r="BH95" s="1"/>
-      <c r="BJ95" s="21"/>
-      <c r="BK95" s="21"/>
-      <c r="BL95" s="4"/>
-      <c r="BM95" s="24"/>
-      <c r="BN95" s="17"/>
-      <c r="BP95" s="1"/>
-    </row>
-    <row r="96" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB96" s="21"/>
-      <c r="BC96" s="21"/>
-      <c r="BD96" s="4"/>
-      <c r="BE96" s="24"/>
-      <c r="BF96" s="17"/>
-      <c r="BH96" s="1"/>
-      <c r="BJ96" s="21"/>
-      <c r="BK96" s="21"/>
-      <c r="BL96" s="4"/>
-      <c r="BM96" s="24"/>
-      <c r="BN96" s="17"/>
-      <c r="BP96" s="1"/>
-    </row>
-    <row r="97" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB97" s="21"/>
-      <c r="BC97" s="21"/>
-      <c r="BD97" s="4"/>
-      <c r="BE97" s="24"/>
-      <c r="BF97" s="17"/>
-      <c r="BH97" s="1"/>
-      <c r="BJ97" s="21"/>
-      <c r="BK97" s="21"/>
-      <c r="BL97" s="4"/>
-      <c r="BM97" s="24"/>
-      <c r="BN97" s="17"/>
-      <c r="BP97" s="1"/>
-    </row>
-    <row r="98" spans="54:68" x14ac:dyDescent="0.25">
-      <c r="BB98" s="21"/>
-      <c r="BC98" s="21"/>
-      <c r="BE98" s="24"/>
-      <c r="BF98" s="17"/>
-      <c r="BH98" s="1"/>
-      <c r="BJ98" s="21"/>
-      <c r="BK98" s="21"/>
-      <c r="BM98" s="24"/>
-      <c r="BN98" s="17"/>
-      <c r="BP98" s="1"/>
+      <c r="BQ94" s="4"/>
+      <c r="BR94" s="24"/>
+      <c r="BS94" s="17"/>
+      <c r="BU94" s="1"/>
+    </row>
+    <row r="95" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG95" s="21"/>
+      <c r="BH95" s="21"/>
+      <c r="BI95" s="4"/>
+      <c r="BJ95" s="24"/>
+      <c r="BK95" s="17"/>
+      <c r="BM95" s="1"/>
+      <c r="BO95" s="21"/>
+      <c r="BP95" s="21"/>
+      <c r="BQ95" s="4"/>
+      <c r="BR95" s="24"/>
+      <c r="BS95" s="17"/>
+      <c r="BU95" s="1"/>
+    </row>
+    <row r="96" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG96" s="21"/>
+      <c r="BH96" s="21"/>
+      <c r="BI96" s="4"/>
+      <c r="BJ96" s="24"/>
+      <c r="BK96" s="17"/>
+      <c r="BM96" s="1"/>
+      <c r="BO96" s="21"/>
+      <c r="BP96" s="21"/>
+      <c r="BQ96" s="4"/>
+      <c r="BR96" s="24"/>
+      <c r="BS96" s="17"/>
+      <c r="BU96" s="1"/>
+    </row>
+    <row r="97" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG97" s="21"/>
+      <c r="BH97" s="21"/>
+      <c r="BI97" s="4"/>
+      <c r="BJ97" s="24"/>
+      <c r="BK97" s="17"/>
+      <c r="BM97" s="1"/>
+      <c r="BO97" s="21"/>
+      <c r="BP97" s="21"/>
+      <c r="BQ97" s="4"/>
+      <c r="BR97" s="24"/>
+      <c r="BS97" s="17"/>
+      <c r="BU97" s="1"/>
+    </row>
+    <row r="98" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BG98" s="21"/>
+      <c r="BH98" s="21"/>
+      <c r="BJ98" s="24"/>
+      <c r="BK98" s="17"/>
+      <c r="BM98" s="1"/>
+      <c r="BO98" s="21"/>
+      <c r="BP98" s="21"/>
+      <c r="BR98" s="24"/>
+      <c r="BS98" s="17"/>
+      <c r="BU98" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AR4:AT4"/>
     <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AM4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="184">
   <si>
     <t>ID</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>Po Box 77, Linking Road, UK</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Course Table</t>
   </si>
 </sst>
 </file>
@@ -673,7 +679,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,28 +752,46 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,11 +1113,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="5"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
@@ -1884,13 +1908,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BU98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS14" sqref="AS14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="6" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="6" hidden="1" customWidth="1"/>
@@ -1900,50 +1924,52 @@
     <col min="8" max="9" width="13.140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="6" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="13" style="6" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="35.42578125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="3.85546875" style="6" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="23.7109375" style="6" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" style="6" customWidth="1"/>
-    <col min="29" max="29" width="13" style="6" customWidth="1"/>
-    <col min="30" max="30" width="3.85546875" style="6" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="43.28515625" style="6" customWidth="1"/>
-    <col min="34" max="34" width="3.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="35.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="2.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="2.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="6" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="2.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="43.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="2.5703125" style="6" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="6.42578125" style="6" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.85546875" style="6" customWidth="1"/>
-    <col min="40" max="40" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.85546875" style="6" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" style="6" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" style="6" customWidth="1"/>
+    <col min="38" max="38" width="32.140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="2.5703125" style="6" customWidth="1"/>
+    <col min="40" max="40" width="6.5703125" style="6" customWidth="1"/>
+    <col min="41" max="41" width="9.5703125" style="6" customWidth="1"/>
+    <col min="42" max="42" width="8.42578125" style="6" customWidth="1"/>
+    <col min="43" max="43" width="2.5703125" style="6" customWidth="1"/>
     <col min="44" max="44" width="7.42578125" style="6" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" style="6"/>
-    <col min="46" max="46" width="14" style="6" customWidth="1"/>
-    <col min="47" max="47" width="3.85546875" style="6" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="6" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" style="6" customWidth="1"/>
+    <col min="47" max="47" width="2.5703125" style="6" customWidth="1"/>
     <col min="48" max="48" width="6.140625" style="6" customWidth="1"/>
     <col min="49" max="49" width="8.7109375" style="6" customWidth="1"/>
     <col min="50" max="50" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="11.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.85546875" style="6" customWidth="1"/>
-    <col min="55" max="57" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="3.85546875" style="6" customWidth="1"/>
+    <col min="54" max="54" width="2.5703125" style="6" customWidth="1"/>
+    <col min="55" max="55" width="8.140625" style="6" customWidth="1"/>
+    <col min="56" max="56" width="11" style="6" customWidth="1"/>
+    <col min="57" max="57" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2.5703125" style="6" customWidth="1"/>
     <col min="59" max="59" width="6.7109375" style="6" customWidth="1"/>
     <col min="60" max="60" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -1951,7 +1977,7 @@
     <col min="63" max="63" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="13.140625" style="6" customWidth="1"/>
     <col min="65" max="65" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="3.85546875" style="6" customWidth="1"/>
+    <col min="66" max="66" width="2.5703125" style="6" customWidth="1"/>
     <col min="67" max="67" width="6.7109375" style="6" customWidth="1"/>
     <col min="68" max="68" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -1963,11 +1989,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:73" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="5"/>
       <c r="G4" s="20" t="s">
         <v>6</v>
@@ -1981,7 +2007,7 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="28" t="s">
         <v>175</v>
       </c>
       <c r="R4" s="5"/>
@@ -1998,27 +2024,27 @@
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="28" t="s">
         <v>177</v>
       </c>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AI4" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
+      <c r="AI4" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
       <c r="AL4" s="5"/>
-      <c r="AN4" s="36" t="s">
+      <c r="AN4" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AR4" s="36" t="s">
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AR4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
       <c r="AV4" s="9" t="s">
         <v>24</v>
       </c>
@@ -2086,7 +2112,7 @@
         <v>90</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>89</v>
@@ -2119,7 +2145,7 @@
         <v>173</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="AE5" s="10" t="s">
         <v>89</v>
@@ -2230,744 +2256,744 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+    <row r="6" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="22">
         <v>6</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="29">
         <v>30845</v>
       </c>
-      <c r="K6" s="12" t="str">
+      <c r="K6" s="15" t="str">
         <f>CONCATENATE(H6,".",I6,"@gmail.com")</f>
         <v>saleel.bagde@gmail.com</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="22">
         <v>1</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="22">
         <v>1</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="22">
         <v>7032300034</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="22">
         <v>1</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="22">
         <v>1</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="22">
         <v>1</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="32">
         <v>27192</v>
       </c>
-      <c r="Y6" s="12" t="str">
+      <c r="Y6" s="15" t="str">
         <f>CONCATENATE(V6,".",W6,"@gmail.com")</f>
         <v>prachi.gupta@gmail.com</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="22">
         <v>1</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="22">
         <v>1</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="22">
         <v>7032300034</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE6" s="22">
         <v>1</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="22">
         <v>1</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AG6" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="22">
         <v>1</v>
       </c>
-      <c r="AJ6" s="12" t="s">
+      <c r="AJ6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AK6" s="22">
         <v>6</v>
       </c>
-      <c r="AL6" s="13" t="s">
+      <c r="AL6" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AN6" s="22">
         <v>1</v>
       </c>
-      <c r="AO6" s="12" t="s">
+      <c r="AO6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AP6" s="22">
         <v>1</v>
       </c>
-      <c r="AR6" s="11">
+      <c r="AR6" s="22">
         <v>1</v>
       </c>
-      <c r="AS6" s="11">
+      <c r="AS6" s="22">
         <v>1</v>
       </c>
-      <c r="AT6" s="11">
+      <c r="AT6" s="22">
         <v>1</v>
       </c>
       <c r="AV6" s="22">
         <v>1</v>
       </c>
-      <c r="AW6" s="12" t="s">
+      <c r="AW6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="AX6" s="11">
+      <c r="AX6" s="22">
         <v>1</v>
       </c>
-      <c r="AY6" s="30">
+      <c r="AY6" s="34">
         <v>42401</v>
       </c>
-      <c r="AZ6" s="30">
+      <c r="AZ6" s="34">
         <v>42613</v>
       </c>
-      <c r="BA6" s="11">
+      <c r="BA6" s="22">
         <v>80</v>
       </c>
-      <c r="BC6" s="11">
+      <c r="BC6" s="22">
         <v>1</v>
       </c>
-      <c r="BD6" s="11">
+      <c r="BD6" s="22">
         <v>1</v>
       </c>
-      <c r="BE6" s="11">
+      <c r="BE6" s="22">
         <v>1</v>
       </c>
-      <c r="BG6" s="11">
+      <c r="BG6" s="22">
         <v>1</v>
       </c>
-      <c r="BH6" s="11">
+      <c r="BH6" s="22">
         <v>1</v>
       </c>
-      <c r="BI6" s="12">
+      <c r="BI6" s="15">
         <v>10</v>
       </c>
-      <c r="BJ6" s="12" t="s">
+      <c r="BJ6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BK6" s="28" t="s">
+      <c r="BK6" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BL6" s="11">
+      <c r="BL6" s="22">
         <v>67</v>
       </c>
-      <c r="BM6" s="11">
+      <c r="BM6" s="22">
         <v>2012</v>
       </c>
-      <c r="BO6" s="11">
+      <c r="BO6" s="22">
         <v>1</v>
       </c>
-      <c r="BP6" s="11">
+      <c r="BP6" s="22">
         <v>1</v>
       </c>
-      <c r="BQ6" s="12">
+      <c r="BQ6" s="15">
         <v>10</v>
       </c>
-      <c r="BR6" s="12" t="s">
+      <c r="BR6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BS6" s="28" t="s">
+      <c r="BS6" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BT6" s="11">
+      <c r="BT6" s="22">
         <v>67</v>
       </c>
-      <c r="BU6" s="11">
+      <c r="BU6" s="22">
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+    <row r="7" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="22">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="29">
         <v>25501</v>
       </c>
-      <c r="K7" s="12" t="str">
+      <c r="K7" s="15" t="str">
         <f t="shared" ref="K7:K25" si="0">CONCATENATE(H7,".",I7,"@gmail.com")</f>
         <v>omkar.rakde@gmail.com</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="22">
         <v>2</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="22">
         <v>2</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="22">
         <v>7032300039</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="22">
         <v>2</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="22">
         <v>2</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="22">
         <v>2</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="V7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="32">
         <v>26597</v>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="15" t="str">
         <f t="shared" ref="Y7:Y9" si="1">CONCATENATE(V7,".",W7,"@gmail.com")</f>
         <v>ketan.shukla@gmail.com</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="22">
         <v>2</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="22">
         <v>2</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="22">
         <v>7032300039</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="22">
         <v>2</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="22">
         <v>2</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AG7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7" s="22">
         <v>2</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AJ7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AK7" s="22">
         <v>6</v>
       </c>
-      <c r="AL7" s="13" t="s">
+      <c r="AL7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AN7" s="22">
         <v>2</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AO7" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7" s="22">
         <v>1</v>
       </c>
-      <c r="AR7" s="11">
+      <c r="AR7" s="22">
         <v>2</v>
       </c>
-      <c r="AS7" s="11">
+      <c r="AS7" s="22">
         <v>1</v>
       </c>
-      <c r="AT7" s="11">
+      <c r="AT7" s="22">
         <v>2</v>
       </c>
       <c r="AV7" s="22">
         <v>2</v>
       </c>
-      <c r="AW7" s="12" t="s">
+      <c r="AW7" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="AX7" s="11">
+      <c r="AX7" s="22">
         <v>2</v>
       </c>
-      <c r="AY7" s="30">
+      <c r="AY7" s="34">
         <v>42401</v>
       </c>
-      <c r="AZ7" s="30">
+      <c r="AZ7" s="34">
         <v>42613</v>
       </c>
-      <c r="BA7" s="11">
+      <c r="BA7" s="22">
         <v>30</v>
       </c>
-      <c r="BC7" s="11">
+      <c r="BC7" s="22">
         <v>2</v>
       </c>
-      <c r="BD7" s="11">
+      <c r="BD7" s="22">
         <v>7</v>
       </c>
-      <c r="BE7" s="11">
+      <c r="BE7" s="22">
         <v>5</v>
       </c>
-      <c r="BG7" s="11">
+      <c r="BG7" s="22">
         <v>2</v>
       </c>
-      <c r="BH7" s="11">
+      <c r="BH7" s="22">
         <v>1</v>
       </c>
-      <c r="BI7" s="12">
+      <c r="BI7" s="15">
         <v>12</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="BJ7" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="BK7" s="28" t="s">
+      <c r="BK7" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BL7" s="11">
+      <c r="BL7" s="22">
         <v>74</v>
       </c>
-      <c r="BM7" s="11">
+      <c r="BM7" s="22">
         <v>2014</v>
       </c>
-      <c r="BO7" s="11">
+      <c r="BO7" s="22">
         <v>2</v>
       </c>
-      <c r="BP7" s="11">
+      <c r="BP7" s="22">
         <v>1</v>
       </c>
-      <c r="BQ7" s="12">
+      <c r="BQ7" s="15">
         <v>12</v>
       </c>
-      <c r="BR7" s="12" t="s">
+      <c r="BR7" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="BS7" s="28" t="s">
+      <c r="BS7" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BT7" s="11">
+      <c r="BT7" s="22">
         <v>74</v>
       </c>
-      <c r="BU7" s="11">
+      <c r="BU7" s="22">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+    <row r="8" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="22">
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="22">
         <v>3</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="29">
         <v>25866</v>
       </c>
-      <c r="K8" s="12" t="str">
+      <c r="K8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ulka.joshi@gmail.com</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="22">
         <v>3</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="22">
         <v>3</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="22">
         <v>7032300050</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="22">
         <v>3</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="22">
         <v>3</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="22">
         <v>3</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="V8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="W8" s="12" t="s">
+      <c r="W8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="32">
         <v>26231</v>
       </c>
-      <c r="Y8" s="12" t="str">
+      <c r="Y8" s="15" t="str">
         <f t="shared" si="1"/>
         <v>kiran.dev@gmail.com</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="22">
         <v>3</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="22">
         <v>3</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AC8" s="22">
         <v>7032300050</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="22">
         <v>3</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8" s="22">
         <v>3</v>
       </c>
-      <c r="AG8" s="19" t="s">
+      <c r="AG8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="AI8" s="11">
+      <c r="AI8" s="22">
         <v>3</v>
       </c>
-      <c r="AJ8" s="12" t="s">
+      <c r="AJ8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AK8" s="11">
+      <c r="AK8" s="22">
         <v>2</v>
       </c>
-      <c r="AL8" s="13" t="s">
+      <c r="AL8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AN8" s="11">
+      <c r="AN8" s="22">
         <v>3</v>
       </c>
-      <c r="AO8" s="12" t="s">
+      <c r="AO8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AP8" s="11">
+      <c r="AP8" s="22">
         <v>1</v>
       </c>
-      <c r="AR8" s="11">
+      <c r="AR8" s="22">
         <v>3</v>
       </c>
-      <c r="AS8" s="11">
+      <c r="AS8" s="22">
         <v>1</v>
       </c>
-      <c r="AT8" s="11">
+      <c r="AT8" s="22">
         <v>3</v>
       </c>
       <c r="AV8" s="22">
         <v>3</v>
       </c>
-      <c r="AW8" s="12" t="s">
+      <c r="AW8" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="AX8" s="11">
+      <c r="AX8" s="22">
         <v>3</v>
       </c>
-      <c r="AY8" s="30">
+      <c r="AY8" s="34">
         <v>42401</v>
       </c>
-      <c r="AZ8" s="30">
+      <c r="AZ8" s="34">
         <v>42460</v>
       </c>
-      <c r="BA8" s="11">
+      <c r="BA8" s="22">
         <v>35</v>
       </c>
-      <c r="BC8" s="11">
+      <c r="BC8" s="22">
         <v>3</v>
       </c>
-      <c r="BD8" s="11">
+      <c r="BD8" s="22">
         <v>3</v>
       </c>
-      <c r="BE8" s="11">
+      <c r="BE8" s="22">
         <v>4</v>
       </c>
-      <c r="BG8" s="11">
+      <c r="BG8" s="22">
         <v>3</v>
       </c>
-      <c r="BH8" s="11">
+      <c r="BH8" s="22">
         <v>1</v>
       </c>
-      <c r="BI8" s="12" t="s">
+      <c r="BI8" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ8" s="12" t="s">
+      <c r="BJ8" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BK8" s="28" t="s">
+      <c r="BK8" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BL8" s="11">
+      <c r="BL8" s="22">
         <v>68</v>
       </c>
-      <c r="BM8" s="11">
+      <c r="BM8" s="22">
         <v>2018</v>
       </c>
-      <c r="BO8" s="11">
+      <c r="BO8" s="22">
         <v>3</v>
       </c>
-      <c r="BP8" s="11">
+      <c r="BP8" s="22">
         <v>1</v>
       </c>
-      <c r="BQ8" s="12" t="s">
+      <c r="BQ8" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BR8" s="12" t="s">
+      <c r="BR8" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BS8" s="28" t="s">
+      <c r="BS8" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BT8" s="11">
+      <c r="BT8" s="22">
         <v>68</v>
       </c>
-      <c r="BU8" s="11">
+      <c r="BU8" s="22">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+    <row r="9" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="22">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="22">
         <v>3</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="22">
         <v>4</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="29">
         <v>30255</v>
       </c>
-      <c r="K9" s="12" t="str">
+      <c r="K9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>rahul.patil@gmail.com</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="22">
         <v>4</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="22">
         <v>4</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="22">
         <v>7032300027</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="22">
         <v>4</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="22">
         <v>4</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="22">
         <v>4</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="32">
         <v>26603</v>
       </c>
-      <c r="Y9" s="12" t="str">
+      <c r="Y9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>parag.patil@gmail.com</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="22">
         <v>4</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9" s="22">
         <v>4</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9" s="22">
         <v>7032300027</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AE9" s="22">
         <v>4</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9" s="22">
         <v>4</v>
       </c>
-      <c r="AG9" s="18" t="s">
+      <c r="AG9" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AI9" s="22">
         <v>4</v>
       </c>
-      <c r="AJ9" s="12" t="s">
+      <c r="AJ9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AK9" s="11">
+      <c r="AK9" s="22">
         <v>3</v>
       </c>
-      <c r="AL9" s="13" t="s">
+      <c r="AL9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AN9" s="11">
+      <c r="AN9" s="22">
         <v>4</v>
       </c>
-      <c r="AO9" s="12" t="s">
+      <c r="AO9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AP9" s="11">
+      <c r="AP9" s="22">
         <v>1</v>
       </c>
-      <c r="AR9" s="11">
+      <c r="AR9" s="22">
         <v>4</v>
       </c>
-      <c r="AS9" s="11">
+      <c r="AS9" s="22">
         <v>1</v>
       </c>
-      <c r="AT9" s="11">
+      <c r="AT9" s="22">
         <v>4</v>
       </c>
       <c r="AV9" s="22">
         <v>4</v>
       </c>
-      <c r="AW9" s="12" t="s">
+      <c r="AW9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AX9" s="11">
+      <c r="AX9" s="22">
         <v>4</v>
       </c>
-      <c r="AY9" s="30">
+      <c r="AY9" s="34">
         <v>42552</v>
       </c>
-      <c r="AZ9" s="32">
+      <c r="AZ9" s="36">
         <v>42643</v>
       </c>
-      <c r="BA9" s="11">
+      <c r="BA9" s="22">
         <v>25</v>
       </c>
-      <c r="BC9" s="11">
+      <c r="BC9" s="22">
         <v>4</v>
       </c>
-      <c r="BD9" s="11">
+      <c r="BD9" s="22">
         <v>6</v>
       </c>
-      <c r="BE9" s="11">
+      <c r="BE9" s="22">
         <v>3</v>
       </c>
-      <c r="BG9" s="11">
+      <c r="BG9" s="22">
         <v>4</v>
       </c>
-      <c r="BH9" s="11">
+      <c r="BH9" s="22">
         <v>2</v>
       </c>
-      <c r="BI9" s="12">
+      <c r="BI9" s="15">
         <v>10</v>
       </c>
-      <c r="BJ9" s="12" t="s">
+      <c r="BJ9" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="BK9" s="28" t="s">
+      <c r="BK9" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="BL9" s="11">
+      <c r="BL9" s="22">
         <v>68</v>
       </c>
-      <c r="BM9" s="11">
+      <c r="BM9" s="22">
         <v>2013</v>
       </c>
-      <c r="BO9" s="11">
+      <c r="BO9" s="22">
         <v>4</v>
       </c>
-      <c r="BP9" s="11">
+      <c r="BP9" s="22">
         <v>2</v>
       </c>
-      <c r="BQ9" s="12">
+      <c r="BQ9" s="15">
         <v>10</v>
       </c>
-      <c r="BR9" s="12" t="s">
+      <c r="BR9" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="BS9" s="28" t="s">
+      <c r="BS9" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="BT9" s="11">
+      <c r="BT9" s="22">
         <v>68</v>
       </c>
-      <c r="BU9" s="11">
+      <c r="BU9" s="22">
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+    <row r="10" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="22">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="22">
         <v>3</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="22">
         <v>5</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -2976,146 +3002,146 @@
       <c r="I10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="29">
         <v>30693</v>
       </c>
-      <c r="K10" s="12" t="str">
+      <c r="K10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ruhan.bagde@gmail.com</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="22">
         <v>5</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="22">
         <v>5</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="22">
         <v>7032300001</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="22">
         <v>5</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="22">
         <v>5</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="22">
         <v>5</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB10" s="22">
         <v>1</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10" s="22">
         <v>7032301201</v>
       </c>
-      <c r="AI10" s="11">
+      <c r="AI10" s="22">
         <v>5</v>
       </c>
-      <c r="AJ10" s="12" t="s">
+      <c r="AJ10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AK10" s="11">
+      <c r="AK10" s="22">
         <v>3</v>
       </c>
-      <c r="AL10" s="13" t="s">
+      <c r="AL10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AN10" s="11">
+      <c r="AN10" s="22">
         <v>5</v>
       </c>
-      <c r="AO10" s="12" t="s">
+      <c r="AO10" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AP10" s="11">
+      <c r="AP10" s="22">
         <v>1</v>
       </c>
-      <c r="AR10" s="11">
+      <c r="AR10" s="22">
         <v>5</v>
       </c>
-      <c r="AS10" s="11">
+      <c r="AS10" s="22">
         <v>1</v>
       </c>
-      <c r="AT10" s="11">
+      <c r="AT10" s="22">
         <v>5</v>
       </c>
       <c r="AV10" s="22">
         <v>5</v>
       </c>
-      <c r="AW10" s="12" t="s">
+      <c r="AW10" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="AX10" s="11">
+      <c r="AX10" s="22">
         <v>5</v>
       </c>
-      <c r="AY10" s="30">
+      <c r="AY10" s="34">
         <v>42552</v>
       </c>
-      <c r="AZ10" s="32">
+      <c r="AZ10" s="36">
         <v>42643</v>
       </c>
-      <c r="BA10" s="11">
+      <c r="BA10" s="22">
         <v>25</v>
       </c>
-      <c r="BC10" s="11">
+      <c r="BC10" s="22">
         <v>5</v>
       </c>
-      <c r="BD10" s="11">
+      <c r="BD10" s="22">
         <v>10</v>
       </c>
       <c r="BE10" s="22">
         <v>6</v>
       </c>
-      <c r="BG10" s="11">
+      <c r="BG10" s="22">
         <v>5</v>
       </c>
-      <c r="BH10" s="11">
+      <c r="BH10" s="22">
         <v>2</v>
       </c>
-      <c r="BI10" s="12">
+      <c r="BI10" s="15">
         <v>12</v>
       </c>
-      <c r="BJ10" s="12" t="s">
+      <c r="BJ10" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="BK10" s="28" t="s">
+      <c r="BK10" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL10" s="11">
+      <c r="BL10" s="22">
         <v>56</v>
       </c>
-      <c r="BM10" s="11">
+      <c r="BM10" s="22">
         <v>2015</v>
       </c>
-      <c r="BO10" s="11">
+      <c r="BO10" s="22">
         <v>5</v>
       </c>
-      <c r="BP10" s="11">
+      <c r="BP10" s="22">
         <v>2</v>
       </c>
-      <c r="BQ10" s="12">
+      <c r="BQ10" s="15">
         <v>12</v>
       </c>
-      <c r="BR10" s="12" t="s">
+      <c r="BR10" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="BS10" s="28" t="s">
+      <c r="BS10" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BT10" s="11">
+      <c r="BT10" s="22">
         <v>56</v>
       </c>
-      <c r="BU10" s="11">
+      <c r="BU10" s="22">
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="11">
+    <row r="11" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="37"/>
+      <c r="G11" s="22">
         <v>6</v>
       </c>
       <c r="H11" s="15" t="s">
@@ -3124,138 +3150,138 @@
       <c r="I11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="29">
         <v>29556</v>
       </c>
-      <c r="K11" s="12" t="str">
+      <c r="K11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>lala.prasad@gmail.com</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="22">
         <v>6</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="22">
         <v>6</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="22">
         <v>7032300079</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="22">
         <v>6</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="22">
         <v>6</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="22">
         <v>6</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB11" s="22">
         <v>2</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AC11" s="22">
         <v>7032303479</v>
       </c>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="3"/>
-      <c r="AN11" s="11">
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="37"/>
+      <c r="AN11" s="22">
         <v>6</v>
       </c>
-      <c r="AO11" s="12" t="s">
+      <c r="AO11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AP11" s="22">
         <v>1</v>
       </c>
-      <c r="AR11" s="11">
+      <c r="AR11" s="22">
         <v>6</v>
       </c>
-      <c r="AS11" s="11">
+      <c r="AS11" s="22">
         <v>1</v>
       </c>
-      <c r="AT11" s="11">
+      <c r="AT11" s="22">
         <v>6</v>
       </c>
       <c r="AV11" s="22">
         <v>6</v>
       </c>
-      <c r="AW11" s="12" t="s">
+      <c r="AW11" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="AX11" s="11">
+      <c r="AX11" s="22">
         <v>1</v>
       </c>
-      <c r="AY11" s="30">
+      <c r="AY11" s="34">
         <v>42036</v>
       </c>
-      <c r="AZ11" s="30">
+      <c r="AZ11" s="34">
         <v>42247</v>
       </c>
-      <c r="BA11" s="11">
+      <c r="BA11" s="22">
         <v>80</v>
       </c>
-      <c r="BC11" s="11">
+      <c r="BC11" s="22">
         <v>6</v>
       </c>
-      <c r="BD11" s="11">
+      <c r="BD11" s="22">
         <v>17</v>
       </c>
       <c r="BE11" s="22">
         <v>8</v>
       </c>
-      <c r="BG11" s="11">
+      <c r="BG11" s="22">
         <v>6</v>
       </c>
-      <c r="BH11" s="11">
+      <c r="BH11" s="22">
         <v>2</v>
       </c>
-      <c r="BI11" s="12" t="s">
+      <c r="BI11" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="BJ11" s="12" t="s">
+      <c r="BJ11" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="BK11" s="28" t="s">
+      <c r="BK11" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL11" s="11">
+      <c r="BL11" s="22">
         <v>64</v>
       </c>
-      <c r="BM11" s="11">
+      <c r="BM11" s="22">
         <v>2019</v>
       </c>
-      <c r="BO11" s="11">
+      <c r="BO11" s="22">
         <v>6</v>
       </c>
-      <c r="BP11" s="11">
+      <c r="BP11" s="22">
         <v>2</v>
       </c>
-      <c r="BQ11" s="12" t="s">
+      <c r="BQ11" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BR11" s="12" t="s">
+      <c r="BR11" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="BS11" s="28" t="s">
+      <c r="BS11" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BT11" s="11">
+      <c r="BT11" s="22">
         <v>64</v>
       </c>
-      <c r="BU11" s="11">
+      <c r="BU11" s="22">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="11">
+    <row r="12" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="G12" s="22">
         <v>7</v>
       </c>
       <c r="H12" s="15" t="s">
@@ -3264,412 +3290,412 @@
       <c r="I12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="29">
         <v>31760</v>
       </c>
-      <c r="K12" s="12" t="str">
+      <c r="K12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>sharmin.bagde@gmail.com</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="22">
         <v>7</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="22">
         <v>7</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="22">
         <v>7032300081</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="22">
         <v>7</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="22">
         <v>7</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="22">
         <v>7</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB12" s="22">
         <v>3</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AC12" s="22">
         <v>7032306781</v>
       </c>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="3"/>
-      <c r="AN12" s="11">
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="37"/>
+      <c r="AN12" s="22">
         <v>7</v>
       </c>
-      <c r="AO12" s="12" t="s">
+      <c r="AO12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="22">
         <v>2</v>
       </c>
-      <c r="AR12" s="11">
+      <c r="AR12" s="22">
         <v>7</v>
       </c>
-      <c r="AS12" s="11">
+      <c r="AS12" s="22">
         <v>1</v>
       </c>
-      <c r="AT12" s="11">
+      <c r="AT12" s="22">
         <v>7</v>
       </c>
       <c r="AV12" s="22">
         <v>7</v>
       </c>
-      <c r="AW12" s="12" t="s">
+      <c r="AW12" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AX12" s="11">
+      <c r="AX12" s="22">
         <v>2</v>
       </c>
-      <c r="AY12" s="30">
+      <c r="AY12" s="34">
         <v>42036</v>
       </c>
-      <c r="AZ12" s="30">
+      <c r="AZ12" s="34">
         <v>42247</v>
       </c>
-      <c r="BA12" s="11">
+      <c r="BA12" s="22">
         <v>30</v>
       </c>
-      <c r="BC12" s="11">
+      <c r="BC12" s="22">
         <v>7</v>
       </c>
-      <c r="BD12" s="11">
+      <c r="BD12" s="22">
         <v>20</v>
       </c>
       <c r="BE12" s="22">
         <v>12</v>
       </c>
-      <c r="BG12" s="11">
+      <c r="BG12" s="22">
         <v>7</v>
       </c>
-      <c r="BH12" s="11">
+      <c r="BH12" s="22">
         <v>3</v>
       </c>
-      <c r="BI12" s="12">
+      <c r="BI12" s="15">
         <v>10</v>
       </c>
-      <c r="BJ12" s="12" t="s">
+      <c r="BJ12" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BK12" s="28" t="s">
+      <c r="BK12" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL12" s="11">
+      <c r="BL12" s="22">
         <v>75</v>
       </c>
-      <c r="BM12" s="11">
+      <c r="BM12" s="22">
         <v>2011</v>
       </c>
-      <c r="BO12" s="11">
+      <c r="BO12" s="22">
         <v>7</v>
       </c>
-      <c r="BP12" s="11">
+      <c r="BP12" s="22">
         <v>3</v>
       </c>
-      <c r="BQ12" s="12">
+      <c r="BQ12" s="15">
         <v>10</v>
       </c>
-      <c r="BR12" s="12" t="s">
+      <c r="BR12" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BS12" s="28" t="s">
+      <c r="BS12" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BT12" s="11">
+      <c r="BT12" s="22">
         <v>75</v>
       </c>
-      <c r="BU12" s="11">
+      <c r="BU12" s="22">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="11">
+    <row r="13" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="37"/>
+      <c r="G13" s="22">
         <v>8</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="29">
         <v>31045</v>
       </c>
-      <c r="K13" s="12" t="str">
+      <c r="K13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>vrushali.bagde@gmail.com</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="22">
         <v>8</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="22">
         <v>8</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="22">
         <v>7032300054</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="22">
         <v>8</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="22">
         <v>8</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="22">
         <v>8</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB13" s="22">
         <v>4</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AC13" s="22">
         <v>7032390234</v>
       </c>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="3"/>
-      <c r="AN13" s="11">
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="37"/>
+      <c r="AN13" s="22">
         <v>8</v>
       </c>
-      <c r="AO13" s="12" t="s">
+      <c r="AO13" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AP13" s="11">
+      <c r="AP13" s="22">
         <v>2</v>
       </c>
-      <c r="AR13" s="11">
+      <c r="AR13" s="22">
         <v>8</v>
       </c>
-      <c r="AS13" s="11">
+      <c r="AS13" s="22">
         <v>1</v>
       </c>
-      <c r="AT13" s="11">
+      <c r="AT13" s="22">
         <v>8</v>
       </c>
       <c r="AV13" s="22">
         <v>8</v>
       </c>
-      <c r="AW13" s="12" t="s">
+      <c r="AW13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AX13" s="11">
+      <c r="AX13" s="22">
         <v>3</v>
       </c>
-      <c r="AY13" s="30">
+      <c r="AY13" s="34">
         <v>42826</v>
       </c>
-      <c r="AZ13" s="33">
+      <c r="AZ13" s="40">
         <v>42886</v>
       </c>
-      <c r="BA13" s="11">
+      <c r="BA13" s="22">
         <v>30</v>
       </c>
-      <c r="BC13" s="11">
+      <c r="BC13" s="22">
         <v>8</v>
       </c>
-      <c r="BD13" s="11">
+      <c r="BD13" s="22">
         <v>1</v>
       </c>
       <c r="BE13" s="22">
         <v>7</v>
       </c>
-      <c r="BG13" s="11">
+      <c r="BG13" s="22">
         <v>8</v>
       </c>
-      <c r="BH13" s="11">
+      <c r="BH13" s="22">
         <v>3</v>
       </c>
-      <c r="BI13" s="12">
+      <c r="BI13" s="15">
         <v>12</v>
       </c>
-      <c r="BJ13" s="12" t="s">
+      <c r="BJ13" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="BK13" s="28" t="s">
+      <c r="BK13" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="BL13" s="11">
+      <c r="BL13" s="22">
         <v>86</v>
       </c>
-      <c r="BM13" s="11">
+      <c r="BM13" s="22">
         <v>2013</v>
       </c>
-      <c r="BO13" s="11">
+      <c r="BO13" s="22">
         <v>8</v>
       </c>
-      <c r="BP13" s="11">
+      <c r="BP13" s="22">
         <v>3</v>
       </c>
-      <c r="BQ13" s="12">
+      <c r="BQ13" s="15">
         <v>12</v>
       </c>
-      <c r="BR13" s="12" t="s">
+      <c r="BR13" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="BS13" s="28" t="s">
+      <c r="BS13" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="BT13" s="11">
+      <c r="BT13" s="22">
         <v>86</v>
       </c>
-      <c r="BU13" s="11">
+      <c r="BU13" s="22">
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="G14" s="11">
+    <row r="14" spans="2:73" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="37"/>
+      <c r="G14" s="22">
         <v>9</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="29">
         <v>33903</v>
       </c>
-      <c r="K14" s="12" t="str">
+      <c r="K14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>vasant.khande@gmail.com</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="22">
         <v>9</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="22">
         <v>9</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="22">
         <v>7032300059</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="22">
         <v>9</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="22">
         <v>9</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="3"/>
-      <c r="AN14" s="11">
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="37"/>
+      <c r="AN14" s="22">
         <v>9</v>
       </c>
-      <c r="AO14" s="12" t="s">
+      <c r="AO14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AP14" s="22">
         <v>1</v>
       </c>
-      <c r="AR14" s="11">
+      <c r="AR14" s="22">
         <v>9</v>
       </c>
-      <c r="AS14" s="11">
+      <c r="AS14" s="22">
         <v>1</v>
       </c>
-      <c r="AT14" s="11">
+      <c r="AT14" s="22">
         <v>9</v>
       </c>
       <c r="AV14" s="22">
         <v>9</v>
       </c>
-      <c r="AW14" s="12" t="s">
+      <c r="AW14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AX14" s="11">
+      <c r="AX14" s="22">
         <v>4</v>
       </c>
-      <c r="AY14" s="30">
+      <c r="AY14" s="34">
         <v>43282</v>
       </c>
-      <c r="AZ14" s="32">
+      <c r="AZ14" s="36">
         <v>43373</v>
       </c>
-      <c r="BA14" s="11">
+      <c r="BA14" s="22">
         <v>25</v>
       </c>
-      <c r="BC14" s="11">
+      <c r="BC14" s="22">
         <v>9</v>
       </c>
-      <c r="BD14" s="11">
+      <c r="BD14" s="22">
         <v>2</v>
       </c>
       <c r="BE14" s="22">
         <v>12</v>
       </c>
-      <c r="BG14" s="11">
+      <c r="BG14" s="22">
         <v>9</v>
       </c>
-      <c r="BH14" s="11">
+      <c r="BH14" s="22">
         <v>3</v>
       </c>
-      <c r="BI14" s="12" t="s">
+      <c r="BI14" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ14" s="12" t="s">
+      <c r="BJ14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="BK14" s="28" t="s">
+      <c r="BK14" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BL14" s="11">
+      <c r="BL14" s="22">
         <v>67</v>
       </c>
-      <c r="BM14" s="11">
+      <c r="BM14" s="22">
         <v>2017</v>
       </c>
-      <c r="BO14" s="11">
+      <c r="BO14" s="22">
         <v>9</v>
       </c>
-      <c r="BP14" s="11">
+      <c r="BP14" s="22">
         <v>3</v>
       </c>
-      <c r="BQ14" s="12" t="s">
+      <c r="BQ14" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BR14" s="12" t="s">
+      <c r="BR14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="BS14" s="28" t="s">
+      <c r="BS14" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BT14" s="11">
+      <c r="BT14" s="22">
         <v>67</v>
       </c>
-      <c r="BU14" s="11">
+      <c r="BU14" s="22">
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="G15" s="11">
+    <row r="15" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="37"/>
+      <c r="G15" s="22">
         <v>10</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -3678,132 +3704,132 @@
       <c r="I15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="29">
         <v>33172</v>
       </c>
-      <c r="K15" s="12" t="str">
+      <c r="K15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>nitish.patil@gmail.com</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="22">
         <v>10</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="22">
         <v>10</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="22">
         <v>7032300086</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="22">
         <v>10</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="22">
         <v>10</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="3"/>
-      <c r="AN15" s="11">
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="37"/>
+      <c r="AN15" s="22">
         <v>10</v>
       </c>
-      <c r="AO15" s="12" t="s">
+      <c r="AO15" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AP15" s="22">
         <v>2</v>
       </c>
-      <c r="AR15" s="11">
+      <c r="AR15" s="22">
         <v>10</v>
       </c>
-      <c r="AS15" s="11">
+      <c r="AS15" s="22">
         <v>2</v>
       </c>
-      <c r="AT15" s="11">
+      <c r="AT15" s="22">
         <v>1</v>
       </c>
       <c r="AV15" s="22">
         <v>10</v>
       </c>
-      <c r="AW15" s="12" t="s">
+      <c r="AW15" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="AX15" s="11">
+      <c r="AX15" s="22">
         <v>5</v>
       </c>
-      <c r="AY15" s="30">
+      <c r="AY15" s="34">
         <v>43344</v>
       </c>
-      <c r="AZ15" s="34">
+      <c r="AZ15" s="41">
         <v>43434</v>
       </c>
-      <c r="BA15" s="11">
+      <c r="BA15" s="22">
         <v>25</v>
       </c>
-      <c r="BC15" s="11">
+      <c r="BC15" s="22">
         <v>10</v>
       </c>
-      <c r="BD15" s="11">
+      <c r="BD15" s="22">
         <v>4</v>
       </c>
       <c r="BE15" s="22">
         <v>15</v>
       </c>
-      <c r="BG15" s="11">
+      <c r="BG15" s="22">
         <v>10</v>
       </c>
-      <c r="BH15" s="11">
+      <c r="BH15" s="22">
         <v>4</v>
       </c>
-      <c r="BI15" s="12">
+      <c r="BI15" s="15">
         <v>10</v>
       </c>
-      <c r="BJ15" s="12" t="s">
+      <c r="BJ15" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="BK15" s="28" t="s">
+      <c r="BK15" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BL15" s="11">
+      <c r="BL15" s="22">
         <v>58</v>
       </c>
-      <c r="BM15" s="11">
+      <c r="BM15" s="22">
         <v>2010</v>
       </c>
-      <c r="BO15" s="11">
+      <c r="BO15" s="22">
         <v>10</v>
       </c>
-      <c r="BP15" s="11">
+      <c r="BP15" s="22">
         <v>4</v>
       </c>
-      <c r="BQ15" s="12">
+      <c r="BQ15" s="15">
         <v>10</v>
       </c>
-      <c r="BR15" s="12" t="s">
+      <c r="BR15" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="BS15" s="28" t="s">
+      <c r="BS15" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BT15" s="11">
+      <c r="BT15" s="22">
         <v>58</v>
       </c>
-      <c r="BU15" s="11">
+      <c r="BU15" s="22">
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="11">
+    <row r="16" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="37"/>
+      <c r="G16" s="22">
         <v>11</v>
       </c>
       <c r="H16" s="15" t="s">
@@ -3812,132 +3838,132 @@
       <c r="I16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="29">
         <v>27697</v>
       </c>
-      <c r="K16" s="12" t="str">
+      <c r="K16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>neel.save@gmail.com</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="22">
         <v>11</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="22">
         <v>11</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="22">
         <v>7032300082</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="22">
         <v>11</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="22">
         <v>11</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="3"/>
-      <c r="AN16" s="11">
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="37"/>
+      <c r="AN16" s="22">
         <v>11</v>
       </c>
-      <c r="AO16" s="12" t="s">
+      <c r="AO16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="AP16" s="11">
+      <c r="AP16" s="22">
         <v>1</v>
       </c>
-      <c r="AR16" s="11">
+      <c r="AR16" s="22">
         <v>11</v>
       </c>
-      <c r="AS16" s="11">
+      <c r="AS16" s="22">
         <v>2</v>
       </c>
-      <c r="AT16" s="11">
+      <c r="AT16" s="22">
         <v>2</v>
       </c>
       <c r="AV16" s="22">
         <v>11</v>
       </c>
-      <c r="AW16" s="12" t="s">
+      <c r="AW16" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="AX16" s="11">
+      <c r="AX16" s="22">
         <v>1</v>
       </c>
-      <c r="AY16" s="30">
+      <c r="AY16" s="34">
         <v>42948</v>
       </c>
-      <c r="AZ16" s="30">
+      <c r="AZ16" s="34">
         <v>43159</v>
       </c>
-      <c r="BA16" s="11">
+      <c r="BA16" s="22">
         <v>80</v>
       </c>
-      <c r="BC16" s="11">
+      <c r="BC16" s="22">
         <v>11</v>
       </c>
-      <c r="BD16" s="11">
+      <c r="BD16" s="22">
         <v>5</v>
       </c>
       <c r="BE16" s="22">
         <v>20</v>
       </c>
-      <c r="BG16" s="11">
+      <c r="BG16" s="22">
         <v>11</v>
       </c>
-      <c r="BH16" s="11">
+      <c r="BH16" s="22">
         <v>4</v>
       </c>
-      <c r="BI16" s="12">
+      <c r="BI16" s="15">
         <v>12</v>
       </c>
-      <c r="BJ16" s="12" t="s">
+      <c r="BJ16" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="BK16" s="28" t="s">
+      <c r="BK16" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL16" s="11">
+      <c r="BL16" s="22">
         <v>97</v>
       </c>
-      <c r="BM16" s="11">
+      <c r="BM16" s="22">
         <v>2012</v>
       </c>
-      <c r="BO16" s="11">
+      <c r="BO16" s="22">
         <v>11</v>
       </c>
-      <c r="BP16" s="11">
+      <c r="BP16" s="22">
         <v>4</v>
       </c>
-      <c r="BQ16" s="12">
+      <c r="BQ16" s="15">
         <v>12</v>
       </c>
-      <c r="BR16" s="12" t="s">
+      <c r="BR16" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="BS16" s="28" t="s">
+      <c r="BS16" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BT16" s="11">
+      <c r="BT16" s="22">
         <v>97</v>
       </c>
-      <c r="BU16" s="11">
+      <c r="BU16" s="22">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="11">
+    <row r="17" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="37"/>
+      <c r="G17" s="22">
         <v>12</v>
       </c>
       <c r="H17" s="15" t="s">
@@ -3946,132 +3972,132 @@
       <c r="I17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="29">
         <v>31746</v>
       </c>
-      <c r="K17" s="12" t="str">
+      <c r="K17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>deep.save@gmail.com</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="22">
         <v>12</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="22">
         <v>12</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="22">
         <v>7032300042</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="22">
         <v>12</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="22">
         <v>12</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="3"/>
-      <c r="AN17" s="11">
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="37"/>
+      <c r="AN17" s="22">
         <v>12</v>
       </c>
-      <c r="AO17" s="12" t="s">
+      <c r="AO17" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AP17" s="11">
+      <c r="AP17" s="22">
         <v>1</v>
       </c>
-      <c r="AR17" s="11">
+      <c r="AR17" s="22">
         <v>12</v>
       </c>
-      <c r="AS17" s="11">
+      <c r="AS17" s="22">
         <v>2</v>
       </c>
-      <c r="AT17" s="11">
+      <c r="AT17" s="22">
         <v>3</v>
       </c>
       <c r="AV17" s="22">
         <v>12</v>
       </c>
-      <c r="AW17" s="12" t="s">
+      <c r="AW17" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AX17" s="11">
+      <c r="AX17" s="22">
         <v>2</v>
       </c>
-      <c r="AY17" s="30">
+      <c r="AY17" s="34">
         <v>42948</v>
       </c>
-      <c r="AZ17" s="30">
+      <c r="AZ17" s="34">
         <v>43159</v>
       </c>
-      <c r="BA17" s="11">
+      <c r="BA17" s="22">
         <v>30</v>
       </c>
-      <c r="BC17" s="11">
+      <c r="BC17" s="22">
         <v>12</v>
       </c>
-      <c r="BD17" s="11">
+      <c r="BD17" s="22">
         <v>6</v>
       </c>
       <c r="BE17" s="22">
         <v>5</v>
       </c>
-      <c r="BG17" s="11">
+      <c r="BG17" s="22">
         <v>12</v>
       </c>
-      <c r="BH17" s="11">
+      <c r="BH17" s="22">
         <v>4</v>
       </c>
-      <c r="BI17" s="12" t="s">
+      <c r="BI17" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="BJ17" s="12" t="s">
+      <c r="BJ17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="BK17" s="28" t="s">
+      <c r="BK17" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="BL17" s="11">
+      <c r="BL17" s="22">
         <v>77</v>
       </c>
-      <c r="BM17" s="11">
+      <c r="BM17" s="22">
         <v>2016</v>
       </c>
-      <c r="BO17" s="11">
+      <c r="BO17" s="22">
         <v>12</v>
       </c>
-      <c r="BP17" s="11">
+      <c r="BP17" s="22">
         <v>4</v>
       </c>
-      <c r="BQ17" s="12" t="s">
+      <c r="BQ17" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BR17" s="12" t="s">
+      <c r="BR17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="BS17" s="28" t="s">
+      <c r="BS17" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="BT17" s="11">
+      <c r="BT17" s="22">
         <v>77</v>
       </c>
-      <c r="BU17" s="11">
+      <c r="BU17" s="22">
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="11">
+    <row r="18" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="37"/>
+      <c r="G18" s="22">
         <v>13</v>
       </c>
       <c r="H18" s="15" t="s">
@@ -4080,118 +4106,118 @@
       <c r="I18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="29">
         <v>29921</v>
       </c>
-      <c r="K18" s="12" t="str">
+      <c r="K18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>nrupali.save@gmail.com</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="22">
         <v>13</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="22">
         <v>13</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="22">
         <v>7032300055</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="22">
         <v>13</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="22">
         <v>13</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="3"/>
-      <c r="AN18" s="11">
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="37"/>
+      <c r="AN18" s="22">
         <v>13</v>
       </c>
-      <c r="AO18" s="12" t="s">
+      <c r="AO18" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AP18" s="11">
+      <c r="AP18" s="22">
         <v>1</v>
       </c>
-      <c r="AR18" s="11">
+      <c r="AR18" s="22">
         <v>13</v>
       </c>
-      <c r="AS18" s="11">
+      <c r="AS18" s="22">
         <v>2</v>
       </c>
-      <c r="AT18" s="11">
+      <c r="AT18" s="22">
         <v>11</v>
       </c>
       <c r="AV18" s="22">
         <v>13</v>
       </c>
-      <c r="AW18" s="12" t="s">
+      <c r="AW18" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="AX18" s="11">
+      <c r="AX18" s="22">
         <v>3</v>
       </c>
-      <c r="AY18" s="30">
+      <c r="AY18" s="34">
         <v>42917</v>
       </c>
-      <c r="AZ18" s="30">
+      <c r="AZ18" s="34">
         <v>42978</v>
       </c>
-      <c r="BA18" s="11">
+      <c r="BA18" s="22">
         <v>30</v>
       </c>
-      <c r="BC18" s="11">
+      <c r="BC18" s="22">
         <v>13</v>
       </c>
-      <c r="BD18" s="11">
+      <c r="BD18" s="22">
         <v>7</v>
       </c>
       <c r="BE18" s="22">
         <v>3</v>
       </c>
-      <c r="BG18" s="11">
+      <c r="BG18" s="22">
         <v>13</v>
       </c>
-      <c r="BH18" s="11">
+      <c r="BH18" s="22">
         <v>5</v>
       </c>
-      <c r="BI18" s="12">
+      <c r="BI18" s="15">
         <v>10</v>
       </c>
-      <c r="BJ18" s="12" t="s">
+      <c r="BJ18" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BK18" s="28" t="s">
+      <c r="BK18" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL18" s="11">
+      <c r="BL18" s="22">
         <v>56</v>
       </c>
-      <c r="BM18" s="11">
+      <c r="BM18" s="22">
         <v>2008</v>
       </c>
-      <c r="BO18" s="1"/>
-      <c r="BP18" s="1"/>
-      <c r="BQ18" s="4"/>
-      <c r="BR18" s="4"/>
-      <c r="BS18" s="35"/>
-      <c r="BT18" s="1"/>
-      <c r="BU18" s="1"/>
-    </row>
-    <row r="19" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="11">
+      <c r="BO18" s="21"/>
+      <c r="BP18" s="21"/>
+      <c r="BQ18" s="23"/>
+      <c r="BR18" s="23"/>
+      <c r="BS18" s="42"/>
+      <c r="BT18" s="21"/>
+      <c r="BU18" s="21"/>
+    </row>
+    <row r="19" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="37"/>
+      <c r="G19" s="22">
         <v>14</v>
       </c>
       <c r="H19" s="15" t="s">
@@ -4200,112 +4226,112 @@
       <c r="I19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="29">
         <v>30665</v>
       </c>
-      <c r="K19" s="12" t="str">
+      <c r="K19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>supriya.karnik@gmail.com</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="22">
         <v>14</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="22">
         <v>14</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="22">
         <v>7032300013</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="22">
         <v>14</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="22">
         <v>14</v>
       </c>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="3"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AR19" s="11">
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="37"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AR19" s="22">
         <v>14</v>
       </c>
-      <c r="AS19" s="11">
+      <c r="AS19" s="22">
         <v>2</v>
       </c>
-      <c r="AT19" s="11">
+      <c r="AT19" s="22">
         <v>12</v>
       </c>
       <c r="AV19" s="22">
         <v>14</v>
       </c>
-      <c r="AW19" s="12" t="s">
+      <c r="AW19" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="AX19" s="11">
+      <c r="AX19" s="22">
         <v>4</v>
       </c>
-      <c r="AY19" s="30">
+      <c r="AY19" s="34">
         <v>43221</v>
       </c>
-      <c r="AZ19" s="30">
+      <c r="AZ19" s="34">
         <v>43312</v>
       </c>
-      <c r="BA19" s="11">
+      <c r="BA19" s="22">
         <v>25</v>
       </c>
-      <c r="BC19" s="11">
+      <c r="BC19" s="22">
         <v>14</v>
       </c>
-      <c r="BD19" s="11">
+      <c r="BD19" s="22">
         <v>1</v>
       </c>
       <c r="BE19" s="22">
         <v>7</v>
       </c>
-      <c r="BG19" s="11">
+      <c r="BG19" s="22">
         <v>14</v>
       </c>
-      <c r="BH19" s="11">
+      <c r="BH19" s="22">
         <v>5</v>
       </c>
-      <c r="BI19" s="12">
+      <c r="BI19" s="15">
         <v>12</v>
       </c>
-      <c r="BJ19" s="12" t="s">
+      <c r="BJ19" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="BK19" s="28" t="s">
+      <c r="BK19" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="BL19" s="11">
+      <c r="BL19" s="22">
         <v>57</v>
       </c>
-      <c r="BM19" s="11">
+      <c r="BM19" s="22">
         <v>2010</v>
       </c>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="4"/>
-      <c r="BR19" s="4"/>
-      <c r="BS19" s="35"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-    </row>
-    <row r="20" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="11">
+      <c r="BO19" s="21"/>
+      <c r="BP19" s="21"/>
+      <c r="BQ19" s="23"/>
+      <c r="BR19" s="23"/>
+      <c r="BS19" s="42"/>
+      <c r="BT19" s="21"/>
+      <c r="BU19" s="21"/>
+    </row>
+    <row r="20" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="37"/>
+      <c r="G20" s="22">
         <v>15</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -4314,112 +4340,112 @@
       <c r="I20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="29">
         <v>32141</v>
       </c>
-      <c r="K20" s="12" t="str">
+      <c r="K20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>bandish.karnik@gmail.com</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="22">
         <v>15</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="22">
         <v>15</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="22">
         <v>7032300099</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="22">
         <v>15</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="22">
         <v>15</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="3"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AR20" s="11">
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="37"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
+      <c r="AR20" s="22">
         <v>15</v>
       </c>
-      <c r="AS20" s="11">
+      <c r="AS20" s="22">
         <v>2</v>
       </c>
-      <c r="AT20" s="11">
+      <c r="AT20" s="22">
         <v>9</v>
       </c>
       <c r="AV20" s="22">
         <v>15</v>
       </c>
-      <c r="AW20" s="12" t="s">
+      <c r="AW20" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="AX20" s="11">
+      <c r="AX20" s="22">
         <v>5</v>
       </c>
-      <c r="AY20" s="30">
+      <c r="AY20" s="34">
         <v>43252</v>
       </c>
-      <c r="AZ20" s="30">
+      <c r="AZ20" s="34">
         <v>43342</v>
       </c>
-      <c r="BA20" s="11">
+      <c r="BA20" s="22">
         <v>25</v>
       </c>
-      <c r="BC20" s="11">
+      <c r="BC20" s="22">
         <v>15</v>
       </c>
-      <c r="BD20" s="11">
+      <c r="BD20" s="22">
         <v>2</v>
       </c>
       <c r="BE20" s="22">
         <v>10</v>
       </c>
-      <c r="BG20" s="11">
+      <c r="BG20" s="22">
         <v>15</v>
       </c>
-      <c r="BH20" s="11">
+      <c r="BH20" s="22">
         <v>5</v>
       </c>
-      <c r="BI20" s="12" t="s">
+      <c r="BI20" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="BJ20" s="12" t="s">
+      <c r="BJ20" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="BK20" s="28" t="s">
+      <c r="BK20" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BL20" s="11">
+      <c r="BL20" s="22">
         <v>86</v>
       </c>
-      <c r="BM20" s="11">
+      <c r="BM20" s="22">
         <v>2014</v>
       </c>
-      <c r="BO20" s="1"/>
-      <c r="BP20" s="1"/>
-      <c r="BQ20" s="4"/>
-      <c r="BR20" s="4"/>
-      <c r="BS20" s="35"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="1"/>
-    </row>
-    <row r="21" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="11">
+      <c r="BO20" s="21"/>
+      <c r="BP20" s="21"/>
+      <c r="BQ20" s="23"/>
+      <c r="BR20" s="23"/>
+      <c r="BS20" s="42"/>
+      <c r="BT20" s="21"/>
+      <c r="BU20" s="21"/>
+    </row>
+    <row r="21" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="37"/>
+      <c r="G21" s="22">
         <v>16</v>
       </c>
       <c r="H21" s="15" t="s">
@@ -4428,112 +4454,112 @@
       <c r="I21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="29">
         <v>33208</v>
       </c>
-      <c r="K21" s="12" t="str">
+      <c r="K21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>sangita.karnik@gmail.com</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="22">
         <v>16</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="22">
         <v>16</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="22">
         <v>7032300023</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="22">
         <v>16</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="22">
         <v>16</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="3"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AR21" s="11">
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="37"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="23"/>
+      <c r="AR21" s="22">
         <v>16</v>
       </c>
-      <c r="AS21" s="11">
+      <c r="AS21" s="22">
         <v>3</v>
       </c>
-      <c r="AT21" s="11">
+      <c r="AT21" s="22">
         <v>13</v>
       </c>
       <c r="AV21" s="22">
         <v>16</v>
       </c>
-      <c r="AW21" s="12" t="s">
+      <c r="AW21" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="AX21" s="11">
+      <c r="AX21" s="22">
         <v>1</v>
       </c>
-      <c r="AY21" s="30">
+      <c r="AY21" s="34">
         <v>41852</v>
       </c>
-      <c r="AZ21" s="30">
+      <c r="AZ21" s="34">
         <v>42063</v>
       </c>
-      <c r="BA21" s="11">
+      <c r="BA21" s="22">
         <v>80</v>
       </c>
-      <c r="BC21" s="11">
+      <c r="BC21" s="22">
         <v>16</v>
       </c>
-      <c r="BD21" s="11">
+      <c r="BD21" s="22">
         <v>3</v>
       </c>
       <c r="BE21" s="22">
         <v>5</v>
       </c>
-      <c r="BG21" s="11">
+      <c r="BG21" s="22">
         <v>16</v>
       </c>
-      <c r="BH21" s="11">
+      <c r="BH21" s="22">
         <v>6</v>
       </c>
-      <c r="BI21" s="12">
+      <c r="BI21" s="15">
         <v>10</v>
       </c>
-      <c r="BJ21" s="12" t="s">
+      <c r="BJ21" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="BK21" s="28" t="s">
+      <c r="BK21" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BL21" s="11">
+      <c r="BL21" s="22">
         <v>56</v>
       </c>
-      <c r="BM21" s="11">
+      <c r="BM21" s="22">
         <v>2009</v>
       </c>
-      <c r="BO21" s="1"/>
-      <c r="BP21" s="1"/>
-      <c r="BQ21" s="4"/>
-      <c r="BR21" s="4"/>
-      <c r="BS21" s="35"/>
-      <c r="BT21" s="1"/>
-      <c r="BU21" s="1"/>
-    </row>
-    <row r="22" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="11">
+      <c r="BO21" s="21"/>
+      <c r="BP21" s="21"/>
+      <c r="BQ21" s="23"/>
+      <c r="BR21" s="23"/>
+      <c r="BS21" s="42"/>
+      <c r="BT21" s="21"/>
+      <c r="BU21" s="21"/>
+    </row>
+    <row r="22" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="37"/>
+      <c r="G22" s="22">
         <v>17</v>
       </c>
       <c r="H22" s="15" t="s">
@@ -4542,2162 +4568,2262 @@
       <c r="I22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="29">
         <v>32807</v>
       </c>
-      <c r="K22" s="12" t="str">
+      <c r="K22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>sangita.menon@gmail.com</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="22">
         <v>17</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="22">
         <v>17</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="22">
         <v>7032300084</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="22">
         <v>17</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="22">
         <v>17</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="3"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AR22" s="11">
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="37"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AR22" s="22">
         <v>17</v>
       </c>
-      <c r="AS22" s="11">
+      <c r="AS22" s="22">
         <v>3</v>
       </c>
-      <c r="AT22" s="11">
+      <c r="AT22" s="22">
         <v>5</v>
       </c>
       <c r="AV22" s="22">
         <v>17</v>
       </c>
-      <c r="AW22" s="12" t="s">
+      <c r="AW22" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="AX22" s="11">
+      <c r="AX22" s="22">
         <v>2</v>
       </c>
-      <c r="AY22" s="30">
+      <c r="AY22" s="34">
         <v>41852</v>
       </c>
-      <c r="AZ22" s="30">
+      <c r="AZ22" s="34">
         <v>42063</v>
       </c>
-      <c r="BA22" s="11">
+      <c r="BA22" s="22">
         <v>30</v>
       </c>
-      <c r="BC22" s="11">
+      <c r="BC22" s="22">
         <v>17</v>
       </c>
-      <c r="BD22" s="11">
+      <c r="BD22" s="22">
         <v>4</v>
       </c>
       <c r="BE22" s="22">
         <v>6</v>
       </c>
-      <c r="BG22" s="11">
+      <c r="BG22" s="22">
         <v>17</v>
       </c>
-      <c r="BH22" s="11">
+      <c r="BH22" s="22">
         <v>6</v>
       </c>
-      <c r="BI22" s="12">
+      <c r="BI22" s="15">
         <v>12</v>
       </c>
-      <c r="BJ22" s="12" t="s">
+      <c r="BJ22" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BK22" s="28" t="s">
+      <c r="BK22" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BL22" s="11">
+      <c r="BL22" s="22">
         <v>76</v>
       </c>
-      <c r="BM22" s="11">
+      <c r="BM22" s="22">
         <v>2011</v>
       </c>
-      <c r="BO22" s="1"/>
-      <c r="BP22" s="1"/>
-      <c r="BQ22" s="4"/>
-      <c r="BR22" s="4"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="1"/>
-      <c r="BU22" s="1"/>
-    </row>
-    <row r="23" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="11">
+      <c r="BO22" s="21"/>
+      <c r="BP22" s="21"/>
+      <c r="BQ22" s="23"/>
+      <c r="BR22" s="23"/>
+      <c r="BS22" s="42"/>
+      <c r="BT22" s="21"/>
+      <c r="BU22" s="21"/>
+    </row>
+    <row r="23" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="37"/>
+      <c r="G23" s="22">
         <v>18</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="29">
         <v>30114</v>
       </c>
-      <c r="K23" s="12" t="str">
+      <c r="K23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>rahul.shah@gmail.com</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="22">
         <v>18</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="22">
         <v>18</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="22">
         <v>7032300011</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="22">
         <v>18</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="22">
         <v>18</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="3"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AR23" s="11">
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="37"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
+      <c r="AR23" s="22">
         <v>18</v>
       </c>
-      <c r="AS23" s="11">
+      <c r="AS23" s="22">
         <v>3</v>
       </c>
-      <c r="AT23" s="11">
+      <c r="AT23" s="22">
         <v>6</v>
       </c>
       <c r="AV23" s="22">
         <v>18</v>
       </c>
-      <c r="AW23" s="12" t="s">
+      <c r="AW23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="AX23" s="11">
+      <c r="AX23" s="22">
         <v>3</v>
       </c>
-      <c r="AY23" s="30">
+      <c r="AY23" s="34">
         <v>43160</v>
       </c>
-      <c r="AZ23" s="30">
+      <c r="AZ23" s="34">
         <v>43220</v>
       </c>
-      <c r="BA23" s="11">
+      <c r="BA23" s="22">
         <v>35</v>
       </c>
-      <c r="BC23" s="11">
+      <c r="BC23" s="22">
         <v>18</v>
       </c>
-      <c r="BD23" s="11">
+      <c r="BD23" s="22">
         <v>5</v>
       </c>
       <c r="BE23" s="22">
         <v>3</v>
       </c>
-      <c r="BG23" s="11">
+      <c r="BG23" s="22">
         <v>18</v>
       </c>
-      <c r="BH23" s="11">
+      <c r="BH23" s="22">
         <v>6</v>
       </c>
-      <c r="BI23" s="12" t="s">
+      <c r="BI23" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ23" s="12" t="s">
+      <c r="BJ23" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="BK23" s="28" t="s">
+      <c r="BK23" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="BL23" s="11">
+      <c r="BL23" s="22">
         <v>87</v>
       </c>
-      <c r="BM23" s="11">
+      <c r="BM23" s="22">
         <v>2015</v>
       </c>
-      <c r="BO23" s="1"/>
-      <c r="BP23" s="1"/>
-      <c r="BQ23" s="4"/>
-      <c r="BR23" s="4"/>
-      <c r="BS23" s="35"/>
-      <c r="BT23" s="1"/>
-      <c r="BU23" s="1"/>
-    </row>
-    <row r="24" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="11">
+      <c r="BO23" s="21"/>
+      <c r="BP23" s="21"/>
+      <c r="BQ23" s="23"/>
+      <c r="BR23" s="23"/>
+      <c r="BS23" s="42"/>
+      <c r="BT23" s="21"/>
+      <c r="BU23" s="21"/>
+    </row>
+    <row r="24" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="37"/>
+      <c r="G24" s="22">
         <v>19</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="29">
         <v>30633</v>
       </c>
-      <c r="K24" s="12" t="str">
+      <c r="K24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>bhavin.patel@gmail.com</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="22">
         <v>19</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="22">
         <v>19</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="22">
         <v>7032300066</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="22">
         <v>19</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="22">
         <v>19</v>
       </c>
-      <c r="S24" s="18" t="s">
+      <c r="S24" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="3"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AR24" s="11">
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="37"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43"/>
+      <c r="AR24" s="22">
         <v>19</v>
       </c>
-      <c r="AS24" s="11">
+      <c r="AS24" s="22">
         <v>4</v>
       </c>
-      <c r="AT24" s="11">
+      <c r="AT24" s="22">
         <v>1</v>
       </c>
       <c r="AV24" s="22">
         <v>19</v>
       </c>
-      <c r="AW24" s="12" t="s">
+      <c r="AW24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="AX24" s="11">
+      <c r="AX24" s="22">
         <v>4</v>
       </c>
-      <c r="AY24" s="30">
+      <c r="AY24" s="34">
         <v>43466</v>
       </c>
-      <c r="AZ24" s="30">
+      <c r="AZ24" s="34">
         <v>43554</v>
       </c>
-      <c r="BA24" s="11">
+      <c r="BA24" s="22">
         <v>25</v>
       </c>
-      <c r="BC24" s="11">
+      <c r="BC24" s="22">
         <v>19</v>
       </c>
-      <c r="BD24" s="11">
+      <c r="BD24" s="22">
         <v>6</v>
       </c>
       <c r="BE24" s="22">
         <v>1</v>
       </c>
-      <c r="BG24" s="11">
+      <c r="BG24" s="22">
         <v>19</v>
       </c>
-      <c r="BH24" s="11">
+      <c r="BH24" s="22">
         <v>7</v>
       </c>
-      <c r="BI24" s="12">
+      <c r="BI24" s="15">
         <v>10</v>
       </c>
-      <c r="BJ24" s="12" t="s">
+      <c r="BJ24" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="BK24" s="28" t="s">
+      <c r="BK24" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="BL24" s="11">
+      <c r="BL24" s="22">
         <v>87</v>
       </c>
-      <c r="BM24" s="11">
+      <c r="BM24" s="22">
         <v>2011</v>
       </c>
-      <c r="BO24" s="1"/>
-      <c r="BP24" s="1"/>
-      <c r="BQ24" s="4"/>
-      <c r="BR24" s="4"/>
-      <c r="BS24" s="35"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="1"/>
-    </row>
-    <row r="25" spans="2:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="11">
+      <c r="BO24" s="21"/>
+      <c r="BP24" s="21"/>
+      <c r="BQ24" s="23"/>
+      <c r="BR24" s="23"/>
+      <c r="BS24" s="42"/>
+      <c r="BT24" s="21"/>
+      <c r="BU24" s="21"/>
+    </row>
+    <row r="25" spans="2:73" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="37"/>
+      <c r="G25" s="22">
         <v>20</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="29">
         <v>30162</v>
       </c>
-      <c r="K25" s="12" t="str">
+      <c r="K25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>kaushal.patil@gmail.com</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="22">
         <v>20</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="22">
         <v>20</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="22">
         <v>7032300096</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="22">
         <v>20</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="22">
         <v>20</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="S25" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="3"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AR25" s="11">
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="37"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AR25" s="22">
         <v>20</v>
       </c>
-      <c r="AS25" s="11">
+      <c r="AS25" s="22">
         <v>4</v>
       </c>
-      <c r="AT25" s="11">
+      <c r="AT25" s="22">
         <v>7</v>
       </c>
       <c r="AV25" s="22">
         <v>20</v>
       </c>
-      <c r="AW25" s="12" t="s">
+      <c r="AW25" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AX25" s="11">
+      <c r="AX25" s="22">
         <v>5</v>
       </c>
-      <c r="AY25" s="30">
+      <c r="AY25" s="34">
         <v>43435</v>
       </c>
-      <c r="AZ25" s="30">
+      <c r="AZ25" s="34">
         <v>43524</v>
       </c>
-      <c r="BA25" s="11">
+      <c r="BA25" s="22">
         <v>25</v>
       </c>
-      <c r="BC25" s="11">
+      <c r="BC25" s="22">
         <v>20</v>
       </c>
-      <c r="BD25" s="11">
+      <c r="BD25" s="22">
         <v>12</v>
       </c>
       <c r="BE25" s="22">
         <v>10</v>
       </c>
-      <c r="BG25" s="11">
+      <c r="BG25" s="22">
         <v>20</v>
       </c>
-      <c r="BH25" s="11">
+      <c r="BH25" s="22">
         <v>7</v>
       </c>
-      <c r="BI25" s="12">
+      <c r="BI25" s="15">
         <v>12</v>
       </c>
-      <c r="BJ25" s="12" t="s">
+      <c r="BJ25" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="BK25" s="28" t="s">
+      <c r="BK25" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BL25" s="11">
+      <c r="BL25" s="22">
         <v>78</v>
       </c>
-      <c r="BM25" s="11">
+      <c r="BM25" s="22">
         <v>2013</v>
       </c>
-      <c r="BO25" s="1"/>
-      <c r="BP25" s="1"/>
-      <c r="BQ25" s="4"/>
-      <c r="BR25" s="4"/>
-      <c r="BS25" s="35"/>
-      <c r="BT25" s="1"/>
-      <c r="BU25" s="1"/>
-    </row>
-    <row r="26" spans="2:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="M26" s="11">
+      <c r="BO25" s="21"/>
+      <c r="BP25" s="21"/>
+      <c r="BQ25" s="23"/>
+      <c r="BR25" s="23"/>
+      <c r="BS25" s="42"/>
+      <c r="BT25" s="21"/>
+      <c r="BU25" s="21"/>
+    </row>
+    <row r="26" spans="2:73" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="M26" s="22">
         <v>21</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="22">
         <v>1</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="22">
         <v>7132300034</v>
       </c>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="3"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AR26" s="11">
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="37"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AR26" s="22">
         <v>21</v>
       </c>
-      <c r="AS26" s="11">
+      <c r="AS26" s="22">
         <v>4</v>
       </c>
-      <c r="AT26" s="11">
+      <c r="AT26" s="22">
         <v>8</v>
       </c>
       <c r="AV26" s="22">
         <v>21</v>
       </c>
-      <c r="AW26" s="12" t="s">
+      <c r="AW26" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="AX26" s="11">
+      <c r="AX26" s="22">
         <v>1</v>
       </c>
-      <c r="AY26" s="30">
+      <c r="AY26" s="34">
         <v>42217</v>
       </c>
-      <c r="AZ26" s="30">
+      <c r="AZ26" s="34">
         <v>42428</v>
       </c>
-      <c r="BA26" s="11">
+      <c r="BA26" s="22">
         <v>80</v>
       </c>
-      <c r="BC26" s="11">
+      <c r="BC26" s="22">
         <v>21</v>
       </c>
-      <c r="BD26" s="11">
+      <c r="BD26" s="22">
         <v>15</v>
       </c>
       <c r="BE26" s="22">
         <v>17</v>
       </c>
-      <c r="BG26" s="11">
+      <c r="BG26" s="22">
         <v>21</v>
       </c>
-      <c r="BH26" s="11">
+      <c r="BH26" s="22">
         <v>7</v>
       </c>
-      <c r="BI26" s="12" t="s">
+      <c r="BI26" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ26" s="12" t="s">
+      <c r="BJ26" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="BK26" s="28" t="s">
+      <c r="BK26" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BL26" s="11">
+      <c r="BL26" s="22">
         <v>97</v>
       </c>
-      <c r="BM26" s="11">
+      <c r="BM26" s="22">
         <v>2017</v>
       </c>
-      <c r="BO26" s="1"/>
-      <c r="BP26" s="1"/>
-      <c r="BQ26" s="4"/>
-      <c r="BR26" s="4"/>
-      <c r="BS26" s="35"/>
-      <c r="BT26" s="1"/>
-      <c r="BU26" s="1"/>
-    </row>
-    <row r="27" spans="2:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="M27" s="11">
+      <c r="BO26" s="21"/>
+      <c r="BP26" s="21"/>
+      <c r="BQ26" s="23"/>
+      <c r="BR26" s="23"/>
+      <c r="BS26" s="42"/>
+      <c r="BT26" s="21"/>
+      <c r="BU26" s="21"/>
+    </row>
+    <row r="27" spans="2:73" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="M27" s="22">
         <v>22</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="22">
         <v>2</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="22">
         <v>7132300039</v>
       </c>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="3"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AR27" s="11">
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="37"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AR27" s="22">
         <v>22</v>
       </c>
-      <c r="AS27" s="11">
+      <c r="AS27" s="22">
         <v>5</v>
       </c>
-      <c r="AT27" s="11">
+      <c r="AT27" s="22">
         <v>1</v>
       </c>
       <c r="AV27" s="22">
         <v>22</v>
       </c>
-      <c r="AW27" s="12" t="s">
+      <c r="AW27" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AX27" s="11">
+      <c r="AX27" s="22">
         <v>2</v>
       </c>
-      <c r="AY27" s="30">
+      <c r="AY27" s="34">
         <v>42217</v>
       </c>
-      <c r="AZ27" s="30">
+      <c r="AZ27" s="34">
         <v>42428</v>
       </c>
-      <c r="BA27" s="11">
+      <c r="BA27" s="22">
         <v>30</v>
       </c>
-      <c r="BC27" s="11">
+      <c r="BC27" s="22">
         <v>22</v>
       </c>
-      <c r="BD27" s="11">
+      <c r="BD27" s="22">
         <v>15</v>
       </c>
       <c r="BE27" s="22">
         <v>18</v>
       </c>
-      <c r="BG27" s="11">
+      <c r="BG27" s="22">
         <v>22</v>
       </c>
-      <c r="BH27" s="11">
+      <c r="BH27" s="22">
         <v>8</v>
       </c>
-      <c r="BI27" s="12">
+      <c r="BI27" s="15">
         <v>10</v>
       </c>
-      <c r="BJ27" s="12" t="s">
+      <c r="BJ27" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="BK27" s="28" t="s">
+      <c r="BK27" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="BL27" s="11">
+      <c r="BL27" s="22">
         <v>56</v>
       </c>
-      <c r="BM27" s="11">
+      <c r="BM27" s="22">
         <v>2010</v>
       </c>
-      <c r="BO27" s="1"/>
-      <c r="BP27" s="1"/>
-      <c r="BQ27" s="4"/>
-      <c r="BR27" s="4"/>
-      <c r="BS27" s="35"/>
-      <c r="BT27" s="1"/>
-      <c r="BU27" s="1"/>
-    </row>
-    <row r="28" spans="2:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="M28" s="11">
+      <c r="BO27" s="21"/>
+      <c r="BP27" s="21"/>
+      <c r="BQ27" s="23"/>
+      <c r="BR27" s="23"/>
+      <c r="BS27" s="42"/>
+      <c r="BT27" s="21"/>
+      <c r="BU27" s="21"/>
+    </row>
+    <row r="28" spans="2:73" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="M28" s="22">
         <v>23</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="22">
         <v>3</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="22">
         <v>7132300050</v>
       </c>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="3"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AR28" s="11">
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="37"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AR28" s="22">
         <v>23</v>
       </c>
-      <c r="AS28" s="11">
+      <c r="AS28" s="22">
         <v>5</v>
       </c>
-      <c r="AT28" s="11">
+      <c r="AT28" s="22">
         <v>7</v>
       </c>
       <c r="AV28" s="22">
         <v>23</v>
       </c>
-      <c r="AW28" s="12" t="s">
+      <c r="AW28" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AX28" s="11">
+      <c r="AX28" s="22">
         <v>3</v>
       </c>
-      <c r="AY28" s="30">
+      <c r="AY28" s="34">
         <v>43525</v>
       </c>
-      <c r="AZ28" s="30">
+      <c r="AZ28" s="34">
         <v>43585</v>
       </c>
-      <c r="BA28" s="11">
+      <c r="BA28" s="22">
         <v>40</v>
       </c>
-      <c r="BC28" s="11">
+      <c r="BC28" s="22">
         <v>23</v>
       </c>
-      <c r="BD28" s="11">
+      <c r="BD28" s="22">
         <v>16</v>
       </c>
       <c r="BE28" s="22">
         <v>18</v>
       </c>
-      <c r="BG28" s="11">
+      <c r="BG28" s="22">
         <v>23</v>
       </c>
-      <c r="BH28" s="11">
+      <c r="BH28" s="22">
         <v>8</v>
       </c>
-      <c r="BI28" s="12">
+      <c r="BI28" s="15">
         <v>12</v>
       </c>
-      <c r="BJ28" s="12" t="s">
+      <c r="BJ28" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BK28" s="28" t="s">
+      <c r="BK28" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="BL28" s="11">
+      <c r="BL28" s="22">
         <v>467</v>
       </c>
-      <c r="BM28" s="11">
+      <c r="BM28" s="22">
         <v>2012</v>
       </c>
-      <c r="BO28" s="1"/>
-      <c r="BP28" s="1"/>
-      <c r="BQ28" s="4"/>
-      <c r="BR28" s="4"/>
-      <c r="BS28" s="35"/>
-      <c r="BT28" s="1"/>
-      <c r="BU28" s="1"/>
-    </row>
-    <row r="29" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="J29" s="3"/>
-      <c r="M29" s="11">
+      <c r="BO28" s="21"/>
+      <c r="BP28" s="21"/>
+      <c r="BQ28" s="23"/>
+      <c r="BR28" s="23"/>
+      <c r="BS28" s="42"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+    </row>
+    <row r="29" spans="2:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="21"/>
+      <c r="J29" s="37"/>
+      <c r="M29" s="22">
         <v>24</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="22">
         <v>4</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="22">
         <v>7132300027</v>
       </c>
-      <c r="AN29" s="1"/>
-      <c r="AR29" s="11">
+      <c r="AL29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AR29" s="22">
         <v>24</v>
       </c>
-      <c r="AS29" s="11">
+      <c r="AS29" s="22">
         <v>5</v>
       </c>
-      <c r="AT29" s="11">
+      <c r="AT29" s="22">
         <v>8</v>
       </c>
       <c r="AV29" s="22">
         <v>24</v>
       </c>
-      <c r="AW29" s="12" t="s">
+      <c r="AW29" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AX29" s="11">
+      <c r="AX29" s="22">
         <v>4</v>
       </c>
-      <c r="AY29" s="30">
+      <c r="AY29" s="34">
         <v>43466</v>
       </c>
-      <c r="AZ29" s="30">
+      <c r="AZ29" s="34">
         <v>43554</v>
       </c>
-      <c r="BA29" s="11">
+      <c r="BA29" s="22">
         <v>30</v>
       </c>
-      <c r="BC29" s="11">
+      <c r="BC29" s="22">
         <v>24</v>
       </c>
-      <c r="BD29" s="11">
+      <c r="BD29" s="22">
         <v>17</v>
       </c>
       <c r="BE29" s="22">
         <v>12</v>
       </c>
-      <c r="BG29" s="11">
+      <c r="BG29" s="22">
         <v>24</v>
       </c>
-      <c r="BH29" s="11">
+      <c r="BH29" s="22">
         <v>8</v>
       </c>
-      <c r="BI29" s="12" t="s">
+      <c r="BI29" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="BJ29" s="12" t="s">
+      <c r="BJ29" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="BK29" s="28" t="s">
+      <c r="BK29" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BL29" s="11">
+      <c r="BL29" s="22">
         <v>87</v>
       </c>
-      <c r="BM29" s="11">
+      <c r="BM29" s="22">
         <v>2016</v>
       </c>
-      <c r="BO29" s="1"/>
-      <c r="BP29" s="1"/>
-      <c r="BQ29" s="4"/>
-      <c r="BR29" s="4"/>
-      <c r="BS29" s="35"/>
-      <c r="BT29" s="1"/>
-      <c r="BU29" s="1"/>
-    </row>
-    <row r="30" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="J30" s="1"/>
-      <c r="M30" s="11">
+      <c r="BO29" s="21"/>
+      <c r="BP29" s="21"/>
+      <c r="BQ29" s="23"/>
+      <c r="BR29" s="23"/>
+      <c r="BS29" s="42"/>
+      <c r="BT29" s="21"/>
+      <c r="BU29" s="21"/>
+    </row>
+    <row r="30" spans="2:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="M30" s="22">
         <v>25</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="22">
         <v>5</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="22">
         <v>7032300001</v>
       </c>
-      <c r="AX30" s="1"/>
-      <c r="BG30" s="11">
+      <c r="AL30" s="21"/>
+      <c r="AX30" s="21"/>
+      <c r="BG30" s="22">
         <v>25</v>
       </c>
-      <c r="BH30" s="11">
+      <c r="BH30" s="22">
         <v>9</v>
       </c>
-      <c r="BI30" s="12">
+      <c r="BI30" s="15">
         <v>10</v>
       </c>
-      <c r="BJ30" s="12" t="s">
+      <c r="BJ30" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="BK30" s="28" t="s">
+      <c r="BK30" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BL30" s="11">
+      <c r="BL30" s="22">
         <v>98</v>
       </c>
-      <c r="BM30" s="11">
+      <c r="BM30" s="22">
         <v>2012</v>
       </c>
-      <c r="BO30" s="1"/>
-      <c r="BP30" s="1"/>
-      <c r="BQ30" s="4"/>
-      <c r="BR30" s="4"/>
-      <c r="BS30" s="35"/>
-      <c r="BT30" s="1"/>
-      <c r="BU30" s="1"/>
-    </row>
-    <row r="31" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="J31" s="1"/>
-      <c r="M31" s="11">
+      <c r="BO30" s="21"/>
+      <c r="BP30" s="21"/>
+      <c r="BQ30" s="23"/>
+      <c r="BR30" s="23"/>
+      <c r="BS30" s="42"/>
+      <c r="BT30" s="21"/>
+      <c r="BU30" s="21"/>
+    </row>
+    <row r="31" spans="2:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="M31" s="22">
         <v>26</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="22">
         <v>6</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="22">
         <v>7132300079</v>
       </c>
-      <c r="BG31" s="11">
+      <c r="AL31" s="21"/>
+      <c r="BG31" s="22">
         <v>26</v>
       </c>
-      <c r="BH31" s="11">
+      <c r="BH31" s="22">
         <v>9</v>
       </c>
-      <c r="BI31" s="12">
+      <c r="BI31" s="15">
         <v>12</v>
       </c>
-      <c r="BJ31" s="12" t="s">
+      <c r="BJ31" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="BK31" s="28" t="s">
+      <c r="BK31" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL31" s="11">
+      <c r="BL31" s="22">
         <v>67</v>
       </c>
-      <c r="BM31" s="11">
+      <c r="BM31" s="22">
         <v>2014</v>
       </c>
-      <c r="BO31" s="1"/>
-      <c r="BP31" s="1"/>
-      <c r="BQ31" s="4"/>
-      <c r="BR31" s="4"/>
-      <c r="BS31" s="35"/>
-      <c r="BT31" s="1"/>
-      <c r="BU31" s="1"/>
-    </row>
-    <row r="32" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="J32" s="1"/>
-      <c r="M32" s="11">
+      <c r="BO31" s="21"/>
+      <c r="BP31" s="21"/>
+      <c r="BQ31" s="23"/>
+      <c r="BR31" s="23"/>
+      <c r="BS31" s="42"/>
+      <c r="BT31" s="21"/>
+      <c r="BU31" s="21"/>
+    </row>
+    <row r="32" spans="2:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="M32" s="22">
         <v>27</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="22">
         <v>7</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="22">
         <v>7132300081</v>
       </c>
-      <c r="BG32" s="11">
+      <c r="AL32" s="21"/>
+      <c r="BG32" s="22">
         <v>27</v>
       </c>
-      <c r="BH32" s="11">
+      <c r="BH32" s="22">
         <v>9</v>
       </c>
-      <c r="BI32" s="12" t="s">
+      <c r="BI32" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ32" s="12" t="s">
+      <c r="BJ32" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="BK32" s="28" t="s">
+      <c r="BK32" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="BL32" s="11">
+      <c r="BL32" s="22">
         <v>87</v>
       </c>
-      <c r="BM32" s="11">
+      <c r="BM32" s="22">
         <v>2018</v>
       </c>
-      <c r="BO32" s="1"/>
-      <c r="BP32" s="1"/>
-      <c r="BQ32" s="4"/>
-      <c r="BR32" s="4"/>
-      <c r="BS32" s="35"/>
-      <c r="BT32" s="1"/>
-      <c r="BU32" s="1"/>
-    </row>
-    <row r="33" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J33" s="1"/>
-      <c r="M33" s="11">
+      <c r="BO32" s="21"/>
+      <c r="BP32" s="21"/>
+      <c r="BQ32" s="23"/>
+      <c r="BR32" s="23"/>
+      <c r="BS32" s="42"/>
+      <c r="BT32" s="21"/>
+      <c r="BU32" s="21"/>
+    </row>
+    <row r="33" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="M33" s="22">
         <v>28</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="22">
         <v>8</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="22">
         <v>7132300054</v>
       </c>
-      <c r="BG33" s="11">
+      <c r="AL33" s="21"/>
+      <c r="BG33" s="22">
         <v>28</v>
       </c>
-      <c r="BH33" s="11">
+      <c r="BH33" s="22">
         <v>10</v>
       </c>
-      <c r="BI33" s="12">
+      <c r="BI33" s="15">
         <v>10</v>
       </c>
-      <c r="BJ33" s="12" t="s">
+      <c r="BJ33" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="BK33" s="28" t="s">
+      <c r="BK33" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL33" s="11">
+      <c r="BL33" s="22">
         <v>65</v>
       </c>
-      <c r="BM33" s="11">
+      <c r="BM33" s="22">
         <v>2012</v>
       </c>
-      <c r="BO33" s="1"/>
-      <c r="BP33" s="1"/>
-      <c r="BQ33" s="4"/>
-      <c r="BR33" s="4"/>
-      <c r="BS33" s="35"/>
-      <c r="BT33" s="1"/>
-      <c r="BU33" s="1"/>
-    </row>
-    <row r="34" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J34" s="1"/>
-      <c r="M34" s="11">
+      <c r="BO33" s="21"/>
+      <c r="BP33" s="21"/>
+      <c r="BQ33" s="23"/>
+      <c r="BR33" s="23"/>
+      <c r="BS33" s="42"/>
+      <c r="BT33" s="21"/>
+      <c r="BU33" s="21"/>
+    </row>
+    <row r="34" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="M34" s="22">
         <v>29</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="22">
         <v>9</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="22">
         <v>7132300059</v>
       </c>
-      <c r="BG34" s="11">
+      <c r="AL34" s="21"/>
+      <c r="BG34" s="22">
         <v>29</v>
       </c>
-      <c r="BH34" s="11">
+      <c r="BH34" s="22">
         <v>10</v>
       </c>
-      <c r="BI34" s="12">
+      <c r="BI34" s="15">
         <v>12</v>
       </c>
-      <c r="BJ34" s="12" t="s">
+      <c r="BJ34" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="BK34" s="28" t="s">
+      <c r="BK34" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="BL34" s="11">
+      <c r="BL34" s="22">
         <v>76</v>
       </c>
-      <c r="BM34" s="11">
+      <c r="BM34" s="22">
         <v>2014</v>
       </c>
-      <c r="BO34" s="1"/>
-      <c r="BP34" s="1"/>
-      <c r="BQ34" s="4"/>
-      <c r="BR34" s="4"/>
-      <c r="BS34" s="35"/>
-      <c r="BT34" s="1"/>
-      <c r="BU34" s="1"/>
-    </row>
-    <row r="35" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J35" s="1"/>
-      <c r="M35" s="11">
+      <c r="BO34" s="21"/>
+      <c r="BP34" s="21"/>
+      <c r="BQ34" s="23"/>
+      <c r="BR34" s="23"/>
+      <c r="BS34" s="42"/>
+      <c r="BT34" s="21"/>
+      <c r="BU34" s="21"/>
+    </row>
+    <row r="35" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="M35" s="22">
         <v>30</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="22">
         <v>10</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="22">
         <v>7132300086</v>
       </c>
-      <c r="BG35" s="11">
+      <c r="AL35" s="21"/>
+      <c r="BG35" s="22">
         <v>30</v>
       </c>
-      <c r="BH35" s="11">
+      <c r="BH35" s="22">
         <v>10</v>
       </c>
-      <c r="BI35" s="12" t="s">
+      <c r="BI35" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="BJ35" s="12" t="s">
+      <c r="BJ35" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="BK35" s="28" t="s">
+      <c r="BK35" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="BL35" s="11">
+      <c r="BL35" s="22">
         <v>61</v>
       </c>
-      <c r="BM35" s="11">
+      <c r="BM35" s="22">
         <v>2018</v>
       </c>
-      <c r="BO35" s="1"/>
-      <c r="BP35" s="1"/>
-      <c r="BQ35" s="4"/>
-      <c r="BR35" s="4"/>
-      <c r="BS35" s="35"/>
-      <c r="BT35" s="1"/>
-      <c r="BU35" s="1"/>
-    </row>
-    <row r="36" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J36" s="1"/>
-      <c r="M36" s="11">
+      <c r="BO35" s="21"/>
+      <c r="BP35" s="21"/>
+      <c r="BQ35" s="23"/>
+      <c r="BR35" s="23"/>
+      <c r="BS35" s="42"/>
+      <c r="BT35" s="21"/>
+      <c r="BU35" s="21"/>
+    </row>
+    <row r="36" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="M36" s="22">
         <v>31</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="22">
         <v>11</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="22">
         <v>7132300082</v>
       </c>
-      <c r="BG36" s="11">
+      <c r="AL36" s="21"/>
+      <c r="BG36" s="22">
         <v>31</v>
       </c>
-      <c r="BH36" s="11">
+      <c r="BH36" s="22">
         <v>11</v>
       </c>
-      <c r="BI36" s="12">
+      <c r="BI36" s="15">
         <v>10</v>
       </c>
-      <c r="BJ36" s="12" t="s">
+      <c r="BJ36" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="BK36" s="28" t="s">
+      <c r="BK36" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BL36" s="11">
+      <c r="BL36" s="22">
         <v>62</v>
       </c>
-      <c r="BM36" s="11">
+      <c r="BM36" s="22">
         <v>2011</v>
       </c>
-      <c r="BO36" s="1"/>
-      <c r="BP36" s="1"/>
-      <c r="BQ36" s="4"/>
-      <c r="BR36" s="4"/>
-      <c r="BS36" s="35"/>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="1"/>
-    </row>
-    <row r="37" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J37" s="1"/>
-      <c r="M37" s="11">
+      <c r="BO36" s="21"/>
+      <c r="BP36" s="21"/>
+      <c r="BQ36" s="23"/>
+      <c r="BR36" s="23"/>
+      <c r="BS36" s="42"/>
+      <c r="BT36" s="21"/>
+      <c r="BU36" s="21"/>
+    </row>
+    <row r="37" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="M37" s="22">
         <v>32</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="22">
         <v>12</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="22">
         <v>7132300042</v>
       </c>
-      <c r="BG37" s="11">
+      <c r="AL37" s="21"/>
+      <c r="BG37" s="22">
         <v>32</v>
       </c>
-      <c r="BH37" s="11">
+      <c r="BH37" s="22">
         <v>11</v>
       </c>
-      <c r="BI37" s="12">
+      <c r="BI37" s="15">
         <v>12</v>
       </c>
-      <c r="BJ37" s="12" t="s">
+      <c r="BJ37" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="BK37" s="28" t="s">
+      <c r="BK37" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BL37" s="11">
+      <c r="BL37" s="22">
         <v>63</v>
       </c>
-      <c r="BM37" s="11">
+      <c r="BM37" s="22">
         <v>2013</v>
       </c>
-      <c r="BO37" s="1"/>
-      <c r="BP37" s="1"/>
-      <c r="BQ37" s="4"/>
-      <c r="BR37" s="4"/>
-      <c r="BS37" s="35"/>
-      <c r="BT37" s="1"/>
-      <c r="BU37" s="1"/>
-    </row>
-    <row r="38" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J38" s="1"/>
-      <c r="M38" s="11">
+      <c r="BO37" s="21"/>
+      <c r="BP37" s="21"/>
+      <c r="BQ37" s="23"/>
+      <c r="BR37" s="23"/>
+      <c r="BS37" s="42"/>
+      <c r="BT37" s="21"/>
+      <c r="BU37" s="21"/>
+    </row>
+    <row r="38" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="M38" s="22">
         <v>33</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="22">
         <v>13</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="22">
         <v>7132300055</v>
       </c>
-      <c r="BG38" s="11">
+      <c r="AL38" s="21"/>
+      <c r="BG38" s="22">
         <v>33</v>
       </c>
-      <c r="BH38" s="11">
+      <c r="BH38" s="22">
         <v>11</v>
       </c>
-      <c r="BI38" s="12" t="s">
+      <c r="BI38" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="BJ38" s="12" t="s">
+      <c r="BJ38" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="BK38" s="28" t="s">
+      <c r="BK38" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="BL38" s="11">
+      <c r="BL38" s="22">
         <v>56</v>
       </c>
-      <c r="BM38" s="11">
+      <c r="BM38" s="22">
         <v>2017</v>
       </c>
-      <c r="BO38" s="1"/>
-      <c r="BP38" s="1"/>
-      <c r="BQ38" s="4"/>
-      <c r="BR38" s="4"/>
-      <c r="BS38" s="35"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="1"/>
-    </row>
-    <row r="39" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J39" s="1"/>
-      <c r="M39" s="11">
+      <c r="BO38" s="21"/>
+      <c r="BP38" s="21"/>
+      <c r="BQ38" s="23"/>
+      <c r="BR38" s="23"/>
+      <c r="BS38" s="42"/>
+      <c r="BT38" s="21"/>
+      <c r="BU38" s="21"/>
+    </row>
+    <row r="39" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="M39" s="22">
         <v>34</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="22">
         <v>13</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="22">
         <v>7132300055</v>
       </c>
-      <c r="BG39" s="11">
+      <c r="AL39" s="21"/>
+      <c r="BG39" s="22">
         <v>34</v>
       </c>
-      <c r="BH39" s="11">
+      <c r="BH39" s="22">
         <v>12</v>
       </c>
-      <c r="BI39" s="12">
+      <c r="BI39" s="15">
         <v>10</v>
       </c>
-      <c r="BJ39" s="12" t="s">
+      <c r="BJ39" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="BK39" s="28" t="s">
+      <c r="BK39" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL39" s="11">
+      <c r="BL39" s="22">
         <v>75</v>
       </c>
-      <c r="BM39" s="11">
+      <c r="BM39" s="22">
         <v>2010</v>
       </c>
-      <c r="BO39" s="1"/>
-      <c r="BP39" s="1"/>
-      <c r="BQ39" s="4"/>
-      <c r="BR39" s="4"/>
-      <c r="BS39" s="35"/>
-      <c r="BT39" s="1"/>
-      <c r="BU39" s="1"/>
-    </row>
-    <row r="40" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J40" s="1"/>
-      <c r="M40" s="11">
+      <c r="BO39" s="21"/>
+      <c r="BP39" s="21"/>
+      <c r="BQ39" s="23"/>
+      <c r="BR39" s="23"/>
+      <c r="BS39" s="42"/>
+      <c r="BT39" s="21"/>
+      <c r="BU39" s="21"/>
+    </row>
+    <row r="40" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="M40" s="22">
         <v>35</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="22">
         <v>13</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="22">
         <v>7132300055</v>
       </c>
-      <c r="BG40" s="11">
+      <c r="AL40" s="21"/>
+      <c r="BG40" s="22">
         <v>35</v>
       </c>
-      <c r="BH40" s="11">
+      <c r="BH40" s="22">
         <v>12</v>
       </c>
-      <c r="BI40" s="12">
+      <c r="BI40" s="15">
         <v>12</v>
       </c>
-      <c r="BJ40" s="12" t="s">
+      <c r="BJ40" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="BK40" s="28" t="s">
+      <c r="BK40" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BL40" s="11">
+      <c r="BL40" s="22">
         <v>45</v>
       </c>
-      <c r="BM40" s="11">
+      <c r="BM40" s="22">
         <v>2012</v>
       </c>
-      <c r="BO40" s="1"/>
-      <c r="BP40" s="1"/>
-      <c r="BQ40" s="4"/>
-      <c r="BR40" s="4"/>
-      <c r="BS40" s="35"/>
-      <c r="BT40" s="1"/>
-      <c r="BU40" s="1"/>
-    </row>
-    <row r="41" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J41" s="1"/>
-      <c r="BG41" s="11">
+      <c r="BO40" s="21"/>
+      <c r="BP40" s="21"/>
+      <c r="BQ40" s="23"/>
+      <c r="BR40" s="23"/>
+      <c r="BS40" s="42"/>
+      <c r="BT40" s="21"/>
+      <c r="BU40" s="21"/>
+    </row>
+    <row r="41" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="BG41" s="22">
         <v>36</v>
       </c>
-      <c r="BH41" s="11">
+      <c r="BH41" s="22">
         <v>12</v>
       </c>
-      <c r="BI41" s="12" t="s">
+      <c r="BI41" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="BJ41" s="12" t="s">
+      <c r="BJ41" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="BK41" s="28" t="s">
+      <c r="BK41" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BL41" s="11">
+      <c r="BL41" s="22">
         <v>50</v>
       </c>
-      <c r="BM41" s="11">
+      <c r="BM41" s="22">
         <v>2016</v>
       </c>
-      <c r="BO41" s="1"/>
-      <c r="BP41" s="1"/>
-      <c r="BQ41" s="4"/>
-      <c r="BR41" s="4"/>
-      <c r="BS41" s="35"/>
-      <c r="BT41" s="1"/>
-      <c r="BU41" s="1"/>
-    </row>
-    <row r="42" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="J42" s="1"/>
-      <c r="BG42" s="11">
+      <c r="BO41" s="21"/>
+      <c r="BP41" s="21"/>
+      <c r="BQ41" s="23"/>
+      <c r="BR41" s="23"/>
+      <c r="BS41" s="42"/>
+      <c r="BT41" s="21"/>
+      <c r="BU41" s="21"/>
+    </row>
+    <row r="42" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="AL42" s="21"/>
+      <c r="BG42" s="22">
         <v>37</v>
       </c>
-      <c r="BH42" s="11">
+      <c r="BH42" s="22">
         <v>13</v>
       </c>
-      <c r="BI42" s="12">
+      <c r="BI42" s="15">
         <v>10</v>
       </c>
-      <c r="BJ42" s="12" t="s">
+      <c r="BJ42" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="BK42" s="28" t="s">
+      <c r="BK42" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BL42" s="11">
+      <c r="BL42" s="22">
         <v>67</v>
       </c>
-      <c r="BM42" s="11">
+      <c r="BM42" s="22">
         <v>2012</v>
       </c>
-      <c r="BO42" s="1"/>
-      <c r="BP42" s="1"/>
-      <c r="BQ42" s="4"/>
-      <c r="BR42" s="4"/>
-      <c r="BS42" s="35"/>
-      <c r="BT42" s="1"/>
-      <c r="BU42" s="1"/>
-    </row>
-    <row r="43" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="BG43" s="11">
+      <c r="BO42" s="21"/>
+      <c r="BP42" s="21"/>
+      <c r="BQ42" s="23"/>
+      <c r="BR42" s="23"/>
+      <c r="BS42" s="42"/>
+      <c r="BT42" s="21"/>
+      <c r="BU42" s="21"/>
+    </row>
+    <row r="43" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="BG43" s="22">
         <v>38</v>
       </c>
-      <c r="BH43" s="11">
+      <c r="BH43" s="22">
         <v>13</v>
       </c>
-      <c r="BI43" s="12">
+      <c r="BI43" s="15">
         <v>12</v>
       </c>
-      <c r="BJ43" s="12" t="s">
+      <c r="BJ43" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="BK43" s="28" t="s">
+      <c r="BK43" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="BL43" s="11">
+      <c r="BL43" s="22">
         <v>78</v>
       </c>
-      <c r="BM43" s="11">
+      <c r="BM43" s="22">
         <v>2014</v>
       </c>
-      <c r="BO43" s="1"/>
-      <c r="BP43" s="1"/>
-      <c r="BQ43" s="4"/>
-      <c r="BR43" s="4"/>
-      <c r="BS43" s="35"/>
-      <c r="BT43" s="1"/>
-      <c r="BU43" s="1"/>
-    </row>
-    <row r="44" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="BG44" s="11">
+      <c r="BO43" s="21"/>
+      <c r="BP43" s="21"/>
+      <c r="BQ43" s="23"/>
+      <c r="BR43" s="23"/>
+      <c r="BS43" s="42"/>
+      <c r="BT43" s="21"/>
+      <c r="BU43" s="21"/>
+    </row>
+    <row r="44" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="BG44" s="22">
         <v>39</v>
       </c>
-      <c r="BH44" s="11">
+      <c r="BH44" s="22">
         <v>13</v>
       </c>
-      <c r="BI44" s="12" t="s">
+      <c r="BI44" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ44" s="12" t="s">
+      <c r="BJ44" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="BK44" s="28" t="s">
+      <c r="BK44" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BL44" s="11">
+      <c r="BL44" s="22">
         <v>68</v>
       </c>
-      <c r="BM44" s="11">
+      <c r="BM44" s="22">
         <v>2018</v>
       </c>
-      <c r="BO44" s="1"/>
-      <c r="BP44" s="1"/>
-      <c r="BQ44" s="4"/>
-      <c r="BR44" s="4"/>
-      <c r="BS44" s="35"/>
-      <c r="BT44" s="1"/>
-      <c r="BU44" s="1"/>
-    </row>
-    <row r="45" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="BG45" s="11">
+      <c r="BO44" s="21"/>
+      <c r="BP44" s="21"/>
+      <c r="BQ44" s="23"/>
+      <c r="BR44" s="23"/>
+      <c r="BS44" s="42"/>
+      <c r="BT44" s="21"/>
+      <c r="BU44" s="21"/>
+    </row>
+    <row r="45" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="21"/>
+      <c r="AL45" s="21"/>
+      <c r="BG45" s="22">
         <v>40</v>
       </c>
-      <c r="BH45" s="11">
+      <c r="BH45" s="22">
         <v>14</v>
       </c>
-      <c r="BI45" s="12">
+      <c r="BI45" s="15">
         <v>10</v>
       </c>
-      <c r="BJ45" s="12" t="s">
+      <c r="BJ45" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="BK45" s="28" t="s">
+      <c r="BK45" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BL45" s="11">
+      <c r="BL45" s="22">
         <v>67</v>
       </c>
-      <c r="BM45" s="11">
+      <c r="BM45" s="22">
         <v>2013</v>
       </c>
-      <c r="BO45" s="1"/>
-      <c r="BP45" s="1"/>
-      <c r="BQ45" s="4"/>
-      <c r="BR45" s="4"/>
-      <c r="BS45" s="35"/>
-      <c r="BT45" s="1"/>
-      <c r="BU45" s="1"/>
-    </row>
-    <row r="46" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="BG46" s="11">
+      <c r="BO45" s="21"/>
+      <c r="BP45" s="21"/>
+      <c r="BQ45" s="23"/>
+      <c r="BR45" s="23"/>
+      <c r="BS45" s="42"/>
+      <c r="BT45" s="21"/>
+      <c r="BU45" s="21"/>
+    </row>
+    <row r="46" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="21"/>
+      <c r="AL46" s="21"/>
+      <c r="BG46" s="22">
         <v>41</v>
       </c>
-      <c r="BH46" s="11">
+      <c r="BH46" s="22">
         <v>14</v>
       </c>
-      <c r="BI46" s="12">
+      <c r="BI46" s="15">
         <v>12</v>
       </c>
-      <c r="BJ46" s="12" t="s">
+      <c r="BJ46" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="BK46" s="28" t="s">
+      <c r="BK46" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BL46" s="11">
+      <c r="BL46" s="22">
         <v>87</v>
       </c>
-      <c r="BM46" s="11">
+      <c r="BM46" s="22">
         <v>2015</v>
       </c>
-      <c r="BO46" s="1"/>
-      <c r="BP46" s="1"/>
-      <c r="BQ46" s="4"/>
-      <c r="BR46" s="4"/>
-      <c r="BS46" s="35"/>
-      <c r="BT46" s="1"/>
-      <c r="BU46" s="1"/>
-    </row>
-    <row r="47" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="BG47" s="11">
+      <c r="BO46" s="21"/>
+      <c r="BP46" s="21"/>
+      <c r="BQ46" s="23"/>
+      <c r="BR46" s="23"/>
+      <c r="BS46" s="42"/>
+      <c r="BT46" s="21"/>
+      <c r="BU46" s="21"/>
+    </row>
+    <row r="47" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="21"/>
+      <c r="AL47" s="21"/>
+      <c r="BG47" s="22">
         <v>42</v>
       </c>
-      <c r="BH47" s="11">
+      <c r="BH47" s="22">
         <v>14</v>
       </c>
-      <c r="BI47" s="12" t="s">
+      <c r="BI47" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ47" s="12" t="s">
+      <c r="BJ47" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="BK47" s="28" t="s">
+      <c r="BK47" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL47" s="11">
+      <c r="BL47" s="22">
         <v>57</v>
       </c>
-      <c r="BM47" s="11">
+      <c r="BM47" s="22">
         <v>2019</v>
       </c>
-      <c r="BO47" s="1"/>
-      <c r="BP47" s="1"/>
-      <c r="BQ47" s="4"/>
-      <c r="BR47" s="4"/>
-      <c r="BS47" s="35"/>
-      <c r="BT47" s="1"/>
-      <c r="BU47" s="1"/>
-    </row>
-    <row r="48" spans="10:73" x14ac:dyDescent="0.25">
-      <c r="BG48" s="11">
+      <c r="BO47" s="21"/>
+      <c r="BP47" s="21"/>
+      <c r="BQ47" s="23"/>
+      <c r="BR47" s="23"/>
+      <c r="BS47" s="42"/>
+      <c r="BT47" s="21"/>
+      <c r="BU47" s="21"/>
+    </row>
+    <row r="48" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="21"/>
+      <c r="AL48" s="21"/>
+      <c r="BG48" s="22">
         <v>43</v>
       </c>
-      <c r="BH48" s="11">
+      <c r="BH48" s="22">
         <v>15</v>
       </c>
-      <c r="BI48" s="12">
+      <c r="BI48" s="15">
         <v>10</v>
       </c>
-      <c r="BJ48" s="12" t="s">
+      <c r="BJ48" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="BK48" s="28" t="s">
+      <c r="BK48" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="BL48" s="11">
+      <c r="BL48" s="22">
         <v>96</v>
       </c>
-      <c r="BM48" s="11">
+      <c r="BM48" s="22">
         <v>2011</v>
       </c>
-      <c r="BO48" s="1"/>
-      <c r="BP48" s="1"/>
-      <c r="BQ48" s="4"/>
-      <c r="BR48" s="4"/>
-      <c r="BS48" s="35"/>
-      <c r="BT48" s="1"/>
-      <c r="BU48" s="1"/>
-    </row>
-    <row r="49" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG49" s="11">
+      <c r="BO48" s="21"/>
+      <c r="BP48" s="21"/>
+      <c r="BQ48" s="23"/>
+      <c r="BR48" s="23"/>
+      <c r="BS48" s="42"/>
+      <c r="BT48" s="21"/>
+      <c r="BU48" s="21"/>
+    </row>
+    <row r="49" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="21"/>
+      <c r="AL49" s="21"/>
+      <c r="BG49" s="22">
         <v>44</v>
       </c>
-      <c r="BH49" s="11">
+      <c r="BH49" s="22">
         <v>15</v>
       </c>
-      <c r="BI49" s="12">
+      <c r="BI49" s="15">
         <v>12</v>
       </c>
-      <c r="BJ49" s="12" t="s">
+      <c r="BJ49" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="BK49" s="28" t="s">
+      <c r="BK49" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BL49" s="11">
+      <c r="BL49" s="22">
         <v>56</v>
       </c>
-      <c r="BM49" s="11">
+      <c r="BM49" s="22">
         <v>2013</v>
       </c>
-      <c r="BO49" s="1"/>
-      <c r="BP49" s="1"/>
-      <c r="BQ49" s="4"/>
-      <c r="BR49" s="4"/>
-      <c r="BS49" s="35"/>
-      <c r="BT49" s="1"/>
-      <c r="BU49" s="1"/>
-    </row>
-    <row r="50" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG50" s="11">
+      <c r="BO49" s="21"/>
+      <c r="BP49" s="21"/>
+      <c r="BQ49" s="23"/>
+      <c r="BR49" s="23"/>
+      <c r="BS49" s="42"/>
+      <c r="BT49" s="21"/>
+      <c r="BU49" s="21"/>
+    </row>
+    <row r="50" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="21"/>
+      <c r="AL50" s="21"/>
+      <c r="BG50" s="22">
         <v>45</v>
       </c>
-      <c r="BH50" s="11">
+      <c r="BH50" s="22">
         <v>15</v>
       </c>
-      <c r="BI50" s="12" t="s">
+      <c r="BI50" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ50" s="12" t="s">
+      <c r="BJ50" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BK50" s="28" t="s">
+      <c r="BK50" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BL50" s="11">
+      <c r="BL50" s="22">
         <v>65</v>
       </c>
-      <c r="BM50" s="11">
+      <c r="BM50" s="22">
         <v>2017</v>
       </c>
-      <c r="BO50" s="1"/>
-      <c r="BP50" s="1"/>
-      <c r="BQ50" s="4"/>
-      <c r="BR50" s="4"/>
-      <c r="BS50" s="35"/>
-      <c r="BT50" s="1"/>
-      <c r="BU50" s="1"/>
-    </row>
-    <row r="51" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG51" s="11">
+      <c r="BO50" s="21"/>
+      <c r="BP50" s="21"/>
+      <c r="BQ50" s="23"/>
+      <c r="BR50" s="23"/>
+      <c r="BS50" s="42"/>
+      <c r="BT50" s="21"/>
+      <c r="BU50" s="21"/>
+    </row>
+    <row r="51" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="21"/>
+      <c r="AL51" s="21"/>
+      <c r="BG51" s="22">
         <v>46</v>
       </c>
-      <c r="BH51" s="11">
+      <c r="BH51" s="22">
         <v>16</v>
       </c>
-      <c r="BI51" s="12">
+      <c r="BI51" s="15">
         <v>10</v>
       </c>
-      <c r="BJ51" s="12" t="s">
+      <c r="BJ51" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="BK51" s="28" t="s">
+      <c r="BK51" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="BL51" s="11">
+      <c r="BL51" s="22">
         <v>76</v>
       </c>
-      <c r="BM51" s="11">
+      <c r="BM51" s="22">
         <v>2012</v>
       </c>
-      <c r="BO51" s="1"/>
-      <c r="BP51" s="1"/>
-      <c r="BQ51" s="4"/>
-      <c r="BR51" s="4"/>
-      <c r="BS51" s="35"/>
-      <c r="BT51" s="1"/>
-      <c r="BU51" s="1"/>
-    </row>
-    <row r="52" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG52" s="11">
+      <c r="BO51" s="21"/>
+      <c r="BP51" s="21"/>
+      <c r="BQ51" s="23"/>
+      <c r="BR51" s="23"/>
+      <c r="BS51" s="42"/>
+      <c r="BT51" s="21"/>
+      <c r="BU51" s="21"/>
+    </row>
+    <row r="52" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="21"/>
+      <c r="AL52" s="21"/>
+      <c r="BG52" s="22">
         <v>47</v>
       </c>
-      <c r="BH52" s="11">
+      <c r="BH52" s="22">
         <v>16</v>
       </c>
-      <c r="BI52" s="12">
+      <c r="BI52" s="15">
         <v>12</v>
       </c>
-      <c r="BJ52" s="12" t="s">
+      <c r="BJ52" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="BK52" s="28" t="s">
+      <c r="BK52" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="BL52" s="11">
+      <c r="BL52" s="22">
         <v>56</v>
       </c>
-      <c r="BM52" s="11">
+      <c r="BM52" s="22">
         <v>2014</v>
       </c>
-      <c r="BO52" s="1"/>
-      <c r="BP52" s="1"/>
-      <c r="BQ52" s="4"/>
-      <c r="BR52" s="4"/>
-      <c r="BS52" s="35"/>
-      <c r="BT52" s="1"/>
-      <c r="BU52" s="1"/>
-    </row>
-    <row r="53" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG53" s="11">
+      <c r="BO52" s="21"/>
+      <c r="BP52" s="21"/>
+      <c r="BQ52" s="23"/>
+      <c r="BR52" s="23"/>
+      <c r="BS52" s="42"/>
+      <c r="BT52" s="21"/>
+      <c r="BU52" s="21"/>
+    </row>
+    <row r="53" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="21"/>
+      <c r="AL53" s="21"/>
+      <c r="BG53" s="22">
         <v>48</v>
       </c>
-      <c r="BH53" s="11">
+      <c r="BH53" s="22">
         <v>16</v>
       </c>
-      <c r="BI53" s="12" t="s">
+      <c r="BI53" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ53" s="12" t="s">
+      <c r="BJ53" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="BK53" s="28" t="s">
+      <c r="BK53" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="BL53" s="11">
+      <c r="BL53" s="22">
         <v>76</v>
       </c>
-      <c r="BM53" s="11">
+      <c r="BM53" s="22">
         <v>2018</v>
       </c>
-      <c r="BO53" s="1"/>
-      <c r="BP53" s="1"/>
-      <c r="BQ53" s="4"/>
-      <c r="BR53" s="4"/>
-      <c r="BS53" s="35"/>
-      <c r="BT53" s="1"/>
-      <c r="BU53" s="1"/>
-    </row>
-    <row r="54" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG54" s="11">
+      <c r="BO53" s="21"/>
+      <c r="BP53" s="21"/>
+      <c r="BQ53" s="23"/>
+      <c r="BR53" s="23"/>
+      <c r="BS53" s="42"/>
+      <c r="BT53" s="21"/>
+      <c r="BU53" s="21"/>
+    </row>
+    <row r="54" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="BG54" s="22">
         <v>49</v>
       </c>
-      <c r="BH54" s="11">
+      <c r="BH54" s="22">
         <v>17</v>
       </c>
-      <c r="BI54" s="12">
+      <c r="BI54" s="15">
         <v>10</v>
       </c>
-      <c r="BJ54" s="12" t="s">
+      <c r="BJ54" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BK54" s="28" t="s">
+      <c r="BK54" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="BL54" s="11">
+      <c r="BL54" s="22">
         <v>88</v>
       </c>
-      <c r="BM54" s="11">
+      <c r="BM54" s="22">
         <v>2013</v>
       </c>
-      <c r="BO54" s="1"/>
-      <c r="BP54" s="1"/>
-      <c r="BQ54" s="4"/>
-      <c r="BR54" s="4"/>
-      <c r="BS54" s="35"/>
-      <c r="BT54" s="1"/>
-      <c r="BU54" s="1"/>
-    </row>
-    <row r="55" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG55" s="11">
+      <c r="BO54" s="21"/>
+      <c r="BP54" s="21"/>
+      <c r="BQ54" s="23"/>
+      <c r="BR54" s="23"/>
+      <c r="BS54" s="42"/>
+      <c r="BT54" s="21"/>
+      <c r="BU54" s="21"/>
+    </row>
+    <row r="55" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="BG55" s="22">
         <v>50</v>
       </c>
-      <c r="BH55" s="11">
+      <c r="BH55" s="22">
         <v>17</v>
       </c>
-      <c r="BI55" s="12">
+      <c r="BI55" s="15">
         <v>12</v>
       </c>
-      <c r="BJ55" s="12" t="s">
+      <c r="BJ55" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="BK55" s="28" t="s">
+      <c r="BK55" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="BL55" s="11">
+      <c r="BL55" s="22">
         <v>76</v>
       </c>
-      <c r="BM55" s="11">
+      <c r="BM55" s="22">
         <v>2015</v>
       </c>
-      <c r="BO55" s="1"/>
-      <c r="BP55" s="1"/>
-      <c r="BQ55" s="4"/>
-      <c r="BR55" s="4"/>
-      <c r="BS55" s="35"/>
-      <c r="BT55" s="1"/>
-      <c r="BU55" s="1"/>
-    </row>
-    <row r="56" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG56" s="11">
+      <c r="BO55" s="21"/>
+      <c r="BP55" s="21"/>
+      <c r="BQ55" s="23"/>
+      <c r="BR55" s="23"/>
+      <c r="BS55" s="42"/>
+      <c r="BT55" s="21"/>
+      <c r="BU55" s="21"/>
+    </row>
+    <row r="56" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="BG56" s="22">
         <v>51</v>
       </c>
-      <c r="BH56" s="11">
+      <c r="BH56" s="22">
         <v>17</v>
       </c>
-      <c r="BI56" s="12" t="s">
+      <c r="BI56" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ56" s="12" t="s">
+      <c r="BJ56" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="BK56" s="28" t="s">
+      <c r="BK56" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="BL56" s="11">
+      <c r="BL56" s="22">
         <v>68</v>
       </c>
-      <c r="BM56" s="11">
+      <c r="BM56" s="22">
         <v>2019</v>
       </c>
-      <c r="BO56" s="1"/>
-      <c r="BP56" s="1"/>
-      <c r="BQ56" s="4"/>
-      <c r="BR56" s="4"/>
-      <c r="BS56" s="35"/>
-      <c r="BT56" s="1"/>
-      <c r="BU56" s="1"/>
-    </row>
-    <row r="57" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG57" s="11">
+      <c r="BO56" s="21"/>
+      <c r="BP56" s="21"/>
+      <c r="BQ56" s="23"/>
+      <c r="BR56" s="23"/>
+      <c r="BS56" s="42"/>
+      <c r="BT56" s="21"/>
+      <c r="BU56" s="21"/>
+    </row>
+    <row r="57" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="21"/>
+      <c r="AL57" s="21"/>
+      <c r="BG57" s="22">
         <v>52</v>
       </c>
-      <c r="BH57" s="11">
+      <c r="BH57" s="22">
         <v>18</v>
       </c>
-      <c r="BI57" s="12">
+      <c r="BI57" s="15">
         <v>10</v>
       </c>
-      <c r="BJ57" s="12" t="s">
+      <c r="BJ57" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="BK57" s="28" t="s">
+      <c r="BK57" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BL57" s="11">
+      <c r="BL57" s="22">
         <v>86</v>
       </c>
-      <c r="BM57" s="11">
+      <c r="BM57" s="22">
         <v>2011</v>
       </c>
-      <c r="BO57" s="1"/>
-      <c r="BP57" s="1"/>
-      <c r="BQ57" s="4"/>
-      <c r="BR57" s="4"/>
-      <c r="BS57" s="35"/>
-      <c r="BT57" s="1"/>
-      <c r="BU57" s="1"/>
-    </row>
-    <row r="58" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG58" s="11">
+      <c r="BO57" s="21"/>
+      <c r="BP57" s="21"/>
+      <c r="BQ57" s="23"/>
+      <c r="BR57" s="23"/>
+      <c r="BS57" s="42"/>
+      <c r="BT57" s="21"/>
+      <c r="BU57" s="21"/>
+    </row>
+    <row r="58" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="21"/>
+      <c r="AL58" s="21"/>
+      <c r="BG58" s="22">
         <v>53</v>
       </c>
-      <c r="BH58" s="11">
+      <c r="BH58" s="22">
         <v>18</v>
       </c>
-      <c r="BI58" s="12">
+      <c r="BI58" s="15">
         <v>12</v>
       </c>
-      <c r="BJ58" s="12" t="s">
+      <c r="BJ58" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="BK58" s="28" t="s">
+      <c r="BK58" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BL58" s="11">
+      <c r="BL58" s="22">
         <v>57</v>
       </c>
-      <c r="BM58" s="11">
+      <c r="BM58" s="22">
         <v>2013</v>
       </c>
-      <c r="BO58" s="1"/>
-      <c r="BP58" s="1"/>
-      <c r="BQ58" s="4"/>
-      <c r="BR58" s="4"/>
-      <c r="BS58" s="35"/>
-      <c r="BT58" s="1"/>
-      <c r="BU58" s="1"/>
-    </row>
-    <row r="59" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG59" s="11">
+      <c r="BO58" s="21"/>
+      <c r="BP58" s="21"/>
+      <c r="BQ58" s="23"/>
+      <c r="BR58" s="23"/>
+      <c r="BS58" s="42"/>
+      <c r="BT58" s="21"/>
+      <c r="BU58" s="21"/>
+    </row>
+    <row r="59" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="21"/>
+      <c r="AL59" s="21"/>
+      <c r="BG59" s="22">
         <v>54</v>
       </c>
-      <c r="BH59" s="11">
+      <c r="BH59" s="22">
         <v>18</v>
       </c>
-      <c r="BI59" s="12" t="s">
+      <c r="BI59" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ59" s="12" t="s">
+      <c r="BJ59" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="BK59" s="28" t="s">
+      <c r="BK59" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BL59" s="11">
+      <c r="BL59" s="22">
         <v>75</v>
       </c>
-      <c r="BM59" s="11">
+      <c r="BM59" s="22">
         <v>2017</v>
       </c>
-      <c r="BO59" s="1"/>
-      <c r="BP59" s="1"/>
-      <c r="BQ59" s="4"/>
-      <c r="BR59" s="4"/>
-      <c r="BS59" s="35"/>
-      <c r="BT59" s="1"/>
-      <c r="BU59" s="1"/>
-    </row>
-    <row r="60" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG60" s="11">
+      <c r="BO59" s="21"/>
+      <c r="BP59" s="21"/>
+      <c r="BQ59" s="23"/>
+      <c r="BR59" s="23"/>
+      <c r="BS59" s="42"/>
+      <c r="BT59" s="21"/>
+      <c r="BU59" s="21"/>
+    </row>
+    <row r="60" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="21"/>
+      <c r="AL60" s="21"/>
+      <c r="BG60" s="22">
         <v>55</v>
       </c>
-      <c r="BH60" s="11">
+      <c r="BH60" s="22">
         <v>19</v>
       </c>
-      <c r="BI60" s="12">
+      <c r="BI60" s="15">
         <v>10</v>
       </c>
-      <c r="BJ60" s="12" t="s">
+      <c r="BJ60" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BK60" s="28" t="s">
+      <c r="BK60" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="BL60" s="11">
+      <c r="BL60" s="22">
         <v>69</v>
       </c>
-      <c r="BM60" s="11">
+      <c r="BM60" s="22">
         <v>2013</v>
       </c>
-      <c r="BO60" s="1"/>
-      <c r="BP60" s="1"/>
-      <c r="BQ60" s="4"/>
-      <c r="BR60" s="4"/>
-      <c r="BS60" s="35"/>
-      <c r="BT60" s="1"/>
-      <c r="BU60" s="1"/>
-    </row>
-    <row r="61" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG61" s="11">
+      <c r="BO60" s="21"/>
+      <c r="BP60" s="21"/>
+      <c r="BQ60" s="23"/>
+      <c r="BR60" s="23"/>
+      <c r="BS60" s="42"/>
+      <c r="BT60" s="21"/>
+      <c r="BU60" s="21"/>
+    </row>
+    <row r="61" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="BG61" s="22">
         <v>56</v>
       </c>
-      <c r="BH61" s="11">
+      <c r="BH61" s="22">
         <v>19</v>
       </c>
-      <c r="BI61" s="12">
+      <c r="BI61" s="15">
         <v>12</v>
       </c>
-      <c r="BJ61" s="12" t="s">
+      <c r="BJ61" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="BK61" s="28" t="s">
+      <c r="BK61" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="BL61" s="11">
+      <c r="BL61" s="22">
         <v>60</v>
       </c>
-      <c r="BM61" s="11">
+      <c r="BM61" s="22">
         <v>2015</v>
       </c>
-      <c r="BO61" s="1"/>
-      <c r="BP61" s="1"/>
-      <c r="BQ61" s="4"/>
-      <c r="BR61" s="4"/>
-      <c r="BS61" s="35"/>
-      <c r="BT61" s="1"/>
-      <c r="BU61" s="1"/>
-    </row>
-    <row r="62" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG62" s="11">
+      <c r="BO61" s="21"/>
+      <c r="BP61" s="21"/>
+      <c r="BQ61" s="23"/>
+      <c r="BR61" s="23"/>
+      <c r="BS61" s="42"/>
+      <c r="BT61" s="21"/>
+      <c r="BU61" s="21"/>
+    </row>
+    <row r="62" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="21"/>
+      <c r="AL62" s="21"/>
+      <c r="BG62" s="22">
         <v>57</v>
       </c>
-      <c r="BH62" s="11">
+      <c r="BH62" s="22">
         <v>19</v>
       </c>
-      <c r="BI62" s="12" t="s">
+      <c r="BI62" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ62" s="12" t="s">
+      <c r="BJ62" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="BK62" s="28" t="s">
+      <c r="BK62" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BL62" s="11">
+      <c r="BL62" s="22">
         <v>61</v>
       </c>
-      <c r="BM62" s="11">
+      <c r="BM62" s="22">
         <v>2019</v>
       </c>
-      <c r="BO62" s="1"/>
-      <c r="BP62" s="1"/>
-      <c r="BQ62" s="4"/>
-      <c r="BR62" s="4"/>
-      <c r="BS62" s="35"/>
-      <c r="BT62" s="1"/>
-      <c r="BU62" s="1"/>
-    </row>
-    <row r="63" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG63" s="11">
+      <c r="BO62" s="21"/>
+      <c r="BP62" s="21"/>
+      <c r="BQ62" s="23"/>
+      <c r="BR62" s="23"/>
+      <c r="BS62" s="42"/>
+      <c r="BT62" s="21"/>
+      <c r="BU62" s="21"/>
+    </row>
+    <row r="63" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="21"/>
+      <c r="AL63" s="21"/>
+      <c r="BG63" s="22">
         <v>58</v>
       </c>
-      <c r="BH63" s="11">
+      <c r="BH63" s="22">
         <v>20</v>
       </c>
-      <c r="BI63" s="12">
+      <c r="BI63" s="15">
         <v>10</v>
       </c>
-      <c r="BJ63" s="12" t="s">
+      <c r="BJ63" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="BK63" s="28" t="s">
+      <c r="BK63" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BL63" s="11">
+      <c r="BL63" s="22">
         <v>72</v>
       </c>
-      <c r="BM63" s="11">
+      <c r="BM63" s="22">
         <v>2013</v>
       </c>
-      <c r="BO63" s="1"/>
-      <c r="BP63" s="1"/>
-      <c r="BQ63" s="4"/>
-      <c r="BR63" s="4"/>
-      <c r="BS63" s="35"/>
-      <c r="BT63" s="1"/>
-      <c r="BU63" s="1"/>
-    </row>
-    <row r="64" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG64" s="11">
+      <c r="BO63" s="21"/>
+      <c r="BP63" s="21"/>
+      <c r="BQ63" s="23"/>
+      <c r="BR63" s="23"/>
+      <c r="BS63" s="42"/>
+      <c r="BT63" s="21"/>
+      <c r="BU63" s="21"/>
+    </row>
+    <row r="64" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="21"/>
+      <c r="AL64" s="21"/>
+      <c r="BG64" s="22">
         <v>59</v>
       </c>
-      <c r="BH64" s="11">
+      <c r="BH64" s="22">
         <v>20</v>
       </c>
-      <c r="BI64" s="12">
+      <c r="BI64" s="15">
         <v>12</v>
       </c>
-      <c r="BJ64" s="12" t="s">
+      <c r="BJ64" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="BK64" s="28" t="s">
+      <c r="BK64" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BL64" s="11">
+      <c r="BL64" s="22">
         <v>83</v>
       </c>
-      <c r="BM64" s="11">
+      <c r="BM64" s="22">
         <v>2015</v>
       </c>
-      <c r="BO64" s="1"/>
-      <c r="BP64" s="1"/>
-      <c r="BQ64" s="4"/>
-      <c r="BR64" s="4"/>
-      <c r="BS64" s="35"/>
-      <c r="BT64" s="1"/>
-      <c r="BU64" s="1"/>
-    </row>
-    <row r="65" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG65" s="11">
+      <c r="BO64" s="21"/>
+      <c r="BP64" s="21"/>
+      <c r="BQ64" s="23"/>
+      <c r="BR64" s="23"/>
+      <c r="BS64" s="42"/>
+      <c r="BT64" s="21"/>
+      <c r="BU64" s="21"/>
+    </row>
+    <row r="65" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="21"/>
+      <c r="AL65" s="21"/>
+      <c r="BG65" s="22">
         <v>60</v>
       </c>
-      <c r="BH65" s="11">
+      <c r="BH65" s="22">
         <v>20</v>
       </c>
-      <c r="BI65" s="12" t="s">
+      <c r="BI65" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BJ65" s="12" t="s">
+      <c r="BJ65" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="BK65" s="28" t="s">
+      <c r="BK65" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="BL65" s="11">
+      <c r="BL65" s="22">
         <v>72</v>
       </c>
-      <c r="BM65" s="11">
+      <c r="BM65" s="22">
         <v>2019</v>
       </c>
-      <c r="BO65" s="1"/>
-      <c r="BP65" s="1"/>
-      <c r="BQ65" s="4"/>
-      <c r="BR65" s="4"/>
-      <c r="BS65" s="35"/>
-      <c r="BT65" s="1"/>
-      <c r="BU65" s="1"/>
-    </row>
-    <row r="66" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG66" s="1"/>
-      <c r="BH66" s="1"/>
-      <c r="BI66" s="4"/>
-      <c r="BJ66" s="24"/>
-      <c r="BK66" s="17"/>
-      <c r="BM66" s="1"/>
-      <c r="BO66" s="1"/>
-      <c r="BP66" s="1"/>
-      <c r="BQ66" s="4"/>
-      <c r="BR66" s="24"/>
-      <c r="BS66" s="17"/>
-      <c r="BU66" s="1"/>
-    </row>
-    <row r="67" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG67" s="1"/>
-      <c r="BH67" s="1"/>
-      <c r="BI67" s="4"/>
-      <c r="BJ67" s="24"/>
-      <c r="BK67" s="17"/>
-      <c r="BM67" s="1"/>
-      <c r="BO67" s="1"/>
-      <c r="BP67" s="1"/>
-      <c r="BQ67" s="4"/>
-      <c r="BR67" s="24"/>
-      <c r="BS67" s="17"/>
-      <c r="BU67" s="1"/>
-    </row>
-    <row r="68" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG68" s="1"/>
-      <c r="BH68" s="1"/>
-      <c r="BI68" s="4"/>
-      <c r="BJ68" s="24"/>
-      <c r="BK68" s="17"/>
-      <c r="BM68" s="1"/>
-      <c r="BO68" s="1"/>
-      <c r="BP68" s="1"/>
-      <c r="BQ68" s="4"/>
-      <c r="BR68" s="24"/>
-      <c r="BS68" s="17"/>
-      <c r="BU68" s="1"/>
-    </row>
-    <row r="69" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG69" s="1"/>
-      <c r="BH69" s="1"/>
-      <c r="BI69" s="4"/>
-      <c r="BJ69" s="24"/>
-      <c r="BK69" s="17"/>
-      <c r="BM69" s="1"/>
-      <c r="BO69" s="1"/>
-      <c r="BP69" s="1"/>
-      <c r="BQ69" s="4"/>
-      <c r="BR69" s="24"/>
-      <c r="BS69" s="17"/>
-      <c r="BU69" s="1"/>
-    </row>
-    <row r="70" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG70" s="1"/>
-      <c r="BH70" s="1"/>
-      <c r="BI70" s="4"/>
-      <c r="BJ70" s="24"/>
-      <c r="BK70" s="17"/>
-      <c r="BM70" s="1"/>
-      <c r="BO70" s="1"/>
-      <c r="BP70" s="1"/>
-      <c r="BQ70" s="4"/>
-      <c r="BR70" s="24"/>
-      <c r="BS70" s="17"/>
-      <c r="BU70" s="1"/>
-    </row>
-    <row r="71" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG71" s="1"/>
-      <c r="BH71" s="1"/>
-      <c r="BI71" s="4"/>
-      <c r="BJ71" s="24"/>
-      <c r="BK71" s="17"/>
-      <c r="BM71" s="1"/>
-      <c r="BO71" s="1"/>
-      <c r="BP71" s="1"/>
-      <c r="BQ71" s="4"/>
-      <c r="BR71" s="24"/>
-      <c r="BS71" s="17"/>
-      <c r="BU71" s="1"/>
-    </row>
-    <row r="72" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG72" s="1"/>
-      <c r="BH72" s="1"/>
-      <c r="BI72" s="4"/>
-      <c r="BJ72" s="24"/>
-      <c r="BK72" s="17"/>
-      <c r="BM72" s="1"/>
-      <c r="BO72" s="1"/>
-      <c r="BP72" s="1"/>
-      <c r="BQ72" s="4"/>
-      <c r="BR72" s="24"/>
-      <c r="BS72" s="17"/>
-      <c r="BU72" s="1"/>
-    </row>
-    <row r="73" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG73" s="1"/>
-      <c r="BH73" s="1"/>
-      <c r="BI73" s="4"/>
-      <c r="BJ73" s="24"/>
-      <c r="BK73" s="17"/>
-      <c r="BM73" s="1"/>
-      <c r="BO73" s="1"/>
-      <c r="BP73" s="1"/>
-      <c r="BQ73" s="4"/>
-      <c r="BR73" s="24"/>
-      <c r="BS73" s="17"/>
-      <c r="BU73" s="1"/>
-    </row>
-    <row r="74" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG74" s="1"/>
-      <c r="BH74" s="1"/>
-      <c r="BI74" s="4"/>
-      <c r="BJ74" s="24"/>
-      <c r="BK74" s="17"/>
-      <c r="BM74" s="1"/>
-      <c r="BO74" s="1"/>
-      <c r="BP74" s="1"/>
-      <c r="BQ74" s="4"/>
-      <c r="BR74" s="24"/>
-      <c r="BS74" s="17"/>
-      <c r="BU74" s="1"/>
-    </row>
-    <row r="75" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG75" s="1"/>
-      <c r="BH75" s="1"/>
-      <c r="BI75" s="4"/>
-      <c r="BJ75" s="24"/>
-      <c r="BK75" s="17"/>
-      <c r="BM75" s="1"/>
-      <c r="BO75" s="1"/>
-      <c r="BP75" s="1"/>
-      <c r="BQ75" s="4"/>
-      <c r="BR75" s="24"/>
-      <c r="BS75" s="17"/>
-      <c r="BU75" s="1"/>
-    </row>
-    <row r="76" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG76" s="1"/>
-      <c r="BH76" s="1"/>
-      <c r="BI76" s="4"/>
-      <c r="BJ76" s="24"/>
-      <c r="BK76" s="17"/>
-      <c r="BM76" s="1"/>
-      <c r="BO76" s="1"/>
-      <c r="BP76" s="1"/>
-      <c r="BQ76" s="4"/>
-      <c r="BR76" s="24"/>
-      <c r="BS76" s="17"/>
-      <c r="BU76" s="1"/>
-    </row>
-    <row r="77" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG77" s="1"/>
-      <c r="BH77" s="1"/>
-      <c r="BI77" s="4"/>
-      <c r="BJ77" s="24"/>
-      <c r="BK77" s="17"/>
-      <c r="BM77" s="1"/>
-      <c r="BO77" s="1"/>
-      <c r="BP77" s="1"/>
-      <c r="BQ77" s="4"/>
-      <c r="BR77" s="24"/>
-      <c r="BS77" s="17"/>
-      <c r="BU77" s="1"/>
-    </row>
-    <row r="78" spans="59:73" x14ac:dyDescent="0.25">
-      <c r="BG78" s="1"/>
-      <c r="BH78" s="1"/>
-      <c r="BI78" s="4"/>
-      <c r="BJ78" s="24"/>
-      <c r="BK78" s="17"/>
-      <c r="BM78" s="1"/>
-      <c r="BO78" s="1"/>
-      <c r="BP78" s="1"/>
-      <c r="BQ78" s="4"/>
-      <c r="BR78" s="24"/>
-      <c r="BS78" s="17"/>
-      <c r="BU78" s="1"/>
-    </row>
-    <row r="79" spans="59:73" x14ac:dyDescent="0.25">
+      <c r="BO65" s="21"/>
+      <c r="BP65" s="21"/>
+      <c r="BQ65" s="23"/>
+      <c r="BR65" s="23"/>
+      <c r="BS65" s="42"/>
+      <c r="BT65" s="21"/>
+      <c r="BU65" s="21"/>
+    </row>
+    <row r="66" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="21"/>
+      <c r="AL66" s="21"/>
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="23"/>
+      <c r="BJ66" s="26"/>
+      <c r="BK66" s="27"/>
+      <c r="BM66" s="21"/>
+      <c r="BO66" s="21"/>
+      <c r="BP66" s="21"/>
+      <c r="BQ66" s="23"/>
+      <c r="BR66" s="26"/>
+      <c r="BS66" s="27"/>
+      <c r="BU66" s="21"/>
+    </row>
+    <row r="67" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="21"/>
+      <c r="AL67" s="21"/>
+      <c r="BG67" s="21"/>
+      <c r="BH67" s="21"/>
+      <c r="BI67" s="23"/>
+      <c r="BJ67" s="26"/>
+      <c r="BK67" s="27"/>
+      <c r="BM67" s="21"/>
+      <c r="BO67" s="21"/>
+      <c r="BP67" s="21"/>
+      <c r="BQ67" s="23"/>
+      <c r="BR67" s="26"/>
+      <c r="BS67" s="27"/>
+      <c r="BU67" s="21"/>
+    </row>
+    <row r="68" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="21"/>
+      <c r="AL68" s="21"/>
+      <c r="BG68" s="21"/>
+      <c r="BH68" s="21"/>
+      <c r="BI68" s="23"/>
+      <c r="BJ68" s="26"/>
+      <c r="BK68" s="27"/>
+      <c r="BM68" s="21"/>
+      <c r="BO68" s="21"/>
+      <c r="BP68" s="21"/>
+      <c r="BQ68" s="23"/>
+      <c r="BR68" s="26"/>
+      <c r="BS68" s="27"/>
+      <c r="BU68" s="21"/>
+    </row>
+    <row r="69" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="21"/>
+      <c r="AL69" s="21"/>
+      <c r="BG69" s="21"/>
+      <c r="BH69" s="21"/>
+      <c r="BI69" s="23"/>
+      <c r="BJ69" s="26"/>
+      <c r="BK69" s="27"/>
+      <c r="BM69" s="21"/>
+      <c r="BO69" s="21"/>
+      <c r="BP69" s="21"/>
+      <c r="BQ69" s="23"/>
+      <c r="BR69" s="26"/>
+      <c r="BS69" s="27"/>
+      <c r="BU69" s="21"/>
+    </row>
+    <row r="70" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="21"/>
+      <c r="AL70" s="21"/>
+      <c r="BG70" s="21"/>
+      <c r="BH70" s="21"/>
+      <c r="BI70" s="23"/>
+      <c r="BJ70" s="26"/>
+      <c r="BK70" s="27"/>
+      <c r="BM70" s="21"/>
+      <c r="BO70" s="21"/>
+      <c r="BP70" s="21"/>
+      <c r="BQ70" s="23"/>
+      <c r="BR70" s="26"/>
+      <c r="BS70" s="27"/>
+      <c r="BU70" s="21"/>
+    </row>
+    <row r="71" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="21"/>
+      <c r="AL71" s="21"/>
+      <c r="BG71" s="21"/>
+      <c r="BH71" s="21"/>
+      <c r="BI71" s="23"/>
+      <c r="BJ71" s="26"/>
+      <c r="BK71" s="27"/>
+      <c r="BM71" s="21"/>
+      <c r="BO71" s="21"/>
+      <c r="BP71" s="21"/>
+      <c r="BQ71" s="23"/>
+      <c r="BR71" s="26"/>
+      <c r="BS71" s="27"/>
+      <c r="BU71" s="21"/>
+    </row>
+    <row r="72" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="21"/>
+      <c r="AL72" s="21"/>
+      <c r="BG72" s="21"/>
+      <c r="BH72" s="21"/>
+      <c r="BI72" s="23"/>
+      <c r="BJ72" s="26"/>
+      <c r="BK72" s="27"/>
+      <c r="BM72" s="21"/>
+      <c r="BO72" s="21"/>
+      <c r="BP72" s="21"/>
+      <c r="BQ72" s="23"/>
+      <c r="BR72" s="26"/>
+      <c r="BS72" s="27"/>
+      <c r="BU72" s="21"/>
+    </row>
+    <row r="73" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="21"/>
+      <c r="AL73" s="21"/>
+      <c r="BG73" s="21"/>
+      <c r="BH73" s="21"/>
+      <c r="BI73" s="23"/>
+      <c r="BJ73" s="26"/>
+      <c r="BK73" s="27"/>
+      <c r="BM73" s="21"/>
+      <c r="BO73" s="21"/>
+      <c r="BP73" s="21"/>
+      <c r="BQ73" s="23"/>
+      <c r="BR73" s="26"/>
+      <c r="BS73" s="27"/>
+      <c r="BU73" s="21"/>
+    </row>
+    <row r="74" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="21"/>
+      <c r="AL74" s="21"/>
+      <c r="BG74" s="21"/>
+      <c r="BH74" s="21"/>
+      <c r="BI74" s="23"/>
+      <c r="BJ74" s="26"/>
+      <c r="BK74" s="27"/>
+      <c r="BM74" s="21"/>
+      <c r="BO74" s="21"/>
+      <c r="BP74" s="21"/>
+      <c r="BQ74" s="23"/>
+      <c r="BR74" s="26"/>
+      <c r="BS74" s="27"/>
+      <c r="BU74" s="21"/>
+    </row>
+    <row r="75" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="21"/>
+      <c r="AL75" s="21"/>
+      <c r="BG75" s="21"/>
+      <c r="BH75" s="21"/>
+      <c r="BI75" s="23"/>
+      <c r="BJ75" s="26"/>
+      <c r="BK75" s="27"/>
+      <c r="BM75" s="21"/>
+      <c r="BO75" s="21"/>
+      <c r="BP75" s="21"/>
+      <c r="BQ75" s="23"/>
+      <c r="BR75" s="26"/>
+      <c r="BS75" s="27"/>
+      <c r="BU75" s="21"/>
+    </row>
+    <row r="76" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="21"/>
+      <c r="AL76" s="21"/>
+      <c r="BG76" s="21"/>
+      <c r="BH76" s="21"/>
+      <c r="BI76" s="23"/>
+      <c r="BJ76" s="26"/>
+      <c r="BK76" s="27"/>
+      <c r="BM76" s="21"/>
+      <c r="BO76" s="21"/>
+      <c r="BP76" s="21"/>
+      <c r="BQ76" s="23"/>
+      <c r="BR76" s="26"/>
+      <c r="BS76" s="27"/>
+      <c r="BU76" s="21"/>
+    </row>
+    <row r="77" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="21"/>
+      <c r="AL77" s="21"/>
+      <c r="BG77" s="21"/>
+      <c r="BH77" s="21"/>
+      <c r="BI77" s="23"/>
+      <c r="BJ77" s="26"/>
+      <c r="BK77" s="27"/>
+      <c r="BM77" s="21"/>
+      <c r="BO77" s="21"/>
+      <c r="BP77" s="21"/>
+      <c r="BQ77" s="23"/>
+      <c r="BR77" s="26"/>
+      <c r="BS77" s="27"/>
+      <c r="BU77" s="21"/>
+    </row>
+    <row r="78" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="21"/>
+      <c r="AL78" s="21"/>
+      <c r="BG78" s="21"/>
+      <c r="BH78" s="21"/>
+      <c r="BI78" s="23"/>
+      <c r="BJ78" s="26"/>
+      <c r="BK78" s="27"/>
+      <c r="BM78" s="21"/>
+      <c r="BO78" s="21"/>
+      <c r="BP78" s="21"/>
+      <c r="BQ78" s="23"/>
+      <c r="BR78" s="26"/>
+      <c r="BS78" s="27"/>
+      <c r="BU78" s="21"/>
+    </row>
+    <row r="79" spans="5:73" x14ac:dyDescent="0.25">
       <c r="BG79" s="1"/>
       <c r="BH79" s="1"/>
       <c r="BI79" s="4"/>
@@ -6711,7 +6837,7 @@
       <c r="BS79" s="17"/>
       <c r="BU79" s="1"/>
     </row>
-    <row r="80" spans="59:73" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:73" x14ac:dyDescent="0.25">
       <c r="BG80" s="1"/>
       <c r="BH80" s="1"/>
       <c r="BI80" s="4"/>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BU98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ10" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1950,7 @@
     <col min="35" max="35" width="6.42578125" style="6" customWidth="1"/>
     <col min="36" max="36" width="9.5703125" style="6" customWidth="1"/>
     <col min="37" max="37" width="8.5703125" style="6" customWidth="1"/>
-    <col min="38" max="38" width="32.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="32.42578125" style="1" customWidth="1"/>
     <col min="39" max="39" width="2.5703125" style="6" customWidth="1"/>
     <col min="40" max="40" width="6.5703125" style="6" customWidth="1"/>
     <col min="41" max="41" width="9.5703125" style="6" customWidth="1"/>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -578,6 +578,24 @@
   </si>
   <si>
     <t>Course Table</t>
+  </si>
+  <si>
+    <t>DMC</t>
+  </si>
+  <si>
+    <t>DSSD</t>
+  </si>
+  <si>
+    <t>OOPs with C++ Programming</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>OS Concepts</t>
+  </si>
+  <si>
+    <t>iOS Programming</t>
   </si>
 </sst>
 </file>
@@ -1906,10 +1924,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:BU98"/>
+  <dimension ref="B2:BU98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ10" sqref="AZ10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,6 +2007,8 @@
     <col min="74" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:73" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:73" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:73" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -3184,10 +3205,18 @@
       <c r="AC11" s="22">
         <v>7032303479</v>
       </c>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="37"/>
+      <c r="AI11" s="22">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK11" s="22">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="AN11" s="22">
         <v>6</v>
       </c>
@@ -3324,10 +3353,18 @@
       <c r="AC12" s="22">
         <v>7032306781</v>
       </c>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="37"/>
+      <c r="AI12" s="22">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK12" s="22">
+        <v>6</v>
+      </c>
+      <c r="AL12" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="AN12" s="22">
         <v>7</v>
       </c>
@@ -4258,9 +4295,15 @@
       <c r="AJ19" s="23"/>
       <c r="AK19" s="23"/>
       <c r="AL19" s="37"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
+      <c r="AN19" s="22">
+        <v>14</v>
+      </c>
+      <c r="AO19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP19" s="22">
+        <v>6</v>
+      </c>
       <c r="AR19" s="22">
         <v>14</v>
       </c>
@@ -4372,9 +4415,15 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="23"/>
       <c r="AL20" s="37"/>
-      <c r="AN20" s="21"/>
-      <c r="AO20" s="23"/>
-      <c r="AP20" s="23"/>
+      <c r="AN20" s="22">
+        <v>15</v>
+      </c>
+      <c r="AO20" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP20" s="22">
+        <v>6</v>
+      </c>
       <c r="AR20" s="22">
         <v>15</v>
       </c>
@@ -4486,9 +4535,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="23"/>
       <c r="AL21" s="37"/>
-      <c r="AN21" s="21"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
+      <c r="AN21" s="22">
+        <v>16</v>
+      </c>
+      <c r="AO21" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP21" s="22">
+        <v>6</v>
+      </c>
       <c r="AR21" s="22">
         <v>16</v>
       </c>
@@ -4600,9 +4655,15 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
       <c r="AL22" s="37"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
+      <c r="AN22" s="22">
+        <v>17</v>
+      </c>
+      <c r="AO22" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP22" s="22">
+        <v>6</v>
+      </c>
       <c r="AR22" s="22">
         <v>17</v>
       </c>
@@ -5363,7 +5424,25 @@
         <v>7032300001</v>
       </c>
       <c r="AL30" s="21"/>
+      <c r="AR30" s="22">
+        <v>25</v>
+      </c>
+      <c r="AS30" s="22">
+        <v>6</v>
+      </c>
+      <c r="AT30" s="22">
+        <v>14</v>
+      </c>
       <c r="AX30" s="21"/>
+      <c r="BC30" s="22">
+        <v>25</v>
+      </c>
+      <c r="BD30" s="22">
+        <v>3</v>
+      </c>
+      <c r="BE30" s="22">
+        <v>20</v>
+      </c>
       <c r="BG30" s="22">
         <v>25</v>
       </c>
@@ -5406,6 +5485,24 @@
         <v>7132300079</v>
       </c>
       <c r="AL31" s="21"/>
+      <c r="AR31" s="22">
+        <v>26</v>
+      </c>
+      <c r="AS31" s="22">
+        <v>6</v>
+      </c>
+      <c r="AT31" s="22">
+        <v>15</v>
+      </c>
+      <c r="BC31" s="22">
+        <v>26</v>
+      </c>
+      <c r="BD31" s="22">
+        <v>4</v>
+      </c>
+      <c r="BE31" s="22">
+        <v>17</v>
+      </c>
       <c r="BG31" s="22">
         <v>26</v>
       </c>
@@ -5448,6 +5545,15 @@
         <v>7132300081</v>
       </c>
       <c r="AL32" s="21"/>
+      <c r="AR32" s="22">
+        <v>27</v>
+      </c>
+      <c r="AS32" s="22">
+        <v>6</v>
+      </c>
+      <c r="AT32" s="22">
+        <v>16</v>
+      </c>
       <c r="BG32" s="22">
         <v>27</v>
       </c>
@@ -5490,6 +5596,15 @@
         <v>7132300054</v>
       </c>
       <c r="AL33" s="21"/>
+      <c r="AR33" s="22">
+        <v>28</v>
+      </c>
+      <c r="AS33" s="22">
+        <v>6</v>
+      </c>
+      <c r="AT33" s="22">
+        <v>17</v>
+      </c>
       <c r="BG33" s="22">
         <v>28</v>
       </c>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="191">
   <si>
     <t>ID</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>iOS Programming</t>
+  </si>
+  <si>
+    <t>Batch25</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,6 +814,15 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1131,11 +1143,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="5"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
@@ -1926,9 +1938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BU98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1:AH1048576"/>
+      <selection pane="bottomLeft" activeCell="BH14" sqref="BH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,11 +2022,11 @@
     <row r="2" spans="2:73" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:73" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:73" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="5"/>
       <c r="G4" s="20" t="s">
         <v>6</v>
@@ -2050,22 +2062,22 @@
       </c>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AI4" s="44" t="s">
+      <c r="AI4" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
       <c r="AL4" s="5"/>
-      <c r="AN4" s="44" t="s">
+      <c r="AN4" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AR4" s="44" t="s">
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AR4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
       <c r="AV4" s="9" t="s">
         <v>24</v>
       </c>
@@ -3353,16 +3365,16 @@
       <c r="AC12" s="22">
         <v>7032306781</v>
       </c>
-      <c r="AI12" s="22">
+      <c r="AI12" s="44">
         <v>7</v>
       </c>
-      <c r="AJ12" s="34" t="s">
+      <c r="AJ12" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AK12" s="22">
+      <c r="AK12" s="44">
         <v>6</v>
       </c>
-      <c r="AL12" s="29" t="s">
+      <c r="AL12" s="46" t="s">
         <v>67</v>
       </c>
       <c r="AN12" s="22">
@@ -5433,7 +5445,24 @@
       <c r="AT30" s="22">
         <v>14</v>
       </c>
-      <c r="AX30" s="21"/>
+      <c r="AV30" s="22">
+        <v>25</v>
+      </c>
+      <c r="AW30" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX30" s="22">
+        <v>6</v>
+      </c>
+      <c r="AY30" s="34">
+        <v>43466</v>
+      </c>
+      <c r="AZ30" s="34">
+        <v>43554</v>
+      </c>
+      <c r="BA30" s="22">
+        <v>30</v>
+      </c>
       <c r="BC30" s="22">
         <v>25</v>
       </c>
@@ -5931,6 +5960,15 @@
     <row r="41" spans="5:73" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E41" s="21"/>
       <c r="J41" s="21"/>
+      <c r="M41" s="22">
+        <v>36</v>
+      </c>
+      <c r="N41" s="22">
+        <v>6</v>
+      </c>
+      <c r="O41" s="22">
+        <v>7134567123</v>
+      </c>
       <c r="AL41" s="21"/>
       <c r="BG41" s="22">
         <v>36</v>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="204">
   <si>
     <t>ID</t>
   </si>
@@ -632,6 +632,12 @@
   </si>
   <si>
     <t>7 vaibhav, Ishadan soc, paud roea, Pune</t>
+  </si>
+  <si>
+    <t>studentID (FK/unique/NN)</t>
+  </si>
+  <si>
+    <t>facultyID (FK/unique/NN)</t>
   </si>
 </sst>
 </file>
@@ -733,7 +739,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,6 +861,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1967,9 +1976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR10" sqref="AR10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2001,7 +2010,7 @@
     <col min="26" max="26" width="7.42578125" style="6" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="12.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="43.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="2.5703125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="2.5703125" style="6" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="6.42578125" style="6" customWidth="1"/>
     <col min="31" max="31" width="9.5703125" style="6" customWidth="1"/>
     <col min="32" max="32" width="8.5703125" style="6" customWidth="1"/>
@@ -2154,8 +2163,8 @@
       <c r="L3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>89</v>
+      <c r="M3" s="46" t="s">
+        <v>202</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>4</v>
@@ -2187,8 +2196,8 @@
       <c r="Z3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>172</v>
+      <c r="AA3" s="46" t="s">
+        <v>203</v>
       </c>
       <c r="AB3" s="10" t="s">
         <v>4</v>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -859,11 +859,11 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1181,11 +1181,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
@@ -1976,9 +1976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1986,17 +1986,17 @@
     <col min="1" max="1" width="2.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
     <col min="3" max="4" width="13.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13" style="6" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="35.42578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="35.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="6" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" style="6" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" style="6" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="6" hidden="1" customWidth="1"/>
@@ -2027,7 +2027,8 @@
     <col min="43" max="43" width="6.140625" style="6" customWidth="1"/>
     <col min="44" max="44" width="8.7109375" style="6" customWidth="1"/>
     <col min="45" max="45" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="2.5703125" style="6" customWidth="1"/>
     <col min="50" max="50" width="8.140625" style="6" customWidth="1"/>
@@ -2087,22 +2088,22 @@
       </c>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="45" t="s">
+      <c r="AD2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
       <c r="AG2" s="5"/>
-      <c r="AI2" s="45" t="s">
+      <c r="AI2" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AM2" s="45" t="s">
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AM2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
       <c r="AQ2" s="9" t="s">
         <v>23</v>
       </c>
@@ -2163,7 +2164,7 @@
       <c r="L3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="45" t="s">
         <v>202</v>
       </c>
       <c r="N3" s="10" t="s">
@@ -2196,7 +2197,7 @@
       <c r="Z3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="46" t="s">
+      <c r="AA3" s="45" t="s">
         <v>203</v>
       </c>
       <c r="AB3" s="10" t="s">

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -1977,8 +1977,8 @@
   <dimension ref="B2:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:O1048576"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1989,28 +1989,28 @@
     <col min="5" max="5" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="35.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="6" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="2.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="43.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="2.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13" style="6" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="35.42578125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="2.5703125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="13" style="6" customWidth="1"/>
+    <col min="25" max="25" width="2.5703125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="43.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="2.5703125" style="6" customWidth="1"/>
     <col min="30" max="30" width="6.42578125" style="6" customWidth="1"/>
     <col min="31" max="31" width="9.5703125" style="6" customWidth="1"/>
     <col min="32" max="32" width="8.5703125" style="6" customWidth="1"/>
@@ -5285,7 +5285,7 @@
         <v>142</v>
       </c>
       <c r="BG26" s="22">
-        <v>467</v>
+        <v>60</v>
       </c>
       <c r="BH26" s="22">
         <v>2012</v>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -1976,9 +1976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BN9" sqref="BN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1991,7 +1991,7 @@
     <col min="7" max="7" width="2.5703125" style="6" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16" style="6" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" style="6" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="6" customWidth="1"/>
@@ -2000,8 +2000,8 @@
     <col min="16" max="16" width="7.42578125" style="6" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" style="6" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="27" style="6" customWidth="1"/>
     <col min="21" max="21" width="2.5703125" style="6" customWidth="1"/>
     <col min="22" max="22" width="6.5703125" style="6" customWidth="1"/>
     <col min="23" max="23" width="13.85546875" style="6" customWidth="1"/>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -1976,9 +1976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN9" sqref="BN9"/>
+      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17:AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4232,7 +4232,7 @@
         <v>184</v>
       </c>
       <c r="AK17" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM17" s="22">
         <v>14</v>
@@ -4348,7 +4348,7 @@
         <v>185</v>
       </c>
       <c r="AK18" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM18" s="22">
         <v>15</v>
@@ -4464,7 +4464,7 @@
         <v>186</v>
       </c>
       <c r="AK19" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM19" s="22">
         <v>16</v>
@@ -4580,7 +4580,7 @@
         <v>187</v>
       </c>
       <c r="AK20" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM20" s="22">
         <v>17</v>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>facultyID (FK/unique/NN)</t>
+  </si>
+  <si>
+    <t>desai</t>
   </si>
 </sst>
 </file>
@@ -1976,9 +1979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17:AK20"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5199,14 +5202,14 @@
         <v>57</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="E26" s="29">
         <v>30162</v>
       </c>
       <c r="F26" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>bhavin.patel@gmail.com</v>
+        <v>bhavin.desai@gmail.com</v>
       </c>
       <c r="H26" s="22">
         <v>23</v>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -1979,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Databases\Campus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
@@ -16,9 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="215">
   <si>
     <t>ID</t>
   </si>
@@ -641,18 +636,48 @@
   </si>
   <si>
     <t>desai</t>
+  </si>
+  <si>
+    <t>sonam</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>bubber</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>19 Hempstead St, go streat, MG, Boston, 19077</t>
+  </si>
+  <si>
+    <t>Po Box 87, Faith, NC, New York, 28045</t>
+  </si>
+  <si>
+    <t>1699 Ken city, P.O. Box 942873, 50 Higuera Street, Oakland, 38060</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,7 +767,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,6 +893,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -930,7 +958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -965,7 +993,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1142,21 +1170,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:U29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="6" bestFit="1" customWidth="1"/>
@@ -1183,7 +1211,7 @@
     <col min="23" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="21">
       <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1237,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21">
       <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="30">
       <c r="B6" s="11">
         <v>1</v>
       </c>
@@ -1323,7 +1351,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="30">
       <c r="B7" s="11">
         <v>2</v>
       </c>
@@ -1381,7 +1409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="30">
       <c r="B8" s="11">
         <v>3</v>
       </c>
@@ -1439,7 +1467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="30">
       <c r="B9" s="11">
         <v>4</v>
       </c>
@@ -1497,7 +1525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="30">
       <c r="B10" s="11">
         <v>5</v>
       </c>
@@ -1534,7 +1562,7 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="30">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1562,7 +1590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="30">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1590,7 +1618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="30">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1618,7 +1646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="30">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1646,7 +1674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="30">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1674,7 +1702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" ht="30">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1702,7 +1730,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="30">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1730,7 +1758,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1758,7 +1786,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="30">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1786,7 +1814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="30">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1814,7 +1842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="30">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1842,7 +1870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="30">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1870,7 +1898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="30">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1898,7 +1926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="30">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1926,7 +1954,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="30">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1954,16 +1982,16 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="J29" s="17"/>
     </row>
   </sheetData>
@@ -1976,15 +2004,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="BK84" sqref="BK84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
@@ -2056,7 +2084,7 @@
     <col min="69" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:68" ht="30" customHeight="1">
       <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2167,7 @@
       <c r="BO2" s="9"/>
       <c r="BP2" s="9"/>
     </row>
-    <row r="3" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:68" ht="30" customHeight="1">
       <c r="B3" s="10" t="s">
         <v>88</v>
       </c>
@@ -2306,7 +2334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="22">
         <v>1</v>
       </c>
@@ -2475,7 +2503,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B5" s="22">
         <v>2</v>
       </c>
@@ -2489,7 +2517,7 @@
         <v>25501</v>
       </c>
       <c r="F5" s="15" t="str">
-        <f t="shared" ref="F5:F28" si="0">CONCATENATE(C5,".",D5,"@gmail.com")</f>
+        <f t="shared" ref="F5:F31" si="0">CONCATENATE(C5,".",D5,"@gmail.com")</f>
         <v>omkar.rakde@gmail.com</v>
       </c>
       <c r="H5" s="22">
@@ -2644,7 +2672,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="22">
         <v>3</v>
       </c>
@@ -2813,7 +2841,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="22">
         <v>4</v>
       </c>
@@ -2982,7 +3010,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="22">
         <v>5</v>
       </c>
@@ -3126,7 +3154,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="22">
         <v>6</v>
       </c>
@@ -3270,7 +3298,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="22">
         <v>7</v>
       </c>
@@ -3414,7 +3442,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="11" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="22">
         <v>8</v>
       </c>
@@ -3550,7 +3578,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="22">
         <v>9</v>
       </c>
@@ -3680,7 +3708,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="22">
         <v>10</v>
       </c>
@@ -3810,7 +3838,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="22">
         <v>11</v>
       </c>
@@ -3940,7 +3968,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="22">
         <v>12</v>
       </c>
@@ -4070,7 +4098,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="22">
         <v>13</v>
       </c>
@@ -4186,7 +4214,7 @@
       <c r="BO16" s="21"/>
       <c r="BP16" s="21"/>
     </row>
-    <row r="17" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B17" s="22">
         <v>14</v>
       </c>
@@ -4302,7 +4330,7 @@
       <c r="BO17" s="21"/>
       <c r="BP17" s="21"/>
     </row>
-    <row r="18" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B18" s="22">
         <v>15</v>
       </c>
@@ -4418,7 +4446,7 @@
       <c r="BO18" s="21"/>
       <c r="BP18" s="21"/>
     </row>
-    <row r="19" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B19" s="22">
         <v>16</v>
       </c>
@@ -4534,7 +4562,7 @@
       <c r="BO19" s="21"/>
       <c r="BP19" s="21"/>
     </row>
-    <row r="20" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B20" s="22">
         <v>17</v>
       </c>
@@ -4650,7 +4678,7 @@
       <c r="BO20" s="21"/>
       <c r="BP20" s="21"/>
     </row>
-    <row r="21" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B21" s="22">
         <v>18</v>
       </c>
@@ -4760,7 +4788,7 @@
       <c r="BO21" s="21"/>
       <c r="BP21" s="21"/>
     </row>
-    <row r="22" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B22" s="22">
         <v>19</v>
       </c>
@@ -4870,7 +4898,7 @@
       <c r="BO22" s="21"/>
       <c r="BP22" s="21"/>
     </row>
-    <row r="23" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B23" s="22">
         <v>20</v>
       </c>
@@ -4980,7 +5008,7 @@
       <c r="BO23" s="21"/>
       <c r="BP23" s="21"/>
     </row>
-    <row r="24" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B24" s="22">
         <v>21</v>
       </c>
@@ -5087,7 +5115,7 @@
       <c r="BO24" s="21"/>
       <c r="BP24" s="21"/>
     </row>
-    <row r="25" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B25" s="22">
         <v>22</v>
       </c>
@@ -5194,7 +5222,7 @@
       <c r="BO25" s="21"/>
       <c r="BP25" s="21"/>
     </row>
-    <row r="26" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B26" s="22">
         <v>23</v>
       </c>
@@ -5301,7 +5329,7 @@
       <c r="BO26" s="21"/>
       <c r="BP26" s="21"/>
     </row>
-    <row r="27" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B27" s="22">
         <v>24</v>
       </c>
@@ -5403,7 +5431,7 @@
       <c r="BO27" s="21"/>
       <c r="BP27" s="21"/>
     </row>
-    <row r="28" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B28" s="22">
         <v>25</v>
       </c>
@@ -5504,8 +5532,23 @@
       <c r="BO28" s="21"/>
       <c r="BP28" s="21"/>
     </row>
-    <row r="29" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="21"/>
+    <row r="29" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B29" s="42">
+        <v>26</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="44">
+        <v>26432</v>
+      </c>
+      <c r="F29" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>sonam.khan@gmail.com</v>
+      </c>
       <c r="H29" s="22">
         <v>26</v>
       </c>
@@ -5514,6 +5557,15 @@
       </c>
       <c r="J29" s="22">
         <v>7132300079</v>
+      </c>
+      <c r="L29" s="22">
+        <v>26</v>
+      </c>
+      <c r="M29" s="22">
+        <v>26</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>212</v>
       </c>
       <c r="AG29" s="21"/>
       <c r="AM29" s="22">
@@ -5563,8 +5615,23 @@
       <c r="BO29" s="21"/>
       <c r="BP29" s="21"/>
     </row>
-    <row r="30" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="21"/>
+    <row r="30" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B30" s="42">
+        <v>27</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="44">
+        <v>28125</v>
+      </c>
+      <c r="F30" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>rohit.patil@gmail.com</v>
+      </c>
       <c r="H30" s="22">
         <v>27</v>
       </c>
@@ -5573,6 +5640,15 @@
       </c>
       <c r="J30" s="22">
         <v>7132300081</v>
+      </c>
+      <c r="L30" s="22">
+        <v>27</v>
+      </c>
+      <c r="M30" s="22">
+        <v>27</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>214</v>
       </c>
       <c r="AG30" s="21"/>
       <c r="AM30" s="22">
@@ -5613,8 +5689,23 @@
       <c r="BO30" s="21"/>
       <c r="BP30" s="21"/>
     </row>
-    <row r="31" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="21"/>
+    <row r="31" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B31" s="42">
+        <v>28</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="44">
+        <v>30010</v>
+      </c>
+      <c r="F31" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>raj.bubber@gmail.com</v>
+      </c>
       <c r="H31" s="22">
         <v>28</v>
       </c>
@@ -5623,6 +5714,15 @@
       </c>
       <c r="J31" s="22">
         <v>7132300054</v>
+      </c>
+      <c r="L31" s="22">
+        <v>28</v>
+      </c>
+      <c r="M31" s="22">
+        <v>28</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="AG31" s="21"/>
       <c r="AM31" s="22">
@@ -5663,7 +5763,7 @@
       <c r="BO31" s="21"/>
       <c r="BP31" s="21"/>
     </row>
-    <row r="32" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="E32" s="21"/>
       <c r="H32" s="22">
         <v>29</v>
@@ -5704,7 +5804,7 @@
       <c r="BO32" s="21"/>
       <c r="BP32" s="21"/>
     </row>
-    <row r="33" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="E33" s="21"/>
       <c r="H33" s="22">
         <v>30</v>
@@ -5745,7 +5845,7 @@
       <c r="BO33" s="21"/>
       <c r="BP33" s="21"/>
     </row>
-    <row r="34" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="E34" s="21"/>
       <c r="H34" s="22">
         <v>31</v>
@@ -5786,7 +5886,7 @@
       <c r="BO34" s="21"/>
       <c r="BP34" s="21"/>
     </row>
-    <row r="35" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="E35" s="21"/>
       <c r="H35" s="22">
         <v>32</v>
@@ -5827,7 +5927,7 @@
       <c r="BO35" s="21"/>
       <c r="BP35" s="21"/>
     </row>
-    <row r="36" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="E36" s="21"/>
       <c r="H36" s="22">
         <v>33</v>
@@ -5868,7 +5968,7 @@
       <c r="BO36" s="21"/>
       <c r="BP36" s="21"/>
     </row>
-    <row r="37" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="E37" s="21"/>
       <c r="H37" s="22">
         <v>34</v>
@@ -5909,7 +6009,7 @@
       <c r="BO37" s="21"/>
       <c r="BP37" s="21"/>
     </row>
-    <row r="38" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="E38" s="21"/>
       <c r="H38" s="22">
         <v>35</v>
@@ -5950,7 +6050,7 @@
       <c r="BO38" s="21"/>
       <c r="BP38" s="21"/>
     </row>
-    <row r="39" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="E39" s="21"/>
       <c r="H39" s="22">
         <v>36</v>
@@ -5991,7 +6091,7 @@
       <c r="BO39" s="21"/>
       <c r="BP39" s="21"/>
     </row>
-    <row r="40" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="E40" s="21"/>
       <c r="H40" s="22">
         <v>37</v>
@@ -6032,7 +6132,7 @@
       <c r="BO40" s="21"/>
       <c r="BP40" s="21"/>
     </row>
-    <row r="41" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="H41" s="22">
         <v>38</v>
       </c>
@@ -6072,7 +6172,7 @@
       <c r="BO41" s="21"/>
       <c r="BP41" s="21"/>
     </row>
-    <row r="42" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="H42" s="22">
         <v>39</v>
       </c>
@@ -6112,7 +6212,7 @@
       <c r="BO42" s="21"/>
       <c r="BP42" s="21"/>
     </row>
-    <row r="43" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="H43" s="22">
         <v>40</v>
       </c>
@@ -6152,7 +6252,7 @@
       <c r="BO43" s="21"/>
       <c r="BP43" s="21"/>
     </row>
-    <row r="44" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="H44" s="22">
         <v>41</v>
       </c>
@@ -6192,7 +6292,7 @@
       <c r="BO44" s="21"/>
       <c r="BP44" s="21"/>
     </row>
-    <row r="45" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG45" s="21"/>
       <c r="BB45" s="22">
         <v>42</v>
@@ -6223,7 +6323,7 @@
       <c r="BO45" s="21"/>
       <c r="BP45" s="21"/>
     </row>
-    <row r="46" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG46" s="21"/>
       <c r="BB46" s="22">
         <v>43</v>
@@ -6254,7 +6354,7 @@
       <c r="BO46" s="21"/>
       <c r="BP46" s="21"/>
     </row>
-    <row r="47" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG47" s="21"/>
       <c r="BB47" s="22">
         <v>44</v>
@@ -6285,7 +6385,7 @@
       <c r="BO47" s="21"/>
       <c r="BP47" s="21"/>
     </row>
-    <row r="48" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG48" s="21"/>
       <c r="BB48" s="22">
         <v>45</v>
@@ -6316,7 +6416,7 @@
       <c r="BO48" s="21"/>
       <c r="BP48" s="21"/>
     </row>
-    <row r="49" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG49" s="21"/>
       <c r="BB49" s="22">
         <v>46</v>
@@ -6347,7 +6447,7 @@
       <c r="BO49" s="21"/>
       <c r="BP49" s="21"/>
     </row>
-    <row r="50" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG50" s="21"/>
       <c r="BB50" s="22">
         <v>47</v>
@@ -6378,7 +6478,7 @@
       <c r="BO50" s="21"/>
       <c r="BP50" s="21"/>
     </row>
-    <row r="51" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG51" s="21"/>
       <c r="BB51" s="22">
         <v>48</v>
@@ -6409,7 +6509,7 @@
       <c r="BO51" s="21"/>
       <c r="BP51" s="21"/>
     </row>
-    <row r="52" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG52" s="21"/>
       <c r="BB52" s="22">
         <v>49</v>
@@ -6440,7 +6540,7 @@
       <c r="BO52" s="21"/>
       <c r="BP52" s="21"/>
     </row>
-    <row r="53" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG53" s="21"/>
       <c r="BB53" s="22">
         <v>50</v>
@@ -6471,7 +6571,7 @@
       <c r="BO53" s="21"/>
       <c r="BP53" s="21"/>
     </row>
-    <row r="54" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG54" s="21"/>
       <c r="BB54" s="22">
         <v>51</v>
@@ -6502,7 +6602,7 @@
       <c r="BO54" s="21"/>
       <c r="BP54" s="21"/>
     </row>
-    <row r="55" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG55" s="21"/>
       <c r="BB55" s="22">
         <v>52</v>
@@ -6533,7 +6633,7 @@
       <c r="BO55" s="21"/>
       <c r="BP55" s="21"/>
     </row>
-    <row r="56" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG56" s="21"/>
       <c r="BB56" s="22">
         <v>53</v>
@@ -6564,7 +6664,7 @@
       <c r="BO56" s="21"/>
       <c r="BP56" s="21"/>
     </row>
-    <row r="57" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG57" s="21"/>
       <c r="BB57" s="22">
         <v>54</v>
@@ -6595,7 +6695,7 @@
       <c r="BO57" s="21"/>
       <c r="BP57" s="21"/>
     </row>
-    <row r="58" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG58" s="21"/>
       <c r="BB58" s="22">
         <v>55</v>
@@ -6626,7 +6726,7 @@
       <c r="BO58" s="21"/>
       <c r="BP58" s="21"/>
     </row>
-    <row r="59" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG59" s="21"/>
       <c r="BB59" s="22">
         <v>56</v>
@@ -6657,7 +6757,7 @@
       <c r="BO59" s="21"/>
       <c r="BP59" s="21"/>
     </row>
-    <row r="60" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG60" s="21"/>
       <c r="BB60" s="22">
         <v>57</v>
@@ -6688,7 +6788,7 @@
       <c r="BO60" s="21"/>
       <c r="BP60" s="21"/>
     </row>
-    <row r="61" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG61" s="21"/>
       <c r="BB61" s="22">
         <v>58</v>
@@ -6719,7 +6819,7 @@
       <c r="BO61" s="21"/>
       <c r="BP61" s="21"/>
     </row>
-    <row r="62" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG62" s="21"/>
       <c r="BB62" s="22">
         <v>59</v>
@@ -6750,7 +6850,7 @@
       <c r="BO62" s="21"/>
       <c r="BP62" s="21"/>
     </row>
-    <row r="63" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG63" s="21"/>
       <c r="BB63" s="22">
         <v>60</v>
@@ -6781,7 +6881,7 @@
       <c r="BO63" s="21"/>
       <c r="BP63" s="21"/>
     </row>
-    <row r="64" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG64" s="21"/>
       <c r="BB64" s="22">
         <v>61</v>
@@ -6811,7 +6911,7 @@
       <c r="BN64" s="27"/>
       <c r="BP64" s="21"/>
     </row>
-    <row r="65" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG65" s="21"/>
       <c r="BB65" s="22">
         <v>62</v>
@@ -6841,7 +6941,7 @@
       <c r="BN65" s="27"/>
       <c r="BP65" s="21"/>
     </row>
-    <row r="66" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG66" s="21"/>
       <c r="BB66" s="22">
         <v>63</v>
@@ -6871,7 +6971,7 @@
       <c r="BN66" s="27"/>
       <c r="BP66" s="21"/>
     </row>
-    <row r="67" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG67" s="21"/>
       <c r="BB67" s="22">
         <v>64</v>
@@ -6901,7 +7001,7 @@
       <c r="BN67" s="27"/>
       <c r="BP67" s="21"/>
     </row>
-    <row r="68" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG68" s="21"/>
       <c r="BB68" s="22">
         <v>65</v>
@@ -6931,7 +7031,7 @@
       <c r="BN68" s="27"/>
       <c r="BP68" s="21"/>
     </row>
-    <row r="69" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG69" s="21"/>
       <c r="BB69" s="22">
         <v>66</v>
@@ -6961,7 +7061,7 @@
       <c r="BN69" s="27"/>
       <c r="BP69" s="21"/>
     </row>
-    <row r="70" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG70" s="21"/>
       <c r="BB70" s="22">
         <v>67</v>
@@ -6991,7 +7091,7 @@
       <c r="BN70" s="27"/>
       <c r="BP70" s="21"/>
     </row>
-    <row r="71" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG71" s="21"/>
       <c r="BB71" s="22">
         <v>68</v>
@@ -7021,7 +7121,7 @@
       <c r="BN71" s="27"/>
       <c r="BP71" s="21"/>
     </row>
-    <row r="72" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG72" s="21"/>
       <c r="BB72" s="22">
         <v>69</v>
@@ -7051,7 +7151,7 @@
       <c r="BN72" s="27"/>
       <c r="BP72" s="21"/>
     </row>
-    <row r="73" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG73" s="21"/>
       <c r="BB73" s="22">
         <v>70</v>
@@ -7081,7 +7181,7 @@
       <c r="BN73" s="27"/>
       <c r="BP73" s="21"/>
     </row>
-    <row r="74" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG74" s="21"/>
       <c r="BB74" s="22">
         <v>71</v>
@@ -7111,7 +7211,7 @@
       <c r="BN74" s="27"/>
       <c r="BP74" s="21"/>
     </row>
-    <row r="75" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG75" s="21"/>
       <c r="BB75" s="22">
         <v>72</v>
@@ -7141,7 +7241,7 @@
       <c r="BN75" s="27"/>
       <c r="BP75" s="21"/>
     </row>
-    <row r="76" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="33:68" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="AG76" s="21"/>
       <c r="BB76" s="22">
         <v>73</v>
@@ -7171,7 +7271,7 @@
       <c r="BN76" s="27"/>
       <c r="BP76" s="21"/>
     </row>
-    <row r="77" spans="33:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="33:68" ht="30" customHeight="1">
       <c r="BB77" s="22">
         <v>74</v>
       </c>
@@ -7200,7 +7300,7 @@
       <c r="BN77" s="17"/>
       <c r="BP77" s="1"/>
     </row>
-    <row r="78" spans="33:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="33:68" ht="30" customHeight="1">
       <c r="BB78" s="22">
         <v>75</v>
       </c>
@@ -7229,13 +7329,28 @@
       <c r="BN78" s="17"/>
       <c r="BP78" s="1"/>
     </row>
-    <row r="79" spans="33:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB79" s="1"/>
-      <c r="BC79" s="1"/>
-      <c r="BD79" s="4"/>
-      <c r="BE79" s="24"/>
-      <c r="BF79" s="17"/>
-      <c r="BH79" s="1"/>
+    <row r="79" spans="33:68" ht="30" customHeight="1">
+      <c r="BB79" s="22">
+        <v>76</v>
+      </c>
+      <c r="BC79" s="11">
+        <v>26</v>
+      </c>
+      <c r="BD79" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE79" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF79" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG79" s="11">
+        <v>56</v>
+      </c>
+      <c r="BH79" s="11">
+        <v>1994</v>
+      </c>
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
       <c r="BL79" s="4"/>
@@ -7243,13 +7358,28 @@
       <c r="BN79" s="17"/>
       <c r="BP79" s="1"/>
     </row>
-    <row r="80" spans="33:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB80" s="1"/>
-      <c r="BC80" s="21"/>
-      <c r="BD80" s="4"/>
-      <c r="BE80" s="24"/>
-      <c r="BF80" s="17"/>
-      <c r="BH80" s="1"/>
+    <row r="80" spans="33:68" ht="30" customHeight="1">
+      <c r="BB80" s="22">
+        <v>77</v>
+      </c>
+      <c r="BC80" s="22">
+        <v>26</v>
+      </c>
+      <c r="BD80" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE80" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF80" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG80" s="11">
+        <v>67</v>
+      </c>
+      <c r="BH80" s="11">
+        <v>1996</v>
+      </c>
       <c r="BJ80" s="1"/>
       <c r="BK80" s="21"/>
       <c r="BL80" s="4"/>
@@ -7257,13 +7387,28 @@
       <c r="BN80" s="17"/>
       <c r="BP80" s="1"/>
     </row>
-    <row r="81" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB81" s="1"/>
-      <c r="BC81" s="21"/>
-      <c r="BD81" s="4"/>
-      <c r="BE81" s="24"/>
-      <c r="BF81" s="17"/>
-      <c r="BH81" s="1"/>
+    <row r="81" spans="54:68" ht="30" customHeight="1">
+      <c r="BB81" s="22">
+        <v>78</v>
+      </c>
+      <c r="BC81" s="22">
+        <v>26</v>
+      </c>
+      <c r="BD81" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE81" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF81" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG81" s="11">
+        <v>68</v>
+      </c>
+      <c r="BH81" s="11">
+        <v>2000</v>
+      </c>
       <c r="BJ81" s="1"/>
       <c r="BK81" s="21"/>
       <c r="BL81" s="4"/>
@@ -7271,13 +7416,28 @@
       <c r="BN81" s="17"/>
       <c r="BP81" s="1"/>
     </row>
-    <row r="82" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB82" s="1"/>
-      <c r="BC82" s="21"/>
-      <c r="BD82" s="4"/>
-      <c r="BE82" s="24"/>
-      <c r="BF82" s="17"/>
-      <c r="BH82" s="1"/>
+    <row r="82" spans="54:68" ht="30" customHeight="1">
+      <c r="BB82" s="22">
+        <v>79</v>
+      </c>
+      <c r="BC82" s="22">
+        <v>27</v>
+      </c>
+      <c r="BD82" s="12">
+        <v>10</v>
+      </c>
+      <c r="BE82" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF82" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG82" s="11">
+        <v>50</v>
+      </c>
+      <c r="BH82" s="11">
+        <v>1997</v>
+      </c>
       <c r="BJ82" s="1"/>
       <c r="BK82" s="21"/>
       <c r="BL82" s="4"/>
@@ -7285,13 +7445,28 @@
       <c r="BN82" s="17"/>
       <c r="BP82" s="1"/>
     </row>
-    <row r="83" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB83" s="1"/>
-      <c r="BC83" s="21"/>
-      <c r="BD83" s="4"/>
-      <c r="BE83" s="24"/>
-      <c r="BF83" s="17"/>
-      <c r="BH83" s="1"/>
+    <row r="83" spans="54:68" ht="30" customHeight="1">
+      <c r="BB83" s="22">
+        <v>80</v>
+      </c>
+      <c r="BC83" s="22">
+        <v>27</v>
+      </c>
+      <c r="BD83" s="12">
+        <v>12</v>
+      </c>
+      <c r="BE83" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF83" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG83" s="11">
+        <v>55</v>
+      </c>
+      <c r="BH83" s="11">
+        <v>1999</v>
+      </c>
       <c r="BJ83" s="1"/>
       <c r="BK83" s="21"/>
       <c r="BL83" s="4"/>
@@ -7299,13 +7474,28 @@
       <c r="BN83" s="17"/>
       <c r="BP83" s="1"/>
     </row>
-    <row r="84" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB84" s="1"/>
-      <c r="BC84" s="21"/>
-      <c r="BD84" s="4"/>
-      <c r="BE84" s="24"/>
-      <c r="BF84" s="17"/>
-      <c r="BH84" s="1"/>
+    <row r="84" spans="54:68" ht="30" customHeight="1">
+      <c r="BB84" s="22">
+        <v>81</v>
+      </c>
+      <c r="BC84" s="22">
+        <v>27</v>
+      </c>
+      <c r="BD84" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE84" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF84" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG84" s="11">
+        <v>60</v>
+      </c>
+      <c r="BH84" s="11">
+        <v>2003</v>
+      </c>
       <c r="BJ84" s="1"/>
       <c r="BK84" s="21"/>
       <c r="BL84" s="4"/>
@@ -7313,13 +7503,28 @@
       <c r="BN84" s="17"/>
       <c r="BP84" s="1"/>
     </row>
-    <row r="85" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB85" s="1"/>
-      <c r="BC85" s="1"/>
-      <c r="BD85" s="4"/>
-      <c r="BE85" s="24"/>
-      <c r="BF85" s="17"/>
-      <c r="BH85" s="1"/>
+    <row r="85" spans="54:68" ht="30" customHeight="1">
+      <c r="BB85" s="22">
+        <v>82</v>
+      </c>
+      <c r="BC85" s="22">
+        <v>27</v>
+      </c>
+      <c r="BD85" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE85" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF85" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG85" s="11">
+        <v>62</v>
+      </c>
+      <c r="BH85" s="11">
+        <v>2006</v>
+      </c>
       <c r="BJ85" s="1"/>
       <c r="BK85" s="1"/>
       <c r="BL85" s="4"/>
@@ -7327,13 +7532,28 @@
       <c r="BN85" s="17"/>
       <c r="BP85" s="1"/>
     </row>
-    <row r="86" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB86" s="21"/>
-      <c r="BC86" s="21"/>
-      <c r="BD86" s="23"/>
-      <c r="BE86" s="26"/>
-      <c r="BF86" s="27"/>
-      <c r="BH86" s="1"/>
+    <row r="86" spans="54:68" ht="30" customHeight="1">
+      <c r="BB86" s="22">
+        <v>83</v>
+      </c>
+      <c r="BC86" s="22">
+        <v>28</v>
+      </c>
+      <c r="BD86" s="15">
+        <v>10</v>
+      </c>
+      <c r="BE86" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF86" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG86" s="11">
+        <v>65</v>
+      </c>
+      <c r="BH86" s="11">
+        <v>2004</v>
+      </c>
       <c r="BJ86" s="21"/>
       <c r="BK86" s="21"/>
       <c r="BL86" s="23"/>
@@ -7341,13 +7561,28 @@
       <c r="BN86" s="27"/>
       <c r="BP86" s="1"/>
     </row>
-    <row r="87" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB87" s="21"/>
-      <c r="BC87" s="21"/>
-      <c r="BD87" s="23"/>
-      <c r="BE87" s="26"/>
-      <c r="BF87" s="27"/>
-      <c r="BH87" s="1"/>
+    <row r="87" spans="54:68" ht="30" customHeight="1">
+      <c r="BB87" s="22">
+        <v>84</v>
+      </c>
+      <c r="BC87" s="22">
+        <v>28</v>
+      </c>
+      <c r="BD87" s="15">
+        <v>12</v>
+      </c>
+      <c r="BE87" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF87" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG87" s="11">
+        <v>68</v>
+      </c>
+      <c r="BH87" s="11">
+        <v>2006</v>
+      </c>
       <c r="BJ87" s="21"/>
       <c r="BK87" s="21"/>
       <c r="BL87" s="23"/>
@@ -7355,13 +7590,28 @@
       <c r="BN87" s="27"/>
       <c r="BP87" s="1"/>
     </row>
-    <row r="88" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB88" s="21"/>
-      <c r="BC88" s="21"/>
-      <c r="BD88" s="23"/>
-      <c r="BE88" s="26"/>
-      <c r="BF88" s="27"/>
-      <c r="BH88" s="1"/>
+    <row r="88" spans="54:68" ht="30" customHeight="1">
+      <c r="BB88" s="22">
+        <v>85</v>
+      </c>
+      <c r="BC88" s="22">
+        <v>28</v>
+      </c>
+      <c r="BD88" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE88" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF88" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG88" s="11">
+        <v>64</v>
+      </c>
+      <c r="BH88" s="11">
+        <v>2009</v>
+      </c>
       <c r="BJ88" s="21"/>
       <c r="BK88" s="21"/>
       <c r="BL88" s="23"/>
@@ -7369,7 +7619,7 @@
       <c r="BN88" s="27"/>
       <c r="BP88" s="1"/>
     </row>
-    <row r="89" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="54:68" ht="30" customHeight="1">
       <c r="BB89" s="21"/>
       <c r="BC89" s="1"/>
       <c r="BD89" s="4"/>
@@ -7383,7 +7633,7 @@
       <c r="BN89" s="17"/>
       <c r="BP89" s="1"/>
     </row>
-    <row r="90" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="54:68" ht="30" customHeight="1">
       <c r="BB90" s="21"/>
       <c r="BC90" s="1"/>
       <c r="BD90" s="4"/>
@@ -7397,7 +7647,7 @@
       <c r="BN90" s="17"/>
       <c r="BP90" s="1"/>
     </row>
-    <row r="91" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="54:68" ht="30" customHeight="1">
       <c r="BB91" s="21"/>
       <c r="BC91" s="1"/>
       <c r="BD91" s="4"/>
@@ -7411,7 +7661,7 @@
       <c r="BN91" s="17"/>
       <c r="BP91" s="1"/>
     </row>
-    <row r="92" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="54:68" ht="30" customHeight="1">
       <c r="BB92" s="21"/>
       <c r="BC92" s="1"/>
       <c r="BD92" s="4"/>
@@ -7425,7 +7675,7 @@
       <c r="BN92" s="17"/>
       <c r="BP92" s="1"/>
     </row>
-    <row r="93" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="54:68" ht="30" customHeight="1">
       <c r="BB93" s="21"/>
       <c r="BC93" s="21"/>
       <c r="BD93" s="4"/>
@@ -7439,7 +7689,7 @@
       <c r="BN93" s="17"/>
       <c r="BP93" s="1"/>
     </row>
-    <row r="94" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="54:68" ht="30" customHeight="1">
       <c r="BB94" s="21"/>
       <c r="BC94" s="21"/>
       <c r="BD94" s="4"/>
@@ -7453,7 +7703,7 @@
       <c r="BN94" s="17"/>
       <c r="BP94" s="1"/>
     </row>
-    <row r="95" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="54:68" ht="30" customHeight="1">
       <c r="BB95" s="21"/>
       <c r="BC95" s="21"/>
       <c r="BD95" s="4"/>
@@ -7467,7 +7717,7 @@
       <c r="BN95" s="17"/>
       <c r="BP95" s="1"/>
     </row>
-    <row r="96" spans="54:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="54:68" ht="30" customHeight="1">
       <c r="BB96" s="21"/>
       <c r="BC96" s="21"/>
       <c r="BE96" s="24"/>
@@ -7491,14 +7741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.10\Faculty Common\saleel\Saleel\New DATA\Saleel Tables VER2\ERP, STUDENT, and CAB Databases\Campus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643AF42B-2C72-4991-BB54-6C5D91E18D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1CE667-83AA-4D12-85C7-635E3C26D427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2030,9 +2030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BT2" sqref="BT2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BU35" sqref="BU35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.10\Faculty Common\saleel\Saleel\New DATA\Saleel Tables VER2\ERP, STUDENT, and CAB Databases\Campus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1CE667-83AA-4D12-85C7-635E3C26D427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BD7139-5DD8-4C71-A03F-9CB3FE9A5D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$AR$3:$AW$28</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2030,9 +2033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BU35" sqref="BU35"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2080,7 @@
     <col min="39" max="39" width="2.5703125" style="6" customWidth="1"/>
     <col min="40" max="40" width="7.42578125" style="6" customWidth="1"/>
     <col min="41" max="41" width="9.140625" style="6" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" style="6" customWidth="1"/>
+    <col min="42" max="42" width="12.85546875" style="6" customWidth="1"/>
     <col min="43" max="43" width="2.5703125" style="6" customWidth="1"/>
     <col min="44" max="44" width="6.140625" style="6" customWidth="1"/>
     <col min="45" max="45" width="8.7109375" style="6" customWidth="1"/>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.10\Faculty Common\saleel\Saleel\New DATA\Saleel Tables VER2\ERP, STUDENT, and CAB Databases\Campus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BD7139-5DD8-4C71-A03F-9CB3FE9A5D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$AR$3:$AW$28</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -708,18 +702,30 @@
   </si>
   <si>
     <t>Voter ID</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Student_order Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -790,13 +796,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,13 +960,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1196,21 +1252,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:U29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="6" bestFit="1" customWidth="1"/>
@@ -1237,12 +1293,12 @@
     <col min="23" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="2:21" ht="21">
+      <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
@@ -1263,7 +1319,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="30">
       <c r="B6" s="10">
         <v>1</v>
       </c>
@@ -1377,7 +1433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="30">
       <c r="B7" s="10">
         <v>2</v>
       </c>
@@ -1435,7 +1491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="30">
       <c r="B8" s="10">
         <v>3</v>
       </c>
@@ -1493,7 +1549,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="30">
       <c r="B9" s="10">
         <v>4</v>
       </c>
@@ -1551,7 +1607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="30">
       <c r="B10" s="10">
         <v>5</v>
       </c>
@@ -1588,7 +1644,7 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="30">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1616,7 +1672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="30">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1644,7 +1700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="30">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1672,7 +1728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="30">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1700,7 +1756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="30">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1728,7 +1784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" ht="30">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1756,7 +1812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="30">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1784,7 +1840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1812,7 +1868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="30">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1840,7 +1896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="30">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1868,7 +1924,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="30">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1896,7 +1952,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="30">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1924,7 +1980,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="30">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1952,7 +2008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="30">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1980,7 +2036,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="30">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2008,16 +2064,16 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="J29" s="16"/>
     </row>
   </sheetData>
@@ -2030,15 +2086,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:BV96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:CA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CF35" sqref="CF35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
@@ -2113,10 +2169,14 @@
     <col min="72" max="72" width="13.85546875" style="6" customWidth="1"/>
     <col min="73" max="73" width="16" style="6" customWidth="1"/>
     <col min="74" max="74" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.140625" style="6"/>
+    <col min="75" max="75" width="2.5703125" style="6" customWidth="1"/>
+    <col min="76" max="76" width="9.140625" style="6"/>
+    <col min="77" max="77" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:79" ht="30" customHeight="1">
       <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
@@ -2152,22 +2212,22 @@
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AE2" s="46" t="s">
+      <c r="AE2" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
       <c r="AH2" s="5"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="AJ2" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AN2" s="46" t="s">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AN2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
       <c r="AR2" s="8" t="s">
         <v>23</v>
       </c>
@@ -2205,8 +2265,14 @@
       <c r="BT2" s="5"/>
       <c r="BU2" s="5"/>
       <c r="BV2" s="5"/>
-    </row>
-    <row r="3" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX2" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="BY2" s="51"/>
+      <c r="BZ2" s="51"/>
+      <c r="CA2" s="51"/>
+    </row>
+    <row r="3" spans="2:79" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>88</v>
       </c>
@@ -2387,8 +2453,20 @@
       <c r="BV3" s="9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="4" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BY3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ3" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA3" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="21">
         <v>1</v>
       </c>
@@ -2571,8 +2649,20 @@
       <c r="BV4" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX4" s="10">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="10">
+        <v>4</v>
+      </c>
+      <c r="BZ4" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA4" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B5" s="21">
         <v>2</v>
       </c>
@@ -2755,8 +2845,20 @@
       <c r="BV5" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX5" s="10">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA5" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="21">
         <v>3</v>
       </c>
@@ -2939,8 +3041,20 @@
       <c r="BV6" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX6" s="10">
+        <v>3</v>
+      </c>
+      <c r="BY6" s="10">
+        <v>6</v>
+      </c>
+      <c r="BZ6" s="46">
+        <v>43694</v>
+      </c>
+      <c r="CA6" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="21">
         <v>4</v>
       </c>
@@ -3123,8 +3237,20 @@
       <c r="BV7" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX7" s="10">
+        <v>4</v>
+      </c>
+      <c r="BY7" s="10">
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="46">
+        <v>43587</v>
+      </c>
+      <c r="CA7" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="21">
         <v>5</v>
       </c>
@@ -3282,8 +3408,20 @@
       <c r="BV8" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY8" s="10">
+        <v>12</v>
+      </c>
+      <c r="BZ8" s="46">
+        <v>43588</v>
+      </c>
+      <c r="CA8" s="10">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="21">
         <v>6</v>
       </c>
@@ -3441,8 +3579,20 @@
       <c r="BV9" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX9" s="10">
+        <v>6</v>
+      </c>
+      <c r="BY9" s="10">
+        <v>12</v>
+      </c>
+      <c r="BZ9" s="46">
+        <v>43589</v>
+      </c>
+      <c r="CA9" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="21">
         <v>7</v>
       </c>
@@ -3600,8 +3750,20 @@
       <c r="BV10" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX10" s="10">
+        <v>7</v>
+      </c>
+      <c r="BY10" s="10">
+        <v>6</v>
+      </c>
+      <c r="BZ10" s="46">
+        <v>43780</v>
+      </c>
+      <c r="CA10" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="21">
         <v>8</v>
       </c>
@@ -3751,8 +3913,20 @@
       <c r="BV11" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX11" s="10">
+        <v>8</v>
+      </c>
+      <c r="BY11" s="10">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="46">
+        <v>43665</v>
+      </c>
+      <c r="CA11" s="10">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="21">
         <v>9</v>
       </c>
@@ -3896,8 +4070,20 @@
       <c r="BV12" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX12" s="10">
+        <v>9</v>
+      </c>
+      <c r="BY12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ12" s="46">
+        <v>43562</v>
+      </c>
+      <c r="CA12" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="21">
         <v>10</v>
       </c>
@@ -4041,8 +4227,20 @@
       <c r="BV13" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX13" s="10">
+        <v>10</v>
+      </c>
+      <c r="BY13" s="10">
+        <v>7</v>
+      </c>
+      <c r="BZ13" s="46">
+        <v>43748</v>
+      </c>
+      <c r="CA13" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="21">
         <v>11</v>
       </c>
@@ -4186,8 +4384,20 @@
       <c r="BV14" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX14" s="10">
+        <v>11</v>
+      </c>
+      <c r="BY14" s="10">
+        <v>10</v>
+      </c>
+      <c r="BZ14" s="46">
+        <v>43780</v>
+      </c>
+      <c r="CA14" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="21">
         <v>12</v>
       </c>
@@ -4331,8 +4541,20 @@
       <c r="BV15" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX15" s="10">
+        <v>12</v>
+      </c>
+      <c r="BY15" s="10">
+        <v>14</v>
+      </c>
+      <c r="BZ15" s="46">
+        <v>43667</v>
+      </c>
+      <c r="CA15" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="21">
         <v>13</v>
       </c>
@@ -4462,8 +4684,20 @@
       <c r="BV16" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX16" s="10">
+        <v>13</v>
+      </c>
+      <c r="BY16" s="10">
+        <v>13</v>
+      </c>
+      <c r="BZ16" s="46">
+        <v>43771</v>
+      </c>
+      <c r="CA16" s="10">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B17" s="21">
         <v>14</v>
       </c>
@@ -4593,8 +4827,20 @@
       <c r="BV17" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX17" s="10">
+        <v>14</v>
+      </c>
+      <c r="BY17" s="10">
+        <v>4</v>
+      </c>
+      <c r="BZ17" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA17" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B18" s="21">
         <v>15</v>
       </c>
@@ -4724,8 +4970,20 @@
       <c r="BV18" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX18" s="10">
+        <v>15</v>
+      </c>
+      <c r="BY18" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ18" s="46">
+        <v>43562</v>
+      </c>
+      <c r="CA18" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B19" s="21">
         <v>16</v>
       </c>
@@ -4855,8 +5113,20 @@
       <c r="BV19" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX19" s="10">
+        <v>16</v>
+      </c>
+      <c r="BY19" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ19" s="46">
+        <v>43748</v>
+      </c>
+      <c r="CA19" s="10">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="20" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B20" s="21">
         <v>17</v>
       </c>
@@ -4986,8 +5256,20 @@
       <c r="BV20" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX20" s="10">
+        <v>17</v>
+      </c>
+      <c r="BY20" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ20" s="46">
+        <v>43780</v>
+      </c>
+      <c r="CA20" s="10">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="21" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B21" s="21">
         <v>18</v>
       </c>
@@ -5111,8 +5393,20 @@
       <c r="BV21" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX21" s="10">
+        <v>18</v>
+      </c>
+      <c r="BY21" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ21" s="46">
+        <v>43667</v>
+      </c>
+      <c r="CA21" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B22" s="21">
         <v>19</v>
       </c>
@@ -5236,8 +5530,20 @@
       <c r="BV22" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX22" s="10">
+        <v>19</v>
+      </c>
+      <c r="BY22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ22" s="46">
+        <v>43771</v>
+      </c>
+      <c r="CA22" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B23" s="21">
         <v>20</v>
       </c>
@@ -5361,8 +5667,20 @@
       <c r="BV23" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX23" s="10">
+        <v>20</v>
+      </c>
+      <c r="BY23" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ23" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA23" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B24" s="21">
         <v>21</v>
       </c>
@@ -5483,8 +5801,20 @@
       <c r="BV24" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX24" s="10">
+        <v>21</v>
+      </c>
+      <c r="BY24" s="47">
+        <v>8</v>
+      </c>
+      <c r="BZ24" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA24" s="10">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B25" s="21">
         <v>22</v>
       </c>
@@ -5605,8 +5935,20 @@
       <c r="BV25" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX25" s="10">
+        <v>22</v>
+      </c>
+      <c r="BY25" s="47">
+        <v>10</v>
+      </c>
+      <c r="BZ25" s="46">
+        <v>43771</v>
+      </c>
+      <c r="CA25" s="10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="26" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B26" s="21">
         <v>23</v>
       </c>
@@ -5727,8 +6069,20 @@
       <c r="BV26" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX26" s="10">
+        <v>23</v>
+      </c>
+      <c r="BY26" s="47">
+        <v>4</v>
+      </c>
+      <c r="BZ26" s="46">
+        <v>43757</v>
+      </c>
+      <c r="CA26" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B27" s="21">
         <v>24</v>
       </c>
@@ -5844,8 +6198,20 @@
       <c r="BV27" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX27" s="10">
+        <v>24</v>
+      </c>
+      <c r="BY27" s="10">
+        <v>4</v>
+      </c>
+      <c r="BZ27" s="46">
+        <v>43685</v>
+      </c>
+      <c r="CA27" s="10">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B28" s="21">
         <v>25</v>
       </c>
@@ -5960,8 +6326,20 @@
       <c r="BV28" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX28" s="10">
+        <v>25</v>
+      </c>
+      <c r="BY28" s="10">
+        <v>1</v>
+      </c>
+      <c r="BZ28" s="46">
+        <v>43631</v>
+      </c>
+      <c r="CA28" s="10">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B29" s="40">
         <v>26</v>
       </c>
@@ -6058,8 +6436,20 @@
       <c r="BV29" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX29" s="10">
+        <v>26</v>
+      </c>
+      <c r="BY29" s="10">
+        <v>6</v>
+      </c>
+      <c r="BZ29" s="46">
+        <v>43498</v>
+      </c>
+      <c r="CA29" s="10">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B30" s="40">
         <v>27</v>
       </c>
@@ -6147,8 +6537,20 @@
       <c r="BV30" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX30" s="10">
+        <v>27</v>
+      </c>
+      <c r="BY30" s="10">
+        <v>2</v>
+      </c>
+      <c r="BZ30" s="46">
+        <v>43698</v>
+      </c>
+      <c r="CA30" s="10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B31" s="40">
         <v>28</v>
       </c>
@@ -6236,8 +6638,20 @@
       <c r="BV31" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX31" s="10">
+        <v>28</v>
+      </c>
+      <c r="BY31" s="10">
+        <v>12</v>
+      </c>
+      <c r="BZ31" s="46">
+        <v>43498</v>
+      </c>
+      <c r="CA31" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E32" s="20"/>
       <c r="H32" s="21">
         <v>29</v>
@@ -6292,8 +6706,20 @@
       <c r="BV32" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX32" s="10">
+        <v>29</v>
+      </c>
+      <c r="BY32" s="10">
+        <v>12</v>
+      </c>
+      <c r="BZ32" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA32" s="10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E33" s="20"/>
       <c r="H33" s="21">
         <v>30</v>
@@ -6348,8 +6774,20 @@
       <c r="BV33" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX33" s="10">
+        <v>30</v>
+      </c>
+      <c r="BY33" s="10">
+        <v>6</v>
+      </c>
+      <c r="BZ33" s="46">
+        <v>43656</v>
+      </c>
+      <c r="CA33" s="10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E34" s="20"/>
       <c r="H34" s="21">
         <v>31</v>
@@ -6404,8 +6842,20 @@
       <c r="BV34" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX34" s="10">
+        <v>31</v>
+      </c>
+      <c r="BY34" s="10">
+        <v>1</v>
+      </c>
+      <c r="BZ34" s="46">
+        <v>43781</v>
+      </c>
+      <c r="CA34" s="10">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="35" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E35" s="20"/>
       <c r="H35" s="21">
         <v>32</v>
@@ -6460,8 +6910,20 @@
       <c r="BV35" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX35" s="10">
+        <v>32</v>
+      </c>
+      <c r="BY35" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ35" s="46">
+        <v>43527</v>
+      </c>
+      <c r="CA35" s="10">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="36" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E36" s="20"/>
       <c r="H36" s="21">
         <v>33</v>
@@ -6516,8 +6978,20 @@
       <c r="BV36" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX36" s="10">
+        <v>33</v>
+      </c>
+      <c r="BY36" s="10">
+        <v>7</v>
+      </c>
+      <c r="BZ36" s="46">
+        <v>43639</v>
+      </c>
+      <c r="CA36" s="10">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="37" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E37" s="20"/>
       <c r="H37" s="21">
         <v>34</v>
@@ -6572,8 +7046,20 @@
       <c r="BV37" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX37" s="10">
+        <v>34</v>
+      </c>
+      <c r="BY37" s="10">
+        <v>10</v>
+      </c>
+      <c r="BZ37" s="46">
+        <v>43484</v>
+      </c>
+      <c r="CA37" s="10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E38" s="20"/>
       <c r="H38" s="21">
         <v>35</v>
@@ -6628,8 +7114,20 @@
       <c r="BV38" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX38" s="10">
+        <v>35</v>
+      </c>
+      <c r="BY38" s="10">
+        <v>14</v>
+      </c>
+      <c r="BZ38" s="46">
+        <v>43748</v>
+      </c>
+      <c r="CA38" s="10">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E39" s="20"/>
       <c r="H39" s="21">
         <v>36</v>
@@ -6684,8 +7182,20 @@
       <c r="BV39" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX39" s="10">
+        <v>36</v>
+      </c>
+      <c r="BY39" s="10">
+        <v>13</v>
+      </c>
+      <c r="BZ39" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA39" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E40" s="20"/>
       <c r="H40" s="21">
         <v>37</v>
@@ -6740,8 +7250,20 @@
       <c r="BV40" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX40" s="10">
+        <v>37</v>
+      </c>
+      <c r="BY40" s="10">
+        <v>4</v>
+      </c>
+      <c r="BZ40" s="46">
+        <v>43639</v>
+      </c>
+      <c r="CA40" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="H41" s="21">
         <v>38</v>
       </c>
@@ -6795,8 +7317,20 @@
       <c r="BV41" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX41" s="48">
+        <v>38</v>
+      </c>
+      <c r="BY41" s="48">
+        <v>2</v>
+      </c>
+      <c r="BZ41" s="46">
+        <v>43484</v>
+      </c>
+      <c r="CA41" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="H42" s="21">
         <v>39</v>
       </c>
@@ -6850,8 +7384,20 @@
       <c r="BV42" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX42" s="10">
+        <v>39</v>
+      </c>
+      <c r="BY42" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ42" s="46">
+        <v>43748</v>
+      </c>
+      <c r="CA42" s="49">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="H43" s="21">
         <v>40</v>
       </c>
@@ -6905,8 +7451,20 @@
       <c r="BV43" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX43" s="10">
+        <v>40</v>
+      </c>
+      <c r="BY43" s="47">
+        <v>8</v>
+      </c>
+      <c r="BZ43" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA43" s="49">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="44" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="H44" s="21">
         <v>41</v>
       </c>
@@ -6961,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH45" s="20"/>
       <c r="BC45" s="21">
         <v>42</v>
@@ -7004,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH46" s="20"/>
       <c r="BC46" s="21">
         <v>43</v>
@@ -7047,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH47" s="20"/>
       <c r="BC47" s="21">
         <v>44</v>
@@ -7090,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH48" s="20"/>
       <c r="BC48" s="21">
         <v>45</v>
@@ -7133,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH49" s="20"/>
       <c r="BC49" s="21">
         <v>46</v>
@@ -7176,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH50" s="20"/>
       <c r="BC50" s="21">
         <v>47</v>
@@ -7219,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH51" s="20"/>
       <c r="BC51" s="21">
         <v>48</v>
@@ -7262,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH52" s="20"/>
       <c r="BC52" s="21">
         <v>49</v>
@@ -7305,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH53" s="20"/>
       <c r="BC53" s="21">
         <v>50</v>
@@ -7348,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH54" s="20"/>
       <c r="BC54" s="21">
         <v>51</v>
@@ -7391,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH55" s="20"/>
       <c r="BC55" s="21">
         <v>52</v>
@@ -7434,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH56" s="20"/>
       <c r="BC56" s="21">
         <v>53</v>
@@ -7477,7 +8035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH57" s="20"/>
       <c r="BC57" s="21">
         <v>54</v>
@@ -7520,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH58" s="20"/>
       <c r="BC58" s="21">
         <v>55</v>
@@ -7563,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH59" s="20"/>
       <c r="BC59" s="21">
         <v>56</v>
@@ -7606,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH60" s="20"/>
       <c r="BC60" s="21">
         <v>57</v>
@@ -7649,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH61" s="20"/>
       <c r="BC61" s="21">
         <v>58</v>
@@ -7692,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH62" s="20"/>
       <c r="BC62" s="21">
         <v>59</v>
@@ -7735,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH63" s="20"/>
       <c r="BC63" s="21">
         <v>60</v>
@@ -7778,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH64" s="20"/>
       <c r="BC64" s="21">
         <v>61</v>
@@ -7820,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH65" s="20"/>
       <c r="BC65" s="21">
         <v>62</v>
@@ -7862,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH66" s="20"/>
       <c r="BC66" s="21">
         <v>63</v>
@@ -7904,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH67" s="20"/>
       <c r="BC67" s="21">
         <v>64</v>
@@ -7946,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH68" s="20"/>
       <c r="BC68" s="21">
         <v>65</v>
@@ -7988,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH69" s="20"/>
       <c r="BC69" s="21">
         <v>66</v>
@@ -8030,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH70" s="20"/>
       <c r="BC70" s="21">
         <v>67</v>
@@ -8072,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH71" s="20"/>
       <c r="BC71" s="21">
         <v>68</v>
@@ -8114,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH72" s="20"/>
       <c r="BC72" s="21">
         <v>69</v>
@@ -8156,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH73" s="20"/>
       <c r="BC73" s="21">
         <v>70</v>
@@ -8198,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH74" s="20"/>
       <c r="BC74" s="21">
         <v>71</v>
@@ -8240,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH75" s="20"/>
       <c r="BC75" s="21">
         <v>72</v>
@@ -8282,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH76" s="20"/>
       <c r="BC76" s="21">
         <v>73</v>
@@ -8324,7 +8882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="34:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="34:74" ht="30" customHeight="1">
       <c r="BC77" s="21">
         <v>74</v>
       </c>
@@ -8365,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="34:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="34:74" ht="30" customHeight="1">
       <c r="BC78" s="21">
         <v>75</v>
       </c>
@@ -8406,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="34:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="34:74" ht="30" customHeight="1">
       <c r="BC79" s="21">
         <v>76</v>
       </c>
@@ -8447,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="34:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="34:74" ht="30" customHeight="1">
       <c r="BC80" s="21">
         <v>77</v>
       </c>
@@ -8488,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="55:74" ht="30" customHeight="1">
       <c r="BC81" s="21">
         <v>78</v>
       </c>
@@ -8529,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="55:74" ht="30" customHeight="1">
       <c r="BC82" s="21">
         <v>79</v>
       </c>
@@ -8570,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="55:74" ht="30" customHeight="1">
       <c r="BC83" s="21">
         <v>80</v>
       </c>
@@ -8611,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="55:74" ht="30" customHeight="1">
       <c r="BC84" s="21">
         <v>81</v>
       </c>
@@ -8652,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="55:74" ht="30" customHeight="1">
       <c r="BC85" s="21">
         <v>82</v>
       </c>
@@ -8693,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="55:74" ht="30" customHeight="1">
       <c r="BC86" s="21">
         <v>83</v>
       </c>
@@ -8734,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="55:74" ht="30" customHeight="1">
       <c r="BC87" s="21">
         <v>84</v>
       </c>
@@ -8775,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="55:74" ht="30" customHeight="1">
       <c r="BC88" s="21">
         <v>85</v>
       </c>
@@ -8816,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="55:74" ht="30" customHeight="1">
       <c r="BC89" s="20"/>
       <c r="BD89" s="1"/>
       <c r="BE89" s="4"/>
@@ -8830,7 +9388,7 @@
       <c r="BO89" s="16"/>
       <c r="BQ89" s="1"/>
     </row>
-    <row r="90" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="55:74" ht="30" customHeight="1">
       <c r="BC90" s="20"/>
       <c r="BD90" s="1"/>
       <c r="BE90" s="4"/>
@@ -8844,7 +9402,7 @@
       <c r="BO90" s="16"/>
       <c r="BQ90" s="1"/>
     </row>
-    <row r="91" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="55:74" ht="30" customHeight="1">
       <c r="BC91" s="20"/>
       <c r="BD91" s="1"/>
       <c r="BE91" s="4"/>
@@ -8858,7 +9416,7 @@
       <c r="BO91" s="16"/>
       <c r="BQ91" s="1"/>
     </row>
-    <row r="92" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="55:74" ht="30" customHeight="1">
       <c r="BC92" s="20"/>
       <c r="BD92" s="1"/>
       <c r="BE92" s="4"/>
@@ -8872,7 +9430,7 @@
       <c r="BO92" s="16"/>
       <c r="BQ92" s="1"/>
     </row>
-    <row r="93" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="55:74" ht="30" customHeight="1">
       <c r="BC93" s="20"/>
       <c r="BD93" s="20"/>
       <c r="BE93" s="4"/>
@@ -8886,7 +9444,7 @@
       <c r="BO93" s="16"/>
       <c r="BQ93" s="1"/>
     </row>
-    <row r="94" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="55:74" ht="30" customHeight="1">
       <c r="BC94" s="20"/>
       <c r="BD94" s="20"/>
       <c r="BE94" s="4"/>
@@ -8900,7 +9458,7 @@
       <c r="BO94" s="16"/>
       <c r="BQ94" s="1"/>
     </row>
-    <row r="95" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="55:74" ht="30" customHeight="1">
       <c r="BC95" s="20"/>
       <c r="BD95" s="20"/>
       <c r="BE95" s="4"/>
@@ -8914,7 +9472,7 @@
       <c r="BO95" s="16"/>
       <c r="BQ95" s="1"/>
     </row>
-    <row r="96" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="55:74" ht="30" customHeight="1">
       <c r="BC96" s="20"/>
       <c r="BD96" s="20"/>
       <c r="BF96" s="23"/>
@@ -8927,10 +9485,11 @@
       <c r="BQ96" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="BX2:CA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8938,14 +9497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/infoway_campus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="248">
   <si>
     <t>ID</t>
   </si>
@@ -714,6 +714,66 @@
   </si>
   <si>
     <t>Student_order Table</t>
+  </si>
+  <si>
+    <t>Books Table</t>
+  </si>
+  <si>
+    <t>bookName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>bookID (PK)</t>
+  </si>
+  <si>
+    <t>newbooks Table</t>
+  </si>
+  <si>
+    <t>PDF File</t>
+  </si>
+  <si>
+    <t>hBase</t>
+  </si>
+  <si>
+    <t>Word File</t>
+  </si>
+  <si>
+    <t>Hardcover</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Paperback</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>ASDM</t>
+  </si>
+  <si>
+    <t>Core Java</t>
+  </si>
+  <si>
+    <t>Adv. Java</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>OSC</t>
+  </si>
+  <si>
+    <t>HTML</t>
   </si>
 </sst>
 </file>
@@ -837,7 +897,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,11 +1032,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1294,11 +1357,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="5"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
@@ -2087,11 +2150,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:CA96"/>
+  <dimension ref="B2:CK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CF35" sqref="CF35"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CM1" sqref="CM1:CN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2173,10 +2236,20 @@
     <col min="76" max="76" width="9.140625" style="6"/>
     <col min="77" max="77" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="79" max="16384" width="9.140625" style="6"/>
+    <col min="79" max="79" width="9.140625" style="6"/>
+    <col min="80" max="80" width="2.5703125" style="6" customWidth="1"/>
+    <col min="81" max="81" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11" style="6" customWidth="1"/>
+    <col min="83" max="83" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.140625" style="6"/>
+    <col min="85" max="85" width="2.5703125" style="6" customWidth="1"/>
+    <col min="86" max="86" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.28515625" style="6" customWidth="1"/>
+    <col min="88" max="88" width="11.140625" style="6" customWidth="1"/>
+    <col min="89" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:79" ht="30" customHeight="1">
+    <row r="2" spans="2:89" ht="30" customHeight="1">
       <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
@@ -2212,22 +2285,22 @@
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
       <c r="AH2" s="5"/>
-      <c r="AJ2" s="50" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AN2" s="50" t="s">
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AN2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
       <c r="AR2" s="8" t="s">
         <v>23</v>
       </c>
@@ -2265,14 +2338,26 @@
       <c r="BT2" s="5"/>
       <c r="BU2" s="5"/>
       <c r="BV2" s="5"/>
-      <c r="BX2" s="51" t="s">
+      <c r="BX2" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="BY2" s="51"/>
-      <c r="BZ2" s="51"/>
-      <c r="CA2" s="51"/>
-    </row>
-    <row r="3" spans="2:79" ht="30" customHeight="1">
+      <c r="BY2" s="52"/>
+      <c r="BZ2" s="52"/>
+      <c r="CA2" s="52"/>
+      <c r="CC2" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="CD2" s="52"/>
+      <c r="CE2" s="52"/>
+      <c r="CF2" s="52"/>
+      <c r="CH2" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="CI2" s="52"/>
+      <c r="CJ2" s="52"/>
+      <c r="CK2" s="52"/>
+    </row>
+    <row r="3" spans="2:89" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>88</v>
       </c>
@@ -2465,8 +2550,32 @@
       <c r="CA3" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC3" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="CD3" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="CE3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="CF3" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="CH3" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="CI3" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="CJ3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="CK3" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="21">
         <v>1</v>
       </c>
@@ -2661,8 +2770,32 @@
       <c r="CA4" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC4" s="21">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE4" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF4" s="21">
+        <v>1200</v>
+      </c>
+      <c r="CH4" s="50">
+        <v>1</v>
+      </c>
+      <c r="CI4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ4" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK4" s="50">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B5" s="21">
         <v>2</v>
       </c>
@@ -2857,8 +2990,32 @@
       <c r="CA5" s="10">
         <v>2500</v>
       </c>
-    </row>
-    <row r="6" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC5" s="21">
+        <v>2</v>
+      </c>
+      <c r="CD5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE5" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF5" s="21">
+        <v>1000</v>
+      </c>
+      <c r="CH5" s="50">
+        <v>2</v>
+      </c>
+      <c r="CI5" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="CJ5" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="CK5" s="50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="21">
         <v>3</v>
       </c>
@@ -3053,8 +3210,32 @@
       <c r="CA6" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC6" s="21">
+        <v>3</v>
+      </c>
+      <c r="CD6" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="CE6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="CF6" s="21">
+        <v>950</v>
+      </c>
+      <c r="CH6" s="50">
+        <v>3</v>
+      </c>
+      <c r="CI6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="CJ6" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="CK6" s="50">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="21">
         <v>4</v>
       </c>
@@ -3249,8 +3430,32 @@
       <c r="CA7" s="10">
         <v>340</v>
       </c>
-    </row>
-    <row r="8" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC7" s="21">
+        <v>4</v>
+      </c>
+      <c r="CD7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE7" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="CF7" s="21">
+        <v>1400</v>
+      </c>
+      <c r="CH7" s="50">
+        <v>4</v>
+      </c>
+      <c r="CI7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="CJ7" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="CK7" s="50">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="21">
         <v>5</v>
       </c>
@@ -3420,8 +3625,32 @@
       <c r="CA8" s="10">
         <v>655</v>
       </c>
-    </row>
-    <row r="9" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC8" s="21">
+        <v>5</v>
+      </c>
+      <c r="CD8" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="CE8" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="CF8" s="21">
+        <v>1225</v>
+      </c>
+      <c r="CH8" s="50">
+        <v>5</v>
+      </c>
+      <c r="CI8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ8" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="CK8" s="50">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="21">
         <v>6</v>
       </c>
@@ -3591,8 +3820,32 @@
       <c r="CA9" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC9" s="21">
+        <v>6</v>
+      </c>
+      <c r="CD9" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="CE9" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF9" s="21">
+        <v>650</v>
+      </c>
+      <c r="CH9" s="50">
+        <v>6</v>
+      </c>
+      <c r="CI9" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="CJ9" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK9" s="50">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="21">
         <v>7</v>
       </c>
@@ -3762,8 +4015,32 @@
       <c r="CA10" s="10">
         <v>4000</v>
       </c>
-    </row>
-    <row r="11" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC10" s="21">
+        <v>7</v>
+      </c>
+      <c r="CD10" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="CE10" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="CF10" s="21">
+        <v>700</v>
+      </c>
+      <c r="CH10" s="50">
+        <v>7</v>
+      </c>
+      <c r="CI10" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="CJ10" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="CK10" s="50">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="21">
         <v>8</v>
       </c>
@@ -3925,8 +4202,32 @@
       <c r="CA11" s="10">
         <v>1270</v>
       </c>
-    </row>
-    <row r="12" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC11" s="21">
+        <v>8</v>
+      </c>
+      <c r="CD11" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="CE11" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF11" s="21">
+        <v>500</v>
+      </c>
+      <c r="CH11" s="50">
+        <v>8</v>
+      </c>
+      <c r="CI11" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="CJ11" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK11" s="50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="21">
         <v>9</v>
       </c>
@@ -4082,8 +4383,32 @@
       <c r="CA12" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC12" s="21">
+        <v>9</v>
+      </c>
+      <c r="CD12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="CE12" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="CF12" s="21">
+        <v>2500</v>
+      </c>
+      <c r="CH12" s="50">
+        <v>9</v>
+      </c>
+      <c r="CI12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="CJ12" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="CK12" s="50">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="21">
         <v>10</v>
       </c>
@@ -4239,8 +4564,32 @@
       <c r="CA13" s="10">
         <v>2500</v>
       </c>
-    </row>
-    <row r="14" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC13" s="21">
+        <v>10</v>
+      </c>
+      <c r="CD13" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="CE13" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF13" s="21">
+        <v>1500</v>
+      </c>
+      <c r="CH13" s="50">
+        <v>10</v>
+      </c>
+      <c r="CI13" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="CJ13" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK13" s="50">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="21">
         <v>11</v>
       </c>
@@ -4396,8 +4745,32 @@
       <c r="CA14" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="CC14" s="21">
+        <v>11</v>
+      </c>
+      <c r="CD14" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="CE14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="CF14" s="21">
+        <v>1800</v>
+      </c>
+      <c r="CH14" s="50">
+        <v>11</v>
+      </c>
+      <c r="CI14" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="CJ14" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="CK14" s="50">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="21">
         <v>12</v>
       </c>
@@ -4554,7 +4927,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="2:89" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="21">
         <v>13</v>
       </c>
@@ -9485,11 +9858,13 @@
       <c r="BQ96" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="CH2:CK2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CC2:CF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
